--- a/1st February to 28th February TSA data.xlsx
+++ b/1st February to 28th February TSA data.xlsx
@@ -13471,7 +13471,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>3624</v>
+        <v>3942</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>3951</v>
+        <v>4294</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>2684</v>
+        <v>2924</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -13594,7 +13594,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>3712</v>
+        <v>4036</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>3536</v>
+        <v>3844</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -13717,7 +13717,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3117</v>
+        <v>3394</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>3881</v>
+        <v>4220</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>3347</v>
+        <v>3643</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>3372</v>
+        <v>3669</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>1460</v>
+        <v>1591</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>2584</v>
+        <v>2813</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>857</v>
+        <v>942</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>2784</v>
+        <v>3027</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>1922</v>
+        <v>2088</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -14168,7 +14168,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>1291</v>
+        <v>1409</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -14209,7 +14209,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>3142</v>
+        <v>3420</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>2514</v>
+        <v>2740</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>1086</v>
+        <v>1187</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -14373,7 +14373,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>3415</v>
+        <v>3715</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>2739</v>
+        <v>2980</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -14455,7 +14455,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>1474</v>
+        <v>1605</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -14496,7 +14496,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>3455</v>
+        <v>3760</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -14537,7 +14537,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>2545</v>
+        <v>2771</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>1245</v>
+        <v>1358</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>3082</v>
+        <v>3352</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
@@ -14742,7 +14742,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>3232</v>
+        <v>3518</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>2786</v>
+        <v>3029</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>3860</v>
+        <v>4198</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -14865,7 +14865,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>1572</v>
+        <v>1711</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>4158</v>
+        <v>4521</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>1080</v>
+        <v>1180</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>975</v>
+        <v>1069</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>1694</v>
+        <v>1843</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>2893</v>
+        <v>3150</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>1615</v>
+        <v>1757</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -15234,7 +15234,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>2669</v>
+        <v>2909</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>2238</v>
+        <v>2440</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>3617</v>
+        <v>3935</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -15439,7 +15439,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>3589</v>
+        <v>3905</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -15480,7 +15480,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>2562</v>
+        <v>2789</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>4341</v>
+        <v>4713</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -15562,7 +15562,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
@@ -15603,7 +15603,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>2435</v>
+        <v>2657</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>3460</v>
+        <v>3765</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -15685,7 +15685,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>3841</v>
+        <v>4176</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>3550</v>
+        <v>3859</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>788</v>
+        <v>869</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>598</v>
+        <v>660</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>790</v>
+        <v>871</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
@@ -15890,7 +15890,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>4554</v>
+        <v>4942</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
@@ -15931,7 +15931,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>1018</v>
+        <v>1115</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>1855</v>
+        <v>2015</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
@@ -16054,7 +16054,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>2259</v>
+        <v>2461</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>1698</v>
+        <v>1847</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>4531</v>
+        <v>4918</v>
       </c>
       <c r="B67" t="s">
         <v>81</v>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>3690</v>
+        <v>4013</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
@@ -16218,7 +16218,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
         <v>83</v>
@@ -16259,7 +16259,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>2075</v>
+        <v>2256</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>3832</v>
+        <v>4167</v>
       </c>
       <c r="B71" t="s">
         <v>85</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>3705</v>
+        <v>4029</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>898</v>
+        <v>987</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>2670</v>
+        <v>2910</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>1495</v>
+        <v>1629</v>
       </c>
       <c r="B75" t="s">
         <v>89</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>2805</v>
+        <v>3051</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>1744</v>
+        <v>1897</v>
       </c>
       <c r="B77" t="s">
         <v>91</v>
@@ -16587,7 +16587,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>1196</v>
+        <v>1305</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
@@ -16628,7 +16628,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>859</v>
+        <v>944</v>
       </c>
       <c r="B79" t="s">
         <v>93</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
@@ -16710,7 +16710,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>4662</v>
+        <v>5059</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
-        <v>2962</v>
+        <v>3224</v>
       </c>
       <c r="B82" t="s">
         <v>96</v>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
-        <v>3417</v>
+        <v>3717</v>
       </c>
       <c r="B83" t="s">
         <v>97</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
-        <v>4519</v>
+        <v>4906</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>2094</v>
+        <v>2281</v>
       </c>
       <c r="B85" t="s">
         <v>99</v>
@@ -16915,7 +16915,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
-        <v>1176</v>
+        <v>1284</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
-        <v>2702</v>
+        <v>2942</v>
       </c>
       <c r="B88" t="s">
         <v>102</v>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
-        <v>4141</v>
+        <v>4503</v>
       </c>
       <c r="B89" t="s">
         <v>103</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
-        <v>3386</v>
+        <v>3685</v>
       </c>
       <c r="B90" t="s">
         <v>104</v>
@@ -17120,7 +17120,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
-        <v>1159</v>
+        <v>1265</v>
       </c>
       <c r="B91" t="s">
         <v>105</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
-        <v>1204</v>
+        <v>1314</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
@@ -17202,7 +17202,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
-        <v>1249</v>
+        <v>1362</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
-        <v>2380</v>
+        <v>2596</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
@@ -17284,7 +17284,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
-        <v>1364</v>
+        <v>1487</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
-        <v>863</v>
+        <v>948</v>
       </c>
       <c r="B96" t="s">
         <v>110</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
-        <v>4088</v>
+        <v>4444</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
-        <v>3085</v>
+        <v>3356</v>
       </c>
       <c r="B98" t="s">
         <v>112</v>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
-        <v>4376</v>
+        <v>4751</v>
       </c>
       <c r="B99" t="s">
         <v>113</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
-        <v>1511</v>
+        <v>1646</v>
       </c>
       <c r="B100" t="s">
         <v>114</v>
@@ -17530,7 +17530,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
-        <v>1825</v>
+        <v>1981</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -17571,7 +17571,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
-        <v>2416</v>
+        <v>2636</v>
       </c>
       <c r="B102" t="s">
         <v>116</v>
@@ -17612,7 +17612,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
-        <v>4669</v>
+        <v>5066</v>
       </c>
       <c r="B103" t="s">
         <v>117</v>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
-        <v>2628</v>
+        <v>2863</v>
       </c>
       <c r="B104" t="s">
         <v>118</v>
@@ -17694,7 +17694,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
-        <v>4103</v>
+        <v>4460</v>
       </c>
       <c r="B105" t="s">
         <v>119</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
-        <v>1464</v>
+        <v>1595</v>
       </c>
       <c r="B106" t="s">
         <v>120</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
         <v>121</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>3038</v>
+        <v>3308</v>
       </c>
       <c r="B108" t="s">
         <v>122</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>2087</v>
+        <v>2269</v>
       </c>
       <c r="B109" t="s">
         <v>123</v>
@@ -17899,7 +17899,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>2264</v>
+        <v>2466</v>
       </c>
       <c r="B110" t="s">
         <v>124</v>
@@ -17940,7 +17940,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
-        <v>2092</v>
+        <v>2279</v>
       </c>
       <c r="B111" t="s">
         <v>125</v>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
-        <v>2428</v>
+        <v>2649</v>
       </c>
       <c r="B112" t="s">
         <v>126</v>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
-        <v>949</v>
+        <v>1042</v>
       </c>
       <c r="B113" t="s">
         <v>127</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>2067</v>
+        <v>2248</v>
       </c>
       <c r="B114" t="s">
         <v>128</v>
@@ -18104,7 +18104,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>4441</v>
+        <v>4819</v>
       </c>
       <c r="B115" t="s">
         <v>129</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>1052</v>
+        <v>1149</v>
       </c>
       <c r="B116" t="s">
         <v>130</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
-        <v>3286</v>
+        <v>3576</v>
       </c>
       <c r="B118" t="s">
         <v>132</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
-        <v>2832</v>
+        <v>3080</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
-        <v>1386</v>
+        <v>1509</v>
       </c>
       <c r="B120" t="s">
         <v>134</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>2411</v>
+        <v>2631</v>
       </c>
       <c r="B121" t="s">
         <v>135</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>2509</v>
+        <v>2735</v>
       </c>
       <c r="B122" t="s">
         <v>136</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
-        <v>1822</v>
+        <v>1977</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>2080</v>
+        <v>2261</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
@@ -18514,7 +18514,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>1932</v>
+        <v>2100</v>
       </c>
       <c r="B125" t="s">
         <v>139</v>
@@ -18555,7 +18555,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>1125</v>
+        <v>1230</v>
       </c>
       <c r="B126" t="s">
         <v>140</v>
@@ -18596,7 +18596,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>3262</v>
+        <v>3549</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>
@@ -18637,7 +18637,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
@@ -18678,7 +18678,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>2567</v>
+        <v>2794</v>
       </c>
       <c r="B129" t="s">
         <v>143</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>2653</v>
+        <v>2892</v>
       </c>
       <c r="B130" t="s">
         <v>144</v>
@@ -18760,7 +18760,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>1135</v>
+        <v>1240</v>
       </c>
       <c r="B131" t="s">
         <v>145</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
-        <v>877</v>
+        <v>965</v>
       </c>
       <c r="B132" t="s">
         <v>146</v>
@@ -18842,7 +18842,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B133" t="s">
         <v>147</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>2671</v>
+        <v>2911</v>
       </c>
       <c r="B134" t="s">
         <v>148</v>
@@ -18924,7 +18924,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="B135" t="s">
         <v>149</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>1237</v>
+        <v>1349</v>
       </c>
       <c r="B136" t="s">
         <v>150</v>
@@ -19006,7 +19006,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
-        <v>3063</v>
+        <v>3333</v>
       </c>
       <c r="B137" t="s">
         <v>151</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
-        <v>856</v>
+        <v>941</v>
       </c>
       <c r="B138" t="s">
         <v>152</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
-        <v>1565</v>
+        <v>1704</v>
       </c>
       <c r="B139" t="s">
         <v>153</v>
@@ -19129,7 +19129,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>4132</v>
+        <v>4493</v>
       </c>
       <c r="B140" t="s">
         <v>154</v>
@@ -19170,7 +19170,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
-        <v>2989</v>
+        <v>3253</v>
       </c>
       <c r="B141" t="s">
         <v>155</v>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>1266</v>
+        <v>1381</v>
       </c>
       <c r="B142" t="s">
         <v>156</v>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
-        <v>4482</v>
+        <v>4864</v>
       </c>
       <c r="B143" t="s">
         <v>157</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>1524</v>
+        <v>1659</v>
       </c>
       <c r="B144" t="s">
         <v>158</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>4083</v>
+        <v>4439</v>
       </c>
       <c r="B145" t="s">
         <v>159</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
-        <v>4122</v>
+        <v>4482</v>
       </c>
       <c r="B146" t="s">
         <v>160</v>
@@ -19416,7 +19416,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>1742</v>
+        <v>1894</v>
       </c>
       <c r="B147" t="s">
         <v>161</v>
@@ -19457,7 +19457,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>4179</v>
+        <v>4542</v>
       </c>
       <c r="B148" t="s">
         <v>162</v>
@@ -19498,7 +19498,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
-        <v>3764</v>
+        <v>4090</v>
       </c>
       <c r="B149" t="s">
         <v>163</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>3971</v>
+        <v>4318</v>
       </c>
       <c r="B150" t="s">
         <v>164</v>
@@ -19580,7 +19580,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="B151" t="s">
         <v>165</v>
@@ -19621,7 +19621,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="B152" t="s">
         <v>166</v>
@@ -19662,7 +19662,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>2426</v>
+        <v>2647</v>
       </c>
       <c r="B153" t="s">
         <v>167</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
-        <v>715</v>
+        <v>790</v>
       </c>
       <c r="B154" t="s">
         <v>168</v>
@@ -19744,7 +19744,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>4695</v>
+        <v>5093</v>
       </c>
       <c r="B155" t="s">
         <v>169</v>
@@ -19785,7 +19785,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>3772</v>
+        <v>4098</v>
       </c>
       <c r="B156" t="s">
         <v>170</v>
@@ -19826,7 +19826,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>3112</v>
+        <v>3388</v>
       </c>
       <c r="B157" t="s">
         <v>171</v>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B158" t="s">
         <v>172</v>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>2847</v>
+        <v>3096</v>
       </c>
       <c r="B159" t="s">
         <v>173</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
-        <v>1882</v>
+        <v>2044</v>
       </c>
       <c r="B160" t="s">
         <v>174</v>
@@ -19990,7 +19990,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
-        <v>2637</v>
+        <v>2874</v>
       </c>
       <c r="B161" t="s">
         <v>175</v>
@@ -20031,7 +20031,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
-        <v>958</v>
+        <v>1051</v>
       </c>
       <c r="B162" t="s">
         <v>176</v>
@@ -20072,7 +20072,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
-        <v>3056</v>
+        <v>3326</v>
       </c>
       <c r="B163" t="s">
         <v>177</v>
@@ -20113,7 +20113,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>4371</v>
+        <v>4745</v>
       </c>
       <c r="B164" t="s">
         <v>178</v>
@@ -20154,7 +20154,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
-        <v>785</v>
+        <v>865</v>
       </c>
       <c r="B165" t="s">
         <v>179</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B166" t="s">
         <v>180</v>
@@ -20236,7 +20236,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>3930</v>
+        <v>4272</v>
       </c>
       <c r="B167" t="s">
         <v>181</v>
@@ -20277,7 +20277,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>4594</v>
+        <v>4986</v>
       </c>
       <c r="B168" t="s">
         <v>182</v>
@@ -20318,7 +20318,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
-        <v>3950</v>
+        <v>4293</v>
       </c>
       <c r="B169" t="s">
         <v>183</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="B170" t="s">
         <v>184</v>
@@ -20400,7 +20400,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
-        <v>1466</v>
+        <v>1597</v>
       </c>
       <c r="B171" t="s">
         <v>185</v>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
-        <v>3384</v>
+        <v>3682</v>
       </c>
       <c r="B172" t="s">
         <v>186</v>
@@ -20482,7 +20482,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
-        <v>1536</v>
+        <v>1673</v>
       </c>
       <c r="B173" t="s">
         <v>187</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
-        <v>3667</v>
+        <v>3989</v>
       </c>
       <c r="B174" t="s">
         <v>188</v>
@@ -20564,7 +20564,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
-        <v>1081</v>
+        <v>1181</v>
       </c>
       <c r="B175" t="s">
         <v>189</v>
@@ -20605,7 +20605,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
-        <v>4117</v>
+        <v>4476</v>
       </c>
       <c r="B176" t="s">
         <v>190</v>
@@ -20646,7 +20646,7 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
-        <v>1343</v>
+        <v>1463</v>
       </c>
       <c r="B177" t="s">
         <v>191</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
-        <v>818</v>
+        <v>901</v>
       </c>
       <c r="B178" t="s">
         <v>192</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
-        <v>1236</v>
+        <v>1348</v>
       </c>
       <c r="B179" t="s">
         <v>193</v>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
-        <v>1321</v>
+        <v>1440</v>
       </c>
       <c r="B180" t="s">
         <v>194</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
-        <v>4364</v>
+        <v>4738</v>
       </c>
       <c r="B181" t="s">
         <v>195</v>
@@ -20851,7 +20851,7 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
-        <v>2898</v>
+        <v>3155</v>
       </c>
       <c r="B182" t="s">
         <v>196</v>
@@ -20892,7 +20892,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
-        <v>1715</v>
+        <v>1864</v>
       </c>
       <c r="B183" t="s">
         <v>197</v>
@@ -20933,7 +20933,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
-        <v>2119</v>
+        <v>2309</v>
       </c>
       <c r="B184" t="s">
         <v>198</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
-        <v>4240</v>
+        <v>4606</v>
       </c>
       <c r="B185" t="s">
         <v>199</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
-        <v>3808</v>
+        <v>4139</v>
       </c>
       <c r="B186" t="s">
         <v>200</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
-        <v>2299</v>
+        <v>2508</v>
       </c>
       <c r="B187" t="s">
         <v>201</v>
@@ -21097,7 +21097,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
-        <v>2713</v>
+        <v>2953</v>
       </c>
       <c r="B188" t="s">
         <v>202</v>
@@ -21138,7 +21138,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
-        <v>1623</v>
+        <v>1765</v>
       </c>
       <c r="B189" t="s">
         <v>203</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
-        <v>1554</v>
+        <v>1692</v>
       </c>
       <c r="B190" t="s">
         <v>204</v>
@@ -21220,7 +21220,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
-        <v>2946</v>
+        <v>3208</v>
       </c>
       <c r="B191" t="s">
         <v>205</v>
@@ -21261,7 +21261,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
-        <v>4603</v>
+        <v>4995</v>
       </c>
       <c r="B192" t="s">
         <v>206</v>
@@ -21302,7 +21302,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="1">
-        <v>4169</v>
+        <v>4532</v>
       </c>
       <c r="B193" t="s">
         <v>207</v>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="1">
-        <v>1071</v>
+        <v>1169</v>
       </c>
       <c r="B194" t="s">
         <v>208</v>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="1">
-        <v>842</v>
+        <v>926</v>
       </c>
       <c r="B195" t="s">
         <v>209</v>
@@ -21425,7 +21425,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="1">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="B196" t="s">
         <v>210</v>
@@ -21466,7 +21466,7 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="1">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="B197" t="s">
         <v>211</v>
@@ -21507,7 +21507,7 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="1">
-        <v>1059</v>
+        <v>1156</v>
       </c>
       <c r="B198" t="s">
         <v>212</v>
@@ -21548,7 +21548,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="1">
-        <v>1117</v>
+        <v>1222</v>
       </c>
       <c r="B199" t="s">
         <v>213</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="1">
-        <v>3039</v>
+        <v>3309</v>
       </c>
       <c r="B200" t="s">
         <v>214</v>
@@ -21630,7 +21630,7 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="1">
-        <v>4421</v>
+        <v>4797</v>
       </c>
       <c r="B201" t="s">
         <v>215</v>
@@ -21671,7 +21671,7 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="1">
-        <v>3281</v>
+        <v>3570</v>
       </c>
       <c r="B202" t="s">
         <v>216</v>
@@ -21712,7 +21712,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B203" t="s">
         <v>217</v>
@@ -21753,7 +21753,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="1">
-        <v>2703</v>
+        <v>2943</v>
       </c>
       <c r="B204" t="s">
         <v>218</v>
@@ -21794,7 +21794,7 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="1">
-        <v>4011</v>
+        <v>4360</v>
       </c>
       <c r="B205" t="s">
         <v>219</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="1">
-        <v>2541</v>
+        <v>2767</v>
       </c>
       <c r="B206" t="s">
         <v>220</v>
@@ -21876,7 +21876,7 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="1">
-        <v>3685</v>
+        <v>4008</v>
       </c>
       <c r="B207" t="s">
         <v>221</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="1">
-        <v>3411</v>
+        <v>3711</v>
       </c>
       <c r="B208" t="s">
         <v>222</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="1">
-        <v>3699</v>
+        <v>4022</v>
       </c>
       <c r="B209" t="s">
         <v>223</v>
@@ -21999,7 +21999,7 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="1">
-        <v>3093</v>
+        <v>3366</v>
       </c>
       <c r="B210" t="s">
         <v>224</v>
@@ -22040,7 +22040,7 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="1">
-        <v>2205</v>
+        <v>2403</v>
       </c>
       <c r="B211" t="s">
         <v>225</v>
@@ -22081,7 +22081,7 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="1">
-        <v>2682</v>
+        <v>2922</v>
       </c>
       <c r="B212" t="s">
         <v>226</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="1">
-        <v>3406</v>
+        <v>3706</v>
       </c>
       <c r="B213" t="s">
         <v>227</v>
@@ -22163,7 +22163,7 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="1">
-        <v>4682</v>
+        <v>5079</v>
       </c>
       <c r="B214" t="s">
         <v>228</v>
@@ -22204,7 +22204,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="1">
-        <v>3017</v>
+        <v>3283</v>
       </c>
       <c r="B215" t="s">
         <v>229</v>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="1">
-        <v>1603</v>
+        <v>1744</v>
       </c>
       <c r="B216" t="s">
         <v>230</v>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="1">
-        <v>691</v>
+        <v>764</v>
       </c>
       <c r="B217" t="s">
         <v>231</v>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="1">
-        <v>2319</v>
+        <v>2530</v>
       </c>
       <c r="B218" t="s">
         <v>232</v>
@@ -22368,7 +22368,7 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="1">
-        <v>2160</v>
+        <v>2351</v>
       </c>
       <c r="B219" t="s">
         <v>233</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="1">
-        <v>2095</v>
+        <v>2282</v>
       </c>
       <c r="B220" t="s">
         <v>234</v>
@@ -22450,7 +22450,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="1">
-        <v>3328</v>
+        <v>3622</v>
       </c>
       <c r="B221" t="s">
         <v>235</v>
@@ -22491,7 +22491,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="1">
-        <v>2766</v>
+        <v>3008</v>
       </c>
       <c r="B222" t="s">
         <v>236</v>
@@ -22532,7 +22532,7 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="1">
-        <v>1613</v>
+        <v>1755</v>
       </c>
       <c r="B223" t="s">
         <v>237</v>
@@ -22573,7 +22573,7 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="1">
-        <v>1318</v>
+        <v>1437</v>
       </c>
       <c r="B224" t="s">
         <v>238</v>
@@ -22614,7 +22614,7 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="1">
-        <v>3131</v>
+        <v>3408</v>
       </c>
       <c r="B225" t="s">
         <v>239</v>
@@ -22655,7 +22655,7 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="1">
-        <v>4685</v>
+        <v>5082</v>
       </c>
       <c r="B226" t="s">
         <v>240</v>
@@ -22696,7 +22696,7 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="1">
-        <v>4009</v>
+        <v>4358</v>
       </c>
       <c r="B227" t="s">
         <v>241</v>
@@ -22737,7 +22737,7 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="1">
-        <v>4576</v>
+        <v>4966</v>
       </c>
       <c r="B228" t="s">
         <v>242</v>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="1">
-        <v>2364</v>
+        <v>2578</v>
       </c>
       <c r="B229" t="s">
         <v>243</v>
@@ -22819,7 +22819,7 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="1">
-        <v>798</v>
+        <v>880</v>
       </c>
       <c r="B230" t="s">
         <v>244</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="1">
-        <v>4556</v>
+        <v>4944</v>
       </c>
       <c r="B231" t="s">
         <v>245</v>
@@ -22901,7 +22901,7 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="1">
-        <v>3436</v>
+        <v>3741</v>
       </c>
       <c r="B232" t="s">
         <v>246</v>
@@ -22942,7 +22942,7 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="1">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="B233" t="s">
         <v>247</v>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="1">
-        <v>2125</v>
+        <v>2315</v>
       </c>
       <c r="B234" t="s">
         <v>248</v>
@@ -23024,7 +23024,7 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="1">
-        <v>2771</v>
+        <v>3013</v>
       </c>
       <c r="B235" t="s">
         <v>249</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="1">
-        <v>1048</v>
+        <v>1145</v>
       </c>
       <c r="B236" t="s">
         <v>250</v>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="1">
-        <v>4544</v>
+        <v>4932</v>
       </c>
       <c r="B237" t="s">
         <v>251</v>
@@ -23147,7 +23147,7 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="1">
-        <v>4092</v>
+        <v>4448</v>
       </c>
       <c r="B238" t="s">
         <v>252</v>
@@ -23188,7 +23188,7 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="1">
-        <v>3094</v>
+        <v>3368</v>
       </c>
       <c r="B239" t="s">
         <v>253</v>
@@ -23229,7 +23229,7 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="1">
-        <v>4270</v>
+        <v>4636</v>
       </c>
       <c r="B240" t="s">
         <v>254</v>
@@ -23270,7 +23270,7 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="1">
-        <v>927</v>
+        <v>1020</v>
       </c>
       <c r="B241" t="s">
         <v>255</v>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="1">
-        <v>4650</v>
+        <v>5047</v>
       </c>
       <c r="B242" t="s">
         <v>256</v>
@@ -23352,7 +23352,7 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="1">
-        <v>2639</v>
+        <v>2876</v>
       </c>
       <c r="B243" t="s">
         <v>257</v>
@@ -23393,7 +23393,7 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="1">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="B244" t="s">
         <v>258</v>
@@ -23434,7 +23434,7 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="1">
-        <v>1230</v>
+        <v>1342</v>
       </c>
       <c r="B245" t="s">
         <v>259</v>
@@ -23475,7 +23475,7 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="1">
-        <v>613</v>
+        <v>676</v>
       </c>
       <c r="B246" t="s">
         <v>260</v>
@@ -23516,7 +23516,7 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="1">
-        <v>1708</v>
+        <v>1857</v>
       </c>
       <c r="B247" t="s">
         <v>261</v>
@@ -23557,7 +23557,7 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="1">
-        <v>4644</v>
+        <v>5041</v>
       </c>
       <c r="B248" t="s">
         <v>262</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="1">
-        <v>810</v>
+        <v>892</v>
       </c>
       <c r="B249" t="s">
         <v>263</v>
@@ -23639,7 +23639,7 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="1">
-        <v>4483</v>
+        <v>4865</v>
       </c>
       <c r="B250" t="s">
         <v>264</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="1">
-        <v>2348</v>
+        <v>2561</v>
       </c>
       <c r="B251" t="s">
         <v>265</v>
@@ -23721,7 +23721,7 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="1">
-        <v>2370</v>
+        <v>2584</v>
       </c>
       <c r="B252" t="s">
         <v>266</v>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="1">
-        <v>2378</v>
+        <v>2594</v>
       </c>
       <c r="B253" t="s">
         <v>267</v>
@@ -23803,7 +23803,7 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="1">
-        <v>1094</v>
+        <v>1196</v>
       </c>
       <c r="B254" t="s">
         <v>268</v>
@@ -23844,7 +23844,7 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="1">
-        <v>4648</v>
+        <v>5045</v>
       </c>
       <c r="B255" t="s">
         <v>269</v>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="1">
-        <v>3788</v>
+        <v>4116</v>
       </c>
       <c r="B256" t="s">
         <v>270</v>
@@ -23926,7 +23926,7 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="1">
-        <v>3132</v>
+        <v>3409</v>
       </c>
       <c r="B257" t="s">
         <v>271</v>
@@ -23967,7 +23967,7 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="1">
-        <v>1161</v>
+        <v>1267</v>
       </c>
       <c r="B258" t="s">
         <v>272</v>
@@ -24008,7 +24008,7 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="1">
-        <v>870</v>
+        <v>956</v>
       </c>
       <c r="B259" t="s">
         <v>273</v>
@@ -24049,7 +24049,7 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="1">
-        <v>1118</v>
+        <v>1223</v>
       </c>
       <c r="B260" t="s">
         <v>274</v>
@@ -24090,7 +24090,7 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="1">
-        <v>2431</v>
+        <v>2652</v>
       </c>
       <c r="B261" t="s">
         <v>275</v>
@@ -24131,7 +24131,7 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="1">
-        <v>1276</v>
+        <v>1393</v>
       </c>
       <c r="B262" t="s">
         <v>276</v>
@@ -24172,7 +24172,7 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="1">
-        <v>3604</v>
+        <v>3922</v>
       </c>
       <c r="B263" t="s">
         <v>277</v>
@@ -24213,7 +24213,7 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="1">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B264" t="s">
         <v>278</v>
@@ -24254,7 +24254,7 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="1">
-        <v>1926</v>
+        <v>2092</v>
       </c>
       <c r="B265" t="s">
         <v>279</v>
@@ -24295,7 +24295,7 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="1">
-        <v>4285</v>
+        <v>4652</v>
       </c>
       <c r="B266" t="s">
         <v>280</v>
@@ -24336,7 +24336,7 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="1">
-        <v>4232</v>
+        <v>4597</v>
       </c>
       <c r="B267" t="s">
         <v>281</v>
@@ -24377,7 +24377,7 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="1">
-        <v>4481</v>
+        <v>4863</v>
       </c>
       <c r="B268" t="s">
         <v>282</v>
@@ -24418,7 +24418,7 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="1">
-        <v>904</v>
+        <v>994</v>
       </c>
       <c r="B269" t="s">
         <v>283</v>
@@ -24459,7 +24459,7 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="1">
-        <v>4484</v>
+        <v>4867</v>
       </c>
       <c r="B270" t="s">
         <v>284</v>
@@ -24500,7 +24500,7 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="1">
-        <v>685</v>
+        <v>758</v>
       </c>
       <c r="B271" t="s">
         <v>285</v>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="1">
-        <v>3107</v>
+        <v>3381</v>
       </c>
       <c r="B272" t="s">
         <v>286</v>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="1">
-        <v>1999</v>
+        <v>2178</v>
       </c>
       <c r="B273" t="s">
         <v>287</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="1">
-        <v>2410</v>
+        <v>2630</v>
       </c>
       <c r="B274" t="s">
         <v>288</v>
@@ -24664,7 +24664,7 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="1">
-        <v>1449</v>
+        <v>1576</v>
       </c>
       <c r="B275" t="s">
         <v>289</v>
@@ -24705,7 +24705,7 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="1">
-        <v>3064</v>
+        <v>3334</v>
       </c>
       <c r="B276" t="s">
         <v>290</v>
@@ -24746,7 +24746,7 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="1">
-        <v>4250</v>
+        <v>4616</v>
       </c>
       <c r="B277" t="s">
         <v>291</v>
@@ -24787,7 +24787,7 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="1">
-        <v>2603</v>
+        <v>2833</v>
       </c>
       <c r="B278" t="s">
         <v>292</v>
@@ -24828,7 +24828,7 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="1">
-        <v>1763</v>
+        <v>1916</v>
       </c>
       <c r="B279" t="s">
         <v>293</v>
@@ -24869,7 +24869,7 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="1">
-        <v>3545</v>
+        <v>3853</v>
       </c>
       <c r="B280" t="s">
         <v>294</v>
@@ -24910,7 +24910,7 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="1">
-        <v>1182</v>
+        <v>1290</v>
       </c>
       <c r="B281" t="s">
         <v>295</v>
@@ -24951,7 +24951,7 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="1">
-        <v>1828</v>
+        <v>1984</v>
       </c>
       <c r="B282" t="s">
         <v>296</v>
@@ -24992,7 +24992,7 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="1">
-        <v>756</v>
+        <v>834</v>
       </c>
       <c r="B283" t="s">
         <v>297</v>
@@ -25033,7 +25033,7 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="1">
-        <v>3004</v>
+        <v>3270</v>
       </c>
       <c r="B284" t="s">
         <v>298</v>
@@ -25074,7 +25074,7 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="1">
-        <v>738</v>
+        <v>815</v>
       </c>
       <c r="B285" t="s">
         <v>299</v>
@@ -25115,7 +25115,7 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="1">
-        <v>1327</v>
+        <v>1446</v>
       </c>
       <c r="B286" t="s">
         <v>300</v>
@@ -25156,7 +25156,7 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="1">
-        <v>4314</v>
+        <v>4683</v>
       </c>
       <c r="B287" t="s">
         <v>301</v>
@@ -25197,7 +25197,7 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="1">
-        <v>960</v>
+        <v>1054</v>
       </c>
       <c r="B288" t="s">
         <v>302</v>
@@ -25238,7 +25238,7 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="1">
-        <v>2203</v>
+        <v>2401</v>
       </c>
       <c r="B289" t="s">
         <v>303</v>
@@ -25279,7 +25279,7 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="1">
-        <v>822</v>
+        <v>905</v>
       </c>
       <c r="B290" t="s">
         <v>304</v>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="1">
-        <v>2234</v>
+        <v>2436</v>
       </c>
       <c r="B291" t="s">
         <v>305</v>
@@ -25361,7 +25361,7 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="1">
-        <v>1207</v>
+        <v>1317</v>
       </c>
       <c r="B292" t="s">
         <v>306</v>
@@ -25402,7 +25402,7 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="1">
-        <v>1801</v>
+        <v>1956</v>
       </c>
       <c r="B293" t="s">
         <v>307</v>
@@ -25443,7 +25443,7 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="1">
-        <v>4111</v>
+        <v>4469</v>
       </c>
       <c r="B294" t="s">
         <v>308</v>
@@ -25484,7 +25484,7 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="1">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="B295" t="s">
         <v>309</v>
@@ -25525,7 +25525,7 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="1">
-        <v>1251</v>
+        <v>1364</v>
       </c>
       <c r="B296" t="s">
         <v>310</v>
@@ -25566,7 +25566,7 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="1">
-        <v>4490</v>
+        <v>4873</v>
       </c>
       <c r="B297" t="s">
         <v>311</v>
@@ -25607,7 +25607,7 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="1">
-        <v>1424</v>
+        <v>1550</v>
       </c>
       <c r="B298" t="s">
         <v>312</v>
@@ -25648,7 +25648,7 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="1">
-        <v>4378</v>
+        <v>4753</v>
       </c>
       <c r="B299" t="s">
         <v>313</v>
@@ -25689,7 +25689,7 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="1">
-        <v>2580</v>
+        <v>2809</v>
       </c>
       <c r="B300" t="s">
         <v>314</v>
@@ -25730,7 +25730,7 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="1">
-        <v>3530</v>
+        <v>3837</v>
       </c>
       <c r="B301" t="s">
         <v>315</v>
@@ -25771,7 +25771,7 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="1">
-        <v>2629</v>
+        <v>2866</v>
       </c>
       <c r="B302" t="s">
         <v>316</v>
@@ -25812,7 +25812,7 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="1">
-        <v>2710</v>
+        <v>2950</v>
       </c>
       <c r="B303" t="s">
         <v>317</v>
@@ -25853,7 +25853,7 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="1">
-        <v>1741</v>
+        <v>1893</v>
       </c>
       <c r="B304" t="s">
         <v>318</v>
@@ -25894,7 +25894,7 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="1">
-        <v>1912</v>
+        <v>2075</v>
       </c>
       <c r="B305" t="s">
         <v>319</v>
@@ -25935,7 +25935,7 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="1">
-        <v>4013</v>
+        <v>4362</v>
       </c>
       <c r="B306" t="s">
         <v>320</v>
@@ -25976,7 +25976,7 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="1">
-        <v>1200</v>
+        <v>1309</v>
       </c>
       <c r="B307" t="s">
         <v>321</v>
@@ -26017,7 +26017,7 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="1">
-        <v>824</v>
+        <v>907</v>
       </c>
       <c r="B308" t="s">
         <v>322</v>
@@ -26058,7 +26058,7 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="1">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="B309" t="s">
         <v>323</v>
@@ -26099,7 +26099,7 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="1">
-        <v>3853</v>
+        <v>4189</v>
       </c>
       <c r="B310" t="s">
         <v>324</v>
@@ -26140,7 +26140,7 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="1">
-        <v>1907</v>
+        <v>2070</v>
       </c>
       <c r="B311" t="s">
         <v>325</v>
@@ -26181,7 +26181,7 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="1">
-        <v>2293</v>
+        <v>2501</v>
       </c>
       <c r="B312" t="s">
         <v>326</v>
@@ -26222,7 +26222,7 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="1">
-        <v>1425</v>
+        <v>1551</v>
       </c>
       <c r="B313" t="s">
         <v>327</v>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="1">
-        <v>2966</v>
+        <v>3229</v>
       </c>
       <c r="B314" t="s">
         <v>328</v>
@@ -26304,7 +26304,7 @@
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="1">
-        <v>617</v>
+        <v>680</v>
       </c>
       <c r="B315" t="s">
         <v>329</v>
@@ -26345,7 +26345,7 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="1">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B316" t="s">
         <v>330</v>
@@ -26386,7 +26386,7 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="1">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="B317" t="s">
         <v>331</v>
@@ -26427,7 +26427,7 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="1">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="B318" t="s">
         <v>332</v>
@@ -26468,7 +26468,7 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="1">
-        <v>3868</v>
+        <v>4206</v>
       </c>
       <c r="B319" t="s">
         <v>333</v>
@@ -26509,7 +26509,7 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="1">
-        <v>2957</v>
+        <v>3219</v>
       </c>
       <c r="B320" t="s">
         <v>334</v>
@@ -26550,7 +26550,7 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="1">
-        <v>918</v>
+        <v>1010</v>
       </c>
       <c r="B321" t="s">
         <v>335</v>
@@ -26591,7 +26591,7 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="1">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B322" t="s">
         <v>336</v>
@@ -26632,7 +26632,7 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="1">
-        <v>3634</v>
+        <v>3953</v>
       </c>
       <c r="B323" t="s">
         <v>337</v>
@@ -26673,7 +26673,7 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="1">
-        <v>3253</v>
+        <v>3540</v>
       </c>
       <c r="B324" t="s">
         <v>338</v>
@@ -26714,7 +26714,7 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="1">
-        <v>2062</v>
+        <v>2243</v>
       </c>
       <c r="B325" t="s">
         <v>339</v>
@@ -26755,7 +26755,7 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="1">
-        <v>1011</v>
+        <v>1107</v>
       </c>
       <c r="B326" t="s">
         <v>340</v>
@@ -26796,7 +26796,7 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="1">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B327" t="s">
         <v>341</v>
@@ -26837,7 +26837,7 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="1">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="B328" t="s">
         <v>342</v>
@@ -26878,7 +26878,7 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="1">
-        <v>3055</v>
+        <v>3325</v>
       </c>
       <c r="B329" t="s">
         <v>343</v>
@@ -26919,7 +26919,7 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="1">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B330" t="s">
         <v>344</v>
@@ -26960,7 +26960,7 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="1">
-        <v>3611</v>
+        <v>3929</v>
       </c>
       <c r="B331" t="s">
         <v>345</v>
@@ -27001,7 +27001,7 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="1">
-        <v>3527</v>
+        <v>3834</v>
       </c>
       <c r="B332" t="s">
         <v>346</v>
@@ -27042,7 +27042,7 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="1">
-        <v>2494</v>
+        <v>2718</v>
       </c>
       <c r="B333" t="s">
         <v>347</v>
@@ -27083,7 +27083,7 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="1">
-        <v>2803</v>
+        <v>3049</v>
       </c>
       <c r="B334" t="s">
         <v>348</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="1">
-        <v>1384</v>
+        <v>1507</v>
       </c>
       <c r="B335" t="s">
         <v>349</v>
@@ -27165,7 +27165,7 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="1">
-        <v>1067</v>
+        <v>1165</v>
       </c>
       <c r="B336" t="s">
         <v>350</v>
@@ -27206,7 +27206,7 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="1">
-        <v>3002</v>
+        <v>3267</v>
       </c>
       <c r="B337" t="s">
         <v>351</v>
@@ -27247,7 +27247,7 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="1">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="B338" t="s">
         <v>352</v>
@@ -27288,7 +27288,7 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B339" t="s">
         <v>353</v>
@@ -27329,7 +27329,7 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="1">
-        <v>1038</v>
+        <v>1135</v>
       </c>
       <c r="B340" t="s">
         <v>354</v>
@@ -27370,7 +27370,7 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="1">
-        <v>3753</v>
+        <v>4078</v>
       </c>
       <c r="B341" t="s">
         <v>355</v>
@@ -27411,7 +27411,7 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="1">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="B342" t="s">
         <v>356</v>
@@ -27452,7 +27452,7 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="1">
-        <v>1577</v>
+        <v>1716</v>
       </c>
       <c r="B343" t="s">
         <v>357</v>
@@ -27493,7 +27493,7 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="1">
-        <v>2377</v>
+        <v>2592</v>
       </c>
       <c r="B344" t="s">
         <v>358</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="1">
-        <v>2406</v>
+        <v>2626</v>
       </c>
       <c r="B345" t="s">
         <v>359</v>
@@ -27575,7 +27575,7 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="1">
-        <v>891</v>
+        <v>980</v>
       </c>
       <c r="B346" t="s">
         <v>360</v>
@@ -27616,7 +27616,7 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="1">
-        <v>1075</v>
+        <v>1174</v>
       </c>
       <c r="B347" t="s">
         <v>361</v>
@@ -27657,7 +27657,7 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="1">
-        <v>4584</v>
+        <v>4974</v>
       </c>
       <c r="B348" t="s">
         <v>362</v>
@@ -27698,7 +27698,7 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="1">
-        <v>4099</v>
+        <v>4456</v>
       </c>
       <c r="B349" t="s">
         <v>363</v>
@@ -27739,7 +27739,7 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="1">
-        <v>3106</v>
+        <v>3380</v>
       </c>
       <c r="B350" t="s">
         <v>364</v>
@@ -27780,7 +27780,7 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="1">
-        <v>4418</v>
+        <v>4794</v>
       </c>
       <c r="B351" t="s">
         <v>365</v>
@@ -27821,7 +27821,7 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="1">
-        <v>4351</v>
+        <v>4724</v>
       </c>
       <c r="B352" t="s">
         <v>366</v>
@@ -27862,7 +27862,7 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="1">
-        <v>2729</v>
+        <v>2969</v>
       </c>
       <c r="B353" t="s">
         <v>367</v>
@@ -27903,7 +27903,7 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="1">
-        <v>3027</v>
+        <v>3295</v>
       </c>
       <c r="B354" t="s">
         <v>368</v>
@@ -27944,7 +27944,7 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="1">
-        <v>4611</v>
+        <v>5003</v>
       </c>
       <c r="B355" t="s">
         <v>369</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="1">
-        <v>4102</v>
+        <v>4459</v>
       </c>
       <c r="B356" t="s">
         <v>370</v>
@@ -28026,7 +28026,7 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="1">
-        <v>2397</v>
+        <v>2616</v>
       </c>
       <c r="B357" t="s">
         <v>371</v>
@@ -28067,7 +28067,7 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="1">
-        <v>3234</v>
+        <v>3520</v>
       </c>
       <c r="B358" t="s">
         <v>372</v>
@@ -28108,7 +28108,7 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="1">
-        <v>3768</v>
+        <v>4094</v>
       </c>
       <c r="B359" t="s">
         <v>373</v>
@@ -28149,7 +28149,7 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="1">
-        <v>1046</v>
+        <v>1143</v>
       </c>
       <c r="B360" t="s">
         <v>374</v>
@@ -28190,7 +28190,7 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="1">
-        <v>3180</v>
+        <v>3463</v>
       </c>
       <c r="B361" t="s">
         <v>375</v>
@@ -28231,7 +28231,7 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="1">
-        <v>4197</v>
+        <v>4561</v>
       </c>
       <c r="B362" t="s">
         <v>376</v>
@@ -28272,7 +28272,7 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="1">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="B363" t="s">
         <v>377</v>
@@ -28313,7 +28313,7 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="1">
-        <v>2020</v>
+        <v>2200</v>
       </c>
       <c r="B364" t="s">
         <v>378</v>
@@ -28354,7 +28354,7 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="1">
-        <v>3596</v>
+        <v>3912</v>
       </c>
       <c r="B365" t="s">
         <v>379</v>
@@ -28395,7 +28395,7 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="1">
-        <v>4318</v>
+        <v>4687</v>
       </c>
       <c r="B366" t="s">
         <v>380</v>
@@ -28436,7 +28436,7 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B367" t="s">
         <v>381</v>
@@ -28477,7 +28477,7 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="1">
-        <v>3783</v>
+        <v>4110</v>
       </c>
       <c r="B368" t="s">
         <v>382</v>
@@ -28518,7 +28518,7 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="1">
-        <v>2330</v>
+        <v>2541</v>
       </c>
       <c r="B369" t="s">
         <v>383</v>
@@ -28559,7 +28559,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="1">
-        <v>1833</v>
+        <v>1989</v>
       </c>
       <c r="B370" t="s">
         <v>384</v>
@@ -28600,7 +28600,7 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="1">
-        <v>1746</v>
+        <v>1899</v>
       </c>
       <c r="B371" t="s">
         <v>385</v>
@@ -28641,7 +28641,7 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="1">
-        <v>2500</v>
+        <v>2725</v>
       </c>
       <c r="B372" t="s">
         <v>386</v>
@@ -28682,7 +28682,7 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="1">
-        <v>3373</v>
+        <v>3670</v>
       </c>
       <c r="B373" t="s">
         <v>387</v>
@@ -28723,7 +28723,7 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="1">
-        <v>640</v>
+        <v>708</v>
       </c>
       <c r="B374" t="s">
         <v>388</v>
@@ -28764,7 +28764,7 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="1">
-        <v>858</v>
+        <v>943</v>
       </c>
       <c r="B375" t="s">
         <v>389</v>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="1">
-        <v>3239</v>
+        <v>3525</v>
       </c>
       <c r="B376" t="s">
         <v>390</v>
@@ -28846,7 +28846,7 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="1">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B377" t="s">
         <v>391</v>
@@ -28887,7 +28887,7 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="1">
-        <v>2730</v>
+        <v>2970</v>
       </c>
       <c r="B378" t="s">
         <v>392</v>
@@ -28928,7 +28928,7 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="1">
-        <v>3318</v>
+        <v>3611</v>
       </c>
       <c r="B379" t="s">
         <v>393</v>
@@ -28969,7 +28969,7 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="1">
-        <v>4514</v>
+        <v>4900</v>
       </c>
       <c r="B380" t="s">
         <v>394</v>
@@ -29010,7 +29010,7 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="1">
-        <v>1370</v>
+        <v>1493</v>
       </c>
       <c r="B381" t="s">
         <v>395</v>
@@ -29051,7 +29051,7 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="1">
-        <v>2385</v>
+        <v>2602</v>
       </c>
       <c r="B382" t="s">
         <v>396</v>
@@ -29092,7 +29092,7 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="1">
-        <v>1658</v>
+        <v>1803</v>
       </c>
       <c r="B383" t="s">
         <v>397</v>
@@ -29133,7 +29133,7 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="1">
-        <v>2083</v>
+        <v>2265</v>
       </c>
       <c r="B384" t="s">
         <v>398</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="1">
-        <v>955</v>
+        <v>1048</v>
       </c>
       <c r="B385" t="s">
         <v>399</v>
@@ -29215,7 +29215,7 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="1">
-        <v>516</v>
+        <v>569</v>
       </c>
       <c r="B386" t="s">
         <v>400</v>
@@ -29256,7 +29256,7 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="1">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B387" t="s">
         <v>401</v>
@@ -29297,7 +29297,7 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="1">
-        <v>945</v>
+        <v>1038</v>
       </c>
       <c r="B388" t="s">
         <v>402</v>
@@ -29338,7 +29338,7 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="1">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="B389" t="s">
         <v>403</v>
@@ -29379,7 +29379,7 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="1">
-        <v>2664</v>
+        <v>2904</v>
       </c>
       <c r="B390" t="s">
         <v>404</v>
@@ -29420,7 +29420,7 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="1">
-        <v>2230</v>
+        <v>2432</v>
       </c>
       <c r="B391" t="s">
         <v>405</v>
@@ -29461,7 +29461,7 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="1">
-        <v>1221</v>
+        <v>1333</v>
       </c>
       <c r="B392" t="s">
         <v>406</v>
@@ -29502,7 +29502,7 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="1">
-        <v>2391</v>
+        <v>2608</v>
       </c>
       <c r="B393" t="s">
         <v>407</v>
@@ -29543,7 +29543,7 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="1">
-        <v>3445</v>
+        <v>3750</v>
       </c>
       <c r="B394" t="s">
         <v>408</v>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="1">
-        <v>589</v>
+        <v>650</v>
       </c>
       <c r="B395" t="s">
         <v>409</v>
@@ -29625,7 +29625,7 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="1">
-        <v>3992</v>
+        <v>4341</v>
       </c>
       <c r="B396" t="s">
         <v>410</v>
@@ -29666,7 +29666,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="1">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="B397" t="s">
         <v>411</v>
@@ -29707,7 +29707,7 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="1">
-        <v>1063</v>
+        <v>1160</v>
       </c>
       <c r="B398" t="s">
         <v>412</v>
@@ -29748,7 +29748,7 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="1">
-        <v>3759</v>
+        <v>4085</v>
       </c>
       <c r="B399" t="s">
         <v>413</v>
@@ -29789,7 +29789,7 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="1">
-        <v>2471</v>
+        <v>2695</v>
       </c>
       <c r="B400" t="s">
         <v>414</v>
@@ -29830,7 +29830,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="1">
-        <v>4027</v>
+        <v>4377</v>
       </c>
       <c r="B401" t="s">
         <v>415</v>
@@ -29871,7 +29871,7 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="1">
-        <v>3059</v>
+        <v>3329</v>
       </c>
       <c r="B402" t="s">
         <v>416</v>
@@ -29912,7 +29912,7 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="1">
-        <v>838</v>
+        <v>922</v>
       </c>
       <c r="B403" t="s">
         <v>417</v>
@@ -29953,7 +29953,7 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="1">
-        <v>3809</v>
+        <v>4140</v>
       </c>
       <c r="B404" t="s">
         <v>418</v>
@@ -29994,7 +29994,7 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="1">
-        <v>2581</v>
+        <v>2810</v>
       </c>
       <c r="B405" t="s">
         <v>419</v>
@@ -30035,7 +30035,7 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="1">
-        <v>4248</v>
+        <v>4614</v>
       </c>
       <c r="B406" t="s">
         <v>420</v>
@@ -30076,7 +30076,7 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="1">
-        <v>718</v>
+        <v>793</v>
       </c>
       <c r="B407" t="s">
         <v>421</v>
@@ -30117,7 +30117,7 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="1">
-        <v>1824</v>
+        <v>1980</v>
       </c>
       <c r="B408" t="s">
         <v>422</v>
@@ -30158,7 +30158,7 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="1">
-        <v>1840</v>
+        <v>1996</v>
       </c>
       <c r="B409" t="s">
         <v>423</v>
@@ -30199,7 +30199,7 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="1">
-        <v>3385</v>
+        <v>3684</v>
       </c>
       <c r="B410" t="s">
         <v>424</v>
@@ -30240,7 +30240,7 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="1">
-        <v>2178</v>
+        <v>2371</v>
       </c>
       <c r="B411" t="s">
         <v>425</v>
@@ -30281,7 +30281,7 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="1">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="B412" t="s">
         <v>426</v>
@@ -30322,7 +30322,7 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="1">
-        <v>848</v>
+        <v>932</v>
       </c>
       <c r="B413" t="s">
         <v>427</v>
@@ -30363,7 +30363,7 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="1">
-        <v>3475</v>
+        <v>3780</v>
       </c>
       <c r="B414" t="s">
         <v>428</v>
@@ -30404,7 +30404,7 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="1">
-        <v>1869</v>
+        <v>2030</v>
       </c>
       <c r="B415" t="s">
         <v>429</v>
@@ -30445,7 +30445,7 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="1">
-        <v>3010</v>
+        <v>3276</v>
       </c>
       <c r="B416" t="s">
         <v>430</v>
@@ -30486,7 +30486,7 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="1">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="B417" t="s">
         <v>431</v>
@@ -30527,7 +30527,7 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="1">
-        <v>2454</v>
+        <v>2678</v>
       </c>
       <c r="B418" t="s">
         <v>432</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="1">
-        <v>1365</v>
+        <v>1488</v>
       </c>
       <c r="B419" t="s">
         <v>433</v>
@@ -30609,7 +30609,7 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="1">
-        <v>2568</v>
+        <v>2795</v>
       </c>
       <c r="B420" t="s">
         <v>434</v>
@@ -30650,7 +30650,7 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="1">
-        <v>3162</v>
+        <v>3444</v>
       </c>
       <c r="B421" t="s">
         <v>435</v>
@@ -30691,7 +30691,7 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="1">
-        <v>1356</v>
+        <v>1479</v>
       </c>
       <c r="B422" t="s">
         <v>436</v>
@@ -30732,7 +30732,7 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="1">
-        <v>2677</v>
+        <v>2917</v>
       </c>
       <c r="B423" t="s">
         <v>437</v>
@@ -30773,7 +30773,7 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="1">
-        <v>3202</v>
+        <v>3487</v>
       </c>
       <c r="B424" t="s">
         <v>438</v>
@@ -30814,7 +30814,7 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="1">
-        <v>1437</v>
+        <v>1564</v>
       </c>
       <c r="B425" t="s">
         <v>439</v>
@@ -30855,7 +30855,7 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="1">
-        <v>3625</v>
+        <v>3943</v>
       </c>
       <c r="B426" t="s">
         <v>440</v>
@@ -30896,7 +30896,7 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="1">
-        <v>2473</v>
+        <v>2697</v>
       </c>
       <c r="B427" t="s">
         <v>441</v>
@@ -30937,7 +30937,7 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="1">
-        <v>1339</v>
+        <v>1458</v>
       </c>
       <c r="B428" t="s">
         <v>442</v>
@@ -30978,7 +30978,7 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="1">
-        <v>3619</v>
+        <v>3937</v>
       </c>
       <c r="B429" t="s">
         <v>443</v>
@@ -31019,7 +31019,7 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="1">
-        <v>1529</v>
+        <v>1664</v>
       </c>
       <c r="B430" t="s">
         <v>444</v>
@@ -31060,7 +31060,7 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="1">
-        <v>698</v>
+        <v>771</v>
       </c>
       <c r="B431" t="s">
         <v>445</v>
@@ -31101,7 +31101,7 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="1">
-        <v>2757</v>
+        <v>2999</v>
       </c>
       <c r="B432" t="s">
         <v>446</v>
@@ -31142,7 +31142,7 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="1">
-        <v>4687</v>
+        <v>5084</v>
       </c>
       <c r="B433" t="s">
         <v>447</v>
@@ -31183,7 +31183,7 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="1">
-        <v>4486</v>
+        <v>4869</v>
       </c>
       <c r="B434" t="s">
         <v>448</v>
@@ -31224,7 +31224,7 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="1">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B435" t="s">
         <v>449</v>
@@ -31265,7 +31265,7 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="1">
-        <v>4291</v>
+        <v>4658</v>
       </c>
       <c r="B436" t="s">
         <v>450</v>
@@ -31306,7 +31306,7 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="1">
-        <v>851</v>
+        <v>936</v>
       </c>
       <c r="B437" t="s">
         <v>451</v>
@@ -31347,7 +31347,7 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="1">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B438" t="s">
         <v>452</v>
@@ -31388,7 +31388,7 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="1">
-        <v>2038</v>
+        <v>2219</v>
       </c>
       <c r="B439" t="s">
         <v>453</v>
@@ -31429,7 +31429,7 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="1">
-        <v>4591</v>
+        <v>4982</v>
       </c>
       <c r="B440" t="s">
         <v>454</v>
@@ -31470,7 +31470,7 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="1">
-        <v>4155</v>
+        <v>4517</v>
       </c>
       <c r="B441" t="s">
         <v>455</v>
@@ -31511,7 +31511,7 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="1">
-        <v>1617</v>
+        <v>1759</v>
       </c>
       <c r="B442" t="s">
         <v>456</v>
@@ -31552,7 +31552,7 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="1">
-        <v>1057</v>
+        <v>1154</v>
       </c>
       <c r="B443" t="s">
         <v>457</v>
@@ -31593,7 +31593,7 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="1">
-        <v>1085</v>
+        <v>1185</v>
       </c>
       <c r="B444" t="s">
         <v>458</v>
@@ -31634,7 +31634,7 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="1">
-        <v>3083</v>
+        <v>3353</v>
       </c>
       <c r="B445" t="s">
         <v>459</v>
@@ -31675,7 +31675,7 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="1">
-        <v>517</v>
+        <v>570</v>
       </c>
       <c r="B446" t="s">
         <v>460</v>
@@ -31716,7 +31716,7 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="1">
-        <v>2164</v>
+        <v>2355</v>
       </c>
       <c r="B447" t="s">
         <v>461</v>
@@ -31757,7 +31757,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="1">
-        <v>2409</v>
+        <v>2629</v>
       </c>
       <c r="B448" t="s">
         <v>462</v>
@@ -31798,7 +31798,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="1">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B449" t="s">
         <v>463</v>
@@ -31839,7 +31839,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="1">
-        <v>1871</v>
+        <v>2032</v>
       </c>
       <c r="B450" t="s">
         <v>464</v>
@@ -31880,7 +31880,7 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="1">
-        <v>2947</v>
+        <v>3209</v>
       </c>
       <c r="B451" t="s">
         <v>465</v>
@@ -31921,7 +31921,7 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="1">
-        <v>4452</v>
+        <v>4832</v>
       </c>
       <c r="B452" t="s">
         <v>466</v>
@@ -31962,7 +31962,7 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="1">
-        <v>1375</v>
+        <v>1498</v>
       </c>
       <c r="B453" t="s">
         <v>467</v>
@@ -32003,7 +32003,7 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="1">
-        <v>950</v>
+        <v>1043</v>
       </c>
       <c r="B454" t="s">
         <v>468</v>
@@ -32044,7 +32044,7 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="1">
-        <v>1501</v>
+        <v>1635</v>
       </c>
       <c r="B455" t="s">
         <v>469</v>
@@ -32085,7 +32085,7 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="1">
-        <v>3147</v>
+        <v>3426</v>
       </c>
       <c r="B456" t="s">
         <v>470</v>
@@ -32126,7 +32126,7 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="1">
-        <v>2943</v>
+        <v>3205</v>
       </c>
       <c r="B457" t="s">
         <v>471</v>
@@ -32167,7 +32167,7 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="1">
-        <v>2268</v>
+        <v>2472</v>
       </c>
       <c r="B458" t="s">
         <v>472</v>
@@ -32208,7 +32208,7 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="1">
-        <v>1282</v>
+        <v>1400</v>
       </c>
       <c r="B459" t="s">
         <v>473</v>
@@ -32249,7 +32249,7 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="1">
-        <v>3909</v>
+        <v>4250</v>
       </c>
       <c r="B460" t="s">
         <v>474</v>
@@ -32290,7 +32290,7 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="1">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B461" t="s">
         <v>475</v>
@@ -32331,7 +32331,7 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="1">
-        <v>1322</v>
+        <v>1441</v>
       </c>
       <c r="B462" t="s">
         <v>476</v>
@@ -32372,7 +32372,7 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="1">
-        <v>4424</v>
+        <v>4801</v>
       </c>
       <c r="B463" t="s">
         <v>477</v>
@@ -32413,7 +32413,7 @@
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="1">
-        <v>1110</v>
+        <v>1215</v>
       </c>
       <c r="B464" t="s">
         <v>478</v>
@@ -32454,7 +32454,7 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465" s="1">
-        <v>1262</v>
+        <v>1377</v>
       </c>
       <c r="B465" t="s">
         <v>479</v>
@@ -32495,7 +32495,7 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="1">
-        <v>3630</v>
+        <v>3948</v>
       </c>
       <c r="B466" t="s">
         <v>480</v>
@@ -32536,7 +32536,7 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="1">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="B467" t="s">
         <v>481</v>
@@ -32577,7 +32577,7 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="1">
-        <v>1530</v>
+        <v>1667</v>
       </c>
       <c r="B468" t="s">
         <v>482</v>
@@ -32618,7 +32618,7 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="1">
-        <v>1793</v>
+        <v>1947</v>
       </c>
       <c r="B469" t="s">
         <v>483</v>
@@ -32659,7 +32659,7 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="1">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="B470" t="s">
         <v>484</v>
@@ -32700,7 +32700,7 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="1">
-        <v>4143</v>
+        <v>4505</v>
       </c>
       <c r="B471" t="s">
         <v>485</v>
@@ -32741,7 +32741,7 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="1">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="B472" t="s">
         <v>486</v>
@@ -32782,7 +32782,7 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="1">
-        <v>1422</v>
+        <v>1548</v>
       </c>
       <c r="B473" t="s">
         <v>487</v>
@@ -32823,7 +32823,7 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="1">
-        <v>4369</v>
+        <v>4743</v>
       </c>
       <c r="B474" t="s">
         <v>488</v>
@@ -32864,7 +32864,7 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475" s="1">
-        <v>1486</v>
+        <v>1619</v>
       </c>
       <c r="B475" t="s">
         <v>489</v>
@@ -32905,7 +32905,7 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476" s="1">
-        <v>2794</v>
+        <v>3039</v>
       </c>
       <c r="B476" t="s">
         <v>490</v>
@@ -32946,7 +32946,7 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="1">
-        <v>3578</v>
+        <v>3891</v>
       </c>
       <c r="B477" t="s">
         <v>491</v>
@@ -32987,7 +32987,7 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478" s="1">
-        <v>2627</v>
+        <v>2862</v>
       </c>
       <c r="B478" t="s">
         <v>492</v>
@@ -33028,7 +33028,7 @@
     </row>
     <row r="479" spans="1:14">
       <c r="A479" s="1">
-        <v>1965</v>
+        <v>2138</v>
       </c>
       <c r="B479" t="s">
         <v>493</v>
@@ -33069,7 +33069,7 @@
     </row>
     <row r="480" spans="1:14">
       <c r="A480" s="1">
-        <v>3277</v>
+        <v>3566</v>
       </c>
       <c r="B480" t="s">
         <v>494</v>
@@ -33110,7 +33110,7 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="1">
-        <v>4509</v>
+        <v>4895</v>
       </c>
       <c r="B481" t="s">
         <v>495</v>
@@ -33151,7 +33151,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="1">
-        <v>2042</v>
+        <v>2223</v>
       </c>
       <c r="B482" t="s">
         <v>496</v>
@@ -33192,7 +33192,7 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="1">
-        <v>4552</v>
+        <v>4940</v>
       </c>
       <c r="B483" t="s">
         <v>497</v>
@@ -33233,7 +33233,7 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="1">
-        <v>4350</v>
+        <v>4723</v>
       </c>
       <c r="B484" t="s">
         <v>498</v>
@@ -33274,7 +33274,7 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="1">
-        <v>4330</v>
+        <v>4700</v>
       </c>
       <c r="B485" t="s">
         <v>499</v>
@@ -33315,7 +33315,7 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="1">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="B486" t="s">
         <v>500</v>
@@ -33356,7 +33356,7 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="1">
-        <v>2329</v>
+        <v>2540</v>
       </c>
       <c r="B487" t="s">
         <v>501</v>
@@ -33397,7 +33397,7 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="1">
-        <v>4110</v>
+        <v>4468</v>
       </c>
       <c r="B488" t="s">
         <v>502</v>
@@ -33438,7 +33438,7 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="1">
-        <v>2556</v>
+        <v>2783</v>
       </c>
       <c r="B489" t="s">
         <v>503</v>
@@ -33479,7 +33479,7 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490" s="1">
-        <v>677</v>
+        <v>750</v>
       </c>
       <c r="B490" t="s">
         <v>504</v>
@@ -33520,7 +33520,7 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="1">
-        <v>1807</v>
+        <v>1962</v>
       </c>
       <c r="B491" t="s">
         <v>505</v>
@@ -33561,7 +33561,7 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492" s="1">
-        <v>979</v>
+        <v>1073</v>
       </c>
       <c r="B492" t="s">
         <v>506</v>
@@ -33602,7 +33602,7 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493" s="1">
-        <v>4095</v>
+        <v>4452</v>
       </c>
       <c r="B493" t="s">
         <v>507</v>
@@ -33643,7 +33643,7 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="1">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="B494" t="s">
         <v>508</v>
@@ -33684,7 +33684,7 @@
     </row>
     <row r="495" spans="1:14">
       <c r="A495" s="1">
-        <v>4419</v>
+        <v>4795</v>
       </c>
       <c r="B495" t="s">
         <v>509</v>
@@ -33725,7 +33725,7 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496" s="1">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="B496" t="s">
         <v>510</v>
@@ -33766,7 +33766,7 @@
     </row>
     <row r="497" spans="1:14">
       <c r="A497" s="1">
-        <v>2273</v>
+        <v>2477</v>
       </c>
       <c r="B497" t="s">
         <v>511</v>
@@ -33807,7 +33807,7 @@
     </row>
     <row r="498" spans="1:14">
       <c r="A498" s="1">
-        <v>1248</v>
+        <v>1361</v>
       </c>
       <c r="B498" t="s">
         <v>512</v>
@@ -33848,7 +33848,7 @@
     </row>
     <row r="499" spans="1:14">
       <c r="A499" s="1">
-        <v>1287</v>
+        <v>1405</v>
       </c>
       <c r="B499" t="s">
         <v>513</v>
@@ -33889,7 +33889,7 @@
     </row>
     <row r="500" spans="1:14">
       <c r="A500" s="1">
-        <v>753</v>
+        <v>831</v>
       </c>
       <c r="B500" t="s">
         <v>514</v>
@@ -33930,7 +33930,7 @@
     </row>
     <row r="501" spans="1:14">
       <c r="A501" s="1">
-        <v>1799</v>
+        <v>1954</v>
       </c>
       <c r="B501" t="s">
         <v>515</v>
@@ -33971,7 +33971,7 @@
     </row>
     <row r="502" spans="1:14">
       <c r="A502" s="1">
-        <v>2519</v>
+        <v>2745</v>
       </c>
       <c r="B502" t="s">
         <v>516</v>
@@ -34012,7 +34012,7 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503" s="1">
-        <v>3241</v>
+        <v>3528</v>
       </c>
       <c r="B503" t="s">
         <v>517</v>
@@ -34053,7 +34053,7 @@
     </row>
     <row r="504" spans="1:14">
       <c r="A504" s="1">
-        <v>2335</v>
+        <v>2546</v>
       </c>
       <c r="B504" t="s">
         <v>518</v>
@@ -34094,7 +34094,7 @@
     </row>
     <row r="505" spans="1:14">
       <c r="A505" s="1">
-        <v>4265</v>
+        <v>4631</v>
       </c>
       <c r="B505" t="s">
         <v>519</v>
@@ -34135,7 +34135,7 @@
     </row>
     <row r="506" spans="1:14">
       <c r="A506" s="1">
-        <v>1345</v>
+        <v>1466</v>
       </c>
       <c r="B506" t="s">
         <v>520</v>
@@ -34176,7 +34176,7 @@
     </row>
     <row r="507" spans="1:14">
       <c r="A507" s="1">
-        <v>3642</v>
+        <v>3961</v>
       </c>
       <c r="B507" t="s">
         <v>521</v>
@@ -34217,7 +34217,7 @@
     </row>
     <row r="508" spans="1:14">
       <c r="A508" s="1">
-        <v>2388</v>
+        <v>2605</v>
       </c>
       <c r="B508" t="s">
         <v>522</v>
@@ -34258,7 +34258,7 @@
     </row>
     <row r="509" spans="1:14">
       <c r="A509" s="1">
-        <v>766</v>
+        <v>844</v>
       </c>
       <c r="B509" t="s">
         <v>523</v>
@@ -34299,7 +34299,7 @@
     </row>
     <row r="510" spans="1:14">
       <c r="A510" s="1">
-        <v>2808</v>
+        <v>3054</v>
       </c>
       <c r="B510" t="s">
         <v>524</v>
@@ -34340,7 +34340,7 @@
     </row>
     <row r="511" spans="1:14">
       <c r="A511" s="1">
-        <v>673</v>
+        <v>746</v>
       </c>
       <c r="B511" t="s">
         <v>525</v>
@@ -34381,7 +34381,7 @@
     </row>
     <row r="512" spans="1:14">
       <c r="A512" s="1">
-        <v>2316</v>
+        <v>2527</v>
       </c>
       <c r="B512" t="s">
         <v>526</v>
@@ -34422,7 +34422,7 @@
     </row>
     <row r="513" spans="1:14">
       <c r="A513" s="1">
-        <v>2963</v>
+        <v>3225</v>
       </c>
       <c r="B513" t="s">
         <v>527</v>
@@ -34463,7 +34463,7 @@
     </row>
     <row r="514" spans="1:14">
       <c r="A514" s="1">
-        <v>3326</v>
+        <v>3619</v>
       </c>
       <c r="B514" t="s">
         <v>528</v>
@@ -34504,7 +34504,7 @@
     </row>
     <row r="515" spans="1:14">
       <c r="A515" s="1">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="B515" t="s">
         <v>529</v>
@@ -34545,7 +34545,7 @@
     </row>
     <row r="516" spans="1:14">
       <c r="A516" s="1">
-        <v>2141</v>
+        <v>2332</v>
       </c>
       <c r="B516" t="s">
         <v>530</v>
@@ -34586,7 +34586,7 @@
     </row>
     <row r="517" spans="1:14">
       <c r="A517" s="1">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B517" t="s">
         <v>531</v>
@@ -34627,7 +34627,7 @@
     </row>
     <row r="518" spans="1:14">
       <c r="A518" s="1">
-        <v>2885</v>
+        <v>3141</v>
       </c>
       <c r="B518" t="s">
         <v>532</v>
@@ -34668,7 +34668,7 @@
     </row>
     <row r="519" spans="1:14">
       <c r="A519" s="1">
-        <v>4495</v>
+        <v>4878</v>
       </c>
       <c r="B519" t="s">
         <v>533</v>
@@ -34709,7 +34709,7 @@
     </row>
     <row r="520" spans="1:14">
       <c r="A520" s="1">
-        <v>2623</v>
+        <v>2856</v>
       </c>
       <c r="B520" t="s">
         <v>534</v>
@@ -34750,7 +34750,7 @@
     </row>
     <row r="521" spans="1:14">
       <c r="A521" s="1">
-        <v>4186</v>
+        <v>4550</v>
       </c>
       <c r="B521" t="s">
         <v>535</v>
@@ -34791,7 +34791,7 @@
     </row>
     <row r="522" spans="1:14">
       <c r="A522" s="1">
-        <v>4683</v>
+        <v>5080</v>
       </c>
       <c r="B522" t="s">
         <v>536</v>
@@ -34832,7 +34832,7 @@
     </row>
     <row r="523" spans="1:14">
       <c r="A523" s="1">
-        <v>1995</v>
+        <v>2174</v>
       </c>
       <c r="B523" t="s">
         <v>537</v>
@@ -34873,7 +34873,7 @@
     </row>
     <row r="524" spans="1:14">
       <c r="A524" s="1">
-        <v>3679</v>
+        <v>4001</v>
       </c>
       <c r="B524" t="s">
         <v>538</v>
@@ -34914,7 +34914,7 @@
     </row>
     <row r="525" spans="1:14">
       <c r="A525" s="1">
-        <v>2441</v>
+        <v>2664</v>
       </c>
       <c r="B525" t="s">
         <v>539</v>
@@ -34955,7 +34955,7 @@
     </row>
     <row r="526" spans="1:14">
       <c r="A526" s="1">
-        <v>2696</v>
+        <v>2936</v>
       </c>
       <c r="B526" t="s">
         <v>540</v>
@@ -34996,7 +34996,7 @@
     </row>
     <row r="527" spans="1:14">
       <c r="A527" s="1">
-        <v>1711</v>
+        <v>1860</v>
       </c>
       <c r="B527" t="s">
         <v>541</v>
@@ -35037,7 +35037,7 @@
     </row>
     <row r="528" spans="1:14">
       <c r="A528" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B528" t="s">
         <v>542</v>
@@ -35078,7 +35078,7 @@
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="1">
-        <v>765</v>
+        <v>843</v>
       </c>
       <c r="B529" t="s">
         <v>543</v>
@@ -35119,7 +35119,7 @@
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="1">
-        <v>2015</v>
+        <v>2195</v>
       </c>
       <c r="B530" t="s">
         <v>544</v>
@@ -35160,7 +35160,7 @@
     </row>
     <row r="531" spans="1:14">
       <c r="A531" s="1">
-        <v>4366</v>
+        <v>4740</v>
       </c>
       <c r="B531" t="s">
         <v>545</v>
@@ -35201,7 +35201,7 @@
     </row>
     <row r="532" spans="1:14">
       <c r="A532" s="1">
-        <v>4065</v>
+        <v>4419</v>
       </c>
       <c r="B532" t="s">
         <v>546</v>
@@ -35242,7 +35242,7 @@
     </row>
     <row r="533" spans="1:14">
       <c r="A533" s="1">
-        <v>3640</v>
+        <v>3959</v>
       </c>
       <c r="B533" t="s">
         <v>547</v>
@@ -35283,7 +35283,7 @@
     </row>
     <row r="534" spans="1:14">
       <c r="A534" s="1">
-        <v>1158</v>
+        <v>1264</v>
       </c>
       <c r="B534" t="s">
         <v>548</v>
@@ -35324,7 +35324,7 @@
     </row>
     <row r="535" spans="1:14">
       <c r="A535" s="1">
-        <v>3742</v>
+        <v>4066</v>
       </c>
       <c r="B535" t="s">
         <v>549</v>
@@ -35365,7 +35365,7 @@
     </row>
     <row r="536" spans="1:14">
       <c r="A536" s="1">
-        <v>896</v>
+        <v>985</v>
       </c>
       <c r="B536" t="s">
         <v>550</v>
@@ -35406,7 +35406,7 @@
     </row>
     <row r="537" spans="1:14">
       <c r="A537" s="1">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B537" t="s">
         <v>551</v>
@@ -35447,7 +35447,7 @@
     </row>
     <row r="538" spans="1:14">
       <c r="A538" s="1">
-        <v>3580</v>
+        <v>3893</v>
       </c>
       <c r="B538" t="s">
         <v>552</v>
@@ -35488,7 +35488,7 @@
     </row>
     <row r="539" spans="1:14">
       <c r="A539" s="1">
-        <v>1709</v>
+        <v>1858</v>
       </c>
       <c r="B539" t="s">
         <v>553</v>
@@ -35529,7 +35529,7 @@
     </row>
     <row r="540" spans="1:14">
       <c r="A540" s="1">
-        <v>3143</v>
+        <v>3421</v>
       </c>
       <c r="B540" t="s">
         <v>554</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="541" spans="1:14">
       <c r="A541" s="1">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="B541" t="s">
         <v>555</v>
@@ -35611,7 +35611,7 @@
     </row>
     <row r="542" spans="1:14">
       <c r="A542" s="1">
-        <v>2769</v>
+        <v>3011</v>
       </c>
       <c r="B542" t="s">
         <v>556</v>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="543" spans="1:14">
       <c r="A543" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B543" t="s">
         <v>557</v>
@@ -35693,7 +35693,7 @@
     </row>
     <row r="544" spans="1:14">
       <c r="A544" s="1">
-        <v>2735</v>
+        <v>2976</v>
       </c>
       <c r="B544" t="s">
         <v>558</v>
@@ -35734,7 +35734,7 @@
     </row>
     <row r="545" spans="1:14">
       <c r="A545" s="1">
-        <v>1334</v>
+        <v>1453</v>
       </c>
       <c r="B545" t="s">
         <v>559</v>
@@ -35775,7 +35775,7 @@
     </row>
     <row r="546" spans="1:14">
       <c r="A546" s="1">
-        <v>610</v>
+        <v>673</v>
       </c>
       <c r="B546" t="s">
         <v>560</v>
@@ -35816,7 +35816,7 @@
     </row>
     <row r="547" spans="1:14">
       <c r="A547" s="1">
-        <v>4638</v>
+        <v>5034</v>
       </c>
       <c r="B547" t="s">
         <v>561</v>
@@ -35857,7 +35857,7 @@
     </row>
     <row r="548" spans="1:14">
       <c r="A548" s="1">
-        <v>4666</v>
+        <v>5063</v>
       </c>
       <c r="B548" t="s">
         <v>562</v>
@@ -35898,7 +35898,7 @@
     </row>
     <row r="549" spans="1:14">
       <c r="A549" s="1">
-        <v>3197</v>
+        <v>3482</v>
       </c>
       <c r="B549" t="s">
         <v>563</v>
@@ -35939,7 +35939,7 @@
     </row>
     <row r="550" spans="1:14">
       <c r="A550" s="1">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B550" t="s">
         <v>564</v>
@@ -35980,7 +35980,7 @@
     </row>
     <row r="551" spans="1:14">
       <c r="A551" s="1">
-        <v>3370</v>
+        <v>3667</v>
       </c>
       <c r="B551" t="s">
         <v>565</v>
@@ -36021,7 +36021,7 @@
     </row>
     <row r="552" spans="1:14">
       <c r="A552" s="1">
-        <v>2908</v>
+        <v>3165</v>
       </c>
       <c r="B552" t="s">
         <v>566</v>
@@ -36062,7 +36062,7 @@
     </row>
     <row r="553" spans="1:14">
       <c r="A553" s="1">
-        <v>1858</v>
+        <v>2018</v>
       </c>
       <c r="B553" t="s">
         <v>567</v>
@@ -36103,7 +36103,7 @@
     </row>
     <row r="554" spans="1:14">
       <c r="A554" s="1">
-        <v>3189</v>
+        <v>3473</v>
       </c>
       <c r="B554" t="s">
         <v>568</v>
@@ -36144,7 +36144,7 @@
     </row>
     <row r="555" spans="1:14">
       <c r="A555" s="1">
-        <v>3932</v>
+        <v>4274</v>
       </c>
       <c r="B555" t="s">
         <v>569</v>
@@ -36185,7 +36185,7 @@
     </row>
     <row r="556" spans="1:14">
       <c r="A556" s="1">
-        <v>1831</v>
+        <v>1987</v>
       </c>
       <c r="B556" t="s">
         <v>570</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="557" spans="1:14">
       <c r="A557" s="1">
-        <v>2810</v>
+        <v>3056</v>
       </c>
       <c r="B557" t="s">
         <v>571</v>
@@ -36267,7 +36267,7 @@
     </row>
     <row r="558" spans="1:14">
       <c r="A558" s="1">
-        <v>1688</v>
+        <v>1837</v>
       </c>
       <c r="B558" t="s">
         <v>572</v>
@@ -36308,7 +36308,7 @@
     </row>
     <row r="559" spans="1:14">
       <c r="A559" s="1">
-        <v>3235</v>
+        <v>3521</v>
       </c>
       <c r="B559" t="s">
         <v>573</v>
@@ -36349,7 +36349,7 @@
     </row>
     <row r="560" spans="1:14">
       <c r="A560" s="1">
-        <v>1917</v>
+        <v>2083</v>
       </c>
       <c r="B560" t="s">
         <v>574</v>
@@ -36390,7 +36390,7 @@
     </row>
     <row r="561" spans="1:14">
       <c r="A561" s="1">
-        <v>3949</v>
+        <v>4292</v>
       </c>
       <c r="B561" t="s">
         <v>575</v>
@@ -36431,7 +36431,7 @@
     </row>
     <row r="562" spans="1:14">
       <c r="A562" s="1">
-        <v>831</v>
+        <v>915</v>
       </c>
       <c r="B562" t="s">
         <v>576</v>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="563" spans="1:14">
       <c r="A563" s="1">
-        <v>4673</v>
+        <v>5070</v>
       </c>
       <c r="B563" t="s">
         <v>577</v>
@@ -36513,7 +36513,7 @@
     </row>
     <row r="564" spans="1:14">
       <c r="A564" s="1">
-        <v>4415</v>
+        <v>4791</v>
       </c>
       <c r="B564" t="s">
         <v>578</v>
@@ -36554,7 +36554,7 @@
     </row>
     <row r="565" spans="1:14">
       <c r="A565" s="1">
-        <v>741</v>
+        <v>818</v>
       </c>
       <c r="B565" t="s">
         <v>579</v>
@@ -36595,7 +36595,7 @@
     </row>
     <row r="566" spans="1:14">
       <c r="A566" s="1">
-        <v>3207</v>
+        <v>3493</v>
       </c>
       <c r="B566" t="s">
         <v>580</v>
@@ -36636,7 +36636,7 @@
     </row>
     <row r="567" spans="1:14">
       <c r="A567" s="1">
-        <v>3088</v>
+        <v>3361</v>
       </c>
       <c r="B567" t="s">
         <v>581</v>
@@ -36677,7 +36677,7 @@
     </row>
     <row r="568" spans="1:14">
       <c r="A568" s="1">
-        <v>2239</v>
+        <v>2441</v>
       </c>
       <c r="B568" t="s">
         <v>582</v>
@@ -36718,7 +36718,7 @@
     </row>
     <row r="569" spans="1:14">
       <c r="A569" s="1">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B569" t="s">
         <v>583</v>
@@ -36759,7 +36759,7 @@
     </row>
     <row r="570" spans="1:14">
       <c r="A570" s="1">
-        <v>2243</v>
+        <v>2445</v>
       </c>
       <c r="B570" t="s">
         <v>584</v>
@@ -36800,7 +36800,7 @@
     </row>
     <row r="571" spans="1:14">
       <c r="A571" s="1">
-        <v>3323</v>
+        <v>3616</v>
       </c>
       <c r="B571" t="s">
         <v>585</v>
@@ -36841,7 +36841,7 @@
     </row>
     <row r="572" spans="1:14">
       <c r="A572" s="1">
-        <v>3203</v>
+        <v>3488</v>
       </c>
       <c r="B572" t="s">
         <v>586</v>
@@ -36882,7 +36882,7 @@
     </row>
     <row r="573" spans="1:14">
       <c r="A573" s="1">
-        <v>1498</v>
+        <v>1632</v>
       </c>
       <c r="B573" t="s">
         <v>587</v>
@@ -36923,7 +36923,7 @@
     </row>
     <row r="574" spans="1:14">
       <c r="A574" s="1">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="B574" t="s">
         <v>588</v>
@@ -36964,7 +36964,7 @@
     </row>
     <row r="575" spans="1:14">
       <c r="A575" s="1">
-        <v>1538</v>
+        <v>1675</v>
       </c>
       <c r="B575" t="s">
         <v>589</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="576" spans="1:14">
       <c r="A576" s="1">
-        <v>797</v>
+        <v>879</v>
       </c>
       <c r="B576" t="s">
         <v>590</v>
@@ -37046,7 +37046,7 @@
     </row>
     <row r="577" spans="1:14">
       <c r="A577" s="1">
-        <v>4663</v>
+        <v>5060</v>
       </c>
       <c r="B577" t="s">
         <v>591</v>
@@ -37087,7 +37087,7 @@
     </row>
     <row r="578" spans="1:14">
       <c r="A578" s="1">
-        <v>4393</v>
+        <v>4768</v>
       </c>
       <c r="B578" t="s">
         <v>592</v>
@@ -37128,7 +37128,7 @@
     </row>
     <row r="579" spans="1:14">
       <c r="A579" s="1">
-        <v>2830</v>
+        <v>3078</v>
       </c>
       <c r="B579" t="s">
         <v>593</v>
@@ -37169,7 +37169,7 @@
     </row>
     <row r="580" spans="1:14">
       <c r="A580" s="1">
-        <v>1743</v>
+        <v>1895</v>
       </c>
       <c r="B580" t="s">
         <v>594</v>
@@ -37210,7 +37210,7 @@
     </row>
     <row r="581" spans="1:14">
       <c r="A581" s="1">
-        <v>1745</v>
+        <v>1898</v>
       </c>
       <c r="B581" t="s">
         <v>595</v>
@@ -37251,7 +37251,7 @@
     </row>
     <row r="582" spans="1:14">
       <c r="A582" s="1">
-        <v>3441</v>
+        <v>3746</v>
       </c>
       <c r="B582" t="s">
         <v>596</v>
@@ -37292,7 +37292,7 @@
     </row>
     <row r="583" spans="1:14">
       <c r="A583" s="1">
-        <v>4338</v>
+        <v>4710</v>
       </c>
       <c r="B583" t="s">
         <v>597</v>
@@ -37333,7 +37333,7 @@
     </row>
     <row r="584" spans="1:14">
       <c r="A584" s="1">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B584" t="s">
         <v>598</v>
@@ -37374,7 +37374,7 @@
     </row>
     <row r="585" spans="1:14">
       <c r="A585" s="1">
-        <v>686</v>
+        <v>759</v>
       </c>
       <c r="B585" t="s">
         <v>599</v>
@@ -37415,7 +37415,7 @@
     </row>
     <row r="586" spans="1:14">
       <c r="A586" s="1">
-        <v>2185</v>
+        <v>2379</v>
       </c>
       <c r="B586" t="s">
         <v>600</v>
@@ -37456,7 +37456,7 @@
     </row>
     <row r="587" spans="1:14">
       <c r="A587" s="1">
-        <v>2357</v>
+        <v>2571</v>
       </c>
       <c r="B587" t="s">
         <v>601</v>
@@ -37497,7 +37497,7 @@
     </row>
     <row r="588" spans="1:14">
       <c r="A588" s="1">
-        <v>3674</v>
+        <v>3996</v>
       </c>
       <c r="B588" t="s">
         <v>602</v>
@@ -37538,7 +37538,7 @@
     </row>
     <row r="589" spans="1:14">
       <c r="A589" s="1">
-        <v>4161</v>
+        <v>4524</v>
       </c>
       <c r="B589" t="s">
         <v>603</v>
@@ -37579,7 +37579,7 @@
     </row>
     <row r="590" spans="1:14">
       <c r="A590" s="1">
-        <v>1265</v>
+        <v>1380</v>
       </c>
       <c r="B590" t="s">
         <v>604</v>
@@ -37620,7 +37620,7 @@
     </row>
     <row r="591" spans="1:14">
       <c r="A591" s="1">
-        <v>2153</v>
+        <v>2344</v>
       </c>
       <c r="B591" t="s">
         <v>605</v>
@@ -37661,7 +37661,7 @@
     </row>
     <row r="592" spans="1:14">
       <c r="A592" s="1">
-        <v>4660</v>
+        <v>5057</v>
       </c>
       <c r="B592" t="s">
         <v>606</v>
@@ -37702,7 +37702,7 @@
     </row>
     <row r="593" spans="1:14">
       <c r="A593" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B593" t="s">
         <v>607</v>
@@ -37743,7 +37743,7 @@
     </row>
     <row r="594" spans="1:14">
       <c r="A594" s="1">
-        <v>2470</v>
+        <v>2694</v>
       </c>
       <c r="B594" t="s">
         <v>608</v>
@@ -37784,7 +37784,7 @@
     </row>
     <row r="595" spans="1:14">
       <c r="A595" s="1">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="B595" t="s">
         <v>609</v>
@@ -37825,7 +37825,7 @@
     </row>
     <row r="596" spans="1:14">
       <c r="A596" s="1">
-        <v>2046</v>
+        <v>2227</v>
       </c>
       <c r="B596" t="s">
         <v>610</v>
@@ -37866,7 +37866,7 @@
     </row>
     <row r="597" spans="1:14">
       <c r="A597" s="1">
-        <v>3647</v>
+        <v>3966</v>
       </c>
       <c r="B597" t="s">
         <v>611</v>
@@ -37907,7 +37907,7 @@
     </row>
     <row r="598" spans="1:14">
       <c r="A598" s="1">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B598" t="s">
         <v>612</v>
@@ -37948,7 +37948,7 @@
     </row>
     <row r="599" spans="1:14">
       <c r="A599" s="1">
-        <v>3653</v>
+        <v>3973</v>
       </c>
       <c r="B599" t="s">
         <v>613</v>
@@ -37989,7 +37989,7 @@
     </row>
     <row r="600" spans="1:14">
       <c r="A600" s="1">
-        <v>2592</v>
+        <v>2822</v>
       </c>
       <c r="B600" t="s">
         <v>614</v>
@@ -38030,7 +38030,7 @@
     </row>
     <row r="601" spans="1:14">
       <c r="A601" s="1">
-        <v>3724</v>
+        <v>4048</v>
       </c>
       <c r="B601" t="s">
         <v>615</v>
@@ -38071,7 +38071,7 @@
     </row>
     <row r="602" spans="1:14">
       <c r="A602" s="1">
-        <v>1562</v>
+        <v>1700</v>
       </c>
       <c r="B602" t="s">
         <v>616</v>
@@ -38112,7 +38112,7 @@
     </row>
     <row r="603" spans="1:14">
       <c r="A603" s="1">
-        <v>3105</v>
+        <v>3379</v>
       </c>
       <c r="B603" t="s">
         <v>617</v>
@@ -38153,7 +38153,7 @@
     </row>
     <row r="604" spans="1:14">
       <c r="A604" s="1">
-        <v>1478</v>
+        <v>1609</v>
       </c>
       <c r="B604" t="s">
         <v>618</v>
@@ -38194,7 +38194,7 @@
     </row>
     <row r="605" spans="1:14">
       <c r="A605" s="1">
-        <v>3790</v>
+        <v>4118</v>
       </c>
       <c r="B605" t="s">
         <v>619</v>
@@ -38235,7 +38235,7 @@
     </row>
     <row r="606" spans="1:14">
       <c r="A606" s="1">
-        <v>1843</v>
+        <v>1999</v>
       </c>
       <c r="B606" t="s">
         <v>620</v>
@@ -38276,7 +38276,7 @@
     </row>
     <row r="607" spans="1:14">
       <c r="A607" s="1">
-        <v>3195</v>
+        <v>3480</v>
       </c>
       <c r="B607" t="s">
         <v>621</v>
@@ -38317,7 +38317,7 @@
     </row>
     <row r="608" spans="1:14">
       <c r="A608" s="1">
-        <v>1628</v>
+        <v>1771</v>
       </c>
       <c r="B608" t="s">
         <v>622</v>
@@ -38358,7 +38358,7 @@
     </row>
     <row r="609" spans="1:14">
       <c r="A609" s="1">
-        <v>2634</v>
+        <v>2871</v>
       </c>
       <c r="B609" t="s">
         <v>623</v>
@@ -38399,7 +38399,7 @@
     </row>
     <row r="610" spans="1:14">
       <c r="A610" s="1">
-        <v>4324</v>
+        <v>4694</v>
       </c>
       <c r="B610" t="s">
         <v>624</v>
@@ -38440,7 +38440,7 @@
     </row>
     <row r="611" spans="1:14">
       <c r="A611" s="1">
-        <v>4543</v>
+        <v>4931</v>
       </c>
       <c r="B611" t="s">
         <v>625</v>
@@ -38481,7 +38481,7 @@
     </row>
     <row r="612" spans="1:14">
       <c r="A612" s="1">
-        <v>3570</v>
+        <v>3883</v>
       </c>
       <c r="B612" t="s">
         <v>626</v>
@@ -38522,7 +38522,7 @@
     </row>
     <row r="613" spans="1:14">
       <c r="A613" s="1">
-        <v>4191</v>
+        <v>4555</v>
       </c>
       <c r="B613" t="s">
         <v>627</v>
@@ -38563,7 +38563,7 @@
     </row>
     <row r="614" spans="1:14">
       <c r="A614" s="1">
-        <v>2689</v>
+        <v>2929</v>
       </c>
       <c r="B614" t="s">
         <v>628</v>
@@ -38604,7 +38604,7 @@
     </row>
     <row r="615" spans="1:14">
       <c r="A615" s="1">
-        <v>3190</v>
+        <v>3474</v>
       </c>
       <c r="B615" t="s">
         <v>629</v>
@@ -38645,7 +38645,7 @@
     </row>
     <row r="616" spans="1:14">
       <c r="A616" s="1">
-        <v>2278</v>
+        <v>2483</v>
       </c>
       <c r="B616" t="s">
         <v>630</v>
@@ -38686,7 +38686,7 @@
     </row>
     <row r="617" spans="1:14">
       <c r="A617" s="1">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B617" t="s">
         <v>631</v>
@@ -38727,7 +38727,7 @@
     </row>
     <row r="618" spans="1:14">
       <c r="A618" s="1">
-        <v>2818</v>
+        <v>3065</v>
       </c>
       <c r="B618" t="s">
         <v>632</v>
@@ -38768,7 +38768,7 @@
     </row>
     <row r="619" spans="1:14">
       <c r="A619" s="1">
-        <v>2795</v>
+        <v>3040</v>
       </c>
       <c r="B619" t="s">
         <v>633</v>
@@ -38809,7 +38809,7 @@
     </row>
     <row r="620" spans="1:14">
       <c r="A620" s="1">
-        <v>988</v>
+        <v>1083</v>
       </c>
       <c r="B620" t="s">
         <v>634</v>
@@ -38850,7 +38850,7 @@
     </row>
     <row r="621" spans="1:14">
       <c r="A621" s="1">
-        <v>1328</v>
+        <v>1447</v>
       </c>
       <c r="B621" t="s">
         <v>635</v>
@@ -38891,7 +38891,7 @@
     </row>
     <row r="622" spans="1:14">
       <c r="A622" s="1">
-        <v>722</v>
+        <v>797</v>
       </c>
       <c r="B622" t="s">
         <v>636</v>
@@ -38932,7 +38932,7 @@
     </row>
     <row r="623" spans="1:14">
       <c r="A623" s="1">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="B623" t="s">
         <v>637</v>
@@ -38973,7 +38973,7 @@
     </row>
     <row r="624" spans="1:14">
       <c r="A624" s="1">
-        <v>2698</v>
+        <v>2938</v>
       </c>
       <c r="B624" t="s">
         <v>638</v>
@@ -39014,7 +39014,7 @@
     </row>
     <row r="625" spans="1:14">
       <c r="A625" s="1">
-        <v>4173</v>
+        <v>4536</v>
       </c>
       <c r="B625" t="s">
         <v>639</v>
@@ -39055,7 +39055,7 @@
     </row>
     <row r="626" spans="1:14">
       <c r="A626" s="1">
-        <v>2443</v>
+        <v>2666</v>
       </c>
       <c r="B626" t="s">
         <v>640</v>
@@ -39096,7 +39096,7 @@
     </row>
     <row r="627" spans="1:14">
       <c r="A627" s="1">
-        <v>1174</v>
+        <v>1282</v>
       </c>
       <c r="B627" t="s">
         <v>641</v>
@@ -39137,7 +39137,7 @@
     </row>
     <row r="628" spans="1:14">
       <c r="A628" s="1">
-        <v>2606</v>
+        <v>2836</v>
       </c>
       <c r="B628" t="s">
         <v>642</v>
@@ -39178,7 +39178,7 @@
     </row>
     <row r="629" spans="1:14">
       <c r="A629" s="1">
-        <v>2014</v>
+        <v>2194</v>
       </c>
       <c r="B629" t="s">
         <v>643</v>
@@ -39219,7 +39219,7 @@
     </row>
     <row r="630" spans="1:14">
       <c r="A630" s="1">
-        <v>1034</v>
+        <v>1131</v>
       </c>
       <c r="B630" t="s">
         <v>644</v>
@@ -39260,7 +39260,7 @@
     </row>
     <row r="631" spans="1:14">
       <c r="A631" s="1">
-        <v>2536</v>
+        <v>2762</v>
       </c>
       <c r="B631" t="s">
         <v>645</v>
@@ -39301,7 +39301,7 @@
     </row>
     <row r="632" spans="1:14">
       <c r="A632" s="1">
-        <v>2313</v>
+        <v>2524</v>
       </c>
       <c r="B632" t="s">
         <v>646</v>
@@ -39342,7 +39342,7 @@
     </row>
     <row r="633" spans="1:14">
       <c r="A633" s="1">
-        <v>2192</v>
+        <v>2389</v>
       </c>
       <c r="B633" t="s">
         <v>647</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="634" spans="1:14">
       <c r="A634" s="1">
-        <v>1650</v>
+        <v>1794</v>
       </c>
       <c r="B634" t="s">
         <v>648</v>
@@ -39424,7 +39424,7 @@
     </row>
     <row r="635" spans="1:14">
       <c r="A635" s="1">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B635" t="s">
         <v>649</v>
@@ -39465,7 +39465,7 @@
     </row>
     <row r="636" spans="1:14">
       <c r="A636" s="1">
-        <v>1150</v>
+        <v>1255</v>
       </c>
       <c r="B636" t="s">
         <v>650</v>
@@ -39506,7 +39506,7 @@
     </row>
     <row r="637" spans="1:14">
       <c r="A637" s="1">
-        <v>2060</v>
+        <v>2241</v>
       </c>
       <c r="B637" t="s">
         <v>651</v>
@@ -39547,7 +39547,7 @@
     </row>
     <row r="638" spans="1:14">
       <c r="A638" s="1">
-        <v>726</v>
+        <v>801</v>
       </c>
       <c r="B638" t="s">
         <v>652</v>
@@ -39588,7 +39588,7 @@
     </row>
     <row r="639" spans="1:14">
       <c r="A639" s="1">
-        <v>1782</v>
+        <v>1936</v>
       </c>
       <c r="B639" t="s">
         <v>653</v>
@@ -39629,7 +39629,7 @@
     </row>
     <row r="640" spans="1:14">
       <c r="A640" s="1">
-        <v>2147</v>
+        <v>2338</v>
       </c>
       <c r="B640" t="s">
         <v>654</v>
@@ -39670,7 +39670,7 @@
     </row>
     <row r="641" spans="1:14">
       <c r="A641" s="1">
-        <v>1301</v>
+        <v>1420</v>
       </c>
       <c r="B641" t="s">
         <v>655</v>
@@ -39711,7 +39711,7 @@
     </row>
     <row r="642" spans="1:14">
       <c r="A642" s="1">
-        <v>3339</v>
+        <v>3635</v>
       </c>
       <c r="B642" t="s">
         <v>656</v>
@@ -39752,7 +39752,7 @@
     </row>
     <row r="643" spans="1:14">
       <c r="A643" s="1">
-        <v>3563</v>
+        <v>3874</v>
       </c>
       <c r="B643" t="s">
         <v>657</v>
@@ -39793,7 +39793,7 @@
     </row>
     <row r="644" spans="1:14">
       <c r="A644" s="1">
-        <v>2980</v>
+        <v>3244</v>
       </c>
       <c r="B644" t="s">
         <v>658</v>
@@ -39834,7 +39834,7 @@
     </row>
     <row r="645" spans="1:14">
       <c r="A645" s="1">
-        <v>4639</v>
+        <v>5035</v>
       </c>
       <c r="B645" t="s">
         <v>659</v>
@@ -39875,7 +39875,7 @@
     </row>
     <row r="646" spans="1:14">
       <c r="A646" s="1">
-        <v>4567</v>
+        <v>4956</v>
       </c>
       <c r="B646" t="s">
         <v>660</v>
@@ -39916,7 +39916,7 @@
     </row>
     <row r="647" spans="1:14">
       <c r="A647" s="1">
-        <v>3727</v>
+        <v>4051</v>
       </c>
       <c r="B647" t="s">
         <v>661</v>
@@ -39957,7 +39957,7 @@
     </row>
     <row r="648" spans="1:14">
       <c r="A648" s="1">
-        <v>4075</v>
+        <v>4431</v>
       </c>
       <c r="B648" t="s">
         <v>662</v>
@@ -39998,7 +39998,7 @@
     </row>
     <row r="649" spans="1:14">
       <c r="A649" s="1">
-        <v>3738</v>
+        <v>4062</v>
       </c>
       <c r="B649" t="s">
         <v>663</v>
@@ -40039,7 +40039,7 @@
     </row>
     <row r="650" spans="1:14">
       <c r="A650" s="1">
-        <v>4115</v>
+        <v>4474</v>
       </c>
       <c r="B650" t="s">
         <v>664</v>
@@ -40080,7 +40080,7 @@
     </row>
     <row r="651" spans="1:14">
       <c r="A651" s="1">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="B651" t="s">
         <v>665</v>
@@ -40121,7 +40121,7 @@
     </row>
     <row r="652" spans="1:14">
       <c r="A652" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B652" t="s">
         <v>666</v>
@@ -40162,7 +40162,7 @@
     </row>
     <row r="653" spans="1:14">
       <c r="A653" s="1">
-        <v>2977</v>
+        <v>3240</v>
       </c>
       <c r="B653" t="s">
         <v>667</v>
@@ -40203,7 +40203,7 @@
     </row>
     <row r="654" spans="1:14">
       <c r="A654" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B654" t="s">
         <v>668</v>
@@ -40244,7 +40244,7 @@
     </row>
     <row r="655" spans="1:14">
       <c r="A655" s="1">
-        <v>2077</v>
+        <v>2258</v>
       </c>
       <c r="B655" t="s">
         <v>669</v>
@@ -40285,7 +40285,7 @@
     </row>
     <row r="656" spans="1:14">
       <c r="A656" s="1">
-        <v>1673</v>
+        <v>1820</v>
       </c>
       <c r="B656" t="s">
         <v>670</v>
@@ -40326,7 +40326,7 @@
     </row>
     <row r="657" spans="1:14">
       <c r="A657" s="1">
-        <v>3237</v>
+        <v>3523</v>
       </c>
       <c r="B657" t="s">
         <v>671</v>
@@ -40367,7 +40367,7 @@
     </row>
     <row r="658" spans="1:14">
       <c r="A658" s="1">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="B658" t="s">
         <v>672</v>
@@ -40408,7 +40408,7 @@
     </row>
     <row r="659" spans="1:14">
       <c r="A659" s="1">
-        <v>3532</v>
+        <v>3839</v>
       </c>
       <c r="B659" t="s">
         <v>673</v>
@@ -40449,7 +40449,7 @@
     </row>
     <row r="660" spans="1:14">
       <c r="A660" s="1">
-        <v>2481</v>
+        <v>2705</v>
       </c>
       <c r="B660" t="s">
         <v>674</v>
@@ -40490,7 +40490,7 @@
     </row>
     <row r="661" spans="1:14">
       <c r="A661" s="1">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="B661" t="s">
         <v>675</v>
@@ -40531,7 +40531,7 @@
     </row>
     <row r="662" spans="1:14">
       <c r="A662" s="1">
-        <v>3835</v>
+        <v>4170</v>
       </c>
       <c r="B662" t="s">
         <v>676</v>
@@ -40572,7 +40572,7 @@
     </row>
     <row r="663" spans="1:14">
       <c r="A663" s="1">
-        <v>1788</v>
+        <v>1942</v>
       </c>
       <c r="B663" t="s">
         <v>677</v>
@@ -40613,7 +40613,7 @@
     </row>
     <row r="664" spans="1:14">
       <c r="A664" s="1">
-        <v>619</v>
+        <v>682</v>
       </c>
       <c r="B664" t="s">
         <v>678</v>
@@ -40654,7 +40654,7 @@
     </row>
     <row r="665" spans="1:14">
       <c r="A665" s="1">
-        <v>1455</v>
+        <v>1584</v>
       </c>
       <c r="B665" t="s">
         <v>679</v>
@@ -40695,7 +40695,7 @@
     </row>
     <row r="666" spans="1:14">
       <c r="A666" s="1">
-        <v>1734</v>
+        <v>1886</v>
       </c>
       <c r="B666" t="s">
         <v>680</v>
@@ -40736,7 +40736,7 @@
     </row>
     <row r="667" spans="1:14">
       <c r="A667" s="1">
-        <v>631</v>
+        <v>698</v>
       </c>
       <c r="B667" t="s">
         <v>681</v>
@@ -40777,7 +40777,7 @@
     </row>
     <row r="668" spans="1:14">
       <c r="A668" s="1">
-        <v>899</v>
+        <v>988</v>
       </c>
       <c r="B668" t="s">
         <v>682</v>
@@ -40818,7 +40818,7 @@
     </row>
     <row r="669" spans="1:14">
       <c r="A669" s="1">
-        <v>3686</v>
+        <v>4009</v>
       </c>
       <c r="B669" t="s">
         <v>683</v>
@@ -40859,7 +40859,7 @@
     </row>
     <row r="670" spans="1:14">
       <c r="A670" s="1">
-        <v>3418</v>
+        <v>3718</v>
       </c>
       <c r="B670" t="s">
         <v>684</v>
@@ -40900,7 +40900,7 @@
     </row>
     <row r="671" spans="1:14">
       <c r="A671" s="1">
-        <v>3626</v>
+        <v>3944</v>
       </c>
       <c r="B671" t="s">
         <v>685</v>
@@ -40941,7 +40941,7 @@
     </row>
     <row r="672" spans="1:14">
       <c r="A672" s="1">
-        <v>1232</v>
+        <v>1344</v>
       </c>
       <c r="B672" t="s">
         <v>686</v>
@@ -40982,7 +40982,7 @@
     </row>
     <row r="673" spans="1:14">
       <c r="A673" s="1">
-        <v>4121</v>
+        <v>4480</v>
       </c>
       <c r="B673" t="s">
         <v>687</v>
@@ -41023,7 +41023,7 @@
     </row>
     <row r="674" spans="1:14">
       <c r="A674" s="1">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="B674" t="s">
         <v>688</v>
@@ -41064,7 +41064,7 @@
     </row>
     <row r="675" spans="1:14">
       <c r="A675" s="1">
-        <v>590</v>
+        <v>651</v>
       </c>
       <c r="B675" t="s">
         <v>689</v>
@@ -41105,7 +41105,7 @@
     </row>
     <row r="676" spans="1:14">
       <c r="A676" s="1">
-        <v>3206</v>
+        <v>3491</v>
       </c>
       <c r="B676" t="s">
         <v>690</v>
@@ -41146,7 +41146,7 @@
     </row>
     <row r="677" spans="1:14">
       <c r="A677" s="1">
-        <v>1684</v>
+        <v>1831</v>
       </c>
       <c r="B677" t="s">
         <v>691</v>
@@ -41187,7 +41187,7 @@
     </row>
     <row r="678" spans="1:14">
       <c r="A678" s="1">
-        <v>4564</v>
+        <v>4953</v>
       </c>
       <c r="B678" t="s">
         <v>692</v>
@@ -41228,7 +41228,7 @@
     </row>
     <row r="679" spans="1:14">
       <c r="A679" s="1">
-        <v>3126</v>
+        <v>3403</v>
       </c>
       <c r="B679" t="s">
         <v>693</v>
@@ -41269,7 +41269,7 @@
     </row>
     <row r="680" spans="1:14">
       <c r="A680" s="1">
-        <v>1753</v>
+        <v>1906</v>
       </c>
       <c r="B680" t="s">
         <v>694</v>
@@ -41310,7 +41310,7 @@
     </row>
     <row r="681" spans="1:14">
       <c r="A681" s="1">
-        <v>4352</v>
+        <v>4725</v>
       </c>
       <c r="B681" t="s">
         <v>695</v>
@@ -41351,7 +41351,7 @@
     </row>
     <row r="682" spans="1:14">
       <c r="A682" s="1">
-        <v>1311</v>
+        <v>1430</v>
       </c>
       <c r="B682" t="s">
         <v>696</v>
@@ -41392,7 +41392,7 @@
     </row>
     <row r="683" spans="1:14">
       <c r="A683" s="1">
-        <v>3161</v>
+        <v>3442</v>
       </c>
       <c r="B683" t="s">
         <v>697</v>
@@ -41433,7 +41433,7 @@
     </row>
     <row r="684" spans="1:14">
       <c r="A684" s="1">
-        <v>800</v>
+        <v>882</v>
       </c>
       <c r="B684" t="s">
         <v>698</v>
@@ -41474,7 +41474,7 @@
     </row>
     <row r="685" spans="1:14">
       <c r="A685" s="1">
-        <v>2487</v>
+        <v>2711</v>
       </c>
       <c r="B685" t="s">
         <v>699</v>
@@ -41515,7 +41515,7 @@
     </row>
     <row r="686" spans="1:14">
       <c r="A686" s="1">
-        <v>3655</v>
+        <v>3975</v>
       </c>
       <c r="B686" t="s">
         <v>700</v>
@@ -41556,7 +41556,7 @@
     </row>
     <row r="687" spans="1:14">
       <c r="A687" s="1">
-        <v>4148</v>
+        <v>4510</v>
       </c>
       <c r="B687" t="s">
         <v>701</v>
@@ -41597,7 +41597,7 @@
     </row>
     <row r="688" spans="1:14">
       <c r="A688" s="1">
-        <v>4057</v>
+        <v>4409</v>
       </c>
       <c r="B688" t="s">
         <v>702</v>
@@ -41638,7 +41638,7 @@
     </row>
     <row r="689" spans="1:14">
       <c r="A689" s="1">
-        <v>3652</v>
+        <v>3972</v>
       </c>
       <c r="B689" t="s">
         <v>703</v>
@@ -41679,7 +41679,7 @@
     </row>
     <row r="690" spans="1:14">
       <c r="A690" s="1">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="B690" t="s">
         <v>704</v>
@@ -41720,7 +41720,7 @@
     </row>
     <row r="691" spans="1:14">
       <c r="A691" s="1">
-        <v>3458</v>
+        <v>3763</v>
       </c>
       <c r="B691" t="s">
         <v>705</v>
@@ -41761,7 +41761,7 @@
     </row>
     <row r="692" spans="1:14">
       <c r="A692" s="1">
-        <v>1526</v>
+        <v>1661</v>
       </c>
       <c r="B692" t="s">
         <v>706</v>
@@ -41802,7 +41802,7 @@
     </row>
     <row r="693" spans="1:14">
       <c r="A693" s="1">
-        <v>3090</v>
+        <v>3363</v>
       </c>
       <c r="B693" t="s">
         <v>707</v>
@@ -41843,7 +41843,7 @@
     </row>
     <row r="694" spans="1:14">
       <c r="A694" s="1">
-        <v>2550</v>
+        <v>2776</v>
       </c>
       <c r="B694" t="s">
         <v>708</v>
@@ -41884,7 +41884,7 @@
     </row>
     <row r="695" spans="1:14">
       <c r="A695" s="1">
-        <v>1892</v>
+        <v>2055</v>
       </c>
       <c r="B695" t="s">
         <v>709</v>
@@ -41925,7 +41925,7 @@
     </row>
     <row r="696" spans="1:14">
       <c r="A696" s="1">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="B696" t="s">
         <v>710</v>
@@ -41966,7 +41966,7 @@
     </row>
     <row r="697" spans="1:14">
       <c r="A697" s="1">
-        <v>2855</v>
+        <v>3105</v>
       </c>
       <c r="B697" t="s">
         <v>711</v>
@@ -42007,7 +42007,7 @@
     </row>
     <row r="698" spans="1:14">
       <c r="A698" s="1">
-        <v>3556</v>
+        <v>3866</v>
       </c>
       <c r="B698" t="s">
         <v>712</v>
@@ -42048,7 +42048,7 @@
     </row>
     <row r="699" spans="1:14">
       <c r="A699" s="1">
-        <v>3541</v>
+        <v>3849</v>
       </c>
       <c r="B699" t="s">
         <v>713</v>
@@ -42089,7 +42089,7 @@
     </row>
     <row r="700" spans="1:14">
       <c r="A700" s="1">
-        <v>4015</v>
+        <v>4364</v>
       </c>
       <c r="B700" t="s">
         <v>714</v>
@@ -42130,7 +42130,7 @@
     </row>
     <row r="701" spans="1:14">
       <c r="A701" s="1">
-        <v>2845</v>
+        <v>3094</v>
       </c>
       <c r="B701" t="s">
         <v>715</v>
@@ -42171,7 +42171,7 @@
     </row>
     <row r="702" spans="1:14">
       <c r="A702" s="1">
-        <v>1509</v>
+        <v>1644</v>
       </c>
       <c r="B702" t="s">
         <v>716</v>
@@ -42212,7 +42212,7 @@
     </row>
     <row r="703" spans="1:14">
       <c r="A703" s="1">
-        <v>2114</v>
+        <v>2304</v>
       </c>
       <c r="B703" t="s">
         <v>717</v>
@@ -42253,7 +42253,7 @@
     </row>
     <row r="704" spans="1:14">
       <c r="A704" s="1">
-        <v>3609</v>
+        <v>3927</v>
       </c>
       <c r="B704" t="s">
         <v>718</v>
@@ -42294,7 +42294,7 @@
     </row>
     <row r="705" spans="1:14">
       <c r="A705" s="1">
-        <v>1944</v>
+        <v>2114</v>
       </c>
       <c r="B705" t="s">
         <v>719</v>
@@ -42335,7 +42335,7 @@
     </row>
     <row r="706" spans="1:14">
       <c r="A706" s="1">
-        <v>3139</v>
+        <v>3416</v>
       </c>
       <c r="B706" t="s">
         <v>720</v>
@@ -42376,7 +42376,7 @@
     </row>
     <row r="707" spans="1:14">
       <c r="A707" s="1">
-        <v>4656</v>
+        <v>5053</v>
       </c>
       <c r="B707" t="s">
         <v>721</v>
@@ -42417,7 +42417,7 @@
     </row>
     <row r="708" spans="1:14">
       <c r="A708" s="1">
-        <v>3660</v>
+        <v>3980</v>
       </c>
       <c r="B708" t="s">
         <v>722</v>
@@ -42458,7 +42458,7 @@
     </row>
     <row r="709" spans="1:14">
       <c r="A709" s="1">
-        <v>1901</v>
+        <v>2064</v>
       </c>
       <c r="B709" t="s">
         <v>723</v>
@@ -42499,7 +42499,7 @@
     </row>
     <row r="710" spans="1:14">
       <c r="A710" s="1">
-        <v>2304</v>
+        <v>2515</v>
       </c>
       <c r="B710" t="s">
         <v>724</v>
@@ -42540,7 +42540,7 @@
     </row>
     <row r="711" spans="1:14">
       <c r="A711" s="1">
-        <v>2200</v>
+        <v>2397</v>
       </c>
       <c r="B711" t="s">
         <v>725</v>
@@ -42581,7 +42581,7 @@
     </row>
     <row r="712" spans="1:14">
       <c r="A712" s="1">
-        <v>2911</v>
+        <v>3168</v>
       </c>
       <c r="B712" t="s">
         <v>726</v>
@@ -42622,7 +42622,7 @@
     </row>
     <row r="713" spans="1:14">
       <c r="A713" s="1">
-        <v>4394</v>
+        <v>4769</v>
       </c>
       <c r="B713" t="s">
         <v>727</v>
@@ -42663,7 +42663,7 @@
     </row>
     <row r="714" spans="1:14">
       <c r="A714" s="1">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B714" t="s">
         <v>728</v>
@@ -42704,7 +42704,7 @@
     </row>
     <row r="715" spans="1:14">
       <c r="A715" s="1">
-        <v>3986</v>
+        <v>4334</v>
       </c>
       <c r="B715" t="s">
         <v>729</v>
@@ -42745,7 +42745,7 @@
     </row>
     <row r="716" spans="1:14">
       <c r="A716" s="1">
-        <v>3520</v>
+        <v>3827</v>
       </c>
       <c r="B716" t="s">
         <v>730</v>
@@ -42786,7 +42786,7 @@
     </row>
     <row r="717" spans="1:14">
       <c r="A717" s="1">
-        <v>3636</v>
+        <v>3955</v>
       </c>
       <c r="B717" t="s">
         <v>731</v>
@@ -42827,7 +42827,7 @@
     </row>
     <row r="718" spans="1:14">
       <c r="A718" s="1">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="B718" t="s">
         <v>732</v>
@@ -42868,7 +42868,7 @@
     </row>
     <row r="719" spans="1:14">
       <c r="A719" s="1">
-        <v>3008</v>
+        <v>3274</v>
       </c>
       <c r="B719" t="s">
         <v>733</v>
@@ -42909,7 +42909,7 @@
     </row>
     <row r="720" spans="1:14">
       <c r="A720" s="1">
-        <v>2826</v>
+        <v>3074</v>
       </c>
       <c r="B720" t="s">
         <v>734</v>
@@ -42950,7 +42950,7 @@
     </row>
     <row r="721" spans="1:14">
       <c r="A721" s="1">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B721" t="s">
         <v>735</v>
@@ -42991,7 +42991,7 @@
     </row>
     <row r="722" spans="1:14">
       <c r="A722" s="1">
-        <v>4610</v>
+        <v>5002</v>
       </c>
       <c r="B722" t="s">
         <v>736</v>
@@ -43032,7 +43032,7 @@
     </row>
     <row r="723" spans="1:14">
       <c r="A723" s="1">
-        <v>3066</v>
+        <v>3336</v>
       </c>
       <c r="B723" t="s">
         <v>737</v>
@@ -43073,7 +43073,7 @@
     </row>
     <row r="724" spans="1:14">
       <c r="A724" s="1">
-        <v>1812</v>
+        <v>1967</v>
       </c>
       <c r="B724" t="s">
         <v>738</v>
@@ -43114,7 +43114,7 @@
     </row>
     <row r="725" spans="1:14">
       <c r="A725" s="1">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="B725" t="s">
         <v>739</v>
@@ -43155,7 +43155,7 @@
     </row>
     <row r="726" spans="1:14">
       <c r="A726" s="1">
-        <v>618</v>
+        <v>681</v>
       </c>
       <c r="B726" t="s">
         <v>740</v>
@@ -43196,7 +43196,7 @@
     </row>
     <row r="727" spans="1:14">
       <c r="A727" s="1">
-        <v>2182</v>
+        <v>2376</v>
       </c>
       <c r="B727" t="s">
         <v>741</v>
@@ -43237,7 +43237,7 @@
     </row>
     <row r="728" spans="1:14">
       <c r="A728" s="1">
-        <v>1008</v>
+        <v>1104</v>
       </c>
       <c r="B728" t="s">
         <v>742</v>
@@ -43278,7 +43278,7 @@
     </row>
     <row r="729" spans="1:14">
       <c r="A729" s="1">
-        <v>2318</v>
+        <v>2529</v>
       </c>
       <c r="B729" t="s">
         <v>743</v>
@@ -43319,7 +43319,7 @@
     </row>
     <row r="730" spans="1:14">
       <c r="A730" s="1">
-        <v>3053</v>
+        <v>3323</v>
       </c>
       <c r="B730" t="s">
         <v>744</v>
@@ -43360,7 +43360,7 @@
     </row>
     <row r="731" spans="1:14">
       <c r="A731" s="1">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="B731" t="s">
         <v>745</v>
@@ -43401,7 +43401,7 @@
     </row>
     <row r="732" spans="1:14">
       <c r="A732" s="1">
-        <v>3140</v>
+        <v>3417</v>
       </c>
       <c r="B732" t="s">
         <v>746</v>
@@ -43442,7 +43442,7 @@
     </row>
     <row r="733" spans="1:14">
       <c r="A733" s="1">
-        <v>3046</v>
+        <v>3316</v>
       </c>
       <c r="B733" t="s">
         <v>747</v>
@@ -43483,7 +43483,7 @@
     </row>
     <row r="734" spans="1:14">
       <c r="A734" s="1">
-        <v>1949</v>
+        <v>2120</v>
       </c>
       <c r="B734" t="s">
         <v>748</v>
@@ -43524,7 +43524,7 @@
     </row>
     <row r="735" spans="1:14">
       <c r="A735" s="1">
-        <v>3818</v>
+        <v>4151</v>
       </c>
       <c r="B735" t="s">
         <v>749</v>
@@ -43565,7 +43565,7 @@
     </row>
     <row r="736" spans="1:14">
       <c r="A736" s="1">
-        <v>1017</v>
+        <v>1113</v>
       </c>
       <c r="B736" t="s">
         <v>750</v>
@@ -43606,7 +43606,7 @@
     </row>
     <row r="737" spans="1:14">
       <c r="A737" s="1">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="B737" t="s">
         <v>751</v>
@@ -43647,7 +43647,7 @@
     </row>
     <row r="738" spans="1:14">
       <c r="A738" s="1">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="B738" t="s">
         <v>752</v>
@@ -43688,7 +43688,7 @@
     </row>
     <row r="739" spans="1:14">
       <c r="A739" s="1">
-        <v>3524</v>
+        <v>3831</v>
       </c>
       <c r="B739" t="s">
         <v>753</v>
@@ -43729,7 +43729,7 @@
     </row>
     <row r="740" spans="1:14">
       <c r="A740" s="1">
-        <v>2995</v>
+        <v>3260</v>
       </c>
       <c r="B740" t="s">
         <v>754</v>
@@ -43770,7 +43770,7 @@
     </row>
     <row r="741" spans="1:14">
       <c r="A741" s="1">
-        <v>1218</v>
+        <v>1330</v>
       </c>
       <c r="B741" t="s">
         <v>755</v>
@@ -43811,7 +43811,7 @@
     </row>
     <row r="742" spans="1:14">
       <c r="A742" s="1">
-        <v>1140</v>
+        <v>1245</v>
       </c>
       <c r="B742" t="s">
         <v>756</v>
@@ -43852,7 +43852,7 @@
     </row>
     <row r="743" spans="1:14">
       <c r="A743" s="1">
-        <v>1883</v>
+        <v>2045</v>
       </c>
       <c r="B743" t="s">
         <v>757</v>
@@ -43893,7 +43893,7 @@
     </row>
     <row r="744" spans="1:14">
       <c r="A744" s="1">
-        <v>2104</v>
+        <v>2292</v>
       </c>
       <c r="B744" t="s">
         <v>758</v>
@@ -43934,7 +43934,7 @@
     </row>
     <row r="745" spans="1:14">
       <c r="A745" s="1">
-        <v>2886</v>
+        <v>3142</v>
       </c>
       <c r="B745" t="s">
         <v>759</v>
@@ -43975,7 +43975,7 @@
     </row>
     <row r="746" spans="1:14">
       <c r="A746" s="1">
-        <v>4447</v>
+        <v>4826</v>
       </c>
       <c r="B746" t="s">
         <v>760</v>
@@ -44016,7 +44016,7 @@
     </row>
     <row r="747" spans="1:14">
       <c r="A747" s="1">
-        <v>830</v>
+        <v>913</v>
       </c>
       <c r="B747" t="s">
         <v>761</v>
@@ -44057,7 +44057,7 @@
     </row>
     <row r="748" spans="1:14">
       <c r="A748" s="1">
-        <v>2306</v>
+        <v>2517</v>
       </c>
       <c r="B748" t="s">
         <v>762</v>
@@ -44098,7 +44098,7 @@
     </row>
     <row r="749" spans="1:14">
       <c r="A749" s="1">
-        <v>2747</v>
+        <v>2988</v>
       </c>
       <c r="B749" t="s">
         <v>763</v>
@@ -44139,7 +44139,7 @@
     </row>
     <row r="750" spans="1:14">
       <c r="A750" s="1">
-        <v>3399</v>
+        <v>3699</v>
       </c>
       <c r="B750" t="s">
         <v>764</v>
@@ -44180,7 +44180,7 @@
     </row>
     <row r="751" spans="1:14">
       <c r="A751" s="1">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B751" t="s">
         <v>765</v>
@@ -44221,7 +44221,7 @@
     </row>
     <row r="752" spans="1:14">
       <c r="A752" s="1">
-        <v>1625</v>
+        <v>1767</v>
       </c>
       <c r="B752" t="s">
         <v>766</v>
@@ -44262,7 +44262,7 @@
     </row>
     <row r="753" spans="1:14">
       <c r="A753" s="1">
-        <v>1816</v>
+        <v>1971</v>
       </c>
       <c r="B753" t="s">
         <v>767</v>
@@ -44303,7 +44303,7 @@
     </row>
     <row r="754" spans="1:14">
       <c r="A754" s="1">
-        <v>1423</v>
+        <v>1549</v>
       </c>
       <c r="B754" t="s">
         <v>768</v>
@@ -44344,7 +44344,7 @@
     </row>
     <row r="755" spans="1:14">
       <c r="A755" s="1">
-        <v>2737</v>
+        <v>2978</v>
       </c>
       <c r="B755" t="s">
         <v>769</v>
@@ -44385,7 +44385,7 @@
     </row>
     <row r="756" spans="1:14">
       <c r="A756" s="1">
-        <v>2127</v>
+        <v>2318</v>
       </c>
       <c r="B756" t="s">
         <v>770</v>
@@ -44426,7 +44426,7 @@
     </row>
     <row r="757" spans="1:14">
       <c r="A757" s="1">
-        <v>2407</v>
+        <v>2627</v>
       </c>
       <c r="B757" t="s">
         <v>771</v>
@@ -44467,7 +44467,7 @@
     </row>
     <row r="758" spans="1:14">
       <c r="A758" s="1">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="B758" t="s">
         <v>772</v>
@@ -44508,7 +44508,7 @@
     </row>
     <row r="759" spans="1:14">
       <c r="A759" s="1">
-        <v>3317</v>
+        <v>3610</v>
       </c>
       <c r="B759" t="s">
         <v>773</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="760" spans="1:14">
       <c r="A760" s="1">
-        <v>1273</v>
+        <v>1389</v>
       </c>
       <c r="B760" t="s">
         <v>774</v>
@@ -44590,7 +44590,7 @@
     </row>
     <row r="761" spans="1:14">
       <c r="A761" s="1">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="B761" t="s">
         <v>775</v>
@@ -44631,7 +44631,7 @@
     </row>
     <row r="762" spans="1:14">
       <c r="A762" s="1">
-        <v>2588</v>
+        <v>2818</v>
       </c>
       <c r="B762" t="s">
         <v>776</v>
@@ -44672,7 +44672,7 @@
     </row>
     <row r="763" spans="1:14">
       <c r="A763" s="1">
-        <v>1259</v>
+        <v>1374</v>
       </c>
       <c r="B763" t="s">
         <v>777</v>
@@ -44713,7 +44713,7 @@
     </row>
     <row r="764" spans="1:14">
       <c r="A764" s="1">
-        <v>4023</v>
+        <v>4373</v>
       </c>
       <c r="B764" t="s">
         <v>778</v>
@@ -44754,7 +44754,7 @@
     </row>
     <row r="765" spans="1:14">
       <c r="A765" s="1">
-        <v>2612</v>
+        <v>2844</v>
       </c>
       <c r="B765" t="s">
         <v>779</v>
@@ -44795,7 +44795,7 @@
     </row>
     <row r="766" spans="1:14">
       <c r="A766" s="1">
-        <v>1146</v>
+        <v>1251</v>
       </c>
       <c r="B766" t="s">
         <v>780</v>
@@ -44836,7 +44836,7 @@
     </row>
     <row r="767" spans="1:14">
       <c r="A767" s="1">
-        <v>3629</v>
+        <v>3947</v>
       </c>
       <c r="B767" t="s">
         <v>781</v>
@@ -44877,7 +44877,7 @@
     </row>
     <row r="768" spans="1:14">
       <c r="A768" s="1">
-        <v>3654</v>
+        <v>3974</v>
       </c>
       <c r="B768" t="s">
         <v>782</v>
@@ -44918,7 +44918,7 @@
     </row>
     <row r="769" spans="1:14">
       <c r="A769" s="1">
-        <v>1585</v>
+        <v>1724</v>
       </c>
       <c r="B769" t="s">
         <v>783</v>
@@ -44959,7 +44959,7 @@
     </row>
     <row r="770" spans="1:14">
       <c r="A770" s="1">
-        <v>3709</v>
+        <v>4033</v>
       </c>
       <c r="B770" t="s">
         <v>784</v>
@@ -45000,7 +45000,7 @@
     </row>
     <row r="771" spans="1:14">
       <c r="A771" s="1">
-        <v>1077</v>
+        <v>1176</v>
       </c>
       <c r="B771" t="s">
         <v>785</v>
@@ -45041,7 +45041,7 @@
     </row>
     <row r="772" spans="1:14">
       <c r="A772" s="1">
-        <v>2572</v>
+        <v>2800</v>
       </c>
       <c r="B772" t="s">
         <v>786</v>
@@ -45082,7 +45082,7 @@
     </row>
     <row r="773" spans="1:14">
       <c r="A773" s="1">
-        <v>1055</v>
+        <v>1152</v>
       </c>
       <c r="B773" t="s">
         <v>787</v>
@@ -45123,7 +45123,7 @@
     </row>
     <row r="774" spans="1:14">
       <c r="A774" s="1">
-        <v>1331</v>
+        <v>1450</v>
       </c>
       <c r="B774" t="s">
         <v>788</v>
@@ -45164,7 +45164,7 @@
     </row>
     <row r="775" spans="1:14">
       <c r="A775" s="1">
-        <v>1770</v>
+        <v>1924</v>
       </c>
       <c r="B775" t="s">
         <v>789</v>
@@ -45205,7 +45205,7 @@
     </row>
     <row r="776" spans="1:14">
       <c r="A776" s="1">
-        <v>2617</v>
+        <v>2849</v>
       </c>
       <c r="B776" t="s">
         <v>790</v>
@@ -45246,7 +45246,7 @@
     </row>
     <row r="777" spans="1:14">
       <c r="A777" s="1">
-        <v>1381</v>
+        <v>1504</v>
       </c>
       <c r="B777" t="s">
         <v>791</v>
@@ -45287,7 +45287,7 @@
     </row>
     <row r="778" spans="1:14">
       <c r="A778" s="1">
-        <v>2279</v>
+        <v>2484</v>
       </c>
       <c r="B778" t="s">
         <v>792</v>
@@ -45328,7 +45328,7 @@
     </row>
     <row r="779" spans="1:14">
       <c r="A779" s="1">
-        <v>930</v>
+        <v>1023</v>
       </c>
       <c r="B779" t="s">
         <v>793</v>
@@ -45369,7 +45369,7 @@
     </row>
     <row r="780" spans="1:14">
       <c r="A780" s="1">
-        <v>2869</v>
+        <v>3123</v>
       </c>
       <c r="B780" t="s">
         <v>794</v>
@@ -45410,7 +45410,7 @@
     </row>
     <row r="781" spans="1:14">
       <c r="A781" s="1">
-        <v>3954</v>
+        <v>4299</v>
       </c>
       <c r="B781" t="s">
         <v>795</v>
@@ -45451,7 +45451,7 @@
     </row>
     <row r="782" spans="1:14">
       <c r="A782" s="1">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B782" t="s">
         <v>796</v>
@@ -45492,7 +45492,7 @@
     </row>
     <row r="783" spans="1:14">
       <c r="A783" s="1">
-        <v>3342</v>
+        <v>3638</v>
       </c>
       <c r="B783" t="s">
         <v>797</v>
@@ -45533,7 +45533,7 @@
     </row>
     <row r="784" spans="1:14">
       <c r="A784" s="1">
-        <v>3358</v>
+        <v>3655</v>
       </c>
       <c r="B784" t="s">
         <v>798</v>
@@ -45574,7 +45574,7 @@
     </row>
     <row r="785" spans="1:14">
       <c r="A785" s="1">
-        <v>1457</v>
+        <v>1588</v>
       </c>
       <c r="B785" t="s">
         <v>799</v>
@@ -45615,7 +45615,7 @@
     </row>
     <row r="786" spans="1:14">
       <c r="A786" s="1">
-        <v>1115</v>
+        <v>1220</v>
       </c>
       <c r="B786" t="s">
         <v>800</v>
@@ -45656,7 +45656,7 @@
     </row>
     <row r="787" spans="1:14">
       <c r="A787" s="1">
-        <v>2135</v>
+        <v>2326</v>
       </c>
       <c r="B787" t="s">
         <v>801</v>
@@ -45697,7 +45697,7 @@
     </row>
     <row r="788" spans="1:14">
       <c r="A788" s="1">
-        <v>2871</v>
+        <v>3125</v>
       </c>
       <c r="B788" t="s">
         <v>802</v>
@@ -45738,7 +45738,7 @@
     </row>
     <row r="789" spans="1:14">
       <c r="A789" s="1">
-        <v>2285</v>
+        <v>2492</v>
       </c>
       <c r="B789" t="s">
         <v>803</v>
@@ -45779,7 +45779,7 @@
     </row>
     <row r="790" spans="1:14">
       <c r="A790" s="1">
-        <v>3610</v>
+        <v>3928</v>
       </c>
       <c r="B790" t="s">
         <v>804</v>
@@ -45820,7 +45820,7 @@
     </row>
     <row r="791" spans="1:14">
       <c r="A791" s="1">
-        <v>3453</v>
+        <v>3758</v>
       </c>
       <c r="B791" t="s">
         <v>805</v>
@@ -45861,7 +45861,7 @@
     </row>
     <row r="792" spans="1:14">
       <c r="A792" s="1">
-        <v>4229</v>
+        <v>4594</v>
       </c>
       <c r="B792" t="s">
         <v>806</v>
@@ -45902,7 +45902,7 @@
     </row>
     <row r="793" spans="1:14">
       <c r="A793" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B793" t="s">
         <v>807</v>
@@ -45943,7 +45943,7 @@
     </row>
     <row r="794" spans="1:14">
       <c r="A794" s="1">
-        <v>2971</v>
+        <v>3234</v>
       </c>
       <c r="B794" t="s">
         <v>808</v>
@@ -45984,7 +45984,7 @@
     </row>
     <row r="795" spans="1:14">
       <c r="A795" s="1">
-        <v>1942</v>
+        <v>2112</v>
       </c>
       <c r="B795" t="s">
         <v>809</v>
@@ -46025,7 +46025,7 @@
     </row>
     <row r="796" spans="1:14">
       <c r="A796" s="1">
-        <v>1228</v>
+        <v>1340</v>
       </c>
       <c r="B796" t="s">
         <v>810</v>
@@ -46066,7 +46066,7 @@
     </row>
     <row r="797" spans="1:14">
       <c r="A797" s="1">
-        <v>3874</v>
+        <v>4213</v>
       </c>
       <c r="B797" t="s">
         <v>811</v>
@@ -46107,7 +46107,7 @@
     </row>
     <row r="798" spans="1:14">
       <c r="A798" s="1">
-        <v>4077</v>
+        <v>4433</v>
       </c>
       <c r="B798" t="s">
         <v>812</v>
@@ -46148,7 +46148,7 @@
     </row>
     <row r="799" spans="1:14">
       <c r="A799" s="1">
-        <v>3884</v>
+        <v>4223</v>
       </c>
       <c r="B799" t="s">
         <v>813</v>
@@ -46189,7 +46189,7 @@
     </row>
     <row r="800" spans="1:14">
       <c r="A800" s="1">
-        <v>3613</v>
+        <v>3931</v>
       </c>
       <c r="B800" t="s">
         <v>814</v>
@@ -46230,7 +46230,7 @@
     </row>
     <row r="801" spans="1:14">
       <c r="A801" s="1">
-        <v>2709</v>
+        <v>2949</v>
       </c>
       <c r="B801" t="s">
         <v>815</v>
@@ -46271,7 +46271,7 @@
     </row>
     <row r="802" spans="1:14">
       <c r="A802" s="1">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="B802" t="s">
         <v>816</v>
@@ -46312,7 +46312,7 @@
     </row>
     <row r="803" spans="1:14">
       <c r="A803" s="1">
-        <v>709</v>
+        <v>784</v>
       </c>
       <c r="B803" t="s">
         <v>817</v>
@@ -46353,7 +46353,7 @@
     </row>
     <row r="804" spans="1:14">
       <c r="A804" s="1">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="B804" t="s">
         <v>818</v>
@@ -46394,7 +46394,7 @@
     </row>
     <row r="805" spans="1:14">
       <c r="A805" s="1">
-        <v>1240</v>
+        <v>1352</v>
       </c>
       <c r="B805" t="s">
         <v>819</v>
@@ -46435,7 +46435,7 @@
     </row>
     <row r="806" spans="1:14">
       <c r="A806" s="1">
-        <v>2900</v>
+        <v>3157</v>
       </c>
       <c r="B806" t="s">
         <v>820</v>
@@ -46476,7 +46476,7 @@
     </row>
     <row r="807" spans="1:14">
       <c r="A807" s="1">
-        <v>2644</v>
+        <v>2881</v>
       </c>
       <c r="B807" t="s">
         <v>821</v>
@@ -46517,7 +46517,7 @@
     </row>
     <row r="808" spans="1:14">
       <c r="A808" s="1">
-        <v>2101</v>
+        <v>2289</v>
       </c>
       <c r="B808" t="s">
         <v>822</v>
@@ -46558,7 +46558,7 @@
     </row>
     <row r="809" spans="1:14">
       <c r="A809" s="1">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="B809" t="s">
         <v>823</v>
@@ -46599,7 +46599,7 @@
     </row>
     <row r="810" spans="1:14">
       <c r="A810" s="1">
-        <v>2367</v>
+        <v>2581</v>
       </c>
       <c r="B810" t="s">
         <v>824</v>
@@ -46640,7 +46640,7 @@
     </row>
     <row r="811" spans="1:14">
       <c r="A811" s="1">
-        <v>3129</v>
+        <v>3406</v>
       </c>
       <c r="B811" t="s">
         <v>825</v>
@@ -46681,7 +46681,7 @@
     </row>
     <row r="812" spans="1:14">
       <c r="A812" s="1">
-        <v>4582</v>
+        <v>4972</v>
       </c>
       <c r="B812" t="s">
         <v>826</v>
@@ -46722,7 +46722,7 @@
     </row>
     <row r="813" spans="1:14">
       <c r="A813" s="1">
-        <v>1016</v>
+        <v>1112</v>
       </c>
       <c r="B813" t="s">
         <v>827</v>
@@ -46763,7 +46763,7 @@
     </row>
     <row r="814" spans="1:14">
       <c r="A814" s="1">
-        <v>3467</v>
+        <v>3772</v>
       </c>
       <c r="B814" t="s">
         <v>828</v>
@@ -46804,7 +46804,7 @@
     </row>
     <row r="815" spans="1:14">
       <c r="A815" s="1">
-        <v>1220</v>
+        <v>1332</v>
       </c>
       <c r="B815" t="s">
         <v>829</v>
@@ -46845,7 +46845,7 @@
     </row>
     <row r="816" spans="1:14">
       <c r="A816" s="1">
-        <v>3452</v>
+        <v>3757</v>
       </c>
       <c r="B816" t="s">
         <v>830</v>
@@ -46886,7 +46886,7 @@
     </row>
     <row r="817" spans="1:14">
       <c r="A817" s="1">
-        <v>4260</v>
+        <v>4626</v>
       </c>
       <c r="B817" t="s">
         <v>831</v>
@@ -46927,7 +46927,7 @@
     </row>
     <row r="818" spans="1:14">
       <c r="A818" s="1">
-        <v>4572</v>
+        <v>4961</v>
       </c>
       <c r="B818" t="s">
         <v>832</v>
@@ -46968,7 +46968,7 @@
     </row>
     <row r="819" spans="1:14">
       <c r="A819" s="1">
-        <v>2822</v>
+        <v>3069</v>
       </c>
       <c r="B819" t="s">
         <v>833</v>
@@ -47009,7 +47009,7 @@
     </row>
     <row r="820" spans="1:14">
       <c r="A820" s="1">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="B820" t="s">
         <v>834</v>
@@ -47050,7 +47050,7 @@
     </row>
     <row r="821" spans="1:14">
       <c r="A821" s="1">
-        <v>1909</v>
+        <v>2072</v>
       </c>
       <c r="B821" t="s">
         <v>835</v>
@@ -47091,7 +47091,7 @@
     </row>
     <row r="822" spans="1:14">
       <c r="A822" s="1">
-        <v>1014</v>
+        <v>1110</v>
       </c>
       <c r="B822" t="s">
         <v>836</v>
@@ -47132,7 +47132,7 @@
     </row>
     <row r="823" spans="1:14">
       <c r="A823" s="1">
-        <v>3811</v>
+        <v>4142</v>
       </c>
       <c r="B823" t="s">
         <v>837</v>
@@ -47173,7 +47173,7 @@
     </row>
     <row r="824" spans="1:14">
       <c r="A824" s="1">
-        <v>934</v>
+        <v>1027</v>
       </c>
       <c r="B824" t="s">
         <v>838</v>
@@ -47214,7 +47214,7 @@
     </row>
     <row r="825" spans="1:14">
       <c r="A825" s="1">
-        <v>3031</v>
+        <v>3299</v>
       </c>
       <c r="B825" t="s">
         <v>839</v>
@@ -47255,7 +47255,7 @@
     </row>
     <row r="826" spans="1:14">
       <c r="A826" s="1">
-        <v>973</v>
+        <v>1067</v>
       </c>
       <c r="B826" t="s">
         <v>840</v>
@@ -47296,7 +47296,7 @@
     </row>
     <row r="827" spans="1:14">
       <c r="A827" s="1">
-        <v>1624</v>
+        <v>1766</v>
       </c>
       <c r="B827" t="s">
         <v>841</v>
@@ -47337,7 +47337,7 @@
     </row>
     <row r="828" spans="1:14">
       <c r="A828" s="1">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="B828" t="s">
         <v>842</v>
@@ -47378,7 +47378,7 @@
     </row>
     <row r="829" spans="1:14">
       <c r="A829" s="1">
-        <v>1127</v>
+        <v>1232</v>
       </c>
       <c r="B829" t="s">
         <v>843</v>
@@ -47419,7 +47419,7 @@
     </row>
     <row r="830" spans="1:14">
       <c r="A830" s="1">
-        <v>1549</v>
+        <v>1687</v>
       </c>
       <c r="B830" t="s">
         <v>844</v>
@@ -47460,7 +47460,7 @@
     </row>
     <row r="831" spans="1:14">
       <c r="A831" s="1">
-        <v>4665</v>
+        <v>5062</v>
       </c>
       <c r="B831" t="s">
         <v>845</v>
@@ -47501,7 +47501,7 @@
     </row>
     <row r="832" spans="1:14">
       <c r="A832" s="1">
-        <v>3472</v>
+        <v>3777</v>
       </c>
       <c r="B832" t="s">
         <v>846</v>
@@ -47542,7 +47542,7 @@
     </row>
     <row r="833" spans="1:14">
       <c r="A833" s="1">
-        <v>2322</v>
+        <v>2533</v>
       </c>
       <c r="B833" t="s">
         <v>847</v>
@@ -47583,7 +47583,7 @@
     </row>
     <row r="834" spans="1:14">
       <c r="A834" s="1">
-        <v>2692</v>
+        <v>2932</v>
       </c>
       <c r="B834" t="s">
         <v>848</v>
@@ -47624,7 +47624,7 @@
     </row>
     <row r="835" spans="1:14">
       <c r="A835" s="1">
-        <v>2363</v>
+        <v>2577</v>
       </c>
       <c r="B835" t="s">
         <v>849</v>
@@ -47665,7 +47665,7 @@
     </row>
     <row r="836" spans="1:14">
       <c r="A836" s="1">
-        <v>3192</v>
+        <v>3477</v>
       </c>
       <c r="B836" t="s">
         <v>850</v>
@@ -47706,7 +47706,7 @@
     </row>
     <row r="837" spans="1:14">
       <c r="A837" s="1">
-        <v>1123</v>
+        <v>1228</v>
       </c>
       <c r="B837" t="s">
         <v>851</v>
@@ -47747,7 +47747,7 @@
     </row>
     <row r="838" spans="1:14">
       <c r="A838" s="1">
-        <v>1929</v>
+        <v>2096</v>
       </c>
       <c r="B838" t="s">
         <v>852</v>
@@ -47788,7 +47788,7 @@
     </row>
     <row r="839" spans="1:14">
       <c r="A839" s="1">
-        <v>681</v>
+        <v>754</v>
       </c>
       <c r="B839" t="s">
         <v>853</v>
@@ -47829,7 +47829,7 @@
     </row>
     <row r="840" spans="1:14">
       <c r="A840" s="1">
-        <v>1004</v>
+        <v>1100</v>
       </c>
       <c r="B840" t="s">
         <v>854</v>
@@ -47870,7 +47870,7 @@
     </row>
     <row r="841" spans="1:14">
       <c r="A841" s="1">
-        <v>688</v>
+        <v>761</v>
       </c>
       <c r="B841" t="s">
         <v>855</v>
@@ -47911,7 +47911,7 @@
     </row>
     <row r="842" spans="1:14">
       <c r="A842" s="1">
-        <v>1338</v>
+        <v>1457</v>
       </c>
       <c r="B842" t="s">
         <v>856</v>
@@ -47952,7 +47952,7 @@
     </row>
     <row r="843" spans="1:14">
       <c r="A843" s="1">
-        <v>2108</v>
+        <v>2296</v>
       </c>
       <c r="B843" t="s">
         <v>857</v>
@@ -47993,7 +47993,7 @@
     </row>
     <row r="844" spans="1:14">
       <c r="A844" s="1">
-        <v>1956</v>
+        <v>2128</v>
       </c>
       <c r="B844" t="s">
         <v>858</v>
@@ -48034,7 +48034,7 @@
     </row>
     <row r="845" spans="1:14">
       <c r="A845" s="1">
-        <v>3959</v>
+        <v>4304</v>
       </c>
       <c r="B845" t="s">
         <v>859</v>
@@ -48075,7 +48075,7 @@
     </row>
     <row r="846" spans="1:14">
       <c r="A846" s="1">
-        <v>876</v>
+        <v>963</v>
       </c>
       <c r="B846" t="s">
         <v>860</v>
@@ -48116,7 +48116,7 @@
     </row>
     <row r="847" spans="1:14">
       <c r="A847" s="1">
-        <v>1559</v>
+        <v>1697</v>
       </c>
       <c r="B847" t="s">
         <v>861</v>
@@ -48157,7 +48157,7 @@
     </row>
     <row r="848" spans="1:14">
       <c r="A848" s="1">
-        <v>1827</v>
+        <v>1983</v>
       </c>
       <c r="B848" t="s">
         <v>862</v>
@@ -48198,7 +48198,7 @@
     </row>
     <row r="849" spans="1:14">
       <c r="A849" s="1">
-        <v>3681</v>
+        <v>4003</v>
       </c>
       <c r="B849" t="s">
         <v>863</v>
@@ -48239,7 +48239,7 @@
     </row>
     <row r="850" spans="1:14">
       <c r="A850" s="1">
-        <v>1033</v>
+        <v>1130</v>
       </c>
       <c r="B850" t="s">
         <v>864</v>
@@ -48280,7 +48280,7 @@
     </row>
     <row r="851" spans="1:14">
       <c r="A851" s="1">
-        <v>2175</v>
+        <v>2367</v>
       </c>
       <c r="B851" t="s">
         <v>865</v>
@@ -48321,7 +48321,7 @@
     </row>
     <row r="852" spans="1:14">
       <c r="A852" s="1">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B852" t="s">
         <v>866</v>
@@ -48362,7 +48362,7 @@
     </row>
     <row r="853" spans="1:14">
       <c r="A853" s="1">
-        <v>4311</v>
+        <v>4680</v>
       </c>
       <c r="B853" t="s">
         <v>867</v>
@@ -48403,7 +48403,7 @@
     </row>
     <row r="854" spans="1:14">
       <c r="A854" s="1">
-        <v>1325</v>
+        <v>1444</v>
       </c>
       <c r="B854" t="s">
         <v>868</v>
@@ -48444,7 +48444,7 @@
     </row>
     <row r="855" spans="1:14">
       <c r="A855" s="1">
-        <v>2919</v>
+        <v>3177</v>
       </c>
       <c r="B855" t="s">
         <v>869</v>
@@ -48485,7 +48485,7 @@
     </row>
     <row r="856" spans="1:14">
       <c r="A856" s="1">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="B856" t="s">
         <v>870</v>
@@ -48526,7 +48526,7 @@
     </row>
     <row r="857" spans="1:14">
       <c r="A857" s="1">
-        <v>3255</v>
+        <v>3542</v>
       </c>
       <c r="B857" t="s">
         <v>871</v>
@@ -48567,7 +48567,7 @@
     </row>
     <row r="858" spans="1:14">
       <c r="A858" s="1">
-        <v>974</v>
+        <v>1068</v>
       </c>
       <c r="B858" t="s">
         <v>872</v>
@@ -48608,7 +48608,7 @@
     </row>
     <row r="859" spans="1:14">
       <c r="A859" s="1">
-        <v>1151</v>
+        <v>1256</v>
       </c>
       <c r="B859" t="s">
         <v>873</v>
@@ -48649,7 +48649,7 @@
     </row>
     <row r="860" spans="1:14">
       <c r="A860" s="1">
-        <v>3664</v>
+        <v>3985</v>
       </c>
       <c r="B860" t="s">
         <v>874</v>
@@ -48690,7 +48690,7 @@
     </row>
     <row r="861" spans="1:14">
       <c r="A861" s="1">
-        <v>3946</v>
+        <v>4288</v>
       </c>
       <c r="B861" t="s">
         <v>875</v>
@@ -48731,7 +48731,7 @@
     </row>
     <row r="862" spans="1:14">
       <c r="A862" s="1">
-        <v>2649</v>
+        <v>2888</v>
       </c>
       <c r="B862" t="s">
         <v>876</v>
@@ -48772,7 +48772,7 @@
     </row>
     <row r="863" spans="1:14">
       <c r="A863" s="1">
-        <v>4101</v>
+        <v>4458</v>
       </c>
       <c r="B863" t="s">
         <v>877</v>
@@ -48813,7 +48813,7 @@
     </row>
     <row r="864" spans="1:14">
       <c r="A864" s="1">
-        <v>3014</v>
+        <v>3280</v>
       </c>
       <c r="B864" t="s">
         <v>878</v>
@@ -48854,7 +48854,7 @@
     </row>
     <row r="865" spans="1:14">
       <c r="A865" s="1">
-        <v>3791</v>
+        <v>4119</v>
       </c>
       <c r="B865" t="s">
         <v>879</v>
@@ -48895,7 +48895,7 @@
     </row>
     <row r="866" spans="1:14">
       <c r="A866" s="1">
-        <v>3343</v>
+        <v>3639</v>
       </c>
       <c r="B866" t="s">
         <v>880</v>
@@ -48936,7 +48936,7 @@
     </row>
     <row r="867" spans="1:14">
       <c r="A867" s="1">
-        <v>4368</v>
+        <v>4742</v>
       </c>
       <c r="B867" t="s">
         <v>881</v>
@@ -48977,7 +48977,7 @@
     </row>
     <row r="868" spans="1:14">
       <c r="A868" s="1">
-        <v>4539</v>
+        <v>4926</v>
       </c>
       <c r="B868" t="s">
         <v>882</v>
@@ -49018,7 +49018,7 @@
     </row>
     <row r="869" spans="1:14">
       <c r="A869" s="1">
-        <v>1109</v>
+        <v>1214</v>
       </c>
       <c r="B869" t="s">
         <v>883</v>
@@ -49059,7 +49059,7 @@
     </row>
     <row r="870" spans="1:14">
       <c r="A870" s="1">
-        <v>4127</v>
+        <v>4487</v>
       </c>
       <c r="B870" t="s">
         <v>884</v>
@@ -49100,7 +49100,7 @@
     </row>
     <row r="871" spans="1:14">
       <c r="A871" s="1">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B871" t="s">
         <v>885</v>
@@ -49141,7 +49141,7 @@
     </row>
     <row r="872" spans="1:14">
       <c r="A872" s="1">
-        <v>1179</v>
+        <v>1287</v>
       </c>
       <c r="B872" t="s">
         <v>886</v>
@@ -49182,7 +49182,7 @@
     </row>
     <row r="873" spans="1:14">
       <c r="A873" s="1">
-        <v>2356</v>
+        <v>2569</v>
       </c>
       <c r="B873" t="s">
         <v>887</v>
@@ -49223,7 +49223,7 @@
     </row>
     <row r="874" spans="1:14">
       <c r="A874" s="1">
-        <v>2381</v>
+        <v>2597</v>
       </c>
       <c r="B874" t="s">
         <v>888</v>
@@ -49264,7 +49264,7 @@
     </row>
     <row r="875" spans="1:14">
       <c r="A875" s="1">
-        <v>1079</v>
+        <v>1178</v>
       </c>
       <c r="B875" t="s">
         <v>889</v>
@@ -49305,7 +49305,7 @@
     </row>
     <row r="876" spans="1:14">
       <c r="A876" s="1">
-        <v>3226</v>
+        <v>3512</v>
       </c>
       <c r="B876" t="s">
         <v>890</v>
@@ -49346,7 +49346,7 @@
     </row>
     <row r="877" spans="1:14">
       <c r="A877" s="1">
-        <v>2903</v>
+        <v>3160</v>
       </c>
       <c r="B877" t="s">
         <v>891</v>
@@ -49387,7 +49387,7 @@
     </row>
     <row r="878" spans="1:14">
       <c r="A878" s="1">
-        <v>2393</v>
+        <v>2611</v>
       </c>
       <c r="B878" t="s">
         <v>892</v>
@@ -49428,7 +49428,7 @@
     </row>
     <row r="879" spans="1:14">
       <c r="A879" s="1">
-        <v>852</v>
+        <v>937</v>
       </c>
       <c r="B879" t="s">
         <v>893</v>
@@ -49469,7 +49469,7 @@
     </row>
     <row r="880" spans="1:14">
       <c r="A880" s="1">
-        <v>4327</v>
+        <v>4697</v>
       </c>
       <c r="B880" t="s">
         <v>894</v>
@@ -49510,7 +49510,7 @@
     </row>
     <row r="881" spans="1:14">
       <c r="A881" s="1">
-        <v>1886</v>
+        <v>2048</v>
       </c>
       <c r="B881" t="s">
         <v>895</v>
@@ -49551,7 +49551,7 @@
     </row>
     <row r="882" spans="1:14">
       <c r="A882" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B882" t="s">
         <v>896</v>
@@ -49592,7 +49592,7 @@
     </row>
     <row r="883" spans="1:14">
       <c r="A883" s="1">
-        <v>2821</v>
+        <v>3068</v>
       </c>
       <c r="B883" t="s">
         <v>897</v>
@@ -49633,7 +49633,7 @@
     </row>
     <row r="884" spans="1:14">
       <c r="A884" s="1">
-        <v>3562</v>
+        <v>3873</v>
       </c>
       <c r="B884" t="s">
         <v>898</v>
@@ -49674,7 +49674,7 @@
     </row>
     <row r="885" spans="1:14">
       <c r="A885" s="1">
-        <v>1940</v>
+        <v>2109</v>
       </c>
       <c r="B885" t="s">
         <v>899</v>
@@ -49715,7 +49715,7 @@
     </row>
     <row r="886" spans="1:14">
       <c r="A886" s="1">
-        <v>2383</v>
+        <v>2599</v>
       </c>
       <c r="B886" t="s">
         <v>900</v>
@@ -49756,7 +49756,7 @@
     </row>
     <row r="887" spans="1:14">
       <c r="A887" s="1">
-        <v>3274</v>
+        <v>3563</v>
       </c>
       <c r="B887" t="s">
         <v>901</v>
@@ -49797,7 +49797,7 @@
     </row>
     <row r="888" spans="1:14">
       <c r="A888" s="1">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="B888" t="s">
         <v>902</v>
@@ -49838,7 +49838,7 @@
     </row>
     <row r="889" spans="1:14">
       <c r="A889" s="1">
-        <v>921</v>
+        <v>1013</v>
       </c>
       <c r="B889" t="s">
         <v>903</v>
@@ -49879,7 +49879,7 @@
     </row>
     <row r="890" spans="1:14">
       <c r="A890" s="1">
-        <v>2833</v>
+        <v>3081</v>
       </c>
       <c r="B890" t="s">
         <v>904</v>
@@ -49920,7 +49920,7 @@
     </row>
     <row r="891" spans="1:14">
       <c r="A891" s="1">
-        <v>4577</v>
+        <v>4967</v>
       </c>
       <c r="B891" t="s">
         <v>905</v>
@@ -49961,7 +49961,7 @@
     </row>
     <row r="892" spans="1:14">
       <c r="A892" s="1">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="B892" t="s">
         <v>906</v>
@@ -50002,7 +50002,7 @@
     </row>
     <row r="893" spans="1:14">
       <c r="A893" s="1">
-        <v>1208</v>
+        <v>1318</v>
       </c>
       <c r="B893" t="s">
         <v>907</v>
@@ -50043,7 +50043,7 @@
     </row>
     <row r="894" spans="1:14">
       <c r="A894" s="1">
-        <v>624</v>
+        <v>689</v>
       </c>
       <c r="B894" t="s">
         <v>908</v>
@@ -50084,7 +50084,7 @@
     </row>
     <row r="895" spans="1:14">
       <c r="A895" s="1">
-        <v>4185</v>
+        <v>4549</v>
       </c>
       <c r="B895" t="s">
         <v>909</v>
@@ -50125,7 +50125,7 @@
     </row>
     <row r="896" spans="1:14">
       <c r="A896" s="1">
-        <v>3256</v>
+        <v>3543</v>
       </c>
       <c r="B896" t="s">
         <v>910</v>
@@ -50166,7 +50166,7 @@
     </row>
     <row r="897" spans="1:14">
       <c r="A897" s="1">
-        <v>3608</v>
+        <v>3926</v>
       </c>
       <c r="B897" t="s">
         <v>911</v>
@@ -50207,7 +50207,7 @@
     </row>
     <row r="898" spans="1:14">
       <c r="A898" s="1">
-        <v>2334</v>
+        <v>2545</v>
       </c>
       <c r="B898" t="s">
         <v>912</v>
@@ -50248,7 +50248,7 @@
     </row>
     <row r="899" spans="1:14">
       <c r="A899" s="1">
-        <v>893</v>
+        <v>982</v>
       </c>
       <c r="B899" t="s">
         <v>913</v>
@@ -50289,7 +50289,7 @@
     </row>
     <row r="900" spans="1:14">
       <c r="A900" s="1">
-        <v>3732</v>
+        <v>4056</v>
       </c>
       <c r="B900" t="s">
         <v>914</v>
@@ -50330,7 +50330,7 @@
     </row>
     <row r="901" spans="1:14">
       <c r="A901" s="1">
-        <v>1448</v>
+        <v>1575</v>
       </c>
       <c r="B901" t="s">
         <v>915</v>
@@ -50371,7 +50371,7 @@
     </row>
     <row r="902" spans="1:14">
       <c r="A902" s="1">
-        <v>846</v>
+        <v>930</v>
       </c>
       <c r="B902" t="s">
         <v>916</v>
@@ -50412,7 +50412,7 @@
     </row>
     <row r="903" spans="1:14">
       <c r="A903" s="1">
-        <v>2088</v>
+        <v>2270</v>
       </c>
       <c r="B903" t="s">
         <v>917</v>
@@ -50453,7 +50453,7 @@
     </row>
     <row r="904" spans="1:14">
       <c r="A904" s="1">
-        <v>2681</v>
+        <v>2921</v>
       </c>
       <c r="B904" t="s">
         <v>918</v>
@@ -50494,7 +50494,7 @@
     </row>
     <row r="905" spans="1:14">
       <c r="A905" s="1">
-        <v>1298</v>
+        <v>1417</v>
       </c>
       <c r="B905" t="s">
         <v>919</v>
@@ -50535,7 +50535,7 @@
     </row>
     <row r="906" spans="1:14">
       <c r="A906" s="1">
-        <v>733</v>
+        <v>809</v>
       </c>
       <c r="B906" t="s">
         <v>920</v>
@@ -50576,7 +50576,7 @@
     </row>
     <row r="907" spans="1:14">
       <c r="A907" s="1">
-        <v>4391</v>
+        <v>4766</v>
       </c>
       <c r="B907" t="s">
         <v>921</v>
@@ -50617,7 +50617,7 @@
     </row>
     <row r="908" spans="1:14">
       <c r="A908" s="1">
-        <v>1480</v>
+        <v>1611</v>
       </c>
       <c r="B908" t="s">
         <v>922</v>
@@ -50658,7 +50658,7 @@
     </row>
     <row r="909" spans="1:14">
       <c r="A909" s="1">
-        <v>3511</v>
+        <v>3817</v>
       </c>
       <c r="B909" t="s">
         <v>923</v>
@@ -50699,7 +50699,7 @@
     </row>
     <row r="910" spans="1:14">
       <c r="A910" s="1">
-        <v>1100</v>
+        <v>1203</v>
       </c>
       <c r="B910" t="s">
         <v>924</v>
@@ -50740,7 +50740,7 @@
     </row>
     <row r="911" spans="1:14">
       <c r="A911" s="1">
-        <v>3645</v>
+        <v>3964</v>
       </c>
       <c r="B911" t="s">
         <v>925</v>
@@ -50781,7 +50781,7 @@
     </row>
     <row r="912" spans="1:14">
       <c r="A912" s="1">
-        <v>1730</v>
+        <v>1882</v>
       </c>
       <c r="B912" t="s">
         <v>926</v>
@@ -50822,7 +50822,7 @@
     </row>
     <row r="913" spans="1:14">
       <c r="A913" s="1">
-        <v>734</v>
+        <v>810</v>
       </c>
       <c r="B913" t="s">
         <v>927</v>
@@ -50863,7 +50863,7 @@
     </row>
     <row r="914" spans="1:14">
       <c r="A914" s="1">
-        <v>3939</v>
+        <v>4281</v>
       </c>
       <c r="B914" t="s">
         <v>928</v>
@@ -50904,7 +50904,7 @@
     </row>
     <row r="915" spans="1:14">
       <c r="A915" s="1">
-        <v>1167</v>
+        <v>1274</v>
       </c>
       <c r="B915" t="s">
         <v>929</v>
@@ -50945,7 +50945,7 @@
     </row>
     <row r="916" spans="1:14">
       <c r="A916" s="1">
-        <v>1737</v>
+        <v>1889</v>
       </c>
       <c r="B916" t="s">
         <v>930</v>
@@ -50986,7 +50986,7 @@
     </row>
     <row r="917" spans="1:14">
       <c r="A917" s="1">
-        <v>1129</v>
+        <v>1234</v>
       </c>
       <c r="B917" t="s">
         <v>931</v>
@@ -51027,7 +51027,7 @@
     </row>
     <row r="918" spans="1:14">
       <c r="A918" s="1">
-        <v>4284</v>
+        <v>4651</v>
       </c>
       <c r="B918" t="s">
         <v>932</v>
@@ -51068,7 +51068,7 @@
     </row>
     <row r="919" spans="1:14">
       <c r="A919" s="1">
-        <v>4346</v>
+        <v>4718</v>
       </c>
       <c r="B919" t="s">
         <v>933</v>
@@ -51109,7 +51109,7 @@
     </row>
     <row r="920" spans="1:14">
       <c r="A920" s="1">
-        <v>3476</v>
+        <v>3781</v>
       </c>
       <c r="B920" t="s">
         <v>934</v>
@@ -51150,7 +51150,7 @@
     </row>
     <row r="921" spans="1:14">
       <c r="A921" s="1">
-        <v>1608</v>
+        <v>1750</v>
       </c>
       <c r="B921" t="s">
         <v>935</v>
@@ -51191,7 +51191,7 @@
     </row>
     <row r="922" spans="1:14">
       <c r="A922" s="1">
-        <v>1832</v>
+        <v>1988</v>
       </c>
       <c r="B922" t="s">
         <v>936</v>
@@ -51232,7 +51232,7 @@
     </row>
     <row r="923" spans="1:14">
       <c r="A923" s="1">
-        <v>3250</v>
+        <v>3537</v>
       </c>
       <c r="B923" t="s">
         <v>937</v>
@@ -51273,7 +51273,7 @@
     </row>
     <row r="924" spans="1:14">
       <c r="A924" s="1">
-        <v>4508</v>
+        <v>4894</v>
       </c>
       <c r="B924" t="s">
         <v>938</v>
@@ -51314,7 +51314,7 @@
     </row>
     <row r="925" spans="1:14">
       <c r="A925" s="1">
-        <v>1986</v>
+        <v>2163</v>
       </c>
       <c r="B925" t="s">
         <v>939</v>
@@ -51355,7 +51355,7 @@
     </row>
     <row r="926" spans="1:14">
       <c r="A926" s="1">
-        <v>2853</v>
+        <v>3102</v>
       </c>
       <c r="B926" t="s">
         <v>940</v>
@@ -51396,7 +51396,7 @@
     </row>
     <row r="927" spans="1:14">
       <c r="A927" s="1">
-        <v>4320</v>
+        <v>4689</v>
       </c>
       <c r="B927" t="s">
         <v>941</v>
@@ -51437,7 +51437,7 @@
     </row>
     <row r="928" spans="1:14">
       <c r="A928" s="1">
-        <v>3749</v>
+        <v>4074</v>
       </c>
       <c r="B928" t="s">
         <v>942</v>
@@ -51478,7 +51478,7 @@
     </row>
     <row r="929" spans="1:14">
       <c r="A929" s="1">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="B929" t="s">
         <v>943</v>
@@ -51519,7 +51519,7 @@
     </row>
     <row r="930" spans="1:14">
       <c r="A930" s="1">
-        <v>1330</v>
+        <v>1449</v>
       </c>
       <c r="B930" t="s">
         <v>944</v>
@@ -51560,7 +51560,7 @@
     </row>
     <row r="931" spans="1:14">
       <c r="A931" s="1">
-        <v>625</v>
+        <v>690</v>
       </c>
       <c r="B931" t="s">
         <v>945</v>
@@ -51601,7 +51601,7 @@
     </row>
     <row r="932" spans="1:14">
       <c r="A932" s="1">
-        <v>2887</v>
+        <v>3143</v>
       </c>
       <c r="B932" t="s">
         <v>946</v>
@@ -51642,7 +51642,7 @@
     </row>
     <row r="933" spans="1:14">
       <c r="A933" s="1">
-        <v>1898</v>
+        <v>2061</v>
       </c>
       <c r="B933" t="s">
         <v>947</v>
@@ -51683,7 +51683,7 @@
     </row>
     <row r="934" spans="1:14">
       <c r="A934" s="1">
-        <v>3767</v>
+        <v>4093</v>
       </c>
       <c r="B934" t="s">
         <v>948</v>
@@ -51724,7 +51724,7 @@
     </row>
     <row r="935" spans="1:14">
       <c r="A935" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B935" t="s">
         <v>949</v>
@@ -51765,7 +51765,7 @@
     </row>
     <row r="936" spans="1:14">
       <c r="A936" s="1">
-        <v>2666</v>
+        <v>2906</v>
       </c>
       <c r="B936" t="s">
         <v>950</v>
@@ -51806,7 +51806,7 @@
     </row>
     <row r="937" spans="1:14">
       <c r="A937" s="1">
-        <v>1400</v>
+        <v>1524</v>
       </c>
       <c r="B937" t="s">
         <v>951</v>
@@ -51847,7 +51847,7 @@
     </row>
     <row r="938" spans="1:14">
       <c r="A938" s="1">
-        <v>864</v>
+        <v>949</v>
       </c>
       <c r="B938" t="s">
         <v>952</v>
@@ -51888,7 +51888,7 @@
     </row>
     <row r="939" spans="1:14">
       <c r="A939" s="1">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B939" t="s">
         <v>953</v>
@@ -51929,7 +51929,7 @@
     </row>
     <row r="940" spans="1:14">
       <c r="A940" s="1">
-        <v>3722</v>
+        <v>4046</v>
       </c>
       <c r="B940" t="s">
         <v>954</v>
@@ -51970,7 +51970,7 @@
     </row>
     <row r="941" spans="1:14">
       <c r="A941" s="1">
-        <v>3130</v>
+        <v>3407</v>
       </c>
       <c r="B941" t="s">
         <v>955</v>
@@ -52011,7 +52011,7 @@
     </row>
     <row r="942" spans="1:14">
       <c r="A942" s="1">
-        <v>2017</v>
+        <v>2197</v>
       </c>
       <c r="B942" t="s">
         <v>956</v>
@@ -52052,7 +52052,7 @@
     </row>
     <row r="943" spans="1:14">
       <c r="A943" s="1">
-        <v>1522</v>
+        <v>1657</v>
       </c>
       <c r="B943" t="s">
         <v>957</v>
@@ -52093,7 +52093,7 @@
     </row>
     <row r="944" spans="1:14">
       <c r="A944" s="1">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="B944" t="s">
         <v>958</v>
@@ -52134,7 +52134,7 @@
     </row>
     <row r="945" spans="1:14">
       <c r="A945" s="1">
-        <v>2308</v>
+        <v>2519</v>
       </c>
       <c r="B945" t="s">
         <v>959</v>
@@ -52175,7 +52175,7 @@
     </row>
     <row r="946" spans="1:14">
       <c r="A946" s="1">
-        <v>3831</v>
+        <v>4166</v>
       </c>
       <c r="B946" t="s">
         <v>960</v>
@@ -52216,7 +52216,7 @@
     </row>
     <row r="947" spans="1:14">
       <c r="A947" s="1">
-        <v>4597</v>
+        <v>4989</v>
       </c>
       <c r="B947" t="s">
         <v>961</v>
@@ -52257,7 +52257,7 @@
     </row>
     <row r="948" spans="1:14">
       <c r="A948" s="1">
-        <v>2829</v>
+        <v>3077</v>
       </c>
       <c r="B948" t="s">
         <v>962</v>
@@ -52298,7 +52298,7 @@
     </row>
     <row r="949" spans="1:14">
       <c r="A949" s="1">
-        <v>3275</v>
+        <v>3564</v>
       </c>
       <c r="B949" t="s">
         <v>963</v>
@@ -52339,7 +52339,7 @@
     </row>
     <row r="950" spans="1:14">
       <c r="A950" s="1">
-        <v>3291</v>
+        <v>3581</v>
       </c>
       <c r="B950" t="s">
         <v>964</v>
@@ -52380,7 +52380,7 @@
     </row>
     <row r="951" spans="1:14">
       <c r="A951" s="1">
-        <v>1546</v>
+        <v>1684</v>
       </c>
       <c r="B951" t="s">
         <v>965</v>
@@ -52421,7 +52421,7 @@
     </row>
     <row r="952" spans="1:14">
       <c r="A952" s="1">
-        <v>4309</v>
+        <v>4678</v>
       </c>
       <c r="B952" t="s">
         <v>966</v>
@@ -52462,7 +52462,7 @@
     </row>
     <row r="953" spans="1:14">
       <c r="A953" s="1">
-        <v>2076</v>
+        <v>2257</v>
       </c>
       <c r="B953" t="s">
         <v>967</v>
@@ -52503,7 +52503,7 @@
     </row>
     <row r="954" spans="1:14">
       <c r="A954" s="1">
-        <v>3763</v>
+        <v>4089</v>
       </c>
       <c r="B954" t="s">
         <v>968</v>
@@ -52544,7 +52544,7 @@
     </row>
     <row r="955" spans="1:14">
       <c r="A955" s="1">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="B955" t="s">
         <v>969</v>
@@ -52585,7 +52585,7 @@
     </row>
     <row r="956" spans="1:14">
       <c r="A956" s="1">
-        <v>3279</v>
+        <v>3568</v>
       </c>
       <c r="B956" t="s">
         <v>970</v>
@@ -52626,7 +52626,7 @@
     </row>
     <row r="957" spans="1:14">
       <c r="A957" s="1">
-        <v>2478</v>
+        <v>2702</v>
       </c>
       <c r="B957" t="s">
         <v>971</v>
@@ -52667,7 +52667,7 @@
     </row>
     <row r="958" spans="1:14">
       <c r="A958" s="1">
-        <v>2340</v>
+        <v>2551</v>
       </c>
       <c r="B958" t="s">
         <v>972</v>
@@ -52708,7 +52708,7 @@
     </row>
     <row r="959" spans="1:14">
       <c r="A959" s="1">
-        <v>4123</v>
+        <v>4483</v>
       </c>
       <c r="B959" t="s">
         <v>973</v>
@@ -52749,7 +52749,7 @@
     </row>
     <row r="960" spans="1:14">
       <c r="A960" s="1">
-        <v>1516</v>
+        <v>1651</v>
       </c>
       <c r="B960" t="s">
         <v>974</v>
@@ -52790,7 +52790,7 @@
     </row>
     <row r="961" spans="1:14">
       <c r="A961" s="1">
-        <v>3513</v>
+        <v>3819</v>
       </c>
       <c r="B961" t="s">
         <v>975</v>
@@ -52831,7 +52831,7 @@
     </row>
     <row r="962" spans="1:14">
       <c r="A962" s="1">
-        <v>1136</v>
+        <v>1241</v>
       </c>
       <c r="B962" t="s">
         <v>976</v>
@@ -52872,7 +52872,7 @@
     </row>
     <row r="963" spans="1:14">
       <c r="A963" s="1">
-        <v>4512</v>
+        <v>4898</v>
       </c>
       <c r="B963" t="s">
         <v>977</v>
@@ -52913,7 +52913,7 @@
     </row>
     <row r="964" spans="1:14">
       <c r="A964" s="1">
-        <v>3449</v>
+        <v>3754</v>
       </c>
       <c r="B964" t="s">
         <v>978</v>
@@ -52954,7 +52954,7 @@
     </row>
     <row r="965" spans="1:14">
       <c r="A965" s="1">
-        <v>1149</v>
+        <v>1254</v>
       </c>
       <c r="B965" t="s">
         <v>979</v>
@@ -52995,7 +52995,7 @@
     </row>
     <row r="966" spans="1:14">
       <c r="A966" s="1">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="B966" t="s">
         <v>980</v>
@@ -53036,7 +53036,7 @@
     </row>
     <row r="967" spans="1:14">
       <c r="A967" s="1">
-        <v>1570</v>
+        <v>1709</v>
       </c>
       <c r="B967" t="s">
         <v>981</v>
@@ -53077,7 +53077,7 @@
     </row>
     <row r="968" spans="1:14">
       <c r="A968" s="1">
-        <v>4541</v>
+        <v>4929</v>
       </c>
       <c r="B968" t="s">
         <v>982</v>
@@ -53118,7 +53118,7 @@
     </row>
     <row r="969" spans="1:14">
       <c r="A969" s="1">
-        <v>2840</v>
+        <v>3088</v>
       </c>
       <c r="B969" t="s">
         <v>983</v>
@@ -53159,7 +53159,7 @@
     </row>
     <row r="970" spans="1:14">
       <c r="A970" s="1">
-        <v>3672</v>
+        <v>3994</v>
       </c>
       <c r="B970" t="s">
         <v>984</v>
@@ -53200,7 +53200,7 @@
     </row>
     <row r="971" spans="1:14">
       <c r="A971" s="1">
-        <v>1681</v>
+        <v>1828</v>
       </c>
       <c r="B971" t="s">
         <v>985</v>
@@ -53241,7 +53241,7 @@
     </row>
     <row r="972" spans="1:14">
       <c r="A972" s="1">
-        <v>3461</v>
+        <v>3766</v>
       </c>
       <c r="B972" t="s">
         <v>986</v>
@@ -53282,7 +53282,7 @@
     </row>
     <row r="973" spans="1:14">
       <c r="A973" s="1">
-        <v>1610</v>
+        <v>1752</v>
       </c>
       <c r="B973" t="s">
         <v>987</v>
@@ -53323,7 +53323,7 @@
     </row>
     <row r="974" spans="1:14">
       <c r="A974" s="1">
-        <v>2448</v>
+        <v>2671</v>
       </c>
       <c r="B974" t="s">
         <v>988</v>
@@ -53364,7 +53364,7 @@
     </row>
     <row r="975" spans="1:14">
       <c r="A975" s="1">
-        <v>1353</v>
+        <v>1476</v>
       </c>
       <c r="B975" t="s">
         <v>989</v>
@@ -53405,7 +53405,7 @@
     </row>
     <row r="976" spans="1:14">
       <c r="A976" s="1">
-        <v>3703</v>
+        <v>4027</v>
       </c>
       <c r="B976" t="s">
         <v>990</v>
@@ -53446,7 +53446,7 @@
     </row>
     <row r="977" spans="1:14">
       <c r="A977" s="1">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B977" t="s">
         <v>991</v>
@@ -53487,7 +53487,7 @@
     </row>
     <row r="978" spans="1:14">
       <c r="A978" s="1">
-        <v>1862</v>
+        <v>2022</v>
       </c>
       <c r="B978" t="s">
         <v>992</v>
@@ -53528,7 +53528,7 @@
     </row>
     <row r="979" spans="1:14">
       <c r="A979" s="1">
-        <v>1317</v>
+        <v>1436</v>
       </c>
       <c r="B979" t="s">
         <v>993</v>
@@ -53569,7 +53569,7 @@
     </row>
     <row r="980" spans="1:14">
       <c r="A980" s="1">
-        <v>882</v>
+        <v>971</v>
       </c>
       <c r="B980" t="s">
         <v>994</v>
@@ -53610,7 +53610,7 @@
     </row>
     <row r="981" spans="1:14">
       <c r="A981" s="1">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="B981" t="s">
         <v>995</v>
@@ -53651,7 +53651,7 @@
     </row>
     <row r="982" spans="1:14">
       <c r="A982" s="1">
-        <v>2472</v>
+        <v>2696</v>
       </c>
       <c r="B982" t="s">
         <v>996</v>
@@ -53692,7 +53692,7 @@
     </row>
     <row r="983" spans="1:14">
       <c r="A983" s="1">
-        <v>2851</v>
+        <v>3100</v>
       </c>
       <c r="B983" t="s">
         <v>997</v>
@@ -53733,7 +53733,7 @@
     </row>
     <row r="984" spans="1:14">
       <c r="A984" s="1">
-        <v>3871</v>
+        <v>4210</v>
       </c>
       <c r="B984" t="s">
         <v>998</v>
@@ -53774,7 +53774,7 @@
     </row>
     <row r="985" spans="1:14">
       <c r="A985" s="1">
-        <v>4276</v>
+        <v>4642</v>
       </c>
       <c r="B985" t="s">
         <v>999</v>
@@ -53815,7 +53815,7 @@
     </row>
     <row r="986" spans="1:14">
       <c r="A986" s="1">
-        <v>4626</v>
+        <v>5021</v>
       </c>
       <c r="B986" t="s">
         <v>1000</v>
@@ -53856,7 +53856,7 @@
     </row>
     <row r="987" spans="1:14">
       <c r="A987" s="1">
-        <v>3531</v>
+        <v>3838</v>
       </c>
       <c r="B987" t="s">
         <v>1001</v>
@@ -53897,7 +53897,7 @@
     </row>
     <row r="988" spans="1:14">
       <c r="A988" s="1">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="B988" t="s">
         <v>1002</v>
@@ -53938,7 +53938,7 @@
     </row>
     <row r="989" spans="1:14">
       <c r="A989" s="1">
-        <v>4257</v>
+        <v>4623</v>
       </c>
       <c r="B989" t="s">
         <v>1003</v>
@@ -53979,7 +53979,7 @@
     </row>
     <row r="990" spans="1:14">
       <c r="A990" s="1">
-        <v>2073</v>
+        <v>2254</v>
       </c>
       <c r="B990" t="s">
         <v>1004</v>
@@ -54020,7 +54020,7 @@
     </row>
     <row r="991" spans="1:14">
       <c r="A991" s="1">
-        <v>1838</v>
+        <v>1994</v>
       </c>
       <c r="B991" t="s">
         <v>1005</v>
@@ -54061,7 +54061,7 @@
     </row>
     <row r="992" spans="1:14">
       <c r="A992" s="1">
-        <v>659</v>
+        <v>730</v>
       </c>
       <c r="B992" t="s">
         <v>1006</v>
@@ -54102,7 +54102,7 @@
     </row>
     <row r="993" spans="1:14">
       <c r="A993" s="1">
-        <v>1162</v>
+        <v>1268</v>
       </c>
       <c r="B993" t="s">
         <v>1007</v>
@@ -54143,7 +54143,7 @@
     </row>
     <row r="994" spans="1:14">
       <c r="A994" s="1">
-        <v>3184</v>
+        <v>3468</v>
       </c>
       <c r="B994" t="s">
         <v>1008</v>
@@ -54184,7 +54184,7 @@
     </row>
     <row r="995" spans="1:14">
       <c r="A995" s="1">
-        <v>3591</v>
+        <v>3907</v>
       </c>
       <c r="B995" t="s">
         <v>1009</v>
@@ -54225,7 +54225,7 @@
     </row>
     <row r="996" spans="1:14">
       <c r="A996" s="1">
-        <v>1441</v>
+        <v>1568</v>
       </c>
       <c r="B996" t="s">
         <v>1010</v>
@@ -54266,7 +54266,7 @@
     </row>
     <row r="997" spans="1:14">
       <c r="A997" s="1">
-        <v>929</v>
+        <v>1022</v>
       </c>
       <c r="B997" t="s">
         <v>1011</v>
@@ -54307,7 +54307,7 @@
     </row>
     <row r="998" spans="1:14">
       <c r="A998" s="1">
-        <v>1152</v>
+        <v>1257</v>
       </c>
       <c r="B998" t="s">
         <v>1012</v>
@@ -54348,7 +54348,7 @@
     </row>
     <row r="999" spans="1:14">
       <c r="A999" s="1">
-        <v>4548</v>
+        <v>4936</v>
       </c>
       <c r="B999" t="s">
         <v>1013</v>
@@ -54389,7 +54389,7 @@
     </row>
     <row r="1000" spans="1:14">
       <c r="A1000" s="1">
-        <v>2896</v>
+        <v>3153</v>
       </c>
       <c r="B1000" t="s">
         <v>1014</v>
@@ -54430,7 +54430,7 @@
     </row>
     <row r="1001" spans="1:14">
       <c r="A1001" s="1">
-        <v>3620</v>
+        <v>3938</v>
       </c>
       <c r="B1001" t="s">
         <v>1015</v>
@@ -54471,7 +54471,7 @@
     </row>
     <row r="1002" spans="1:14">
       <c r="A1002" s="1">
-        <v>2719</v>
+        <v>2959</v>
       </c>
       <c r="B1002" t="s">
         <v>1016</v>
@@ -54512,7 +54512,7 @@
     </row>
     <row r="1003" spans="1:14">
       <c r="A1003" s="1">
-        <v>1957</v>
+        <v>2129</v>
       </c>
       <c r="B1003" t="s">
         <v>1017</v>
@@ -54553,7 +54553,7 @@
     </row>
     <row r="1004" spans="1:14">
       <c r="A1004" s="1">
-        <v>4165</v>
+        <v>4528</v>
       </c>
       <c r="B1004" t="s">
         <v>1018</v>
@@ -54594,7 +54594,7 @@
     </row>
     <row r="1005" spans="1:14">
       <c r="A1005" s="1">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B1005" t="s">
         <v>1019</v>
@@ -54635,7 +54635,7 @@
     </row>
     <row r="1006" spans="1:14">
       <c r="A1006" s="1">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B1006" t="s">
         <v>1020</v>
@@ -54676,7 +54676,7 @@
     </row>
     <row r="1007" spans="1:14">
       <c r="A1007" s="1">
-        <v>2040</v>
+        <v>2221</v>
       </c>
       <c r="B1007" t="s">
         <v>1021</v>
@@ -54717,7 +54717,7 @@
     </row>
     <row r="1008" spans="1:14">
       <c r="A1008" s="1">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="B1008" t="s">
         <v>1022</v>
@@ -54758,7 +54758,7 @@
     </row>
     <row r="1009" spans="1:14">
       <c r="A1009" s="1">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="B1009" t="s">
         <v>1023</v>
@@ -54799,7 +54799,7 @@
     </row>
     <row r="1010" spans="1:14">
       <c r="A1010" s="1">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B1010" t="s">
         <v>1024</v>
@@ -54840,7 +54840,7 @@
     </row>
     <row r="1011" spans="1:14">
       <c r="A1011" s="1">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="B1011" t="s">
         <v>1025</v>
@@ -54881,7 +54881,7 @@
     </row>
     <row r="1012" spans="1:14">
       <c r="A1012" s="1">
-        <v>3186</v>
+        <v>3470</v>
       </c>
       <c r="B1012" t="s">
         <v>1026</v>
@@ -54922,7 +54922,7 @@
     </row>
     <row r="1013" spans="1:14">
       <c r="A1013" s="1">
-        <v>2738</v>
+        <v>2979</v>
       </c>
       <c r="B1013" t="s">
         <v>1027</v>
@@ -54963,7 +54963,7 @@
     </row>
     <row r="1014" spans="1:14">
       <c r="A1014" s="1">
-        <v>911</v>
+        <v>1003</v>
       </c>
       <c r="B1014" t="s">
         <v>1028</v>
@@ -55004,7 +55004,7 @@
     </row>
     <row r="1015" spans="1:14">
       <c r="A1015" s="1">
-        <v>3641</v>
+        <v>3960</v>
       </c>
       <c r="B1015" t="s">
         <v>1029</v>
@@ -55045,7 +55045,7 @@
     </row>
     <row r="1016" spans="1:14">
       <c r="A1016" s="1">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="B1016" t="s">
         <v>1030</v>
@@ -55086,7 +55086,7 @@
     </row>
     <row r="1017" spans="1:14">
       <c r="A1017" s="1">
-        <v>1564</v>
+        <v>1702</v>
       </c>
       <c r="B1017" t="s">
         <v>1031</v>
@@ -55127,7 +55127,7 @@
     </row>
     <row r="1018" spans="1:14">
       <c r="A1018" s="1">
-        <v>1102</v>
+        <v>1206</v>
       </c>
       <c r="B1018" t="s">
         <v>1032</v>
@@ -55168,7 +55168,7 @@
     </row>
     <row r="1019" spans="1:14">
       <c r="A1019" s="1">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B1019" t="s">
         <v>1033</v>
@@ -55209,7 +55209,7 @@
     </row>
     <row r="1020" spans="1:14">
       <c r="A1020" s="1">
-        <v>3644</v>
+        <v>3963</v>
       </c>
       <c r="B1020" t="s">
         <v>1034</v>
@@ -55250,7 +55250,7 @@
     </row>
     <row r="1021" spans="1:14">
       <c r="A1021" s="1">
-        <v>3633</v>
+        <v>3951</v>
       </c>
       <c r="B1021" t="s">
         <v>1035</v>
@@ -55291,7 +55291,7 @@
     </row>
     <row r="1022" spans="1:14">
       <c r="A1022" s="1">
-        <v>1169</v>
+        <v>1276</v>
       </c>
       <c r="B1022" t="s">
         <v>1036</v>
@@ -55332,7 +55332,7 @@
     </row>
     <row r="1023" spans="1:14">
       <c r="A1023" s="1">
-        <v>4031</v>
+        <v>4381</v>
       </c>
       <c r="B1023" t="s">
         <v>1037</v>
@@ -55373,7 +55373,7 @@
     </row>
     <row r="1024" spans="1:14">
       <c r="A1024" s="1">
-        <v>4221</v>
+        <v>4585</v>
       </c>
       <c r="B1024" t="s">
         <v>1038</v>
@@ -55414,7 +55414,7 @@
     </row>
     <row r="1025" spans="1:14">
       <c r="A1025" s="1">
-        <v>1921</v>
+        <v>2087</v>
       </c>
       <c r="B1025" t="s">
         <v>1039</v>
@@ -55455,7 +55455,7 @@
     </row>
     <row r="1026" spans="1:14">
       <c r="A1026" s="1">
-        <v>4249</v>
+        <v>4615</v>
       </c>
       <c r="B1026" t="s">
         <v>1040</v>
@@ -55496,7 +55496,7 @@
     </row>
     <row r="1027" spans="1:14">
       <c r="A1027" s="1">
-        <v>3152</v>
+        <v>3433</v>
       </c>
       <c r="B1027" t="s">
         <v>1041</v>
@@ -55537,7 +55537,7 @@
     </row>
     <row r="1028" spans="1:14">
       <c r="A1028" s="1">
-        <v>2990</v>
+        <v>3254</v>
       </c>
       <c r="B1028" t="s">
         <v>1042</v>
@@ -55578,7 +55578,7 @@
     </row>
     <row r="1029" spans="1:14">
       <c r="A1029" s="1">
-        <v>3247</v>
+        <v>3534</v>
       </c>
       <c r="B1029" t="s">
         <v>1043</v>
@@ -55619,7 +55619,7 @@
     </row>
     <row r="1030" spans="1:14">
       <c r="A1030" s="1">
-        <v>2006</v>
+        <v>2186</v>
       </c>
       <c r="B1030" t="s">
         <v>1044</v>
@@ -55660,7 +55660,7 @@
     </row>
     <row r="1031" spans="1:14">
       <c r="A1031" s="1">
-        <v>4000</v>
+        <v>4349</v>
       </c>
       <c r="B1031" t="s">
         <v>1045</v>
@@ -55701,7 +55701,7 @@
     </row>
     <row r="1032" spans="1:14">
       <c r="A1032" s="1">
-        <v>4319</v>
+        <v>4688</v>
       </c>
       <c r="B1032" t="s">
         <v>1046</v>
@@ -55742,7 +55742,7 @@
     </row>
     <row r="1033" spans="1:14">
       <c r="A1033" s="1">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B1033" t="s">
         <v>1047</v>
@@ -55783,7 +55783,7 @@
     </row>
     <row r="1034" spans="1:14">
       <c r="A1034" s="1">
-        <v>2811</v>
+        <v>3057</v>
       </c>
       <c r="B1034" t="s">
         <v>1048</v>
@@ -55824,7 +55824,7 @@
     </row>
     <row r="1035" spans="1:14">
       <c r="A1035" s="1">
-        <v>4408</v>
+        <v>4783</v>
       </c>
       <c r="B1035" t="s">
         <v>1049</v>
@@ -55865,7 +55865,7 @@
     </row>
     <row r="1036" spans="1:14">
       <c r="A1036" s="1">
-        <v>4542</v>
+        <v>4930</v>
       </c>
       <c r="B1036" t="s">
         <v>1050</v>
@@ -55906,7 +55906,7 @@
     </row>
     <row r="1037" spans="1:14">
       <c r="A1037" s="1">
-        <v>1599</v>
+        <v>1739</v>
       </c>
       <c r="B1037" t="s">
         <v>1051</v>
@@ -55947,7 +55947,7 @@
     </row>
     <row r="1038" spans="1:14">
       <c r="A1038" s="1">
-        <v>3185</v>
+        <v>3469</v>
       </c>
       <c r="B1038" t="s">
         <v>1052</v>
@@ -55988,7 +55988,7 @@
     </row>
     <row r="1039" spans="1:14">
       <c r="A1039" s="1">
-        <v>839</v>
+        <v>923</v>
       </c>
       <c r="B1039" t="s">
         <v>1053</v>
@@ -56029,7 +56029,7 @@
     </row>
     <row r="1040" spans="1:14">
       <c r="A1040" s="1">
-        <v>3315</v>
+        <v>3608</v>
       </c>
       <c r="B1040" t="s">
         <v>1054</v>
@@ -56070,7 +56070,7 @@
     </row>
     <row r="1041" spans="1:14">
       <c r="A1041" s="1">
-        <v>4549</v>
+        <v>4937</v>
       </c>
       <c r="B1041" t="s">
         <v>1055</v>
@@ -56111,7 +56111,7 @@
     </row>
     <row r="1042" spans="1:14">
       <c r="A1042" s="1">
-        <v>1097</v>
+        <v>1199</v>
       </c>
       <c r="B1042" t="s">
         <v>1056</v>
@@ -56152,7 +56152,7 @@
     </row>
     <row r="1043" spans="1:14">
       <c r="A1043" s="1">
-        <v>2325</v>
+        <v>2536</v>
       </c>
       <c r="B1043" t="s">
         <v>1057</v>
@@ -56193,7 +56193,7 @@
     </row>
     <row r="1044" spans="1:14">
       <c r="A1044" s="1">
-        <v>596</v>
+        <v>658</v>
       </c>
       <c r="B1044" t="s">
         <v>1058</v>
@@ -56234,7 +56234,7 @@
     </row>
     <row r="1045" spans="1:14">
       <c r="A1045" s="1">
-        <v>2050</v>
+        <v>2231</v>
       </c>
       <c r="B1045" t="s">
         <v>1059</v>
@@ -56275,7 +56275,7 @@
     </row>
     <row r="1046" spans="1:14">
       <c r="A1046" s="1">
-        <v>4402</v>
+        <v>4777</v>
       </c>
       <c r="B1046" t="s">
         <v>1060</v>
@@ -56316,7 +56316,7 @@
     </row>
     <row r="1047" spans="1:14">
       <c r="A1047" s="1">
-        <v>2261</v>
+        <v>2463</v>
       </c>
       <c r="B1047" t="s">
         <v>1061</v>
@@ -56357,7 +56357,7 @@
     </row>
     <row r="1048" spans="1:14">
       <c r="A1048" s="1">
-        <v>1190</v>
+        <v>1299</v>
       </c>
       <c r="B1048" t="s">
         <v>1062</v>
@@ -56398,7 +56398,7 @@
     </row>
     <row r="1049" spans="1:14">
       <c r="A1049" s="1">
-        <v>3037</v>
+        <v>3306</v>
       </c>
       <c r="B1049" t="s">
         <v>1063</v>
@@ -56439,7 +56439,7 @@
     </row>
     <row r="1050" spans="1:14">
       <c r="A1050" s="1">
-        <v>2312</v>
+        <v>2523</v>
       </c>
       <c r="B1050" t="s">
         <v>1064</v>
@@ -56480,7 +56480,7 @@
     </row>
     <row r="1051" spans="1:14">
       <c r="A1051" s="1">
-        <v>1379</v>
+        <v>1502</v>
       </c>
       <c r="B1051" t="s">
         <v>1065</v>
@@ -56521,7 +56521,7 @@
     </row>
     <row r="1052" spans="1:14">
       <c r="A1052" s="1">
-        <v>3990</v>
+        <v>4339</v>
       </c>
       <c r="B1052" t="s">
         <v>1066</v>
@@ -56562,7 +56562,7 @@
     </row>
     <row r="1053" spans="1:14">
       <c r="A1053" s="1">
-        <v>1540</v>
+        <v>1677</v>
       </c>
       <c r="B1053" t="s">
         <v>1067</v>
@@ -56603,7 +56603,7 @@
     </row>
     <row r="1054" spans="1:14">
       <c r="A1054" s="1">
-        <v>4007</v>
+        <v>4356</v>
       </c>
       <c r="B1054" t="s">
         <v>1068</v>
@@ -56644,7 +56644,7 @@
     </row>
     <row r="1055" spans="1:14">
       <c r="A1055" s="1">
-        <v>4166</v>
+        <v>4529</v>
       </c>
       <c r="B1055" t="s">
         <v>1069</v>
@@ -56685,7 +56685,7 @@
     </row>
     <row r="1056" spans="1:14">
       <c r="A1056" s="1">
-        <v>607</v>
+        <v>669</v>
       </c>
       <c r="B1056" t="s">
         <v>1070</v>
@@ -56726,7 +56726,7 @@
     </row>
     <row r="1057" spans="1:14">
       <c r="A1057" s="1">
-        <v>2189</v>
+        <v>2386</v>
       </c>
       <c r="B1057" t="s">
         <v>1071</v>
@@ -56767,7 +56767,7 @@
     </row>
     <row r="1058" spans="1:14">
       <c r="A1058" s="1">
-        <v>661</v>
+        <v>733</v>
       </c>
       <c r="B1058" t="s">
         <v>1072</v>
@@ -56808,7 +56808,7 @@
     </row>
     <row r="1059" spans="1:14">
       <c r="A1059" s="1">
-        <v>2237</v>
+        <v>2439</v>
       </c>
       <c r="B1059" t="s">
         <v>1073</v>
@@ -56849,7 +56849,7 @@
     </row>
     <row r="1060" spans="1:14">
       <c r="A1060" s="1">
-        <v>4100</v>
+        <v>4457</v>
       </c>
       <c r="B1060" t="s">
         <v>1074</v>
@@ -56890,7 +56890,7 @@
     </row>
     <row r="1061" spans="1:14">
       <c r="A1061" s="1">
-        <v>2565</v>
+        <v>2792</v>
       </c>
       <c r="B1061" t="s">
         <v>1075</v>
@@ -56931,7 +56931,7 @@
     </row>
     <row r="1062" spans="1:14">
       <c r="A1062" s="1">
-        <v>3016</v>
+        <v>3282</v>
       </c>
       <c r="B1062" t="s">
         <v>1076</v>
@@ -56972,7 +56972,7 @@
     </row>
     <row r="1063" spans="1:14">
       <c r="A1063" s="1">
-        <v>581</v>
+        <v>641</v>
       </c>
       <c r="B1063" t="s">
         <v>1077</v>
@@ -57013,7 +57013,7 @@
     </row>
     <row r="1064" spans="1:14">
       <c r="A1064" s="1">
-        <v>2010</v>
+        <v>2190</v>
       </c>
       <c r="B1064" t="s">
         <v>1078</v>
@@ -57054,7 +57054,7 @@
     </row>
     <row r="1065" spans="1:14">
       <c r="A1065" s="1">
-        <v>3966</v>
+        <v>4312</v>
       </c>
       <c r="B1065" t="s">
         <v>1079</v>
@@ -57095,7 +57095,7 @@
     </row>
     <row r="1066" spans="1:14">
       <c r="A1066" s="1">
-        <v>3245</v>
+        <v>3532</v>
       </c>
       <c r="B1066" t="s">
         <v>1080</v>
@@ -57136,7 +57136,7 @@
     </row>
     <row r="1067" spans="1:14">
       <c r="A1067" s="1">
-        <v>1438</v>
+        <v>1565</v>
       </c>
       <c r="B1067" t="s">
         <v>1081</v>
@@ -57177,7 +57177,7 @@
     </row>
     <row r="1068" spans="1:14">
       <c r="A1068" s="1">
-        <v>3495</v>
+        <v>3801</v>
       </c>
       <c r="B1068" t="s">
         <v>1082</v>
@@ -57218,7 +57218,7 @@
     </row>
     <row r="1069" spans="1:14">
       <c r="A1069" s="1">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="B1069" t="s">
         <v>1083</v>
@@ -57259,7 +57259,7 @@
     </row>
     <row r="1070" spans="1:14">
       <c r="A1070" s="1">
-        <v>3846</v>
+        <v>4182</v>
       </c>
       <c r="B1070" t="s">
         <v>1084</v>
@@ -57300,7 +57300,7 @@
     </row>
     <row r="1071" spans="1:14">
       <c r="A1071" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1071" t="s">
         <v>1085</v>
@@ -57341,7 +57341,7 @@
     </row>
     <row r="1072" spans="1:14">
       <c r="A1072" s="1">
-        <v>2913</v>
+        <v>3170</v>
       </c>
       <c r="B1072" t="s">
         <v>1086</v>
@@ -57382,7 +57382,7 @@
     </row>
     <row r="1073" spans="1:14">
       <c r="A1073" s="1">
-        <v>3774</v>
+        <v>4101</v>
       </c>
       <c r="B1073" t="s">
         <v>1087</v>
@@ -57423,7 +57423,7 @@
     </row>
     <row r="1074" spans="1:14">
       <c r="A1074" s="1">
-        <v>2226</v>
+        <v>2428</v>
       </c>
       <c r="B1074" t="s">
         <v>1088</v>
@@ -57464,7 +57464,7 @@
     </row>
     <row r="1075" spans="1:14">
       <c r="A1075" s="1">
-        <v>1395</v>
+        <v>1518</v>
       </c>
       <c r="B1075" t="s">
         <v>1089</v>
@@ -57505,7 +57505,7 @@
     </row>
     <row r="1076" spans="1:14">
       <c r="A1076" s="1">
-        <v>1692</v>
+        <v>1841</v>
       </c>
       <c r="B1076" t="s">
         <v>1090</v>
@@ -57546,7 +57546,7 @@
     </row>
     <row r="1077" spans="1:14">
       <c r="A1077" s="1">
-        <v>2974</v>
+        <v>3237</v>
       </c>
       <c r="B1077" t="s">
         <v>1091</v>
@@ -57587,7 +57587,7 @@
     </row>
     <row r="1078" spans="1:14">
       <c r="A1078" s="1">
-        <v>666</v>
+        <v>739</v>
       </c>
       <c r="B1078" t="s">
         <v>1092</v>
@@ -57628,7 +57628,7 @@
     </row>
     <row r="1079" spans="1:14">
       <c r="A1079" s="1">
-        <v>4028</v>
+        <v>4378</v>
       </c>
       <c r="B1079" t="s">
         <v>1093</v>
@@ -57669,7 +57669,7 @@
     </row>
     <row r="1080" spans="1:14">
       <c r="A1080" s="1">
-        <v>1032</v>
+        <v>1129</v>
       </c>
       <c r="B1080" t="s">
         <v>1094</v>
@@ -57707,7 +57707,7 @@
     </row>
     <row r="1081" spans="1:14">
       <c r="A1081" s="1">
-        <v>2582</v>
+        <v>2811</v>
       </c>
       <c r="B1081" t="s">
         <v>1095</v>
@@ -57745,7 +57745,7 @@
     </row>
     <row r="1082" spans="1:14">
       <c r="A1082" s="1">
-        <v>4571</v>
+        <v>4960</v>
       </c>
       <c r="B1082" t="s">
         <v>1096</v>
@@ -57783,7 +57783,7 @@
     </row>
     <row r="1083" spans="1:14">
       <c r="A1083" s="1">
-        <v>3937</v>
+        <v>4279</v>
       </c>
       <c r="B1083" t="s">
         <v>1097</v>

--- a/1st February to 28th February TSA data.xlsx
+++ b/1st February to 28th February TSA data.xlsx
@@ -13471,7 +13471,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>3942</v>
+        <v>4435</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>4294</v>
+        <v>4820</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>2924</v>
+        <v>3282</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -13594,7 +13594,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>4036</v>
+        <v>4540</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>3844</v>
+        <v>4319</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -13717,7 +13717,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3394</v>
+        <v>3814</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4220</v>
+        <v>4736</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>3643</v>
+        <v>4096</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>3669</v>
+        <v>4127</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>1591</v>
+        <v>1800</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>2813</v>
+        <v>3154</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>942</v>
+        <v>1044</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>3027</v>
+        <v>3403</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>2088</v>
+        <v>2352</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -14168,7 +14168,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>1409</v>
+        <v>1584</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -14209,7 +14209,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>3420</v>
+        <v>3846</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>2740</v>
+        <v>3076</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>1187</v>
+        <v>1317</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -14373,7 +14373,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>3715</v>
+        <v>4178</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>2980</v>
+        <v>3347</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -14455,7 +14455,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>1605</v>
+        <v>1817</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -14496,7 +14496,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>3760</v>
+        <v>4227</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -14537,7 +14537,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>2771</v>
+        <v>3110</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>1358</v>
+        <v>1517</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>3352</v>
+        <v>3766</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
@@ -14742,7 +14742,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>3518</v>
+        <v>3956</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>3029</v>
+        <v>3406</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>4198</v>
+        <v>4712</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -14865,7 +14865,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>1711</v>
+        <v>1937</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>4521</v>
+        <v>5075</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>1180</v>
+        <v>1310</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>1069</v>
+        <v>1183</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>1843</v>
+        <v>2083</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>3150</v>
+        <v>3541</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>1757</v>
+        <v>1988</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -15234,7 +15234,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>2909</v>
+        <v>3265</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>2440</v>
+        <v>2750</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>3935</v>
+        <v>4429</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -15439,7 +15439,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>3905</v>
+        <v>4392</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -15480,7 +15480,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>2789</v>
+        <v>3129</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>4713</v>
+        <v>5298</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -15562,7 +15562,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
@@ -15603,7 +15603,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>2657</v>
+        <v>2983</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>3765</v>
+        <v>4233</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -15685,7 +15685,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>4176</v>
+        <v>4688</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>3859</v>
+        <v>4338</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>869</v>
+        <v>961</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>660</v>
+        <v>732</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>871</v>
+        <v>964</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
@@ -15890,7 +15890,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>4942</v>
+        <v>5554</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
@@ -15931,7 +15931,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>1115</v>
+        <v>1236</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>2015</v>
+        <v>2269</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
@@ -16054,7 +16054,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>2461</v>
+        <v>2773</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>1847</v>
+        <v>2087</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>4918</v>
+        <v>5528</v>
       </c>
       <c r="B67" t="s">
         <v>81</v>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>4013</v>
+        <v>4513</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
@@ -16218,7 +16218,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
         <v>83</v>
@@ -16259,7 +16259,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>2256</v>
+        <v>2548</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>4167</v>
+        <v>4679</v>
       </c>
       <c r="B71" t="s">
         <v>85</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>4029</v>
+        <v>4533</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>987</v>
+        <v>1096</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>2910</v>
+        <v>3267</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>1629</v>
+        <v>1844</v>
       </c>
       <c r="B75" t="s">
         <v>89</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>3051</v>
+        <v>3432</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>1897</v>
+        <v>2141</v>
       </c>
       <c r="B77" t="s">
         <v>91</v>
@@ -16587,7 +16587,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>1305</v>
+        <v>1453</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
@@ -16628,7 +16628,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>944</v>
+        <v>1046</v>
       </c>
       <c r="B79" t="s">
         <v>93</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>656</v>
+        <v>728</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
@@ -16710,7 +16710,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>5059</v>
+        <v>5682</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
-        <v>3224</v>
+        <v>3626</v>
       </c>
       <c r="B82" t="s">
         <v>96</v>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
-        <v>3717</v>
+        <v>4181</v>
       </c>
       <c r="B83" t="s">
         <v>97</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
-        <v>4906</v>
+        <v>5516</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>2281</v>
+        <v>2574</v>
       </c>
       <c r="B85" t="s">
         <v>99</v>
@@ -16915,7 +16915,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
-        <v>1284</v>
+        <v>1430</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
-        <v>2942</v>
+        <v>3302</v>
       </c>
       <c r="B88" t="s">
         <v>102</v>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
-        <v>4503</v>
+        <v>5055</v>
       </c>
       <c r="B89" t="s">
         <v>103</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
-        <v>3685</v>
+        <v>4144</v>
       </c>
       <c r="B90" t="s">
         <v>104</v>
@@ -17120,7 +17120,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
-        <v>1265</v>
+        <v>1407</v>
       </c>
       <c r="B91" t="s">
         <v>105</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
-        <v>1314</v>
+        <v>1464</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
@@ -17202,7 +17202,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
-        <v>1362</v>
+        <v>1523</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
-        <v>2596</v>
+        <v>2920</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
@@ -17284,7 +17284,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
-        <v>1487</v>
+        <v>1678</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
-        <v>948</v>
+        <v>1051</v>
       </c>
       <c r="B96" t="s">
         <v>110</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
-        <v>4444</v>
+        <v>4990</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
-        <v>3356</v>
+        <v>3770</v>
       </c>
       <c r="B98" t="s">
         <v>112</v>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
-        <v>4751</v>
+        <v>5340</v>
       </c>
       <c r="B99" t="s">
         <v>113</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
-        <v>1646</v>
+        <v>1864</v>
       </c>
       <c r="B100" t="s">
         <v>114</v>
@@ -17530,7 +17530,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
-        <v>1981</v>
+        <v>2233</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -17571,7 +17571,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
-        <v>2636</v>
+        <v>2960</v>
       </c>
       <c r="B102" t="s">
         <v>116</v>
@@ -17612,7 +17612,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
-        <v>5066</v>
+        <v>5689</v>
       </c>
       <c r="B103" t="s">
         <v>117</v>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
-        <v>2863</v>
+        <v>3215</v>
       </c>
       <c r="B104" t="s">
         <v>118</v>
@@ -17694,7 +17694,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
-        <v>4460</v>
+        <v>5007</v>
       </c>
       <c r="B105" t="s">
         <v>119</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
-        <v>1595</v>
+        <v>1806</v>
       </c>
       <c r="B106" t="s">
         <v>120</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="B107" t="s">
         <v>121</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>3308</v>
+        <v>3718</v>
       </c>
       <c r="B108" t="s">
         <v>122</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>2269</v>
+        <v>2562</v>
       </c>
       <c r="B109" t="s">
         <v>123</v>
@@ -17899,7 +17899,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>2466</v>
+        <v>2778</v>
       </c>
       <c r="B110" t="s">
         <v>124</v>
@@ -17940,7 +17940,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
-        <v>2279</v>
+        <v>2572</v>
       </c>
       <c r="B111" t="s">
         <v>125</v>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
-        <v>2649</v>
+        <v>2975</v>
       </c>
       <c r="B112" t="s">
         <v>126</v>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
-        <v>1042</v>
+        <v>1155</v>
       </c>
       <c r="B113" t="s">
         <v>127</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>2248</v>
+        <v>2539</v>
       </c>
       <c r="B114" t="s">
         <v>128</v>
@@ -18104,7 +18104,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>4819</v>
+        <v>5416</v>
       </c>
       <c r="B115" t="s">
         <v>129</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>1149</v>
+        <v>1277</v>
       </c>
       <c r="B116" t="s">
         <v>130</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
-        <v>3576</v>
+        <v>4022</v>
       </c>
       <c r="B118" t="s">
         <v>132</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
-        <v>3080</v>
+        <v>3465</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
-        <v>1509</v>
+        <v>1704</v>
       </c>
       <c r="B120" t="s">
         <v>134</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>2631</v>
+        <v>2955</v>
       </c>
       <c r="B121" t="s">
         <v>135</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>2735</v>
+        <v>3071</v>
       </c>
       <c r="B122" t="s">
         <v>136</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
-        <v>1977</v>
+        <v>2229</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>2261</v>
+        <v>2554</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
@@ -18514,7 +18514,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>2100</v>
+        <v>2370</v>
       </c>
       <c r="B125" t="s">
         <v>139</v>
@@ -18555,7 +18555,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>1230</v>
+        <v>1370</v>
       </c>
       <c r="B126" t="s">
         <v>140</v>
@@ -18596,7 +18596,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>3549</v>
+        <v>3994</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>
@@ -18637,7 +18637,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>727</v>
+        <v>808</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
@@ -18678,7 +18678,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>2794</v>
+        <v>3134</v>
       </c>
       <c r="B129" t="s">
         <v>143</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>2892</v>
+        <v>3245</v>
       </c>
       <c r="B130" t="s">
         <v>144</v>
@@ -18760,7 +18760,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>1240</v>
+        <v>1380</v>
       </c>
       <c r="B131" t="s">
         <v>145</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
-        <v>965</v>
+        <v>1071</v>
       </c>
       <c r="B132" t="s">
         <v>146</v>
@@ -18842,7 +18842,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
         <v>147</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>2911</v>
+        <v>3268</v>
       </c>
       <c r="B134" t="s">
         <v>148</v>
@@ -18924,7 +18924,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="B135" t="s">
         <v>149</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>1349</v>
+        <v>1505</v>
       </c>
       <c r="B136" t="s">
         <v>150</v>
@@ -19006,7 +19006,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
-        <v>3333</v>
+        <v>3744</v>
       </c>
       <c r="B137" t="s">
         <v>151</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
-        <v>941</v>
+        <v>1043</v>
       </c>
       <c r="B138" t="s">
         <v>152</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
-        <v>1704</v>
+        <v>1929</v>
       </c>
       <c r="B139" t="s">
         <v>153</v>
@@ -19129,7 +19129,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>4493</v>
+        <v>5044</v>
       </c>
       <c r="B140" t="s">
         <v>154</v>
@@ -19170,7 +19170,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
-        <v>3253</v>
+        <v>3658</v>
       </c>
       <c r="B141" t="s">
         <v>155</v>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>1381</v>
+        <v>1547</v>
       </c>
       <c r="B142" t="s">
         <v>156</v>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
-        <v>4864</v>
+        <v>5466</v>
       </c>
       <c r="B143" t="s">
         <v>157</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>1659</v>
+        <v>1878</v>
       </c>
       <c r="B144" t="s">
         <v>158</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>4439</v>
+        <v>4985</v>
       </c>
       <c r="B145" t="s">
         <v>159</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
-        <v>4482</v>
+        <v>5032</v>
       </c>
       <c r="B146" t="s">
         <v>160</v>
@@ -19416,7 +19416,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>1894</v>
+        <v>2138</v>
       </c>
       <c r="B147" t="s">
         <v>161</v>
@@ -19457,7 +19457,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>4542</v>
+        <v>5100</v>
       </c>
       <c r="B148" t="s">
         <v>162</v>
@@ -19498,7 +19498,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
-        <v>4090</v>
+        <v>4596</v>
       </c>
       <c r="B149" t="s">
         <v>163</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>4318</v>
+        <v>4850</v>
       </c>
       <c r="B150" t="s">
         <v>164</v>
@@ -19580,7 +19580,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="B151" t="s">
         <v>165</v>
@@ -19621,7 +19621,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="B152" t="s">
         <v>166</v>
@@ -19662,7 +19662,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>2647</v>
+        <v>2973</v>
       </c>
       <c r="B153" t="s">
         <v>167</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
-        <v>790</v>
+        <v>874</v>
       </c>
       <c r="B154" t="s">
         <v>168</v>
@@ -19744,7 +19744,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>5093</v>
+        <v>5719</v>
       </c>
       <c r="B155" t="s">
         <v>169</v>
@@ -19785,7 +19785,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>4098</v>
+        <v>4604</v>
       </c>
       <c r="B156" t="s">
         <v>170</v>
@@ -19826,7 +19826,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>3388</v>
+        <v>3808</v>
       </c>
       <c r="B157" t="s">
         <v>171</v>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="B158" t="s">
         <v>172</v>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>3096</v>
+        <v>3484</v>
       </c>
       <c r="B159" t="s">
         <v>173</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
-        <v>2044</v>
+        <v>2300</v>
       </c>
       <c r="B160" t="s">
         <v>174</v>
@@ -19990,7 +19990,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
-        <v>2874</v>
+        <v>3226</v>
       </c>
       <c r="B161" t="s">
         <v>175</v>
@@ -20031,7 +20031,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
-        <v>1051</v>
+        <v>1165</v>
       </c>
       <c r="B162" t="s">
         <v>176</v>
@@ -20072,7 +20072,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
-        <v>3326</v>
+        <v>3736</v>
       </c>
       <c r="B163" t="s">
         <v>177</v>
@@ -20113,7 +20113,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>4745</v>
+        <v>5334</v>
       </c>
       <c r="B164" t="s">
         <v>178</v>
@@ -20154,7 +20154,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
-        <v>865</v>
+        <v>957</v>
       </c>
       <c r="B165" t="s">
         <v>179</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B166" t="s">
         <v>180</v>
@@ -20236,7 +20236,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>4272</v>
+        <v>4796</v>
       </c>
       <c r="B167" t="s">
         <v>181</v>
@@ -20277,7 +20277,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>4986</v>
+        <v>5602</v>
       </c>
       <c r="B168" t="s">
         <v>182</v>
@@ -20318,7 +20318,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
-        <v>4293</v>
+        <v>4819</v>
       </c>
       <c r="B169" t="s">
         <v>183</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
-        <v>719</v>
+        <v>799</v>
       </c>
       <c r="B170" t="s">
         <v>184</v>
@@ -20400,7 +20400,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
-        <v>1597</v>
+        <v>1808</v>
       </c>
       <c r="B171" t="s">
         <v>185</v>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
-        <v>3682</v>
+        <v>4141</v>
       </c>
       <c r="B172" t="s">
         <v>186</v>
@@ -20482,7 +20482,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
-        <v>1673</v>
+        <v>1893</v>
       </c>
       <c r="B173" t="s">
         <v>187</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
-        <v>3989</v>
+        <v>4486</v>
       </c>
       <c r="B174" t="s">
         <v>188</v>
@@ -20564,7 +20564,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
-        <v>1181</v>
+        <v>1311</v>
       </c>
       <c r="B175" t="s">
         <v>189</v>
@@ -20605,7 +20605,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
-        <v>4476</v>
+        <v>5026</v>
       </c>
       <c r="B176" t="s">
         <v>190</v>
@@ -20646,7 +20646,7 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
-        <v>1463</v>
+        <v>1648</v>
       </c>
       <c r="B177" t="s">
         <v>191</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
-        <v>901</v>
+        <v>997</v>
       </c>
       <c r="B178" t="s">
         <v>192</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
-        <v>1348</v>
+        <v>1504</v>
       </c>
       <c r="B179" t="s">
         <v>193</v>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
-        <v>1440</v>
+        <v>1622</v>
       </c>
       <c r="B180" t="s">
         <v>194</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
-        <v>4738</v>
+        <v>5326</v>
       </c>
       <c r="B181" t="s">
         <v>195</v>
@@ -20851,7 +20851,7 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
-        <v>3155</v>
+        <v>3547</v>
       </c>
       <c r="B182" t="s">
         <v>196</v>
@@ -20892,7 +20892,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
-        <v>1864</v>
+        <v>2104</v>
       </c>
       <c r="B183" t="s">
         <v>197</v>
@@ -20933,7 +20933,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
-        <v>2309</v>
+        <v>2603</v>
       </c>
       <c r="B184" t="s">
         <v>198</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
-        <v>4606</v>
+        <v>5174</v>
       </c>
       <c r="B185" t="s">
         <v>199</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
-        <v>4139</v>
+        <v>4650</v>
       </c>
       <c r="B186" t="s">
         <v>200</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
-        <v>2508</v>
+        <v>2822</v>
       </c>
       <c r="B187" t="s">
         <v>201</v>
@@ -21097,7 +21097,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
-        <v>2953</v>
+        <v>3313</v>
       </c>
       <c r="B188" t="s">
         <v>202</v>
@@ -21138,7 +21138,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
-        <v>1765</v>
+        <v>1998</v>
       </c>
       <c r="B189" t="s">
         <v>203</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
-        <v>1692</v>
+        <v>1917</v>
       </c>
       <c r="B190" t="s">
         <v>204</v>
@@ -21220,7 +21220,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
-        <v>3208</v>
+        <v>3608</v>
       </c>
       <c r="B191" t="s">
         <v>205</v>
@@ -21261,7 +21261,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
-        <v>4995</v>
+        <v>5613</v>
       </c>
       <c r="B192" t="s">
         <v>206</v>
@@ -21302,7 +21302,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="1">
-        <v>4532</v>
+        <v>5087</v>
       </c>
       <c r="B193" t="s">
         <v>207</v>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="1">
-        <v>1169</v>
+        <v>1299</v>
       </c>
       <c r="B194" t="s">
         <v>208</v>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="1">
-        <v>926</v>
+        <v>1026</v>
       </c>
       <c r="B195" t="s">
         <v>209</v>
@@ -21425,7 +21425,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="1">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="B196" t="s">
         <v>210</v>
@@ -21466,7 +21466,7 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="1">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="B197" t="s">
         <v>211</v>
@@ -21507,7 +21507,7 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="1">
-        <v>1156</v>
+        <v>1285</v>
       </c>
       <c r="B198" t="s">
         <v>212</v>
@@ -21548,7 +21548,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="1">
-        <v>1222</v>
+        <v>1362</v>
       </c>
       <c r="B199" t="s">
         <v>213</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="1">
-        <v>3309</v>
+        <v>3719</v>
       </c>
       <c r="B200" t="s">
         <v>214</v>
@@ -21630,7 +21630,7 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="1">
-        <v>4797</v>
+        <v>5392</v>
       </c>
       <c r="B201" t="s">
         <v>215</v>
@@ -21671,7 +21671,7 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="1">
-        <v>3570</v>
+        <v>4016</v>
       </c>
       <c r="B202" t="s">
         <v>216</v>
@@ -21712,7 +21712,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B203" t="s">
         <v>217</v>
@@ -21753,7 +21753,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="1">
-        <v>2943</v>
+        <v>3303</v>
       </c>
       <c r="B204" t="s">
         <v>218</v>
@@ -21794,7 +21794,7 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="1">
-        <v>4360</v>
+        <v>4899</v>
       </c>
       <c r="B205" t="s">
         <v>219</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="1">
-        <v>2767</v>
+        <v>3106</v>
       </c>
       <c r="B206" t="s">
         <v>220</v>
@@ -21876,7 +21876,7 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="1">
-        <v>4008</v>
+        <v>4507</v>
       </c>
       <c r="B207" t="s">
         <v>221</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="1">
-        <v>3711</v>
+        <v>4174</v>
       </c>
       <c r="B208" t="s">
         <v>222</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="1">
-        <v>4022</v>
+        <v>4524</v>
       </c>
       <c r="B209" t="s">
         <v>223</v>
@@ -21999,7 +21999,7 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="1">
-        <v>3366</v>
+        <v>3780</v>
       </c>
       <c r="B210" t="s">
         <v>224</v>
@@ -22040,7 +22040,7 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="1">
-        <v>2403</v>
+        <v>2710</v>
       </c>
       <c r="B211" t="s">
         <v>225</v>
@@ -22081,7 +22081,7 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="1">
-        <v>2922</v>
+        <v>3280</v>
       </c>
       <c r="B212" t="s">
         <v>226</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="1">
-        <v>3706</v>
+        <v>4167</v>
       </c>
       <c r="B213" t="s">
         <v>227</v>
@@ -22163,7 +22163,7 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="1">
-        <v>5079</v>
+        <v>5703</v>
       </c>
       <c r="B214" t="s">
         <v>228</v>
@@ -22204,7 +22204,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="1">
-        <v>3283</v>
+        <v>3693</v>
       </c>
       <c r="B215" t="s">
         <v>229</v>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="1">
-        <v>1744</v>
+        <v>1971</v>
       </c>
       <c r="B216" t="s">
         <v>230</v>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="1">
-        <v>764</v>
+        <v>846</v>
       </c>
       <c r="B217" t="s">
         <v>231</v>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="1">
-        <v>2530</v>
+        <v>2849</v>
       </c>
       <c r="B218" t="s">
         <v>232</v>
@@ -22368,7 +22368,7 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="1">
-        <v>2351</v>
+        <v>2651</v>
       </c>
       <c r="B219" t="s">
         <v>233</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="1">
-        <v>2282</v>
+        <v>2575</v>
       </c>
       <c r="B220" t="s">
         <v>234</v>
@@ -22450,7 +22450,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="1">
-        <v>3622</v>
+        <v>4072</v>
       </c>
       <c r="B221" t="s">
         <v>235</v>
@@ -22491,7 +22491,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="1">
-        <v>3008</v>
+        <v>3382</v>
       </c>
       <c r="B222" t="s">
         <v>236</v>
@@ -22532,7 +22532,7 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="1">
-        <v>1755</v>
+        <v>1986</v>
       </c>
       <c r="B223" t="s">
         <v>237</v>
@@ -22573,7 +22573,7 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="1">
-        <v>1437</v>
+        <v>1618</v>
       </c>
       <c r="B224" t="s">
         <v>238</v>
@@ -22614,7 +22614,7 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="1">
-        <v>3408</v>
+        <v>3830</v>
       </c>
       <c r="B225" t="s">
         <v>239</v>
@@ -22655,7 +22655,7 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="1">
-        <v>5082</v>
+        <v>5707</v>
       </c>
       <c r="B226" t="s">
         <v>240</v>
@@ -22696,7 +22696,7 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="1">
-        <v>4358</v>
+        <v>4896</v>
       </c>
       <c r="B227" t="s">
         <v>241</v>
@@ -22737,7 +22737,7 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="1">
-        <v>4966</v>
+        <v>5582</v>
       </c>
       <c r="B228" t="s">
         <v>242</v>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="1">
-        <v>2578</v>
+        <v>2901</v>
       </c>
       <c r="B229" t="s">
         <v>243</v>
@@ -22819,7 +22819,7 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="1">
-        <v>880</v>
+        <v>973</v>
       </c>
       <c r="B230" t="s">
         <v>244</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="1">
-        <v>4944</v>
+        <v>5558</v>
       </c>
       <c r="B231" t="s">
         <v>245</v>
@@ -22901,7 +22901,7 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="1">
-        <v>3741</v>
+        <v>4207</v>
       </c>
       <c r="B232" t="s">
         <v>246</v>
@@ -22942,7 +22942,7 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="1">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="B233" t="s">
         <v>247</v>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="1">
-        <v>2315</v>
+        <v>2610</v>
       </c>
       <c r="B234" t="s">
         <v>248</v>
@@ -23024,7 +23024,7 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="1">
-        <v>3013</v>
+        <v>3388</v>
       </c>
       <c r="B235" t="s">
         <v>249</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="1">
-        <v>1145</v>
+        <v>1271</v>
       </c>
       <c r="B236" t="s">
         <v>250</v>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="1">
-        <v>4932</v>
+        <v>5543</v>
       </c>
       <c r="B237" t="s">
         <v>251</v>
@@ -23147,7 +23147,7 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="1">
-        <v>4448</v>
+        <v>4994</v>
       </c>
       <c r="B238" t="s">
         <v>252</v>
@@ -23188,7 +23188,7 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="1">
-        <v>3368</v>
+        <v>3782</v>
       </c>
       <c r="B239" t="s">
         <v>253</v>
@@ -23229,7 +23229,7 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="1">
-        <v>4636</v>
+        <v>5211</v>
       </c>
       <c r="B240" t="s">
         <v>254</v>
@@ -23270,7 +23270,7 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="1">
-        <v>1020</v>
+        <v>1130</v>
       </c>
       <c r="B241" t="s">
         <v>255</v>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="1">
-        <v>5047</v>
+        <v>5670</v>
       </c>
       <c r="B242" t="s">
         <v>256</v>
@@ -23352,7 +23352,7 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="1">
-        <v>2876</v>
+        <v>3228</v>
       </c>
       <c r="B243" t="s">
         <v>257</v>
@@ -23393,7 +23393,7 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="1">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="B244" t="s">
         <v>258</v>
@@ -23434,7 +23434,7 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="1">
-        <v>1342</v>
+        <v>1497</v>
       </c>
       <c r="B245" t="s">
         <v>259</v>
@@ -23475,7 +23475,7 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="1">
-        <v>676</v>
+        <v>750</v>
       </c>
       <c r="B246" t="s">
         <v>260</v>
@@ -23516,7 +23516,7 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="1">
-        <v>1857</v>
+        <v>2097</v>
       </c>
       <c r="B247" t="s">
         <v>261</v>
@@ -23557,7 +23557,7 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="1">
-        <v>5041</v>
+        <v>5663</v>
       </c>
       <c r="B248" t="s">
         <v>262</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="1">
-        <v>892</v>
+        <v>987</v>
       </c>
       <c r="B249" t="s">
         <v>263</v>
@@ -23639,7 +23639,7 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="1">
-        <v>4865</v>
+        <v>5467</v>
       </c>
       <c r="B250" t="s">
         <v>264</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="1">
-        <v>2561</v>
+        <v>2884</v>
       </c>
       <c r="B251" t="s">
         <v>265</v>
@@ -23721,7 +23721,7 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="1">
-        <v>2584</v>
+        <v>2907</v>
       </c>
       <c r="B252" t="s">
         <v>266</v>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="1">
-        <v>2594</v>
+        <v>2918</v>
       </c>
       <c r="B253" t="s">
         <v>267</v>
@@ -23803,7 +23803,7 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="1">
-        <v>1196</v>
+        <v>1328</v>
       </c>
       <c r="B254" t="s">
         <v>268</v>
@@ -23844,7 +23844,7 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="1">
-        <v>5045</v>
+        <v>5668</v>
       </c>
       <c r="B255" t="s">
         <v>269</v>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="1">
-        <v>4116</v>
+        <v>4624</v>
       </c>
       <c r="B256" t="s">
         <v>270</v>
@@ -23926,7 +23926,7 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="1">
-        <v>3409</v>
+        <v>3831</v>
       </c>
       <c r="B257" t="s">
         <v>271</v>
@@ -23967,7 +23967,7 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="1">
-        <v>1267</v>
+        <v>1409</v>
       </c>
       <c r="B258" t="s">
         <v>272</v>
@@ -24008,7 +24008,7 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="1">
-        <v>956</v>
+        <v>1062</v>
       </c>
       <c r="B259" t="s">
         <v>273</v>
@@ -24049,7 +24049,7 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="1">
-        <v>1223</v>
+        <v>1363</v>
       </c>
       <c r="B260" t="s">
         <v>274</v>
@@ -24090,7 +24090,7 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="1">
-        <v>2652</v>
+        <v>2978</v>
       </c>
       <c r="B261" t="s">
         <v>275</v>
@@ -24131,7 +24131,7 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="1">
-        <v>1393</v>
+        <v>1565</v>
       </c>
       <c r="B262" t="s">
         <v>276</v>
@@ -24172,7 +24172,7 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="1">
-        <v>3922</v>
+        <v>4414</v>
       </c>
       <c r="B263" t="s">
         <v>277</v>
@@ -24213,7 +24213,7 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="1">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B264" t="s">
         <v>278</v>
@@ -24254,7 +24254,7 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="1">
-        <v>2092</v>
+        <v>2356</v>
       </c>
       <c r="B265" t="s">
         <v>279</v>
@@ -24295,7 +24295,7 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="1">
-        <v>4652</v>
+        <v>5228</v>
       </c>
       <c r="B266" t="s">
         <v>280</v>
@@ -24336,7 +24336,7 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="1">
-        <v>4597</v>
+        <v>5165</v>
       </c>
       <c r="B267" t="s">
         <v>281</v>
@@ -24377,7 +24377,7 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="1">
-        <v>4863</v>
+        <v>5464</v>
       </c>
       <c r="B268" t="s">
         <v>282</v>
@@ -24418,7 +24418,7 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="1">
-        <v>994</v>
+        <v>1104</v>
       </c>
       <c r="B269" t="s">
         <v>283</v>
@@ -24459,7 +24459,7 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="1">
-        <v>4867</v>
+        <v>5469</v>
       </c>
       <c r="B270" t="s">
         <v>284</v>
@@ -24500,7 +24500,7 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="1">
-        <v>758</v>
+        <v>840</v>
       </c>
       <c r="B271" t="s">
         <v>285</v>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="1">
-        <v>3381</v>
+        <v>3798</v>
       </c>
       <c r="B272" t="s">
         <v>286</v>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="1">
-        <v>2178</v>
+        <v>2461</v>
       </c>
       <c r="B273" t="s">
         <v>287</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="1">
-        <v>2630</v>
+        <v>2954</v>
       </c>
       <c r="B274" t="s">
         <v>288</v>
@@ -24664,7 +24664,7 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="1">
-        <v>1576</v>
+        <v>1782</v>
       </c>
       <c r="B275" t="s">
         <v>289</v>
@@ -24705,7 +24705,7 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="1">
-        <v>3334</v>
+        <v>3745</v>
       </c>
       <c r="B276" t="s">
         <v>290</v>
@@ -24746,7 +24746,7 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="1">
-        <v>4616</v>
+        <v>5188</v>
       </c>
       <c r="B277" t="s">
         <v>291</v>
@@ -24787,7 +24787,7 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="1">
-        <v>2833</v>
+        <v>3176</v>
       </c>
       <c r="B278" t="s">
         <v>292</v>
@@ -24828,7 +24828,7 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="1">
-        <v>1916</v>
+        <v>2160</v>
       </c>
       <c r="B279" t="s">
         <v>293</v>
@@ -24869,7 +24869,7 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="1">
-        <v>3853</v>
+        <v>4331</v>
       </c>
       <c r="B280" t="s">
         <v>294</v>
@@ -24910,7 +24910,7 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="1">
-        <v>1290</v>
+        <v>1438</v>
       </c>
       <c r="B281" t="s">
         <v>295</v>
@@ -24951,7 +24951,7 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="1">
-        <v>1984</v>
+        <v>2236</v>
       </c>
       <c r="B282" t="s">
         <v>296</v>
@@ -24992,7 +24992,7 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="1">
-        <v>834</v>
+        <v>921</v>
       </c>
       <c r="B283" t="s">
         <v>297</v>
@@ -25033,7 +25033,7 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="1">
-        <v>3270</v>
+        <v>3679</v>
       </c>
       <c r="B284" t="s">
         <v>298</v>
@@ -25074,7 +25074,7 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="1">
-        <v>815</v>
+        <v>901</v>
       </c>
       <c r="B285" t="s">
         <v>299</v>
@@ -25115,7 +25115,7 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="1">
-        <v>1446</v>
+        <v>1629</v>
       </c>
       <c r="B286" t="s">
         <v>300</v>
@@ -25156,7 +25156,7 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="1">
-        <v>4683</v>
+        <v>5259</v>
       </c>
       <c r="B287" t="s">
         <v>301</v>
@@ -25197,7 +25197,7 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="1">
-        <v>1054</v>
+        <v>1168</v>
       </c>
       <c r="B288" t="s">
         <v>302</v>
@@ -25238,7 +25238,7 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="1">
-        <v>2401</v>
+        <v>2708</v>
       </c>
       <c r="B289" t="s">
         <v>303</v>
@@ -25279,7 +25279,7 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="1">
-        <v>905</v>
+        <v>1002</v>
       </c>
       <c r="B290" t="s">
         <v>304</v>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="1">
-        <v>2436</v>
+        <v>2746</v>
       </c>
       <c r="B291" t="s">
         <v>305</v>
@@ -25361,7 +25361,7 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="1">
-        <v>1317</v>
+        <v>1468</v>
       </c>
       <c r="B292" t="s">
         <v>306</v>
@@ -25402,7 +25402,7 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="1">
-        <v>1956</v>
+        <v>2203</v>
       </c>
       <c r="B293" t="s">
         <v>307</v>
@@ -25443,7 +25443,7 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="1">
-        <v>4469</v>
+        <v>5016</v>
       </c>
       <c r="B294" t="s">
         <v>308</v>
@@ -25484,7 +25484,7 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="1">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="B295" t="s">
         <v>309</v>
@@ -25525,7 +25525,7 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="1">
-        <v>1364</v>
+        <v>1525</v>
       </c>
       <c r="B296" t="s">
         <v>310</v>
@@ -25566,7 +25566,7 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="1">
-        <v>4873</v>
+        <v>5476</v>
       </c>
       <c r="B297" t="s">
         <v>311</v>
@@ -25607,7 +25607,7 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="1">
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="B298" t="s">
         <v>312</v>
@@ -25648,7 +25648,7 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="1">
-        <v>4753</v>
+        <v>5342</v>
       </c>
       <c r="B299" t="s">
         <v>313</v>
@@ -25689,7 +25689,7 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="1">
-        <v>2809</v>
+        <v>3150</v>
       </c>
       <c r="B300" t="s">
         <v>314</v>
@@ -25730,7 +25730,7 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="1">
-        <v>3837</v>
+        <v>4312</v>
       </c>
       <c r="B301" t="s">
         <v>315</v>
@@ -25771,7 +25771,7 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="1">
-        <v>2866</v>
+        <v>3218</v>
       </c>
       <c r="B302" t="s">
         <v>316</v>
@@ -25812,7 +25812,7 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="1">
-        <v>2950</v>
+        <v>3310</v>
       </c>
       <c r="B303" t="s">
         <v>317</v>
@@ -25853,7 +25853,7 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="1">
-        <v>1893</v>
+        <v>2137</v>
       </c>
       <c r="B304" t="s">
         <v>318</v>
@@ -25894,7 +25894,7 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="1">
-        <v>2075</v>
+        <v>2334</v>
       </c>
       <c r="B305" t="s">
         <v>319</v>
@@ -25935,7 +25935,7 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="1">
-        <v>4362</v>
+        <v>4902</v>
       </c>
       <c r="B306" t="s">
         <v>320</v>
@@ -25976,7 +25976,7 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="1">
-        <v>1309</v>
+        <v>1458</v>
       </c>
       <c r="B307" t="s">
         <v>321</v>
@@ -26017,7 +26017,7 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="1">
-        <v>907</v>
+        <v>1004</v>
       </c>
       <c r="B308" t="s">
         <v>322</v>
@@ -26058,7 +26058,7 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="1">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="B309" t="s">
         <v>323</v>
@@ -26099,7 +26099,7 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="1">
-        <v>4189</v>
+        <v>4702</v>
       </c>
       <c r="B310" t="s">
         <v>324</v>
@@ -26140,7 +26140,7 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="1">
-        <v>2070</v>
+        <v>2328</v>
       </c>
       <c r="B311" t="s">
         <v>325</v>
@@ -26181,7 +26181,7 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="1">
-        <v>2501</v>
+        <v>2815</v>
       </c>
       <c r="B312" t="s">
         <v>326</v>
@@ -26222,7 +26222,7 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="1">
-        <v>1551</v>
+        <v>1751</v>
       </c>
       <c r="B313" t="s">
         <v>327</v>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="1">
-        <v>3229</v>
+        <v>3631</v>
       </c>
       <c r="B314" t="s">
         <v>328</v>
@@ -26304,7 +26304,7 @@
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="1">
-        <v>680</v>
+        <v>754</v>
       </c>
       <c r="B315" t="s">
         <v>329</v>
@@ -26345,7 +26345,7 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="1">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B316" t="s">
         <v>330</v>
@@ -26386,7 +26386,7 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="1">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="B317" t="s">
         <v>331</v>
@@ -26427,7 +26427,7 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="1">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="B318" t="s">
         <v>332</v>
@@ -26468,7 +26468,7 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="1">
-        <v>4206</v>
+        <v>4721</v>
       </c>
       <c r="B319" t="s">
         <v>333</v>
@@ -26509,7 +26509,7 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="1">
-        <v>3219</v>
+        <v>3619</v>
       </c>
       <c r="B320" t="s">
         <v>334</v>
@@ -26550,7 +26550,7 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="1">
-        <v>1010</v>
+        <v>1120</v>
       </c>
       <c r="B321" t="s">
         <v>335</v>
@@ -26591,7 +26591,7 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="1">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B322" t="s">
         <v>336</v>
@@ -26632,7 +26632,7 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="1">
-        <v>3953</v>
+        <v>4448</v>
       </c>
       <c r="B323" t="s">
         <v>337</v>
@@ -26673,7 +26673,7 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="1">
-        <v>3540</v>
+        <v>3985</v>
       </c>
       <c r="B324" t="s">
         <v>338</v>
@@ -26714,7 +26714,7 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="1">
-        <v>2243</v>
+        <v>2532</v>
       </c>
       <c r="B325" t="s">
         <v>339</v>
@@ -26755,7 +26755,7 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="1">
-        <v>1107</v>
+        <v>1228</v>
       </c>
       <c r="B326" t="s">
         <v>340</v>
@@ -26796,7 +26796,7 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="1">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B327" t="s">
         <v>341</v>
@@ -26837,7 +26837,7 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="1">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="B328" t="s">
         <v>342</v>
@@ -26878,7 +26878,7 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="1">
-        <v>3325</v>
+        <v>3735</v>
       </c>
       <c r="B329" t="s">
         <v>343</v>
@@ -26919,7 +26919,7 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="1">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="B330" t="s">
         <v>344</v>
@@ -26960,7 +26960,7 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="1">
-        <v>3929</v>
+        <v>4423</v>
       </c>
       <c r="B331" t="s">
         <v>345</v>
@@ -27001,7 +27001,7 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="1">
-        <v>3834</v>
+        <v>4308</v>
       </c>
       <c r="B332" t="s">
         <v>346</v>
@@ -27042,7 +27042,7 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="1">
-        <v>2718</v>
+        <v>3052</v>
       </c>
       <c r="B333" t="s">
         <v>347</v>
@@ -27083,7 +27083,7 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="1">
-        <v>3049</v>
+        <v>3430</v>
       </c>
       <c r="B334" t="s">
         <v>348</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="1">
-        <v>1507</v>
+        <v>1702</v>
       </c>
       <c r="B335" t="s">
         <v>349</v>
@@ -27165,7 +27165,7 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="1">
-        <v>1165</v>
+        <v>1295</v>
       </c>
       <c r="B336" t="s">
         <v>350</v>
@@ -27206,7 +27206,7 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="1">
-        <v>3267</v>
+        <v>3676</v>
       </c>
       <c r="B337" t="s">
         <v>351</v>
@@ -27247,7 +27247,7 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="1">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="B338" t="s">
         <v>352</v>
@@ -27288,7 +27288,7 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="1">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B339" t="s">
         <v>353</v>
@@ -27329,7 +27329,7 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="1">
-        <v>1135</v>
+        <v>1258</v>
       </c>
       <c r="B340" t="s">
         <v>354</v>
@@ -27370,7 +27370,7 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="1">
-        <v>4078</v>
+        <v>4584</v>
       </c>
       <c r="B341" t="s">
         <v>355</v>
@@ -27411,7 +27411,7 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="1">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="B342" t="s">
         <v>356</v>
@@ -27452,7 +27452,7 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="1">
-        <v>1716</v>
+        <v>1942</v>
       </c>
       <c r="B343" t="s">
         <v>357</v>
@@ -27493,7 +27493,7 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="1">
-        <v>2592</v>
+        <v>2916</v>
       </c>
       <c r="B344" t="s">
         <v>358</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="1">
-        <v>2626</v>
+        <v>2950</v>
       </c>
       <c r="B345" t="s">
         <v>359</v>
@@ -27575,7 +27575,7 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="1">
-        <v>980</v>
+        <v>1089</v>
       </c>
       <c r="B346" t="s">
         <v>360</v>
@@ -27616,7 +27616,7 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="1">
-        <v>1174</v>
+        <v>1304</v>
       </c>
       <c r="B347" t="s">
         <v>361</v>
@@ -27657,7 +27657,7 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="1">
-        <v>4974</v>
+        <v>5590</v>
       </c>
       <c r="B348" t="s">
         <v>362</v>
@@ -27698,7 +27698,7 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="1">
-        <v>4456</v>
+        <v>5002</v>
       </c>
       <c r="B349" t="s">
         <v>363</v>
@@ -27739,7 +27739,7 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="1">
-        <v>3380</v>
+        <v>3797</v>
       </c>
       <c r="B350" t="s">
         <v>364</v>
@@ -27780,7 +27780,7 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="1">
-        <v>4794</v>
+        <v>5388</v>
       </c>
       <c r="B351" t="s">
         <v>365</v>
@@ -27821,7 +27821,7 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="1">
-        <v>4724</v>
+        <v>5311</v>
       </c>
       <c r="B352" t="s">
         <v>366</v>
@@ -27862,7 +27862,7 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="1">
-        <v>2969</v>
+        <v>3333</v>
       </c>
       <c r="B353" t="s">
         <v>367</v>
@@ -27903,7 +27903,7 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="1">
-        <v>3295</v>
+        <v>3705</v>
       </c>
       <c r="B354" t="s">
         <v>368</v>
@@ -27944,7 +27944,7 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="1">
-        <v>5003</v>
+        <v>5622</v>
       </c>
       <c r="B355" t="s">
         <v>369</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="1">
-        <v>4459</v>
+        <v>5006</v>
       </c>
       <c r="B356" t="s">
         <v>370</v>
@@ -28026,7 +28026,7 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="1">
-        <v>2616</v>
+        <v>2940</v>
       </c>
       <c r="B357" t="s">
         <v>371</v>
@@ -28067,7 +28067,7 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="1">
-        <v>3520</v>
+        <v>3959</v>
       </c>
       <c r="B358" t="s">
         <v>372</v>
@@ -28108,7 +28108,7 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="1">
-        <v>4094</v>
+        <v>4600</v>
       </c>
       <c r="B359" t="s">
         <v>373</v>
@@ -28149,7 +28149,7 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="1">
-        <v>1143</v>
+        <v>1269</v>
       </c>
       <c r="B360" t="s">
         <v>374</v>
@@ -28190,7 +28190,7 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="1">
-        <v>3463</v>
+        <v>3893</v>
       </c>
       <c r="B361" t="s">
         <v>375</v>
@@ -28231,7 +28231,7 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="1">
-        <v>4561</v>
+        <v>5123</v>
       </c>
       <c r="B362" t="s">
         <v>376</v>
@@ -28272,7 +28272,7 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="1">
-        <v>890</v>
+        <v>984</v>
       </c>
       <c r="B363" t="s">
         <v>377</v>
@@ -28313,7 +28313,7 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="1">
-        <v>2200</v>
+        <v>2486</v>
       </c>
       <c r="B364" t="s">
         <v>378</v>
@@ -28354,7 +28354,7 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="1">
-        <v>3912</v>
+        <v>4400</v>
       </c>
       <c r="B365" t="s">
         <v>379</v>
@@ -28395,7 +28395,7 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="1">
-        <v>4687</v>
+        <v>5264</v>
       </c>
       <c r="B366" t="s">
         <v>380</v>
@@ -28436,7 +28436,7 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B367" t="s">
         <v>381</v>
@@ -28477,7 +28477,7 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="1">
-        <v>4110</v>
+        <v>4618</v>
       </c>
       <c r="B368" t="s">
         <v>382</v>
@@ -28518,7 +28518,7 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="1">
-        <v>2541</v>
+        <v>2862</v>
       </c>
       <c r="B369" t="s">
         <v>383</v>
@@ -28559,7 +28559,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="1">
-        <v>1989</v>
+        <v>2241</v>
       </c>
       <c r="B370" t="s">
         <v>384</v>
@@ -28600,7 +28600,7 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="1">
-        <v>1899</v>
+        <v>2143</v>
       </c>
       <c r="B371" t="s">
         <v>385</v>
@@ -28641,7 +28641,7 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="1">
-        <v>2725</v>
+        <v>3059</v>
       </c>
       <c r="B372" t="s">
         <v>386</v>
@@ -28682,7 +28682,7 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="1">
-        <v>3670</v>
+        <v>4128</v>
       </c>
       <c r="B373" t="s">
         <v>387</v>
@@ -28723,7 +28723,7 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="1">
-        <v>708</v>
+        <v>788</v>
       </c>
       <c r="B374" t="s">
         <v>388</v>
@@ -28764,7 +28764,7 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="1">
-        <v>943</v>
+        <v>1045</v>
       </c>
       <c r="B375" t="s">
         <v>389</v>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="1">
-        <v>3525</v>
+        <v>3966</v>
       </c>
       <c r="B376" t="s">
         <v>390</v>
@@ -28846,7 +28846,7 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="1">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B377" t="s">
         <v>391</v>
@@ -28887,7 +28887,7 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="1">
-        <v>2970</v>
+        <v>3335</v>
       </c>
       <c r="B378" t="s">
         <v>392</v>
@@ -28928,7 +28928,7 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="1">
-        <v>3611</v>
+        <v>4058</v>
       </c>
       <c r="B379" t="s">
         <v>393</v>
@@ -28969,7 +28969,7 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="1">
-        <v>4900</v>
+        <v>5507</v>
       </c>
       <c r="B380" t="s">
         <v>394</v>
@@ -29010,7 +29010,7 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="1">
-        <v>1493</v>
+        <v>1685</v>
       </c>
       <c r="B381" t="s">
         <v>395</v>
@@ -29051,7 +29051,7 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="1">
-        <v>2602</v>
+        <v>2926</v>
       </c>
       <c r="B382" t="s">
         <v>396</v>
@@ -29092,7 +29092,7 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="1">
-        <v>1803</v>
+        <v>2038</v>
       </c>
       <c r="B383" t="s">
         <v>397</v>
@@ -29133,7 +29133,7 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="1">
-        <v>2265</v>
+        <v>2558</v>
       </c>
       <c r="B384" t="s">
         <v>398</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="1">
-        <v>1048</v>
+        <v>1161</v>
       </c>
       <c r="B385" t="s">
         <v>399</v>
@@ -29215,7 +29215,7 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="1">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="B386" t="s">
         <v>400</v>
@@ -29256,7 +29256,7 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="1">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="B387" t="s">
         <v>401</v>
@@ -29297,7 +29297,7 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="1">
-        <v>1038</v>
+        <v>1151</v>
       </c>
       <c r="B388" t="s">
         <v>402</v>
@@ -29338,7 +29338,7 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="1">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="B389" t="s">
         <v>403</v>
@@ -29379,7 +29379,7 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="1">
-        <v>2904</v>
+        <v>3260</v>
       </c>
       <c r="B390" t="s">
         <v>404</v>
@@ -29420,7 +29420,7 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="1">
-        <v>2432</v>
+        <v>2742</v>
       </c>
       <c r="B391" t="s">
         <v>405</v>
@@ -29461,7 +29461,7 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="1">
-        <v>1333</v>
+        <v>1487</v>
       </c>
       <c r="B392" t="s">
         <v>406</v>
@@ -29502,7 +29502,7 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="1">
-        <v>2608</v>
+        <v>2932</v>
       </c>
       <c r="B393" t="s">
         <v>407</v>
@@ -29543,7 +29543,7 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="1">
-        <v>3750</v>
+        <v>4216</v>
       </c>
       <c r="B394" t="s">
         <v>408</v>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="1">
-        <v>650</v>
+        <v>722</v>
       </c>
       <c r="B395" t="s">
         <v>409</v>
@@ -29625,7 +29625,7 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="1">
-        <v>4341</v>
+        <v>4877</v>
       </c>
       <c r="B396" t="s">
         <v>410</v>
@@ -29666,7 +29666,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="1">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="B397" t="s">
         <v>411</v>
@@ -29707,7 +29707,7 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="1">
-        <v>1160</v>
+        <v>1289</v>
       </c>
       <c r="B398" t="s">
         <v>412</v>
@@ -29748,7 +29748,7 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="1">
-        <v>4085</v>
+        <v>4591</v>
       </c>
       <c r="B399" t="s">
         <v>413</v>
@@ -29789,7 +29789,7 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="1">
-        <v>2695</v>
+        <v>3027</v>
       </c>
       <c r="B400" t="s">
         <v>414</v>
@@ -29830,7 +29830,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="1">
-        <v>4377</v>
+        <v>4917</v>
       </c>
       <c r="B401" t="s">
         <v>415</v>
@@ -29871,7 +29871,7 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="1">
-        <v>3329</v>
+        <v>3739</v>
       </c>
       <c r="B402" t="s">
         <v>416</v>
@@ -29912,7 +29912,7 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="1">
-        <v>922</v>
+        <v>1022</v>
       </c>
       <c r="B403" t="s">
         <v>417</v>
@@ -29953,7 +29953,7 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="1">
-        <v>4140</v>
+        <v>4651</v>
       </c>
       <c r="B404" t="s">
         <v>418</v>
@@ -29994,7 +29994,7 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="1">
-        <v>2810</v>
+        <v>3151</v>
       </c>
       <c r="B405" t="s">
         <v>419</v>
@@ -30035,7 +30035,7 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="1">
-        <v>4614</v>
+        <v>5185</v>
       </c>
       <c r="B406" t="s">
         <v>420</v>
@@ -30076,7 +30076,7 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="1">
-        <v>793</v>
+        <v>878</v>
       </c>
       <c r="B407" t="s">
         <v>421</v>
@@ -30117,7 +30117,7 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="1">
-        <v>1980</v>
+        <v>2232</v>
       </c>
       <c r="B408" t="s">
         <v>422</v>
@@ -30158,7 +30158,7 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="1">
-        <v>1996</v>
+        <v>2249</v>
       </c>
       <c r="B409" t="s">
         <v>423</v>
@@ -30199,7 +30199,7 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="1">
-        <v>3684</v>
+        <v>4143</v>
       </c>
       <c r="B410" t="s">
         <v>424</v>
@@ -30240,7 +30240,7 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="1">
-        <v>2371</v>
+        <v>2673</v>
       </c>
       <c r="B411" t="s">
         <v>425</v>
@@ -30281,7 +30281,7 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="1">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="B412" t="s">
         <v>426</v>
@@ -30322,7 +30322,7 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="1">
-        <v>932</v>
+        <v>1032</v>
       </c>
       <c r="B413" t="s">
         <v>427</v>
@@ -30363,7 +30363,7 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="1">
-        <v>3780</v>
+        <v>4249</v>
       </c>
       <c r="B414" t="s">
         <v>428</v>
@@ -30404,7 +30404,7 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="1">
-        <v>2030</v>
+        <v>2285</v>
       </c>
       <c r="B415" t="s">
         <v>429</v>
@@ -30445,7 +30445,7 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="1">
-        <v>3276</v>
+        <v>3685</v>
       </c>
       <c r="B416" t="s">
         <v>430</v>
@@ -30486,7 +30486,7 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="1">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="B417" t="s">
         <v>431</v>
@@ -30527,7 +30527,7 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="1">
-        <v>2678</v>
+        <v>3006</v>
       </c>
       <c r="B418" t="s">
         <v>432</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="1">
-        <v>1488</v>
+        <v>1680</v>
       </c>
       <c r="B419" t="s">
         <v>433</v>
@@ -30609,7 +30609,7 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="1">
-        <v>2795</v>
+        <v>3135</v>
       </c>
       <c r="B420" t="s">
         <v>434</v>
@@ -30650,7 +30650,7 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="1">
-        <v>3444</v>
+        <v>3872</v>
       </c>
       <c r="B421" t="s">
         <v>435</v>
@@ -30691,7 +30691,7 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="1">
-        <v>1479</v>
+        <v>1668</v>
       </c>
       <c r="B422" t="s">
         <v>436</v>
@@ -30732,7 +30732,7 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="1">
-        <v>2917</v>
+        <v>3274</v>
       </c>
       <c r="B423" t="s">
         <v>437</v>
@@ -30773,7 +30773,7 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="1">
-        <v>3487</v>
+        <v>3919</v>
       </c>
       <c r="B424" t="s">
         <v>438</v>
@@ -30814,7 +30814,7 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="1">
-        <v>1564</v>
+        <v>1767</v>
       </c>
       <c r="B425" t="s">
         <v>439</v>
@@ -30855,7 +30855,7 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="1">
-        <v>3943</v>
+        <v>4437</v>
       </c>
       <c r="B426" t="s">
         <v>440</v>
@@ -30896,7 +30896,7 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="1">
-        <v>2697</v>
+        <v>3030</v>
       </c>
       <c r="B427" t="s">
         <v>441</v>
@@ -30937,7 +30937,7 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="1">
-        <v>1458</v>
+        <v>1643</v>
       </c>
       <c r="B428" t="s">
         <v>442</v>
@@ -30978,7 +30978,7 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="1">
-        <v>3937</v>
+        <v>4430</v>
       </c>
       <c r="B429" t="s">
         <v>443</v>
@@ -31019,7 +31019,7 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="1">
-        <v>1664</v>
+        <v>1884</v>
       </c>
       <c r="B430" t="s">
         <v>444</v>
@@ -31060,7 +31060,7 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="1">
-        <v>771</v>
+        <v>853</v>
       </c>
       <c r="B431" t="s">
         <v>445</v>
@@ -31101,7 +31101,7 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="1">
-        <v>2999</v>
+        <v>3370</v>
       </c>
       <c r="B432" t="s">
         <v>446</v>
@@ -31142,7 +31142,7 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="1">
-        <v>5084</v>
+        <v>5709</v>
       </c>
       <c r="B433" t="s">
         <v>447</v>
@@ -31183,7 +31183,7 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="1">
-        <v>4869</v>
+        <v>5471</v>
       </c>
       <c r="B434" t="s">
         <v>448</v>
@@ -31224,7 +31224,7 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="1">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B435" t="s">
         <v>449</v>
@@ -31265,7 +31265,7 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="1">
-        <v>4658</v>
+        <v>5234</v>
       </c>
       <c r="B436" t="s">
         <v>450</v>
@@ -31306,7 +31306,7 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="1">
-        <v>936</v>
+        <v>1037</v>
       </c>
       <c r="B437" t="s">
         <v>451</v>
@@ -31347,7 +31347,7 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="1">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="B438" t="s">
         <v>452</v>
@@ -31388,7 +31388,7 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="1">
-        <v>2219</v>
+        <v>2505</v>
       </c>
       <c r="B439" t="s">
         <v>453</v>
@@ -31429,7 +31429,7 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="1">
-        <v>4982</v>
+        <v>5598</v>
       </c>
       <c r="B440" t="s">
         <v>454</v>
@@ -31470,7 +31470,7 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="1">
-        <v>4517</v>
+        <v>5071</v>
       </c>
       <c r="B441" t="s">
         <v>455</v>
@@ -31511,7 +31511,7 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="1">
-        <v>1759</v>
+        <v>1991</v>
       </c>
       <c r="B442" t="s">
         <v>456</v>
@@ -31552,7 +31552,7 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="1">
-        <v>1154</v>
+        <v>1283</v>
       </c>
       <c r="B443" t="s">
         <v>457</v>
@@ -31593,7 +31593,7 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="1">
-        <v>1185</v>
+        <v>1315</v>
       </c>
       <c r="B444" t="s">
         <v>458</v>
@@ -31634,7 +31634,7 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="1">
-        <v>3353</v>
+        <v>3767</v>
       </c>
       <c r="B445" t="s">
         <v>459</v>
@@ -31675,7 +31675,7 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="1">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="B446" t="s">
         <v>460</v>
@@ -31716,7 +31716,7 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="1">
-        <v>2355</v>
+        <v>2655</v>
       </c>
       <c r="B447" t="s">
         <v>461</v>
@@ -31757,7 +31757,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="1">
-        <v>2629</v>
+        <v>2953</v>
       </c>
       <c r="B448" t="s">
         <v>462</v>
@@ -31798,7 +31798,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="1">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B449" t="s">
         <v>463</v>
@@ -31839,7 +31839,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="1">
-        <v>2032</v>
+        <v>2287</v>
       </c>
       <c r="B450" t="s">
         <v>464</v>
@@ -31880,7 +31880,7 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="1">
-        <v>3209</v>
+        <v>3609</v>
       </c>
       <c r="B451" t="s">
         <v>465</v>
@@ -31921,7 +31921,7 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="1">
-        <v>4832</v>
+        <v>5429</v>
       </c>
       <c r="B452" t="s">
         <v>466</v>
@@ -31962,7 +31962,7 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="1">
-        <v>1498</v>
+        <v>1690</v>
       </c>
       <c r="B453" t="s">
         <v>467</v>
@@ -32003,7 +32003,7 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="1">
-        <v>1043</v>
+        <v>1156</v>
       </c>
       <c r="B454" t="s">
         <v>468</v>
@@ -32044,7 +32044,7 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="1">
-        <v>1635</v>
+        <v>1852</v>
       </c>
       <c r="B455" t="s">
         <v>469</v>
@@ -32085,7 +32085,7 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="1">
-        <v>3426</v>
+        <v>3853</v>
       </c>
       <c r="B456" t="s">
         <v>470</v>
@@ -32126,7 +32126,7 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="1">
-        <v>3205</v>
+        <v>3605</v>
       </c>
       <c r="B457" t="s">
         <v>471</v>
@@ -32167,7 +32167,7 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="1">
-        <v>2472</v>
+        <v>2784</v>
       </c>
       <c r="B458" t="s">
         <v>472</v>
@@ -32208,7 +32208,7 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="1">
-        <v>1400</v>
+        <v>1572</v>
       </c>
       <c r="B459" t="s">
         <v>473</v>
@@ -32249,7 +32249,7 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="1">
-        <v>4250</v>
+        <v>4772</v>
       </c>
       <c r="B460" t="s">
         <v>474</v>
@@ -32290,7 +32290,7 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="1">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="B461" t="s">
         <v>475</v>
@@ -32331,7 +32331,7 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="1">
-        <v>1441</v>
+        <v>1623</v>
       </c>
       <c r="B462" t="s">
         <v>476</v>
@@ -32372,7 +32372,7 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="1">
-        <v>4801</v>
+        <v>5396</v>
       </c>
       <c r="B463" t="s">
         <v>477</v>
@@ -32413,7 +32413,7 @@
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="1">
-        <v>1215</v>
+        <v>1353</v>
       </c>
       <c r="B464" t="s">
         <v>478</v>
@@ -32454,7 +32454,7 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465" s="1">
-        <v>1377</v>
+        <v>1542</v>
       </c>
       <c r="B465" t="s">
         <v>479</v>
@@ -32495,7 +32495,7 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="1">
-        <v>3948</v>
+        <v>4443</v>
       </c>
       <c r="B466" t="s">
         <v>480</v>
@@ -32536,7 +32536,7 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="1">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="B467" t="s">
         <v>481</v>
@@ -32577,7 +32577,7 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="1">
-        <v>1667</v>
+        <v>1887</v>
       </c>
       <c r="B468" t="s">
         <v>482</v>
@@ -32618,7 +32618,7 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="1">
-        <v>1947</v>
+        <v>2193</v>
       </c>
       <c r="B469" t="s">
         <v>483</v>
@@ -32659,7 +32659,7 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="1">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B470" t="s">
         <v>484</v>
@@ -32700,7 +32700,7 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="1">
-        <v>4505</v>
+        <v>5057</v>
       </c>
       <c r="B471" t="s">
         <v>485</v>
@@ -32741,7 +32741,7 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="1">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="B472" t="s">
         <v>486</v>
@@ -32782,7 +32782,7 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="1">
-        <v>1548</v>
+        <v>1748</v>
       </c>
       <c r="B473" t="s">
         <v>487</v>
@@ -32823,7 +32823,7 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="1">
-        <v>4743</v>
+        <v>5332</v>
       </c>
       <c r="B474" t="s">
         <v>488</v>
@@ -32864,7 +32864,7 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475" s="1">
-        <v>1619</v>
+        <v>1832</v>
       </c>
       <c r="B475" t="s">
         <v>489</v>
@@ -32905,7 +32905,7 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476" s="1">
-        <v>3039</v>
+        <v>3419</v>
       </c>
       <c r="B476" t="s">
         <v>490</v>
@@ -32946,7 +32946,7 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="1">
-        <v>3891</v>
+        <v>4377</v>
       </c>
       <c r="B477" t="s">
         <v>491</v>
@@ -32987,7 +32987,7 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478" s="1">
-        <v>2862</v>
+        <v>3213</v>
       </c>
       <c r="B478" t="s">
         <v>492</v>
@@ -33028,7 +33028,7 @@
     </row>
     <row r="479" spans="1:14">
       <c r="A479" s="1">
-        <v>2138</v>
+        <v>2417</v>
       </c>
       <c r="B479" t="s">
         <v>493</v>
@@ -33069,7 +33069,7 @@
     </row>
     <row r="480" spans="1:14">
       <c r="A480" s="1">
-        <v>3566</v>
+        <v>4012</v>
       </c>
       <c r="B480" t="s">
         <v>494</v>
@@ -33110,7 +33110,7 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="1">
-        <v>4895</v>
+        <v>5502</v>
       </c>
       <c r="B481" t="s">
         <v>495</v>
@@ -33151,7 +33151,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="1">
-        <v>2223</v>
+        <v>2512</v>
       </c>
       <c r="B482" t="s">
         <v>496</v>
@@ -33192,7 +33192,7 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="1">
-        <v>4940</v>
+        <v>5552</v>
       </c>
       <c r="B483" t="s">
         <v>497</v>
@@ -33233,7 +33233,7 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="1">
-        <v>4723</v>
+        <v>5310</v>
       </c>
       <c r="B484" t="s">
         <v>498</v>
@@ -33274,7 +33274,7 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="1">
-        <v>4700</v>
+        <v>5278</v>
       </c>
       <c r="B485" t="s">
         <v>499</v>
@@ -33315,7 +33315,7 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="1">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="B486" t="s">
         <v>500</v>
@@ -33356,7 +33356,7 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="1">
-        <v>2540</v>
+        <v>2861</v>
       </c>
       <c r="B487" t="s">
         <v>501</v>
@@ -33397,7 +33397,7 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="1">
-        <v>4468</v>
+        <v>5015</v>
       </c>
       <c r="B488" t="s">
         <v>502</v>
@@ -33438,7 +33438,7 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="1">
-        <v>2783</v>
+        <v>3122</v>
       </c>
       <c r="B489" t="s">
         <v>503</v>
@@ -33479,7 +33479,7 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490" s="1">
-        <v>750</v>
+        <v>831</v>
       </c>
       <c r="B490" t="s">
         <v>504</v>
@@ -33520,7 +33520,7 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="1">
-        <v>1962</v>
+        <v>2213</v>
       </c>
       <c r="B491" t="s">
         <v>505</v>
@@ -33561,7 +33561,7 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492" s="1">
-        <v>1073</v>
+        <v>1188</v>
       </c>
       <c r="B492" t="s">
         <v>506</v>
@@ -33602,7 +33602,7 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493" s="1">
-        <v>4452</v>
+        <v>4998</v>
       </c>
       <c r="B493" t="s">
         <v>507</v>
@@ -33643,7 +33643,7 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="1">
-        <v>723</v>
+        <v>803</v>
       </c>
       <c r="B494" t="s">
         <v>508</v>
@@ -33684,7 +33684,7 @@
     </row>
     <row r="495" spans="1:14">
       <c r="A495" s="1">
-        <v>4795</v>
+        <v>5389</v>
       </c>
       <c r="B495" t="s">
         <v>509</v>
@@ -33725,7 +33725,7 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496" s="1">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="B496" t="s">
         <v>510</v>
@@ -33766,7 +33766,7 @@
     </row>
     <row r="497" spans="1:14">
       <c r="A497" s="1">
-        <v>2477</v>
+        <v>2789</v>
       </c>
       <c r="B497" t="s">
         <v>511</v>
@@ -33807,7 +33807,7 @@
     </row>
     <row r="498" spans="1:14">
       <c r="A498" s="1">
-        <v>1361</v>
+        <v>1521</v>
       </c>
       <c r="B498" t="s">
         <v>512</v>
@@ -33848,7 +33848,7 @@
     </row>
     <row r="499" spans="1:14">
       <c r="A499" s="1">
-        <v>1405</v>
+        <v>1578</v>
       </c>
       <c r="B499" t="s">
         <v>513</v>
@@ -33889,7 +33889,7 @@
     </row>
     <row r="500" spans="1:14">
       <c r="A500" s="1">
-        <v>831</v>
+        <v>917</v>
       </c>
       <c r="B500" t="s">
         <v>514</v>
@@ -33930,7 +33930,7 @@
     </row>
     <row r="501" spans="1:14">
       <c r="A501" s="1">
-        <v>1954</v>
+        <v>2201</v>
       </c>
       <c r="B501" t="s">
         <v>515</v>
@@ -33971,7 +33971,7 @@
     </row>
     <row r="502" spans="1:14">
       <c r="A502" s="1">
-        <v>2745</v>
+        <v>3081</v>
       </c>
       <c r="B502" t="s">
         <v>516</v>
@@ -34012,7 +34012,7 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503" s="1">
-        <v>3528</v>
+        <v>3970</v>
       </c>
       <c r="B503" t="s">
         <v>517</v>
@@ -34053,7 +34053,7 @@
     </row>
     <row r="504" spans="1:14">
       <c r="A504" s="1">
-        <v>2546</v>
+        <v>2867</v>
       </c>
       <c r="B504" t="s">
         <v>518</v>
@@ -34094,7 +34094,7 @@
     </row>
     <row r="505" spans="1:14">
       <c r="A505" s="1">
-        <v>4631</v>
+        <v>5205</v>
       </c>
       <c r="B505" t="s">
         <v>519</v>
@@ -34135,7 +34135,7 @@
     </row>
     <row r="506" spans="1:14">
       <c r="A506" s="1">
-        <v>1466</v>
+        <v>1651</v>
       </c>
       <c r="B506" t="s">
         <v>520</v>
@@ -34176,7 +34176,7 @@
     </row>
     <row r="507" spans="1:14">
       <c r="A507" s="1">
-        <v>3961</v>
+        <v>4456</v>
       </c>
       <c r="B507" t="s">
         <v>521</v>
@@ -34217,7 +34217,7 @@
     </row>
     <row r="508" spans="1:14">
       <c r="A508" s="1">
-        <v>2605</v>
+        <v>2929</v>
       </c>
       <c r="B508" t="s">
         <v>522</v>
@@ -34258,7 +34258,7 @@
     </row>
     <row r="509" spans="1:14">
       <c r="A509" s="1">
-        <v>844</v>
+        <v>932</v>
       </c>
       <c r="B509" t="s">
         <v>523</v>
@@ -34299,7 +34299,7 @@
     </row>
     <row r="510" spans="1:14">
       <c r="A510" s="1">
-        <v>3054</v>
+        <v>3435</v>
       </c>
       <c r="B510" t="s">
         <v>524</v>
@@ -34340,7 +34340,7 @@
     </row>
     <row r="511" spans="1:14">
       <c r="A511" s="1">
-        <v>746</v>
+        <v>827</v>
       </c>
       <c r="B511" t="s">
         <v>525</v>
@@ -34381,7 +34381,7 @@
     </row>
     <row r="512" spans="1:14">
       <c r="A512" s="1">
-        <v>2527</v>
+        <v>2845</v>
       </c>
       <c r="B512" t="s">
         <v>526</v>
@@ -34422,7 +34422,7 @@
     </row>
     <row r="513" spans="1:14">
       <c r="A513" s="1">
-        <v>3225</v>
+        <v>3627</v>
       </c>
       <c r="B513" t="s">
         <v>527</v>
@@ -34463,7 +34463,7 @@
     </row>
     <row r="514" spans="1:14">
       <c r="A514" s="1">
-        <v>3619</v>
+        <v>4068</v>
       </c>
       <c r="B514" t="s">
         <v>528</v>
@@ -34504,7 +34504,7 @@
     </row>
     <row r="515" spans="1:14">
       <c r="A515" s="1">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="B515" t="s">
         <v>529</v>
@@ -34545,7 +34545,7 @@
     </row>
     <row r="516" spans="1:14">
       <c r="A516" s="1">
-        <v>2332</v>
+        <v>2630</v>
       </c>
       <c r="B516" t="s">
         <v>530</v>
@@ -34586,7 +34586,7 @@
     </row>
     <row r="517" spans="1:14">
       <c r="A517" s="1">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B517" t="s">
         <v>531</v>
@@ -34627,7 +34627,7 @@
     </row>
     <row r="518" spans="1:14">
       <c r="A518" s="1">
-        <v>3141</v>
+        <v>3532</v>
       </c>
       <c r="B518" t="s">
         <v>532</v>
@@ -34668,7 +34668,7 @@
     </row>
     <row r="519" spans="1:14">
       <c r="A519" s="1">
-        <v>4878</v>
+        <v>5482</v>
       </c>
       <c r="B519" t="s">
         <v>533</v>
@@ -34709,7 +34709,7 @@
     </row>
     <row r="520" spans="1:14">
       <c r="A520" s="1">
-        <v>2856</v>
+        <v>3203</v>
       </c>
       <c r="B520" t="s">
         <v>534</v>
@@ -34750,7 +34750,7 @@
     </row>
     <row r="521" spans="1:14">
       <c r="A521" s="1">
-        <v>4550</v>
+        <v>5109</v>
       </c>
       <c r="B521" t="s">
         <v>535</v>
@@ -34791,7 +34791,7 @@
     </row>
     <row r="522" spans="1:14">
       <c r="A522" s="1">
-        <v>5080</v>
+        <v>5704</v>
       </c>
       <c r="B522" t="s">
         <v>536</v>
@@ -34832,7 +34832,7 @@
     </row>
     <row r="523" spans="1:14">
       <c r="A523" s="1">
-        <v>2174</v>
+        <v>2456</v>
       </c>
       <c r="B523" t="s">
         <v>537</v>
@@ -34873,7 +34873,7 @@
     </row>
     <row r="524" spans="1:14">
       <c r="A524" s="1">
-        <v>4001</v>
+        <v>4499</v>
       </c>
       <c r="B524" t="s">
         <v>538</v>
@@ -34914,7 +34914,7 @@
     </row>
     <row r="525" spans="1:14">
       <c r="A525" s="1">
-        <v>2664</v>
+        <v>2990</v>
       </c>
       <c r="B525" t="s">
         <v>539</v>
@@ -34955,7 +34955,7 @@
     </row>
     <row r="526" spans="1:14">
       <c r="A526" s="1">
-        <v>2936</v>
+        <v>3295</v>
       </c>
       <c r="B526" t="s">
         <v>540</v>
@@ -34996,7 +34996,7 @@
     </row>
     <row r="527" spans="1:14">
       <c r="A527" s="1">
-        <v>1860</v>
+        <v>2100</v>
       </c>
       <c r="B527" t="s">
         <v>541</v>
@@ -35037,7 +35037,7 @@
     </row>
     <row r="528" spans="1:14">
       <c r="A528" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B528" t="s">
         <v>542</v>
@@ -35078,7 +35078,7 @@
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="1">
-        <v>843</v>
+        <v>931</v>
       </c>
       <c r="B529" t="s">
         <v>543</v>
@@ -35119,7 +35119,7 @@
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="1">
-        <v>2195</v>
+        <v>2479</v>
       </c>
       <c r="B530" t="s">
         <v>544</v>
@@ -35160,7 +35160,7 @@
     </row>
     <row r="531" spans="1:14">
       <c r="A531" s="1">
-        <v>4740</v>
+        <v>5328</v>
       </c>
       <c r="B531" t="s">
         <v>545</v>
@@ -35201,7 +35201,7 @@
     </row>
     <row r="532" spans="1:14">
       <c r="A532" s="1">
-        <v>4419</v>
+        <v>4964</v>
       </c>
       <c r="B532" t="s">
         <v>546</v>
@@ -35242,7 +35242,7 @@
     </row>
     <row r="533" spans="1:14">
       <c r="A533" s="1">
-        <v>3959</v>
+        <v>4454</v>
       </c>
       <c r="B533" t="s">
         <v>547</v>
@@ -35283,7 +35283,7 @@
     </row>
     <row r="534" spans="1:14">
       <c r="A534" s="1">
-        <v>1264</v>
+        <v>1406</v>
       </c>
       <c r="B534" t="s">
         <v>548</v>
@@ -35324,7 +35324,7 @@
     </row>
     <row r="535" spans="1:14">
       <c r="A535" s="1">
-        <v>4066</v>
+        <v>4571</v>
       </c>
       <c r="B535" t="s">
         <v>549</v>
@@ -35365,7 +35365,7 @@
     </row>
     <row r="536" spans="1:14">
       <c r="A536" s="1">
-        <v>985</v>
+        <v>1094</v>
       </c>
       <c r="B536" t="s">
         <v>550</v>
@@ -35406,7 +35406,7 @@
     </row>
     <row r="537" spans="1:14">
       <c r="A537" s="1">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B537" t="s">
         <v>551</v>
@@ -35447,7 +35447,7 @@
     </row>
     <row r="538" spans="1:14">
       <c r="A538" s="1">
-        <v>3893</v>
+        <v>4380</v>
       </c>
       <c r="B538" t="s">
         <v>552</v>
@@ -35488,7 +35488,7 @@
     </row>
     <row r="539" spans="1:14">
       <c r="A539" s="1">
-        <v>1858</v>
+        <v>2098</v>
       </c>
       <c r="B539" t="s">
         <v>553</v>
@@ -35529,7 +35529,7 @@
     </row>
     <row r="540" spans="1:14">
       <c r="A540" s="1">
-        <v>3421</v>
+        <v>3847</v>
       </c>
       <c r="B540" t="s">
         <v>554</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="541" spans="1:14">
       <c r="A541" s="1">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="B541" t="s">
         <v>555</v>
@@ -35611,7 +35611,7 @@
     </row>
     <row r="542" spans="1:14">
       <c r="A542" s="1">
-        <v>3011</v>
+        <v>3386</v>
       </c>
       <c r="B542" t="s">
         <v>556</v>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="543" spans="1:14">
       <c r="A543" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B543" t="s">
         <v>557</v>
@@ -35693,7 +35693,7 @@
     </row>
     <row r="544" spans="1:14">
       <c r="A544" s="1">
-        <v>2976</v>
+        <v>3342</v>
       </c>
       <c r="B544" t="s">
         <v>558</v>
@@ -35734,7 +35734,7 @@
     </row>
     <row r="545" spans="1:14">
       <c r="A545" s="1">
-        <v>1453</v>
+        <v>1637</v>
       </c>
       <c r="B545" t="s">
         <v>559</v>
@@ -35775,7 +35775,7 @@
     </row>
     <row r="546" spans="1:14">
       <c r="A546" s="1">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="B546" t="s">
         <v>560</v>
@@ -35816,7 +35816,7 @@
     </row>
     <row r="547" spans="1:14">
       <c r="A547" s="1">
-        <v>5034</v>
+        <v>5656</v>
       </c>
       <c r="B547" t="s">
         <v>561</v>
@@ -35857,7 +35857,7 @@
     </row>
     <row r="548" spans="1:14">
       <c r="A548" s="1">
-        <v>5063</v>
+        <v>5686</v>
       </c>
       <c r="B548" t="s">
         <v>562</v>
@@ -35898,7 +35898,7 @@
     </row>
     <row r="549" spans="1:14">
       <c r="A549" s="1">
-        <v>3482</v>
+        <v>3914</v>
       </c>
       <c r="B549" t="s">
         <v>563</v>
@@ -35939,7 +35939,7 @@
     </row>
     <row r="550" spans="1:14">
       <c r="A550" s="1">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B550" t="s">
         <v>564</v>
@@ -35980,7 +35980,7 @@
     </row>
     <row r="551" spans="1:14">
       <c r="A551" s="1">
-        <v>3667</v>
+        <v>4125</v>
       </c>
       <c r="B551" t="s">
         <v>565</v>
@@ -36021,7 +36021,7 @@
     </row>
     <row r="552" spans="1:14">
       <c r="A552" s="1">
-        <v>3165</v>
+        <v>3560</v>
       </c>
       <c r="B552" t="s">
         <v>566</v>
@@ -36062,7 +36062,7 @@
     </row>
     <row r="553" spans="1:14">
       <c r="A553" s="1">
-        <v>2018</v>
+        <v>2272</v>
       </c>
       <c r="B553" t="s">
         <v>567</v>
@@ -36103,7 +36103,7 @@
     </row>
     <row r="554" spans="1:14">
       <c r="A554" s="1">
-        <v>3473</v>
+        <v>3904</v>
       </c>
       <c r="B554" t="s">
         <v>568</v>
@@ -36144,7 +36144,7 @@
     </row>
     <row r="555" spans="1:14">
       <c r="A555" s="1">
-        <v>4274</v>
+        <v>4798</v>
       </c>
       <c r="B555" t="s">
         <v>569</v>
@@ -36185,7 +36185,7 @@
     </row>
     <row r="556" spans="1:14">
       <c r="A556" s="1">
-        <v>1987</v>
+        <v>2239</v>
       </c>
       <c r="B556" t="s">
         <v>570</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="557" spans="1:14">
       <c r="A557" s="1">
-        <v>3056</v>
+        <v>3437</v>
       </c>
       <c r="B557" t="s">
         <v>571</v>
@@ -36267,7 +36267,7 @@
     </row>
     <row r="558" spans="1:14">
       <c r="A558" s="1">
-        <v>1837</v>
+        <v>2075</v>
       </c>
       <c r="B558" t="s">
         <v>572</v>
@@ -36308,7 +36308,7 @@
     </row>
     <row r="559" spans="1:14">
       <c r="A559" s="1">
-        <v>3521</v>
+        <v>3961</v>
       </c>
       <c r="B559" t="s">
         <v>573</v>
@@ -36349,7 +36349,7 @@
     </row>
     <row r="560" spans="1:14">
       <c r="A560" s="1">
-        <v>2083</v>
+        <v>2345</v>
       </c>
       <c r="B560" t="s">
         <v>574</v>
@@ -36390,7 +36390,7 @@
     </row>
     <row r="561" spans="1:14">
       <c r="A561" s="1">
-        <v>4292</v>
+        <v>4818</v>
       </c>
       <c r="B561" t="s">
         <v>575</v>
@@ -36431,7 +36431,7 @@
     </row>
     <row r="562" spans="1:14">
       <c r="A562" s="1">
-        <v>915</v>
+        <v>1013</v>
       </c>
       <c r="B562" t="s">
         <v>576</v>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="563" spans="1:14">
       <c r="A563" s="1">
-        <v>5070</v>
+        <v>5693</v>
       </c>
       <c r="B563" t="s">
         <v>577</v>
@@ -36513,7 +36513,7 @@
     </row>
     <row r="564" spans="1:14">
       <c r="A564" s="1">
-        <v>4791</v>
+        <v>5385</v>
       </c>
       <c r="B564" t="s">
         <v>578</v>
@@ -36554,7 +36554,7 @@
     </row>
     <row r="565" spans="1:14">
       <c r="A565" s="1">
-        <v>818</v>
+        <v>904</v>
       </c>
       <c r="B565" t="s">
         <v>579</v>
@@ -36595,7 +36595,7 @@
     </row>
     <row r="566" spans="1:14">
       <c r="A566" s="1">
-        <v>3493</v>
+        <v>3926</v>
       </c>
       <c r="B566" t="s">
         <v>580</v>
@@ -36636,7 +36636,7 @@
     </row>
     <row r="567" spans="1:14">
       <c r="A567" s="1">
-        <v>3361</v>
+        <v>3775</v>
       </c>
       <c r="B567" t="s">
         <v>581</v>
@@ -36677,7 +36677,7 @@
     </row>
     <row r="568" spans="1:14">
       <c r="A568" s="1">
-        <v>2441</v>
+        <v>2751</v>
       </c>
       <c r="B568" t="s">
         <v>582</v>
@@ -36718,7 +36718,7 @@
     </row>
     <row r="569" spans="1:14">
       <c r="A569" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B569" t="s">
         <v>583</v>
@@ -36759,7 +36759,7 @@
     </row>
     <row r="570" spans="1:14">
       <c r="A570" s="1">
-        <v>2445</v>
+        <v>2755</v>
       </c>
       <c r="B570" t="s">
         <v>584</v>
@@ -36800,7 +36800,7 @@
     </row>
     <row r="571" spans="1:14">
       <c r="A571" s="1">
-        <v>3616</v>
+        <v>4065</v>
       </c>
       <c r="B571" t="s">
         <v>585</v>
@@ -36841,7 +36841,7 @@
     </row>
     <row r="572" spans="1:14">
       <c r="A572" s="1">
-        <v>3488</v>
+        <v>3920</v>
       </c>
       <c r="B572" t="s">
         <v>586</v>
@@ -36882,7 +36882,7 @@
     </row>
     <row r="573" spans="1:14">
       <c r="A573" s="1">
-        <v>1632</v>
+        <v>1848</v>
       </c>
       <c r="B573" t="s">
         <v>587</v>
@@ -36923,7 +36923,7 @@
     </row>
     <row r="574" spans="1:14">
       <c r="A574" s="1">
-        <v>636</v>
+        <v>705</v>
       </c>
       <c r="B574" t="s">
         <v>588</v>
@@ -36964,7 +36964,7 @@
     </row>
     <row r="575" spans="1:14">
       <c r="A575" s="1">
-        <v>1675</v>
+        <v>1896</v>
       </c>
       <c r="B575" t="s">
         <v>589</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="576" spans="1:14">
       <c r="A576" s="1">
-        <v>879</v>
+        <v>972</v>
       </c>
       <c r="B576" t="s">
         <v>590</v>
@@ -37046,7 +37046,7 @@
     </row>
     <row r="577" spans="1:14">
       <c r="A577" s="1">
-        <v>5060</v>
+        <v>5683</v>
       </c>
       <c r="B577" t="s">
         <v>591</v>
@@ -37087,7 +37087,7 @@
     </row>
     <row r="578" spans="1:14">
       <c r="A578" s="1">
-        <v>4768</v>
+        <v>5359</v>
       </c>
       <c r="B578" t="s">
         <v>592</v>
@@ -37128,7 +37128,7 @@
     </row>
     <row r="579" spans="1:14">
       <c r="A579" s="1">
-        <v>3078</v>
+        <v>3462</v>
       </c>
       <c r="B579" t="s">
         <v>593</v>
@@ -37169,7 +37169,7 @@
     </row>
     <row r="580" spans="1:14">
       <c r="A580" s="1">
-        <v>1895</v>
+        <v>2139</v>
       </c>
       <c r="B580" t="s">
         <v>594</v>
@@ -37210,7 +37210,7 @@
     </row>
     <row r="581" spans="1:14">
       <c r="A581" s="1">
-        <v>1898</v>
+        <v>2142</v>
       </c>
       <c r="B581" t="s">
         <v>595</v>
@@ -37251,7 +37251,7 @@
     </row>
     <row r="582" spans="1:14">
       <c r="A582" s="1">
-        <v>3746</v>
+        <v>4212</v>
       </c>
       <c r="B582" t="s">
         <v>596</v>
@@ -37292,7 +37292,7 @@
     </row>
     <row r="583" spans="1:14">
       <c r="A583" s="1">
-        <v>4710</v>
+        <v>5292</v>
       </c>
       <c r="B583" t="s">
         <v>597</v>
@@ -37333,7 +37333,7 @@
     </row>
     <row r="584" spans="1:14">
       <c r="A584" s="1">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="B584" t="s">
         <v>598</v>
@@ -37374,7 +37374,7 @@
     </row>
     <row r="585" spans="1:14">
       <c r="A585" s="1">
-        <v>759</v>
+        <v>841</v>
       </c>
       <c r="B585" t="s">
         <v>599</v>
@@ -37415,7 +37415,7 @@
     </row>
     <row r="586" spans="1:14">
       <c r="A586" s="1">
-        <v>2379</v>
+        <v>2682</v>
       </c>
       <c r="B586" t="s">
         <v>600</v>
@@ -37456,7 +37456,7 @@
     </row>
     <row r="587" spans="1:14">
       <c r="A587" s="1">
-        <v>2571</v>
+        <v>2894</v>
       </c>
       <c r="B587" t="s">
         <v>601</v>
@@ -37497,7 +37497,7 @@
     </row>
     <row r="588" spans="1:14">
       <c r="A588" s="1">
-        <v>3996</v>
+        <v>4493</v>
       </c>
       <c r="B588" t="s">
         <v>602</v>
@@ -37538,7 +37538,7 @@
     </row>
     <row r="589" spans="1:14">
       <c r="A589" s="1">
-        <v>4524</v>
+        <v>5078</v>
       </c>
       <c r="B589" t="s">
         <v>603</v>
@@ -37579,7 +37579,7 @@
     </row>
     <row r="590" spans="1:14">
       <c r="A590" s="1">
-        <v>1380</v>
+        <v>1545</v>
       </c>
       <c r="B590" t="s">
         <v>604</v>
@@ -37620,7 +37620,7 @@
     </row>
     <row r="591" spans="1:14">
       <c r="A591" s="1">
-        <v>2344</v>
+        <v>2642</v>
       </c>
       <c r="B591" t="s">
         <v>605</v>
@@ -37661,7 +37661,7 @@
     </row>
     <row r="592" spans="1:14">
       <c r="A592" s="1">
-        <v>5057</v>
+        <v>5680</v>
       </c>
       <c r="B592" t="s">
         <v>606</v>
@@ -37702,7 +37702,7 @@
     </row>
     <row r="593" spans="1:14">
       <c r="A593" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B593" t="s">
         <v>607</v>
@@ -37743,7 +37743,7 @@
     </row>
     <row r="594" spans="1:14">
       <c r="A594" s="1">
-        <v>2694</v>
+        <v>3026</v>
       </c>
       <c r="B594" t="s">
         <v>608</v>
@@ -37784,7 +37784,7 @@
     </row>
     <row r="595" spans="1:14">
       <c r="A595" s="1">
-        <v>1063</v>
+        <v>1177</v>
       </c>
       <c r="B595" t="s">
         <v>609</v>
@@ -37825,7 +37825,7 @@
     </row>
     <row r="596" spans="1:14">
       <c r="A596" s="1">
-        <v>2227</v>
+        <v>2516</v>
       </c>
       <c r="B596" t="s">
         <v>610</v>
@@ -37866,7 +37866,7 @@
     </row>
     <row r="597" spans="1:14">
       <c r="A597" s="1">
-        <v>3966</v>
+        <v>4461</v>
       </c>
       <c r="B597" t="s">
         <v>611</v>
@@ -37907,7 +37907,7 @@
     </row>
     <row r="598" spans="1:14">
       <c r="A598" s="1">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B598" t="s">
         <v>612</v>
@@ -37948,7 +37948,7 @@
     </row>
     <row r="599" spans="1:14">
       <c r="A599" s="1">
-        <v>3973</v>
+        <v>4469</v>
       </c>
       <c r="B599" t="s">
         <v>613</v>
@@ -37989,7 +37989,7 @@
     </row>
     <row r="600" spans="1:14">
       <c r="A600" s="1">
-        <v>2822</v>
+        <v>3163</v>
       </c>
       <c r="B600" t="s">
         <v>614</v>
@@ -38030,7 +38030,7 @@
     </row>
     <row r="601" spans="1:14">
       <c r="A601" s="1">
-        <v>4048</v>
+        <v>4553</v>
       </c>
       <c r="B601" t="s">
         <v>615</v>
@@ -38071,7 +38071,7 @@
     </row>
     <row r="602" spans="1:14">
       <c r="A602" s="1">
-        <v>1700</v>
+        <v>1925</v>
       </c>
       <c r="B602" t="s">
         <v>616</v>
@@ -38112,7 +38112,7 @@
     </row>
     <row r="603" spans="1:14">
       <c r="A603" s="1">
-        <v>3379</v>
+        <v>3796</v>
       </c>
       <c r="B603" t="s">
         <v>617</v>
@@ -38153,7 +38153,7 @@
     </row>
     <row r="604" spans="1:14">
       <c r="A604" s="1">
-        <v>1609</v>
+        <v>1822</v>
       </c>
       <c r="B604" t="s">
         <v>618</v>
@@ -38194,7 +38194,7 @@
     </row>
     <row r="605" spans="1:14">
       <c r="A605" s="1">
-        <v>4118</v>
+        <v>4626</v>
       </c>
       <c r="B605" t="s">
         <v>619</v>
@@ -38235,7 +38235,7 @@
     </row>
     <row r="606" spans="1:14">
       <c r="A606" s="1">
-        <v>1999</v>
+        <v>2252</v>
       </c>
       <c r="B606" t="s">
         <v>620</v>
@@ -38276,7 +38276,7 @@
     </row>
     <row r="607" spans="1:14">
       <c r="A607" s="1">
-        <v>3480</v>
+        <v>3911</v>
       </c>
       <c r="B607" t="s">
         <v>621</v>
@@ -38317,7 +38317,7 @@
     </row>
     <row r="608" spans="1:14">
       <c r="A608" s="1">
-        <v>1771</v>
+        <v>2004</v>
       </c>
       <c r="B608" t="s">
         <v>622</v>
@@ -38358,7 +38358,7 @@
     </row>
     <row r="609" spans="1:14">
       <c r="A609" s="1">
-        <v>2871</v>
+        <v>3223</v>
       </c>
       <c r="B609" t="s">
         <v>623</v>
@@ -38399,7 +38399,7 @@
     </row>
     <row r="610" spans="1:14">
       <c r="A610" s="1">
-        <v>4694</v>
+        <v>5272</v>
       </c>
       <c r="B610" t="s">
         <v>624</v>
@@ -38440,7 +38440,7 @@
     </row>
     <row r="611" spans="1:14">
       <c r="A611" s="1">
-        <v>4931</v>
+        <v>5542</v>
       </c>
       <c r="B611" t="s">
         <v>625</v>
@@ -38481,7 +38481,7 @@
     </row>
     <row r="612" spans="1:14">
       <c r="A612" s="1">
-        <v>3883</v>
+        <v>4366</v>
       </c>
       <c r="B612" t="s">
         <v>626</v>
@@ -38522,7 +38522,7 @@
     </row>
     <row r="613" spans="1:14">
       <c r="A613" s="1">
-        <v>4555</v>
+        <v>5117</v>
       </c>
       <c r="B613" t="s">
         <v>627</v>
@@ -38563,7 +38563,7 @@
     </row>
     <row r="614" spans="1:14">
       <c r="A614" s="1">
-        <v>2929</v>
+        <v>3287</v>
       </c>
       <c r="B614" t="s">
         <v>628</v>
@@ -38604,7 +38604,7 @@
     </row>
     <row r="615" spans="1:14">
       <c r="A615" s="1">
-        <v>3474</v>
+        <v>3905</v>
       </c>
       <c r="B615" t="s">
         <v>629</v>
@@ -38645,7 +38645,7 @@
     </row>
     <row r="616" spans="1:14">
       <c r="A616" s="1">
-        <v>2483</v>
+        <v>2795</v>
       </c>
       <c r="B616" t="s">
         <v>630</v>
@@ -38686,7 +38686,7 @@
     </row>
     <row r="617" spans="1:14">
       <c r="A617" s="1">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B617" t="s">
         <v>631</v>
@@ -38727,7 +38727,7 @@
     </row>
     <row r="618" spans="1:14">
       <c r="A618" s="1">
-        <v>3065</v>
+        <v>3447</v>
       </c>
       <c r="B618" t="s">
         <v>632</v>
@@ -38768,7 +38768,7 @@
     </row>
     <row r="619" spans="1:14">
       <c r="A619" s="1">
-        <v>3040</v>
+        <v>3420</v>
       </c>
       <c r="B619" t="s">
         <v>633</v>
@@ -38809,7 +38809,7 @@
     </row>
     <row r="620" spans="1:14">
       <c r="A620" s="1">
-        <v>1083</v>
+        <v>1199</v>
       </c>
       <c r="B620" t="s">
         <v>634</v>
@@ -38850,7 +38850,7 @@
     </row>
     <row r="621" spans="1:14">
       <c r="A621" s="1">
-        <v>1447</v>
+        <v>1631</v>
       </c>
       <c r="B621" t="s">
         <v>635</v>
@@ -38891,7 +38891,7 @@
     </row>
     <row r="622" spans="1:14">
       <c r="A622" s="1">
-        <v>797</v>
+        <v>883</v>
       </c>
       <c r="B622" t="s">
         <v>636</v>
@@ -38932,7 +38932,7 @@
     </row>
     <row r="623" spans="1:14">
       <c r="A623" s="1">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="B623" t="s">
         <v>637</v>
@@ -38973,7 +38973,7 @@
     </row>
     <row r="624" spans="1:14">
       <c r="A624" s="1">
-        <v>2938</v>
+        <v>3298</v>
       </c>
       <c r="B624" t="s">
         <v>638</v>
@@ -39014,7 +39014,7 @@
     </row>
     <row r="625" spans="1:14">
       <c r="A625" s="1">
-        <v>4536</v>
+        <v>5092</v>
       </c>
       <c r="B625" t="s">
         <v>639</v>
@@ -39055,7 +39055,7 @@
     </row>
     <row r="626" spans="1:14">
       <c r="A626" s="1">
-        <v>2666</v>
+        <v>2992</v>
       </c>
       <c r="B626" t="s">
         <v>640</v>
@@ -39096,7 +39096,7 @@
     </row>
     <row r="627" spans="1:14">
       <c r="A627" s="1">
-        <v>1282</v>
+        <v>1428</v>
       </c>
       <c r="B627" t="s">
         <v>641</v>
@@ -39137,7 +39137,7 @@
     </row>
     <row r="628" spans="1:14">
       <c r="A628" s="1">
-        <v>2836</v>
+        <v>3180</v>
       </c>
       <c r="B628" t="s">
         <v>642</v>
@@ -39178,7 +39178,7 @@
     </row>
     <row r="629" spans="1:14">
       <c r="A629" s="1">
-        <v>2194</v>
+        <v>2478</v>
       </c>
       <c r="B629" t="s">
         <v>643</v>
@@ -39219,7 +39219,7 @@
     </row>
     <row r="630" spans="1:14">
       <c r="A630" s="1">
-        <v>1131</v>
+        <v>1254</v>
       </c>
       <c r="B630" t="s">
         <v>644</v>
@@ -39260,7 +39260,7 @@
     </row>
     <row r="631" spans="1:14">
       <c r="A631" s="1">
-        <v>2762</v>
+        <v>3100</v>
       </c>
       <c r="B631" t="s">
         <v>645</v>
@@ -39301,7 +39301,7 @@
     </row>
     <row r="632" spans="1:14">
       <c r="A632" s="1">
-        <v>2524</v>
+        <v>2841</v>
       </c>
       <c r="B632" t="s">
         <v>646</v>
@@ -39342,7 +39342,7 @@
     </row>
     <row r="633" spans="1:14">
       <c r="A633" s="1">
-        <v>2389</v>
+        <v>2693</v>
       </c>
       <c r="B633" t="s">
         <v>647</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="634" spans="1:14">
       <c r="A634" s="1">
-        <v>1794</v>
+        <v>2027</v>
       </c>
       <c r="B634" t="s">
         <v>648</v>
@@ -39424,7 +39424,7 @@
     </row>
     <row r="635" spans="1:14">
       <c r="A635" s="1">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B635" t="s">
         <v>649</v>
@@ -39465,7 +39465,7 @@
     </row>
     <row r="636" spans="1:14">
       <c r="A636" s="1">
-        <v>1255</v>
+        <v>1396</v>
       </c>
       <c r="B636" t="s">
         <v>650</v>
@@ -39506,7 +39506,7 @@
     </row>
     <row r="637" spans="1:14">
       <c r="A637" s="1">
-        <v>2241</v>
+        <v>2530</v>
       </c>
       <c r="B637" t="s">
         <v>651</v>
@@ -39547,7 +39547,7 @@
     </row>
     <row r="638" spans="1:14">
       <c r="A638" s="1">
-        <v>801</v>
+        <v>887</v>
       </c>
       <c r="B638" t="s">
         <v>652</v>
@@ -39588,7 +39588,7 @@
     </row>
     <row r="639" spans="1:14">
       <c r="A639" s="1">
-        <v>1936</v>
+        <v>2180</v>
       </c>
       <c r="B639" t="s">
         <v>653</v>
@@ -39629,7 +39629,7 @@
     </row>
     <row r="640" spans="1:14">
       <c r="A640" s="1">
-        <v>2338</v>
+        <v>2636</v>
       </c>
       <c r="B640" t="s">
         <v>654</v>
@@ -39670,7 +39670,7 @@
     </row>
     <row r="641" spans="1:14">
       <c r="A641" s="1">
-        <v>1420</v>
+        <v>1597</v>
       </c>
       <c r="B641" t="s">
         <v>655</v>
@@ -39711,7 +39711,7 @@
     </row>
     <row r="642" spans="1:14">
       <c r="A642" s="1">
-        <v>3635</v>
+        <v>4086</v>
       </c>
       <c r="B642" t="s">
         <v>656</v>
@@ -39752,7 +39752,7 @@
     </row>
     <row r="643" spans="1:14">
       <c r="A643" s="1">
-        <v>3874</v>
+        <v>4356</v>
       </c>
       <c r="B643" t="s">
         <v>657</v>
@@ -39793,7 +39793,7 @@
     </row>
     <row r="644" spans="1:14">
       <c r="A644" s="1">
-        <v>3244</v>
+        <v>3648</v>
       </c>
       <c r="B644" t="s">
         <v>658</v>
@@ -39834,7 +39834,7 @@
     </row>
     <row r="645" spans="1:14">
       <c r="A645" s="1">
-        <v>5035</v>
+        <v>5657</v>
       </c>
       <c r="B645" t="s">
         <v>659</v>
@@ -39875,7 +39875,7 @@
     </row>
     <row r="646" spans="1:14">
       <c r="A646" s="1">
-        <v>4956</v>
+        <v>5570</v>
       </c>
       <c r="B646" t="s">
         <v>660</v>
@@ -39916,7 +39916,7 @@
     </row>
     <row r="647" spans="1:14">
       <c r="A647" s="1">
-        <v>4051</v>
+        <v>4556</v>
       </c>
       <c r="B647" t="s">
         <v>661</v>
@@ -39957,7 +39957,7 @@
     </row>
     <row r="648" spans="1:14">
       <c r="A648" s="1">
-        <v>4431</v>
+        <v>4976</v>
       </c>
       <c r="B648" t="s">
         <v>662</v>
@@ -39998,7 +39998,7 @@
     </row>
     <row r="649" spans="1:14">
       <c r="A649" s="1">
-        <v>4062</v>
+        <v>4567</v>
       </c>
       <c r="B649" t="s">
         <v>663</v>
@@ -40039,7 +40039,7 @@
     </row>
     <row r="650" spans="1:14">
       <c r="A650" s="1">
-        <v>4474</v>
+        <v>5024</v>
       </c>
       <c r="B650" t="s">
         <v>664</v>
@@ -40080,7 +40080,7 @@
     </row>
     <row r="651" spans="1:14">
       <c r="A651" s="1">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="B651" t="s">
         <v>665</v>
@@ -40121,7 +40121,7 @@
     </row>
     <row r="652" spans="1:14">
       <c r="A652" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B652" t="s">
         <v>666</v>
@@ -40162,7 +40162,7 @@
     </row>
     <row r="653" spans="1:14">
       <c r="A653" s="1">
-        <v>3240</v>
+        <v>3643</v>
       </c>
       <c r="B653" t="s">
         <v>667</v>
@@ -40203,7 +40203,7 @@
     </row>
     <row r="654" spans="1:14">
       <c r="A654" s="1">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B654" t="s">
         <v>668</v>
@@ -40244,7 +40244,7 @@
     </row>
     <row r="655" spans="1:14">
       <c r="A655" s="1">
-        <v>2258</v>
+        <v>2551</v>
       </c>
       <c r="B655" t="s">
         <v>669</v>
@@ -40285,7 +40285,7 @@
     </row>
     <row r="656" spans="1:14">
       <c r="A656" s="1">
-        <v>1820</v>
+        <v>2057</v>
       </c>
       <c r="B656" t="s">
         <v>670</v>
@@ -40326,7 +40326,7 @@
     </row>
     <row r="657" spans="1:14">
       <c r="A657" s="1">
-        <v>3523</v>
+        <v>3964</v>
       </c>
       <c r="B657" t="s">
         <v>671</v>
@@ -40367,7 +40367,7 @@
     </row>
     <row r="658" spans="1:14">
       <c r="A658" s="1">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="B658" t="s">
         <v>672</v>
@@ -40408,7 +40408,7 @@
     </row>
     <row r="659" spans="1:14">
       <c r="A659" s="1">
-        <v>3839</v>
+        <v>4314</v>
       </c>
       <c r="B659" t="s">
         <v>673</v>
@@ -40449,7 +40449,7 @@
     </row>
     <row r="660" spans="1:14">
       <c r="A660" s="1">
-        <v>2705</v>
+        <v>3039</v>
       </c>
       <c r="B660" t="s">
         <v>674</v>
@@ -40490,7 +40490,7 @@
     </row>
     <row r="661" spans="1:14">
       <c r="A661" s="1">
-        <v>990</v>
+        <v>1100</v>
       </c>
       <c r="B661" t="s">
         <v>675</v>
@@ -40531,7 +40531,7 @@
     </row>
     <row r="662" spans="1:14">
       <c r="A662" s="1">
-        <v>4170</v>
+        <v>4682</v>
       </c>
       <c r="B662" t="s">
         <v>676</v>
@@ -40572,7 +40572,7 @@
     </row>
     <row r="663" spans="1:14">
       <c r="A663" s="1">
-        <v>1942</v>
+        <v>2188</v>
       </c>
       <c r="B663" t="s">
         <v>677</v>
@@ -40613,7 +40613,7 @@
     </row>
     <row r="664" spans="1:14">
       <c r="A664" s="1">
-        <v>682</v>
+        <v>757</v>
       </c>
       <c r="B664" t="s">
         <v>678</v>
@@ -40654,7 +40654,7 @@
     </row>
     <row r="665" spans="1:14">
       <c r="A665" s="1">
-        <v>1584</v>
+        <v>1791</v>
       </c>
       <c r="B665" t="s">
         <v>679</v>
@@ -40695,7 +40695,7 @@
     </row>
     <row r="666" spans="1:14">
       <c r="A666" s="1">
-        <v>1886</v>
+        <v>2128</v>
       </c>
       <c r="B666" t="s">
         <v>680</v>
@@ -40736,7 +40736,7 @@
     </row>
     <row r="667" spans="1:14">
       <c r="A667" s="1">
-        <v>698</v>
+        <v>777</v>
       </c>
       <c r="B667" t="s">
         <v>681</v>
@@ -40777,7 +40777,7 @@
     </row>
     <row r="668" spans="1:14">
       <c r="A668" s="1">
-        <v>988</v>
+        <v>1097</v>
       </c>
       <c r="B668" t="s">
         <v>682</v>
@@ -40818,7 +40818,7 @@
     </row>
     <row r="669" spans="1:14">
       <c r="A669" s="1">
-        <v>4009</v>
+        <v>4508</v>
       </c>
       <c r="B669" t="s">
         <v>683</v>
@@ -40859,7 +40859,7 @@
     </row>
     <row r="670" spans="1:14">
       <c r="A670" s="1">
-        <v>3718</v>
+        <v>4182</v>
       </c>
       <c r="B670" t="s">
         <v>684</v>
@@ -40900,7 +40900,7 @@
     </row>
     <row r="671" spans="1:14">
       <c r="A671" s="1">
-        <v>3944</v>
+        <v>4438</v>
       </c>
       <c r="B671" t="s">
         <v>685</v>
@@ -40941,7 +40941,7 @@
     </row>
     <row r="672" spans="1:14">
       <c r="A672" s="1">
-        <v>1344</v>
+        <v>1499</v>
       </c>
       <c r="B672" t="s">
         <v>686</v>
@@ -40982,7 +40982,7 @@
     </row>
     <row r="673" spans="1:14">
       <c r="A673" s="1">
-        <v>4480</v>
+        <v>5030</v>
       </c>
       <c r="B673" t="s">
         <v>687</v>
@@ -41023,7 +41023,7 @@
     </row>
     <row r="674" spans="1:14">
       <c r="A674" s="1">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="B674" t="s">
         <v>688</v>
@@ -41064,7 +41064,7 @@
     </row>
     <row r="675" spans="1:14">
       <c r="A675" s="1">
-        <v>651</v>
+        <v>723</v>
       </c>
       <c r="B675" t="s">
         <v>689</v>
@@ -41105,7 +41105,7 @@
     </row>
     <row r="676" spans="1:14">
       <c r="A676" s="1">
-        <v>3491</v>
+        <v>3923</v>
       </c>
       <c r="B676" t="s">
         <v>690</v>
@@ -41146,7 +41146,7 @@
     </row>
     <row r="677" spans="1:14">
       <c r="A677" s="1">
-        <v>1831</v>
+        <v>2069</v>
       </c>
       <c r="B677" t="s">
         <v>691</v>
@@ -41187,7 +41187,7 @@
     </row>
     <row r="678" spans="1:14">
       <c r="A678" s="1">
-        <v>4953</v>
+        <v>5567</v>
       </c>
       <c r="B678" t="s">
         <v>692</v>
@@ -41228,7 +41228,7 @@
     </row>
     <row r="679" spans="1:14">
       <c r="A679" s="1">
-        <v>3403</v>
+        <v>3825</v>
       </c>
       <c r="B679" t="s">
         <v>693</v>
@@ -41269,7 +41269,7 @@
     </row>
     <row r="680" spans="1:14">
       <c r="A680" s="1">
-        <v>1906</v>
+        <v>2150</v>
       </c>
       <c r="B680" t="s">
         <v>694</v>
@@ -41310,7 +41310,7 @@
     </row>
     <row r="681" spans="1:14">
       <c r="A681" s="1">
-        <v>4725</v>
+        <v>5312</v>
       </c>
       <c r="B681" t="s">
         <v>695</v>
@@ -41351,7 +41351,7 @@
     </row>
     <row r="682" spans="1:14">
       <c r="A682" s="1">
-        <v>1430</v>
+        <v>1610</v>
       </c>
       <c r="B682" t="s">
         <v>696</v>
@@ -41392,7 +41392,7 @@
     </row>
     <row r="683" spans="1:14">
       <c r="A683" s="1">
-        <v>3442</v>
+        <v>3870</v>
       </c>
       <c r="B683" t="s">
         <v>697</v>
@@ -41433,7 +41433,7 @@
     </row>
     <row r="684" spans="1:14">
       <c r="A684" s="1">
-        <v>882</v>
+        <v>976</v>
       </c>
       <c r="B684" t="s">
         <v>698</v>
@@ -41474,7 +41474,7 @@
     </row>
     <row r="685" spans="1:14">
       <c r="A685" s="1">
-        <v>2711</v>
+        <v>3045</v>
       </c>
       <c r="B685" t="s">
         <v>699</v>
@@ -41515,7 +41515,7 @@
     </row>
     <row r="686" spans="1:14">
       <c r="A686" s="1">
-        <v>3975</v>
+        <v>4471</v>
       </c>
       <c r="B686" t="s">
         <v>700</v>
@@ -41556,7 +41556,7 @@
     </row>
     <row r="687" spans="1:14">
       <c r="A687" s="1">
-        <v>4510</v>
+        <v>5063</v>
       </c>
       <c r="B687" t="s">
         <v>701</v>
@@ -41597,7 +41597,7 @@
     </row>
     <row r="688" spans="1:14">
       <c r="A688" s="1">
-        <v>4409</v>
+        <v>4954</v>
       </c>
       <c r="B688" t="s">
         <v>702</v>
@@ -41638,7 +41638,7 @@
     </row>
     <row r="689" spans="1:14">
       <c r="A689" s="1">
-        <v>3972</v>
+        <v>4468</v>
       </c>
       <c r="B689" t="s">
         <v>703</v>
@@ -41679,7 +41679,7 @@
     </row>
     <row r="690" spans="1:14">
       <c r="A690" s="1">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="B690" t="s">
         <v>704</v>
@@ -41720,7 +41720,7 @@
     </row>
     <row r="691" spans="1:14">
       <c r="A691" s="1">
-        <v>3763</v>
+        <v>4231</v>
       </c>
       <c r="B691" t="s">
         <v>705</v>
@@ -41761,7 +41761,7 @@
     </row>
     <row r="692" spans="1:14">
       <c r="A692" s="1">
-        <v>1661</v>
+        <v>1880</v>
       </c>
       <c r="B692" t="s">
         <v>706</v>
@@ -41802,7 +41802,7 @@
     </row>
     <row r="693" spans="1:14">
       <c r="A693" s="1">
-        <v>3363</v>
+        <v>3777</v>
       </c>
       <c r="B693" t="s">
         <v>707</v>
@@ -41843,7 +41843,7 @@
     </row>
     <row r="694" spans="1:14">
       <c r="A694" s="1">
-        <v>2776</v>
+        <v>3115</v>
       </c>
       <c r="B694" t="s">
         <v>708</v>
@@ -41884,7 +41884,7 @@
     </row>
     <row r="695" spans="1:14">
       <c r="A695" s="1">
-        <v>2055</v>
+        <v>2311</v>
       </c>
       <c r="B695" t="s">
         <v>709</v>
@@ -41925,7 +41925,7 @@
     </row>
     <row r="696" spans="1:14">
       <c r="A696" s="1">
-        <v>800</v>
+        <v>886</v>
       </c>
       <c r="B696" t="s">
         <v>710</v>
@@ -41966,7 +41966,7 @@
     </row>
     <row r="697" spans="1:14">
       <c r="A697" s="1">
-        <v>3105</v>
+        <v>3493</v>
       </c>
       <c r="B697" t="s">
         <v>711</v>
@@ -42007,7 +42007,7 @@
     </row>
     <row r="698" spans="1:14">
       <c r="A698" s="1">
-        <v>3866</v>
+        <v>4347</v>
       </c>
       <c r="B698" t="s">
         <v>712</v>
@@ -42048,7 +42048,7 @@
     </row>
     <row r="699" spans="1:14">
       <c r="A699" s="1">
-        <v>3849</v>
+        <v>4326</v>
       </c>
       <c r="B699" t="s">
         <v>713</v>
@@ -42089,7 +42089,7 @@
     </row>
     <row r="700" spans="1:14">
       <c r="A700" s="1">
-        <v>4364</v>
+        <v>4904</v>
       </c>
       <c r="B700" t="s">
         <v>714</v>
@@ -42130,7 +42130,7 @@
     </row>
     <row r="701" spans="1:14">
       <c r="A701" s="1">
-        <v>3094</v>
+        <v>3481</v>
       </c>
       <c r="B701" t="s">
         <v>715</v>
@@ -42171,7 +42171,7 @@
     </row>
     <row r="702" spans="1:14">
       <c r="A702" s="1">
-        <v>1644</v>
+        <v>1862</v>
       </c>
       <c r="B702" t="s">
         <v>716</v>
@@ -42212,7 +42212,7 @@
     </row>
     <row r="703" spans="1:14">
       <c r="A703" s="1">
-        <v>2304</v>
+        <v>2598</v>
       </c>
       <c r="B703" t="s">
         <v>717</v>
@@ -42253,7 +42253,7 @@
     </row>
     <row r="704" spans="1:14">
       <c r="A704" s="1">
-        <v>3927</v>
+        <v>4421</v>
       </c>
       <c r="B704" t="s">
         <v>718</v>
@@ -42294,7 +42294,7 @@
     </row>
     <row r="705" spans="1:14">
       <c r="A705" s="1">
-        <v>2114</v>
+        <v>2389</v>
       </c>
       <c r="B705" t="s">
         <v>719</v>
@@ -42335,7 +42335,7 @@
     </row>
     <row r="706" spans="1:14">
       <c r="A706" s="1">
-        <v>3416</v>
+        <v>3838</v>
       </c>
       <c r="B706" t="s">
         <v>720</v>
@@ -42376,7 +42376,7 @@
     </row>
     <row r="707" spans="1:14">
       <c r="A707" s="1">
-        <v>5053</v>
+        <v>5676</v>
       </c>
       <c r="B707" t="s">
         <v>721</v>
@@ -42417,7 +42417,7 @@
     </row>
     <row r="708" spans="1:14">
       <c r="A708" s="1">
-        <v>3980</v>
+        <v>4477</v>
       </c>
       <c r="B708" t="s">
         <v>722</v>
@@ -42458,7 +42458,7 @@
     </row>
     <row r="709" spans="1:14">
       <c r="A709" s="1">
-        <v>2064</v>
+        <v>2321</v>
       </c>
       <c r="B709" t="s">
         <v>723</v>
@@ -42499,7 +42499,7 @@
     </row>
     <row r="710" spans="1:14">
       <c r="A710" s="1">
-        <v>2515</v>
+        <v>2832</v>
       </c>
       <c r="B710" t="s">
         <v>724</v>
@@ -42540,7 +42540,7 @@
     </row>
     <row r="711" spans="1:14">
       <c r="A711" s="1">
-        <v>2397</v>
+        <v>2704</v>
       </c>
       <c r="B711" t="s">
         <v>725</v>
@@ -42581,7 +42581,7 @@
     </row>
     <row r="712" spans="1:14">
       <c r="A712" s="1">
-        <v>3168</v>
+        <v>3564</v>
       </c>
       <c r="B712" t="s">
         <v>726</v>
@@ -42622,7 +42622,7 @@
     </row>
     <row r="713" spans="1:14">
       <c r="A713" s="1">
-        <v>4769</v>
+        <v>5360</v>
       </c>
       <c r="B713" t="s">
         <v>727</v>
@@ -42663,7 +42663,7 @@
     </row>
     <row r="714" spans="1:14">
       <c r="A714" s="1">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="B714" t="s">
         <v>728</v>
@@ -42704,7 +42704,7 @@
     </row>
     <row r="715" spans="1:14">
       <c r="A715" s="1">
-        <v>4334</v>
+        <v>4868</v>
       </c>
       <c r="B715" t="s">
         <v>729</v>
@@ -42745,7 +42745,7 @@
     </row>
     <row r="716" spans="1:14">
       <c r="A716" s="1">
-        <v>3827</v>
+        <v>4300</v>
       </c>
       <c r="B716" t="s">
         <v>730</v>
@@ -42786,7 +42786,7 @@
     </row>
     <row r="717" spans="1:14">
       <c r="A717" s="1">
-        <v>3955</v>
+        <v>4450</v>
       </c>
       <c r="B717" t="s">
         <v>731</v>
@@ -42827,7 +42827,7 @@
     </row>
     <row r="718" spans="1:14">
       <c r="A718" s="1">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="B718" t="s">
         <v>732</v>
@@ -42868,7 +42868,7 @@
     </row>
     <row r="719" spans="1:14">
       <c r="A719" s="1">
-        <v>3274</v>
+        <v>3683</v>
       </c>
       <c r="B719" t="s">
         <v>733</v>
@@ -42909,7 +42909,7 @@
     </row>
     <row r="720" spans="1:14">
       <c r="A720" s="1">
-        <v>3074</v>
+        <v>3457</v>
       </c>
       <c r="B720" t="s">
         <v>734</v>
@@ -42950,7 +42950,7 @@
     </row>
     <row r="721" spans="1:14">
       <c r="A721" s="1">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B721" t="s">
         <v>735</v>
@@ -42991,7 +42991,7 @@
     </row>
     <row r="722" spans="1:14">
       <c r="A722" s="1">
-        <v>5002</v>
+        <v>5621</v>
       </c>
       <c r="B722" t="s">
         <v>736</v>
@@ -43032,7 +43032,7 @@
     </row>
     <row r="723" spans="1:14">
       <c r="A723" s="1">
-        <v>3336</v>
+        <v>3747</v>
       </c>
       <c r="B723" t="s">
         <v>737</v>
@@ -43073,7 +43073,7 @@
     </row>
     <row r="724" spans="1:14">
       <c r="A724" s="1">
-        <v>1967</v>
+        <v>2218</v>
       </c>
       <c r="B724" t="s">
         <v>738</v>
@@ -43114,7 +43114,7 @@
     </row>
     <row r="725" spans="1:14">
       <c r="A725" s="1">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="B725" t="s">
         <v>739</v>
@@ -43155,7 +43155,7 @@
     </row>
     <row r="726" spans="1:14">
       <c r="A726" s="1">
-        <v>681</v>
+        <v>756</v>
       </c>
       <c r="B726" t="s">
         <v>740</v>
@@ -43196,7 +43196,7 @@
     </row>
     <row r="727" spans="1:14">
       <c r="A727" s="1">
-        <v>2376</v>
+        <v>2679</v>
       </c>
       <c r="B727" t="s">
         <v>741</v>
@@ -43237,7 +43237,7 @@
     </row>
     <row r="728" spans="1:14">
       <c r="A728" s="1">
-        <v>1104</v>
+        <v>1225</v>
       </c>
       <c r="B728" t="s">
         <v>742</v>
@@ -43278,7 +43278,7 @@
     </row>
     <row r="729" spans="1:14">
       <c r="A729" s="1">
-        <v>2529</v>
+        <v>2848</v>
       </c>
       <c r="B729" t="s">
         <v>743</v>
@@ -43319,7 +43319,7 @@
     </row>
     <row r="730" spans="1:14">
       <c r="A730" s="1">
-        <v>3323</v>
+        <v>3733</v>
       </c>
       <c r="B730" t="s">
         <v>744</v>
@@ -43360,7 +43360,7 @@
     </row>
     <row r="731" spans="1:14">
       <c r="A731" s="1">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="B731" t="s">
         <v>745</v>
@@ -43401,7 +43401,7 @@
     </row>
     <row r="732" spans="1:14">
       <c r="A732" s="1">
-        <v>3417</v>
+        <v>3840</v>
       </c>
       <c r="B732" t="s">
         <v>746</v>
@@ -43442,7 +43442,7 @@
     </row>
     <row r="733" spans="1:14">
       <c r="A733" s="1">
-        <v>3316</v>
+        <v>3726</v>
       </c>
       <c r="B733" t="s">
         <v>747</v>
@@ -43483,7 +43483,7 @@
     </row>
     <row r="734" spans="1:14">
       <c r="A734" s="1">
-        <v>2120</v>
+        <v>2397</v>
       </c>
       <c r="B734" t="s">
         <v>748</v>
@@ -43524,7 +43524,7 @@
     </row>
     <row r="735" spans="1:14">
       <c r="A735" s="1">
-        <v>4151</v>
+        <v>4663</v>
       </c>
       <c r="B735" t="s">
         <v>749</v>
@@ -43565,7 +43565,7 @@
     </row>
     <row r="736" spans="1:14">
       <c r="A736" s="1">
-        <v>1113</v>
+        <v>1234</v>
       </c>
       <c r="B736" t="s">
         <v>750</v>
@@ -43606,7 +43606,7 @@
     </row>
     <row r="737" spans="1:14">
       <c r="A737" s="1">
-        <v>630</v>
+        <v>699</v>
       </c>
       <c r="B737" t="s">
         <v>751</v>
@@ -43647,7 +43647,7 @@
     </row>
     <row r="738" spans="1:14">
       <c r="A738" s="1">
-        <v>402</v>
+        <v>441</v>
       </c>
       <c r="B738" t="s">
         <v>752</v>
@@ -43688,7 +43688,7 @@
     </row>
     <row r="739" spans="1:14">
       <c r="A739" s="1">
-        <v>3831</v>
+        <v>4305</v>
       </c>
       <c r="B739" t="s">
         <v>753</v>
@@ -43729,7 +43729,7 @@
     </row>
     <row r="740" spans="1:14">
       <c r="A740" s="1">
-        <v>3260</v>
+        <v>3666</v>
       </c>
       <c r="B740" t="s">
         <v>754</v>
@@ -43770,7 +43770,7 @@
     </row>
     <row r="741" spans="1:14">
       <c r="A741" s="1">
-        <v>1330</v>
+        <v>1483</v>
       </c>
       <c r="B741" t="s">
         <v>755</v>
@@ -43811,7 +43811,7 @@
     </row>
     <row r="742" spans="1:14">
       <c r="A742" s="1">
-        <v>1245</v>
+        <v>1385</v>
       </c>
       <c r="B742" t="s">
         <v>756</v>
@@ -43852,7 +43852,7 @@
     </row>
     <row r="743" spans="1:14">
       <c r="A743" s="1">
-        <v>2045</v>
+        <v>2301</v>
       </c>
       <c r="B743" t="s">
         <v>757</v>
@@ -43893,7 +43893,7 @@
     </row>
     <row r="744" spans="1:14">
       <c r="A744" s="1">
-        <v>2292</v>
+        <v>2585</v>
       </c>
       <c r="B744" t="s">
         <v>758</v>
@@ -43934,7 +43934,7 @@
     </row>
     <row r="745" spans="1:14">
       <c r="A745" s="1">
-        <v>3142</v>
+        <v>3533</v>
       </c>
       <c r="B745" t="s">
         <v>759</v>
@@ -43975,7 +43975,7 @@
     </row>
     <row r="746" spans="1:14">
       <c r="A746" s="1">
-        <v>4826</v>
+        <v>5423</v>
       </c>
       <c r="B746" t="s">
         <v>760</v>
@@ -44016,7 +44016,7 @@
     </row>
     <row r="747" spans="1:14">
       <c r="A747" s="1">
-        <v>913</v>
+        <v>1011</v>
       </c>
       <c r="B747" t="s">
         <v>761</v>
@@ -44057,7 +44057,7 @@
     </row>
     <row r="748" spans="1:14">
       <c r="A748" s="1">
-        <v>2517</v>
+        <v>2834</v>
       </c>
       <c r="B748" t="s">
         <v>762</v>
@@ -44098,7 +44098,7 @@
     </row>
     <row r="749" spans="1:14">
       <c r="A749" s="1">
-        <v>2988</v>
+        <v>3357</v>
       </c>
       <c r="B749" t="s">
         <v>763</v>
@@ -44139,7 +44139,7 @@
     </row>
     <row r="750" spans="1:14">
       <c r="A750" s="1">
-        <v>3699</v>
+        <v>4159</v>
       </c>
       <c r="B750" t="s">
         <v>764</v>
@@ -44180,7 +44180,7 @@
     </row>
     <row r="751" spans="1:14">
       <c r="A751" s="1">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B751" t="s">
         <v>765</v>
@@ -44221,7 +44221,7 @@
     </row>
     <row r="752" spans="1:14">
       <c r="A752" s="1">
-        <v>1767</v>
+        <v>2000</v>
       </c>
       <c r="B752" t="s">
         <v>766</v>
@@ -44262,7 +44262,7 @@
     </row>
     <row r="753" spans="1:14">
       <c r="A753" s="1">
-        <v>1971</v>
+        <v>2222</v>
       </c>
       <c r="B753" t="s">
         <v>767</v>
@@ -44303,7 +44303,7 @@
     </row>
     <row r="754" spans="1:14">
       <c r="A754" s="1">
-        <v>1549</v>
+        <v>1749</v>
       </c>
       <c r="B754" t="s">
         <v>768</v>
@@ -44344,7 +44344,7 @@
     </row>
     <row r="755" spans="1:14">
       <c r="A755" s="1">
-        <v>2978</v>
+        <v>3345</v>
       </c>
       <c r="B755" t="s">
         <v>769</v>
@@ -44385,7 +44385,7 @@
     </row>
     <row r="756" spans="1:14">
       <c r="A756" s="1">
-        <v>2318</v>
+        <v>2613</v>
       </c>
       <c r="B756" t="s">
         <v>770</v>
@@ -44426,7 +44426,7 @@
     </row>
     <row r="757" spans="1:14">
       <c r="A757" s="1">
-        <v>2627</v>
+        <v>2951</v>
       </c>
       <c r="B757" t="s">
         <v>771</v>
@@ -44467,7 +44467,7 @@
     </row>
     <row r="758" spans="1:14">
       <c r="A758" s="1">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="B758" t="s">
         <v>772</v>
@@ -44508,7 +44508,7 @@
     </row>
     <row r="759" spans="1:14">
       <c r="A759" s="1">
-        <v>3610</v>
+        <v>4057</v>
       </c>
       <c r="B759" t="s">
         <v>773</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="760" spans="1:14">
       <c r="A760" s="1">
-        <v>1389</v>
+        <v>1561</v>
       </c>
       <c r="B760" t="s">
         <v>774</v>
@@ -44590,7 +44590,7 @@
     </row>
     <row r="761" spans="1:14">
       <c r="A761" s="1">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="B761" t="s">
         <v>775</v>
@@ -44631,7 +44631,7 @@
     </row>
     <row r="762" spans="1:14">
       <c r="A762" s="1">
-        <v>2818</v>
+        <v>3159</v>
       </c>
       <c r="B762" t="s">
         <v>776</v>
@@ -44672,7 +44672,7 @@
     </row>
     <row r="763" spans="1:14">
       <c r="A763" s="1">
-        <v>1374</v>
+        <v>1537</v>
       </c>
       <c r="B763" t="s">
         <v>777</v>
@@ -44713,7 +44713,7 @@
     </row>
     <row r="764" spans="1:14">
       <c r="A764" s="1">
-        <v>4373</v>
+        <v>4913</v>
       </c>
       <c r="B764" t="s">
         <v>778</v>
@@ -44754,7 +44754,7 @@
     </row>
     <row r="765" spans="1:14">
       <c r="A765" s="1">
-        <v>2844</v>
+        <v>3190</v>
       </c>
       <c r="B765" t="s">
         <v>779</v>
@@ -44795,7 +44795,7 @@
     </row>
     <row r="766" spans="1:14">
       <c r="A766" s="1">
-        <v>1251</v>
+        <v>1392</v>
       </c>
       <c r="B766" t="s">
         <v>780</v>
@@ -44836,7 +44836,7 @@
     </row>
     <row r="767" spans="1:14">
       <c r="A767" s="1">
-        <v>3947</v>
+        <v>4441</v>
       </c>
       <c r="B767" t="s">
         <v>781</v>
@@ -44877,7 +44877,7 @@
     </row>
     <row r="768" spans="1:14">
       <c r="A768" s="1">
-        <v>3974</v>
+        <v>4470</v>
       </c>
       <c r="B768" t="s">
         <v>782</v>
@@ -44918,7 +44918,7 @@
     </row>
     <row r="769" spans="1:14">
       <c r="A769" s="1">
-        <v>1724</v>
+        <v>1951</v>
       </c>
       <c r="B769" t="s">
         <v>783</v>
@@ -44959,7 +44959,7 @@
     </row>
     <row r="770" spans="1:14">
       <c r="A770" s="1">
-        <v>4033</v>
+        <v>4537</v>
       </c>
       <c r="B770" t="s">
         <v>784</v>
@@ -45000,7 +45000,7 @@
     </row>
     <row r="771" spans="1:14">
       <c r="A771" s="1">
-        <v>1176</v>
+        <v>1306</v>
       </c>
       <c r="B771" t="s">
         <v>785</v>
@@ -45041,7 +45041,7 @@
     </row>
     <row r="772" spans="1:14">
       <c r="A772" s="1">
-        <v>2800</v>
+        <v>3140</v>
       </c>
       <c r="B772" t="s">
         <v>786</v>
@@ -45082,7 +45082,7 @@
     </row>
     <row r="773" spans="1:14">
       <c r="A773" s="1">
-        <v>1152</v>
+        <v>1280</v>
       </c>
       <c r="B773" t="s">
         <v>787</v>
@@ -45123,7 +45123,7 @@
     </row>
     <row r="774" spans="1:14">
       <c r="A774" s="1">
-        <v>1450</v>
+        <v>1634</v>
       </c>
       <c r="B774" t="s">
         <v>788</v>
@@ -45164,7 +45164,7 @@
     </row>
     <row r="775" spans="1:14">
       <c r="A775" s="1">
-        <v>1924</v>
+        <v>2168</v>
       </c>
       <c r="B775" t="s">
         <v>789</v>
@@ -45205,7 +45205,7 @@
     </row>
     <row r="776" spans="1:14">
       <c r="A776" s="1">
-        <v>2849</v>
+        <v>3195</v>
       </c>
       <c r="B776" t="s">
         <v>790</v>
@@ -45246,7 +45246,7 @@
     </row>
     <row r="777" spans="1:14">
       <c r="A777" s="1">
-        <v>1504</v>
+        <v>1699</v>
       </c>
       <c r="B777" t="s">
         <v>791</v>
@@ -45287,7 +45287,7 @@
     </row>
     <row r="778" spans="1:14">
       <c r="A778" s="1">
-        <v>2484</v>
+        <v>2796</v>
       </c>
       <c r="B778" t="s">
         <v>792</v>
@@ -45328,7 +45328,7 @@
     </row>
     <row r="779" spans="1:14">
       <c r="A779" s="1">
-        <v>1023</v>
+        <v>1133</v>
       </c>
       <c r="B779" t="s">
         <v>793</v>
@@ -45369,7 +45369,7 @@
     </row>
     <row r="780" spans="1:14">
       <c r="A780" s="1">
-        <v>3123</v>
+        <v>3512</v>
       </c>
       <c r="B780" t="s">
         <v>794</v>
@@ -45410,7 +45410,7 @@
     </row>
     <row r="781" spans="1:14">
       <c r="A781" s="1">
-        <v>4299</v>
+        <v>4828</v>
       </c>
       <c r="B781" t="s">
         <v>795</v>
@@ -45451,7 +45451,7 @@
     </row>
     <row r="782" spans="1:14">
       <c r="A782" s="1">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="B782" t="s">
         <v>796</v>
@@ -45492,7 +45492,7 @@
     </row>
     <row r="783" spans="1:14">
       <c r="A783" s="1">
-        <v>3638</v>
+        <v>4091</v>
       </c>
       <c r="B783" t="s">
         <v>797</v>
@@ -45533,7 +45533,7 @@
     </row>
     <row r="784" spans="1:14">
       <c r="A784" s="1">
-        <v>3655</v>
+        <v>4108</v>
       </c>
       <c r="B784" t="s">
         <v>798</v>
@@ -45574,7 +45574,7 @@
     </row>
     <row r="785" spans="1:14">
       <c r="A785" s="1">
-        <v>1588</v>
+        <v>1797</v>
       </c>
       <c r="B785" t="s">
         <v>799</v>
@@ -45615,7 +45615,7 @@
     </row>
     <row r="786" spans="1:14">
       <c r="A786" s="1">
-        <v>1220</v>
+        <v>1359</v>
       </c>
       <c r="B786" t="s">
         <v>800</v>
@@ -45656,7 +45656,7 @@
     </row>
     <row r="787" spans="1:14">
       <c r="A787" s="1">
-        <v>2326</v>
+        <v>2623</v>
       </c>
       <c r="B787" t="s">
         <v>801</v>
@@ -45697,7 +45697,7 @@
     </row>
     <row r="788" spans="1:14">
       <c r="A788" s="1">
-        <v>3125</v>
+        <v>3514</v>
       </c>
       <c r="B788" t="s">
         <v>802</v>
@@ -45738,7 +45738,7 @@
     </row>
     <row r="789" spans="1:14">
       <c r="A789" s="1">
-        <v>2492</v>
+        <v>2804</v>
       </c>
       <c r="B789" t="s">
         <v>803</v>
@@ -45779,7 +45779,7 @@
     </row>
     <row r="790" spans="1:14">
       <c r="A790" s="1">
-        <v>3928</v>
+        <v>4422</v>
       </c>
       <c r="B790" t="s">
         <v>804</v>
@@ -45820,7 +45820,7 @@
     </row>
     <row r="791" spans="1:14">
       <c r="A791" s="1">
-        <v>3758</v>
+        <v>4225</v>
       </c>
       <c r="B791" t="s">
         <v>805</v>
@@ -45861,7 +45861,7 @@
     </row>
     <row r="792" spans="1:14">
       <c r="A792" s="1">
-        <v>4594</v>
+        <v>5162</v>
       </c>
       <c r="B792" t="s">
         <v>806</v>
@@ -45902,7 +45902,7 @@
     </row>
     <row r="793" spans="1:14">
       <c r="A793" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B793" t="s">
         <v>807</v>
@@ -45943,7 +45943,7 @@
     </row>
     <row r="794" spans="1:14">
       <c r="A794" s="1">
-        <v>3234</v>
+        <v>3637</v>
       </c>
       <c r="B794" t="s">
         <v>808</v>
@@ -45984,7 +45984,7 @@
     </row>
     <row r="795" spans="1:14">
       <c r="A795" s="1">
-        <v>2112</v>
+        <v>2385</v>
       </c>
       <c r="B795" t="s">
         <v>809</v>
@@ -46025,7 +46025,7 @@
     </row>
     <row r="796" spans="1:14">
       <c r="A796" s="1">
-        <v>1340</v>
+        <v>1494</v>
       </c>
       <c r="B796" t="s">
         <v>810</v>
@@ -46066,7 +46066,7 @@
     </row>
     <row r="797" spans="1:14">
       <c r="A797" s="1">
-        <v>4213</v>
+        <v>4729</v>
       </c>
       <c r="B797" t="s">
         <v>811</v>
@@ -46107,7 +46107,7 @@
     </row>
     <row r="798" spans="1:14">
       <c r="A798" s="1">
-        <v>4433</v>
+        <v>4979</v>
       </c>
       <c r="B798" t="s">
         <v>812</v>
@@ -46148,7 +46148,7 @@
     </row>
     <row r="799" spans="1:14">
       <c r="A799" s="1">
-        <v>4223</v>
+        <v>4739</v>
       </c>
       <c r="B799" t="s">
         <v>813</v>
@@ -46189,7 +46189,7 @@
     </row>
     <row r="800" spans="1:14">
       <c r="A800" s="1">
-        <v>3931</v>
+        <v>4425</v>
       </c>
       <c r="B800" t="s">
         <v>814</v>
@@ -46230,7 +46230,7 @@
     </row>
     <row r="801" spans="1:14">
       <c r="A801" s="1">
-        <v>2949</v>
+        <v>3309</v>
       </c>
       <c r="B801" t="s">
         <v>815</v>
@@ -46271,7 +46271,7 @@
     </row>
     <row r="802" spans="1:14">
       <c r="A802" s="1">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="B802" t="s">
         <v>816</v>
@@ -46312,7 +46312,7 @@
     </row>
     <row r="803" spans="1:14">
       <c r="A803" s="1">
-        <v>784</v>
+        <v>867</v>
       </c>
       <c r="B803" t="s">
         <v>817</v>
@@ -46353,7 +46353,7 @@
     </row>
     <row r="804" spans="1:14">
       <c r="A804" s="1">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="B804" t="s">
         <v>818</v>
@@ -46394,7 +46394,7 @@
     </row>
     <row r="805" spans="1:14">
       <c r="A805" s="1">
-        <v>1352</v>
+        <v>1511</v>
       </c>
       <c r="B805" t="s">
         <v>819</v>
@@ -46435,7 +46435,7 @@
     </row>
     <row r="806" spans="1:14">
       <c r="A806" s="1">
-        <v>3157</v>
+        <v>3549</v>
       </c>
       <c r="B806" t="s">
         <v>820</v>
@@ -46476,7 +46476,7 @@
     </row>
     <row r="807" spans="1:14">
       <c r="A807" s="1">
-        <v>2881</v>
+        <v>3233</v>
       </c>
       <c r="B807" t="s">
         <v>821</v>
@@ -46517,7 +46517,7 @@
     </row>
     <row r="808" spans="1:14">
       <c r="A808" s="1">
-        <v>2289</v>
+        <v>2582</v>
       </c>
       <c r="B808" t="s">
         <v>822</v>
@@ -46558,7 +46558,7 @@
     </row>
     <row r="809" spans="1:14">
       <c r="A809" s="1">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="B809" t="s">
         <v>823</v>
@@ -46599,7 +46599,7 @@
     </row>
     <row r="810" spans="1:14">
       <c r="A810" s="1">
-        <v>2581</v>
+        <v>2904</v>
       </c>
       <c r="B810" t="s">
         <v>824</v>
@@ -46640,7 +46640,7 @@
     </row>
     <row r="811" spans="1:14">
       <c r="A811" s="1">
-        <v>3406</v>
+        <v>3828</v>
       </c>
       <c r="B811" t="s">
         <v>825</v>
@@ -46681,7 +46681,7 @@
     </row>
     <row r="812" spans="1:14">
       <c r="A812" s="1">
-        <v>4972</v>
+        <v>5588</v>
       </c>
       <c r="B812" t="s">
         <v>826</v>
@@ -46722,7 +46722,7 @@
     </row>
     <row r="813" spans="1:14">
       <c r="A813" s="1">
-        <v>1112</v>
+        <v>1233</v>
       </c>
       <c r="B813" t="s">
         <v>827</v>
@@ -46763,7 +46763,7 @@
     </row>
     <row r="814" spans="1:14">
       <c r="A814" s="1">
-        <v>3772</v>
+        <v>4241</v>
       </c>
       <c r="B814" t="s">
         <v>828</v>
@@ -46804,7 +46804,7 @@
     </row>
     <row r="815" spans="1:14">
       <c r="A815" s="1">
-        <v>1332</v>
+        <v>1485</v>
       </c>
       <c r="B815" t="s">
         <v>829</v>
@@ -46845,7 +46845,7 @@
     </row>
     <row r="816" spans="1:14">
       <c r="A816" s="1">
-        <v>3757</v>
+        <v>4224</v>
       </c>
       <c r="B816" t="s">
         <v>830</v>
@@ -46886,7 +46886,7 @@
     </row>
     <row r="817" spans="1:14">
       <c r="A817" s="1">
-        <v>4626</v>
+        <v>5200</v>
       </c>
       <c r="B817" t="s">
         <v>831</v>
@@ -46927,7 +46927,7 @@
     </row>
     <row r="818" spans="1:14">
       <c r="A818" s="1">
-        <v>4961</v>
+        <v>5575</v>
       </c>
       <c r="B818" t="s">
         <v>832</v>
@@ -46968,7 +46968,7 @@
     </row>
     <row r="819" spans="1:14">
       <c r="A819" s="1">
-        <v>3069</v>
+        <v>3452</v>
       </c>
       <c r="B819" t="s">
         <v>833</v>
@@ -47009,7 +47009,7 @@
     </row>
     <row r="820" spans="1:14">
       <c r="A820" s="1">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="B820" t="s">
         <v>834</v>
@@ -47050,7 +47050,7 @@
     </row>
     <row r="821" spans="1:14">
       <c r="A821" s="1">
-        <v>2072</v>
+        <v>2330</v>
       </c>
       <c r="B821" t="s">
         <v>835</v>
@@ -47091,7 +47091,7 @@
     </row>
     <row r="822" spans="1:14">
       <c r="A822" s="1">
-        <v>1110</v>
+        <v>1231</v>
       </c>
       <c r="B822" t="s">
         <v>836</v>
@@ -47132,7 +47132,7 @@
     </row>
     <row r="823" spans="1:14">
       <c r="A823" s="1">
-        <v>4142</v>
+        <v>4653</v>
       </c>
       <c r="B823" t="s">
         <v>837</v>
@@ -47173,7 +47173,7 @@
     </row>
     <row r="824" spans="1:14">
       <c r="A824" s="1">
-        <v>1027</v>
+        <v>1139</v>
       </c>
       <c r="B824" t="s">
         <v>838</v>
@@ -47214,7 +47214,7 @@
     </row>
     <row r="825" spans="1:14">
       <c r="A825" s="1">
-        <v>3299</v>
+        <v>3709</v>
       </c>
       <c r="B825" t="s">
         <v>839</v>
@@ -47255,7 +47255,7 @@
     </row>
     <row r="826" spans="1:14">
       <c r="A826" s="1">
-        <v>1067</v>
+        <v>1181</v>
       </c>
       <c r="B826" t="s">
         <v>840</v>
@@ -47296,7 +47296,7 @@
     </row>
     <row r="827" spans="1:14">
       <c r="A827" s="1">
-        <v>1766</v>
+        <v>1999</v>
       </c>
       <c r="B827" t="s">
         <v>841</v>
@@ -47337,7 +47337,7 @@
     </row>
     <row r="828" spans="1:14">
       <c r="A828" s="1">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="B828" t="s">
         <v>842</v>
@@ -47378,7 +47378,7 @@
     </row>
     <row r="829" spans="1:14">
       <c r="A829" s="1">
-        <v>1232</v>
+        <v>1372</v>
       </c>
       <c r="B829" t="s">
         <v>843</v>
@@ -47419,7 +47419,7 @@
     </row>
     <row r="830" spans="1:14">
       <c r="A830" s="1">
-        <v>1687</v>
+        <v>1910</v>
       </c>
       <c r="B830" t="s">
         <v>844</v>
@@ -47460,7 +47460,7 @@
     </row>
     <row r="831" spans="1:14">
       <c r="A831" s="1">
-        <v>5062</v>
+        <v>5685</v>
       </c>
       <c r="B831" t="s">
         <v>845</v>
@@ -47501,7 +47501,7 @@
     </row>
     <row r="832" spans="1:14">
       <c r="A832" s="1">
-        <v>3777</v>
+        <v>4246</v>
       </c>
       <c r="B832" t="s">
         <v>846</v>
@@ -47542,7 +47542,7 @@
     </row>
     <row r="833" spans="1:14">
       <c r="A833" s="1">
-        <v>2533</v>
+        <v>2852</v>
       </c>
       <c r="B833" t="s">
         <v>847</v>
@@ -47583,7 +47583,7 @@
     </row>
     <row r="834" spans="1:14">
       <c r="A834" s="1">
-        <v>2932</v>
+        <v>3291</v>
       </c>
       <c r="B834" t="s">
         <v>848</v>
@@ -47624,7 +47624,7 @@
     </row>
     <row r="835" spans="1:14">
       <c r="A835" s="1">
-        <v>2577</v>
+        <v>2900</v>
       </c>
       <c r="B835" t="s">
         <v>849</v>
@@ -47665,7 +47665,7 @@
     </row>
     <row r="836" spans="1:14">
       <c r="A836" s="1">
-        <v>3477</v>
+        <v>3908</v>
       </c>
       <c r="B836" t="s">
         <v>850</v>
@@ -47706,7 +47706,7 @@
     </row>
     <row r="837" spans="1:14">
       <c r="A837" s="1">
-        <v>1228</v>
+        <v>1368</v>
       </c>
       <c r="B837" t="s">
         <v>851</v>
@@ -47747,7 +47747,7 @@
     </row>
     <row r="838" spans="1:14">
       <c r="A838" s="1">
-        <v>2096</v>
+        <v>2360</v>
       </c>
       <c r="B838" t="s">
         <v>852</v>
@@ -47788,7 +47788,7 @@
     </row>
     <row r="839" spans="1:14">
       <c r="A839" s="1">
-        <v>754</v>
+        <v>835</v>
       </c>
       <c r="B839" t="s">
         <v>853</v>
@@ -47829,7 +47829,7 @@
     </row>
     <row r="840" spans="1:14">
       <c r="A840" s="1">
-        <v>1100</v>
+        <v>1220</v>
       </c>
       <c r="B840" t="s">
         <v>854</v>
@@ -47870,7 +47870,7 @@
     </row>
     <row r="841" spans="1:14">
       <c r="A841" s="1">
-        <v>761</v>
+        <v>843</v>
       </c>
       <c r="B841" t="s">
         <v>855</v>
@@ -47911,7 +47911,7 @@
     </row>
     <row r="842" spans="1:14">
       <c r="A842" s="1">
-        <v>1457</v>
+        <v>1642</v>
       </c>
       <c r="B842" t="s">
         <v>856</v>
@@ -47952,7 +47952,7 @@
     </row>
     <row r="843" spans="1:14">
       <c r="A843" s="1">
-        <v>2296</v>
+        <v>2589</v>
       </c>
       <c r="B843" t="s">
         <v>857</v>
@@ -47993,7 +47993,7 @@
     </row>
     <row r="844" spans="1:14">
       <c r="A844" s="1">
-        <v>2128</v>
+        <v>2405</v>
       </c>
       <c r="B844" t="s">
         <v>858</v>
@@ -48034,7 +48034,7 @@
     </row>
     <row r="845" spans="1:14">
       <c r="A845" s="1">
-        <v>4304</v>
+        <v>4833</v>
       </c>
       <c r="B845" t="s">
         <v>859</v>
@@ -48075,7 +48075,7 @@
     </row>
     <row r="846" spans="1:14">
       <c r="A846" s="1">
-        <v>963</v>
+        <v>1069</v>
       </c>
       <c r="B846" t="s">
         <v>860</v>
@@ -48116,7 +48116,7 @@
     </row>
     <row r="847" spans="1:14">
       <c r="A847" s="1">
-        <v>1697</v>
+        <v>1922</v>
       </c>
       <c r="B847" t="s">
         <v>861</v>
@@ -48157,7 +48157,7 @@
     </row>
     <row r="848" spans="1:14">
       <c r="A848" s="1">
-        <v>1983</v>
+        <v>2235</v>
       </c>
       <c r="B848" t="s">
         <v>862</v>
@@ -48198,7 +48198,7 @@
     </row>
     <row r="849" spans="1:14">
       <c r="A849" s="1">
-        <v>4003</v>
+        <v>4501</v>
       </c>
       <c r="B849" t="s">
         <v>863</v>
@@ -48239,7 +48239,7 @@
     </row>
     <row r="850" spans="1:14">
       <c r="A850" s="1">
-        <v>1130</v>
+        <v>1253</v>
       </c>
       <c r="B850" t="s">
         <v>864</v>
@@ -48280,7 +48280,7 @@
     </row>
     <row r="851" spans="1:14">
       <c r="A851" s="1">
-        <v>2367</v>
+        <v>2669</v>
       </c>
       <c r="B851" t="s">
         <v>865</v>
@@ -48321,7 +48321,7 @@
     </row>
     <row r="852" spans="1:14">
       <c r="A852" s="1">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B852" t="s">
         <v>866</v>
@@ -48362,7 +48362,7 @@
     </row>
     <row r="853" spans="1:14">
       <c r="A853" s="1">
-        <v>4680</v>
+        <v>5256</v>
       </c>
       <c r="B853" t="s">
         <v>867</v>
@@ -48403,7 +48403,7 @@
     </row>
     <row r="854" spans="1:14">
       <c r="A854" s="1">
-        <v>1444</v>
+        <v>1627</v>
       </c>
       <c r="B854" t="s">
         <v>868</v>
@@ -48444,7 +48444,7 @@
     </row>
     <row r="855" spans="1:14">
       <c r="A855" s="1">
-        <v>3177</v>
+        <v>3575</v>
       </c>
       <c r="B855" t="s">
         <v>869</v>
@@ -48485,7 +48485,7 @@
     </row>
     <row r="856" spans="1:14">
       <c r="A856" s="1">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="B856" t="s">
         <v>870</v>
@@ -48526,7 +48526,7 @@
     </row>
     <row r="857" spans="1:14">
       <c r="A857" s="1">
-        <v>3542</v>
+        <v>3987</v>
       </c>
       <c r="B857" t="s">
         <v>871</v>
@@ -48567,7 +48567,7 @@
     </row>
     <row r="858" spans="1:14">
       <c r="A858" s="1">
-        <v>1068</v>
+        <v>1182</v>
       </c>
       <c r="B858" t="s">
         <v>872</v>
@@ -48608,7 +48608,7 @@
     </row>
     <row r="859" spans="1:14">
       <c r="A859" s="1">
-        <v>1256</v>
+        <v>1397</v>
       </c>
       <c r="B859" t="s">
         <v>873</v>
@@ -48649,7 +48649,7 @@
     </row>
     <row r="860" spans="1:14">
       <c r="A860" s="1">
-        <v>3985</v>
+        <v>4482</v>
       </c>
       <c r="B860" t="s">
         <v>874</v>
@@ -48690,7 +48690,7 @@
     </row>
     <row r="861" spans="1:14">
       <c r="A861" s="1">
-        <v>4288</v>
+        <v>4812</v>
       </c>
       <c r="B861" t="s">
         <v>875</v>
@@ -48731,7 +48731,7 @@
     </row>
     <row r="862" spans="1:14">
       <c r="A862" s="1">
-        <v>2888</v>
+        <v>3241</v>
       </c>
       <c r="B862" t="s">
         <v>876</v>
@@ -48772,7 +48772,7 @@
     </row>
     <row r="863" spans="1:14">
       <c r="A863" s="1">
-        <v>4458</v>
+        <v>5005</v>
       </c>
       <c r="B863" t="s">
         <v>877</v>
@@ -48813,7 +48813,7 @@
     </row>
     <row r="864" spans="1:14">
       <c r="A864" s="1">
-        <v>3280</v>
+        <v>3690</v>
       </c>
       <c r="B864" t="s">
         <v>878</v>
@@ -48854,7 +48854,7 @@
     </row>
     <row r="865" spans="1:14">
       <c r="A865" s="1">
-        <v>4119</v>
+        <v>4627</v>
       </c>
       <c r="B865" t="s">
         <v>879</v>
@@ -48895,7 +48895,7 @@
     </row>
     <row r="866" spans="1:14">
       <c r="A866" s="1">
-        <v>3639</v>
+        <v>4092</v>
       </c>
       <c r="B866" t="s">
         <v>880</v>
@@ -48936,7 +48936,7 @@
     </row>
     <row r="867" spans="1:14">
       <c r="A867" s="1">
-        <v>4742</v>
+        <v>5330</v>
       </c>
       <c r="B867" t="s">
         <v>881</v>
@@ -48977,7 +48977,7 @@
     </row>
     <row r="868" spans="1:14">
       <c r="A868" s="1">
-        <v>4926</v>
+        <v>5536</v>
       </c>
       <c r="B868" t="s">
         <v>882</v>
@@ -49018,7 +49018,7 @@
     </row>
     <row r="869" spans="1:14">
       <c r="A869" s="1">
-        <v>1214</v>
+        <v>1352</v>
       </c>
       <c r="B869" t="s">
         <v>883</v>
@@ -49059,7 +49059,7 @@
     </row>
     <row r="870" spans="1:14">
       <c r="A870" s="1">
-        <v>4487</v>
+        <v>5038</v>
       </c>
       <c r="B870" t="s">
         <v>884</v>
@@ -49100,7 +49100,7 @@
     </row>
     <row r="871" spans="1:14">
       <c r="A871" s="1">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B871" t="s">
         <v>885</v>
@@ -49141,7 +49141,7 @@
     </row>
     <row r="872" spans="1:14">
       <c r="A872" s="1">
-        <v>1287</v>
+        <v>1434</v>
       </c>
       <c r="B872" t="s">
         <v>886</v>
@@ -49182,7 +49182,7 @@
     </row>
     <row r="873" spans="1:14">
       <c r="A873" s="1">
-        <v>2569</v>
+        <v>2892</v>
       </c>
       <c r="B873" t="s">
         <v>887</v>
@@ -49223,7 +49223,7 @@
     </row>
     <row r="874" spans="1:14">
       <c r="A874" s="1">
-        <v>2597</v>
+        <v>2921</v>
       </c>
       <c r="B874" t="s">
         <v>888</v>
@@ -49264,7 +49264,7 @@
     </row>
     <row r="875" spans="1:14">
       <c r="A875" s="1">
-        <v>1178</v>
+        <v>1308</v>
       </c>
       <c r="B875" t="s">
         <v>889</v>
@@ -49305,7 +49305,7 @@
     </row>
     <row r="876" spans="1:14">
       <c r="A876" s="1">
-        <v>3512</v>
+        <v>3946</v>
       </c>
       <c r="B876" t="s">
         <v>890</v>
@@ -49346,7 +49346,7 @@
     </row>
     <row r="877" spans="1:14">
       <c r="A877" s="1">
-        <v>3160</v>
+        <v>3552</v>
       </c>
       <c r="B877" t="s">
         <v>891</v>
@@ -49387,7 +49387,7 @@
     </row>
     <row r="878" spans="1:14">
       <c r="A878" s="1">
-        <v>2611</v>
+        <v>2935</v>
       </c>
       <c r="B878" t="s">
         <v>892</v>
@@ -49428,7 +49428,7 @@
     </row>
     <row r="879" spans="1:14">
       <c r="A879" s="1">
-        <v>937</v>
+        <v>1038</v>
       </c>
       <c r="B879" t="s">
         <v>893</v>
@@ -49469,7 +49469,7 @@
     </row>
     <row r="880" spans="1:14">
       <c r="A880" s="1">
-        <v>4697</v>
+        <v>5275</v>
       </c>
       <c r="B880" t="s">
         <v>894</v>
@@ -49510,7 +49510,7 @@
     </row>
     <row r="881" spans="1:14">
       <c r="A881" s="1">
-        <v>2048</v>
+        <v>2304</v>
       </c>
       <c r="B881" t="s">
         <v>895</v>
@@ -49551,7 +49551,7 @@
     </row>
     <row r="882" spans="1:14">
       <c r="A882" s="1">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B882" t="s">
         <v>896</v>
@@ -49592,7 +49592,7 @@
     </row>
     <row r="883" spans="1:14">
       <c r="A883" s="1">
-        <v>3068</v>
+        <v>3451</v>
       </c>
       <c r="B883" t="s">
         <v>897</v>
@@ -49633,7 +49633,7 @@
     </row>
     <row r="884" spans="1:14">
       <c r="A884" s="1">
-        <v>3873</v>
+        <v>4355</v>
       </c>
       <c r="B884" t="s">
         <v>898</v>
@@ -49674,7 +49674,7 @@
     </row>
     <row r="885" spans="1:14">
       <c r="A885" s="1">
-        <v>2109</v>
+        <v>2382</v>
       </c>
       <c r="B885" t="s">
         <v>899</v>
@@ -49715,7 +49715,7 @@
     </row>
     <row r="886" spans="1:14">
       <c r="A886" s="1">
-        <v>2599</v>
+        <v>2923</v>
       </c>
       <c r="B886" t="s">
         <v>900</v>
@@ -49756,7 +49756,7 @@
     </row>
     <row r="887" spans="1:14">
       <c r="A887" s="1">
-        <v>3563</v>
+        <v>4009</v>
       </c>
       <c r="B887" t="s">
         <v>901</v>
@@ -49797,7 +49797,7 @@
     </row>
     <row r="888" spans="1:14">
       <c r="A888" s="1">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="B888" t="s">
         <v>902</v>
@@ -49838,7 +49838,7 @@
     </row>
     <row r="889" spans="1:14">
       <c r="A889" s="1">
-        <v>1013</v>
+        <v>1123</v>
       </c>
       <c r="B889" t="s">
         <v>903</v>
@@ -49879,7 +49879,7 @@
     </row>
     <row r="890" spans="1:14">
       <c r="A890" s="1">
-        <v>3081</v>
+        <v>3466</v>
       </c>
       <c r="B890" t="s">
         <v>904</v>
@@ -49920,7 +49920,7 @@
     </row>
     <row r="891" spans="1:14">
       <c r="A891" s="1">
-        <v>4967</v>
+        <v>5583</v>
       </c>
       <c r="B891" t="s">
         <v>905</v>
@@ -49961,7 +49961,7 @@
     </row>
     <row r="892" spans="1:14">
       <c r="A892" s="1">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="B892" t="s">
         <v>906</v>
@@ -50002,7 +50002,7 @@
     </row>
     <row r="893" spans="1:14">
       <c r="A893" s="1">
-        <v>1318</v>
+        <v>1469</v>
       </c>
       <c r="B893" t="s">
         <v>907</v>
@@ -50043,7 +50043,7 @@
     </row>
     <row r="894" spans="1:14">
       <c r="A894" s="1">
-        <v>689</v>
+        <v>765</v>
       </c>
       <c r="B894" t="s">
         <v>908</v>
@@ -50084,7 +50084,7 @@
     </row>
     <row r="895" spans="1:14">
       <c r="A895" s="1">
-        <v>4549</v>
+        <v>5108</v>
       </c>
       <c r="B895" t="s">
         <v>909</v>
@@ -50125,7 +50125,7 @@
     </row>
     <row r="896" spans="1:14">
       <c r="A896" s="1">
-        <v>3543</v>
+        <v>3988</v>
       </c>
       <c r="B896" t="s">
         <v>910</v>
@@ -50166,7 +50166,7 @@
     </row>
     <row r="897" spans="1:14">
       <c r="A897" s="1">
-        <v>3926</v>
+        <v>4418</v>
       </c>
       <c r="B897" t="s">
         <v>911</v>
@@ -50207,7 +50207,7 @@
     </row>
     <row r="898" spans="1:14">
       <c r="A898" s="1">
-        <v>2545</v>
+        <v>2866</v>
       </c>
       <c r="B898" t="s">
         <v>912</v>
@@ -50248,7 +50248,7 @@
     </row>
     <row r="899" spans="1:14">
       <c r="A899" s="1">
-        <v>982</v>
+        <v>1091</v>
       </c>
       <c r="B899" t="s">
         <v>913</v>
@@ -50289,7 +50289,7 @@
     </row>
     <row r="900" spans="1:14">
       <c r="A900" s="1">
-        <v>4056</v>
+        <v>4561</v>
       </c>
       <c r="B900" t="s">
         <v>914</v>
@@ -50330,7 +50330,7 @@
     </row>
     <row r="901" spans="1:14">
       <c r="A901" s="1">
-        <v>1575</v>
+        <v>1780</v>
       </c>
       <c r="B901" t="s">
         <v>915</v>
@@ -50371,7 +50371,7 @@
     </row>
     <row r="902" spans="1:14">
       <c r="A902" s="1">
-        <v>930</v>
+        <v>1030</v>
       </c>
       <c r="B902" t="s">
         <v>916</v>
@@ -50412,7 +50412,7 @@
     </row>
     <row r="903" spans="1:14">
       <c r="A903" s="1">
-        <v>2270</v>
+        <v>2563</v>
       </c>
       <c r="B903" t="s">
         <v>917</v>
@@ -50453,7 +50453,7 @@
     </row>
     <row r="904" spans="1:14">
       <c r="A904" s="1">
-        <v>2921</v>
+        <v>3279</v>
       </c>
       <c r="B904" t="s">
         <v>918</v>
@@ -50494,7 +50494,7 @@
     </row>
     <row r="905" spans="1:14">
       <c r="A905" s="1">
-        <v>1417</v>
+        <v>1594</v>
       </c>
       <c r="B905" t="s">
         <v>919</v>
@@ -50535,7 +50535,7 @@
     </row>
     <row r="906" spans="1:14">
       <c r="A906" s="1">
-        <v>809</v>
+        <v>895</v>
       </c>
       <c r="B906" t="s">
         <v>920</v>
@@ -50576,7 +50576,7 @@
     </row>
     <row r="907" spans="1:14">
       <c r="A907" s="1">
-        <v>4766</v>
+        <v>5357</v>
       </c>
       <c r="B907" t="s">
         <v>921</v>
@@ -50617,7 +50617,7 @@
     </row>
     <row r="908" spans="1:14">
       <c r="A908" s="1">
-        <v>1611</v>
+        <v>1824</v>
       </c>
       <c r="B908" t="s">
         <v>922</v>
@@ -50658,7 +50658,7 @@
     </row>
     <row r="909" spans="1:14">
       <c r="A909" s="1">
-        <v>3817</v>
+        <v>4290</v>
       </c>
       <c r="B909" t="s">
         <v>923</v>
@@ -50699,7 +50699,7 @@
     </row>
     <row r="910" spans="1:14">
       <c r="A910" s="1">
-        <v>1203</v>
+        <v>1337</v>
       </c>
       <c r="B910" t="s">
         <v>924</v>
@@ -50740,7 +50740,7 @@
     </row>
     <row r="911" spans="1:14">
       <c r="A911" s="1">
-        <v>3964</v>
+        <v>4459</v>
       </c>
       <c r="B911" t="s">
         <v>925</v>
@@ -50781,7 +50781,7 @@
     </row>
     <row r="912" spans="1:14">
       <c r="A912" s="1">
-        <v>1882</v>
+        <v>2124</v>
       </c>
       <c r="B912" t="s">
         <v>926</v>
@@ -50822,7 +50822,7 @@
     </row>
     <row r="913" spans="1:14">
       <c r="A913" s="1">
-        <v>810</v>
+        <v>896</v>
       </c>
       <c r="B913" t="s">
         <v>927</v>
@@ -50863,7 +50863,7 @@
     </row>
     <row r="914" spans="1:14">
       <c r="A914" s="1">
-        <v>4281</v>
+        <v>4805</v>
       </c>
       <c r="B914" t="s">
         <v>928</v>
@@ -50904,7 +50904,7 @@
     </row>
     <row r="915" spans="1:14">
       <c r="A915" s="1">
-        <v>1274</v>
+        <v>1417</v>
       </c>
       <c r="B915" t="s">
         <v>929</v>
@@ -50945,7 +50945,7 @@
     </row>
     <row r="916" spans="1:14">
       <c r="A916" s="1">
-        <v>1889</v>
+        <v>2131</v>
       </c>
       <c r="B916" t="s">
         <v>930</v>
@@ -50986,7 +50986,7 @@
     </row>
     <row r="917" spans="1:14">
       <c r="A917" s="1">
-        <v>1234</v>
+        <v>1374</v>
       </c>
       <c r="B917" t="s">
         <v>931</v>
@@ -51027,7 +51027,7 @@
     </row>
     <row r="918" spans="1:14">
       <c r="A918" s="1">
-        <v>4651</v>
+        <v>5226</v>
       </c>
       <c r="B918" t="s">
         <v>932</v>
@@ -51068,7 +51068,7 @@
     </row>
     <row r="919" spans="1:14">
       <c r="A919" s="1">
-        <v>4718</v>
+        <v>5304</v>
       </c>
       <c r="B919" t="s">
         <v>933</v>
@@ -51109,7 +51109,7 @@
     </row>
     <row r="920" spans="1:14">
       <c r="A920" s="1">
-        <v>3781</v>
+        <v>4250</v>
       </c>
       <c r="B920" t="s">
         <v>934</v>
@@ -51150,7 +51150,7 @@
     </row>
     <row r="921" spans="1:14">
       <c r="A921" s="1">
-        <v>1750</v>
+        <v>1981</v>
       </c>
       <c r="B921" t="s">
         <v>935</v>
@@ -51191,7 +51191,7 @@
     </row>
     <row r="922" spans="1:14">
       <c r="A922" s="1">
-        <v>1988</v>
+        <v>2240</v>
       </c>
       <c r="B922" t="s">
         <v>936</v>
@@ -51232,7 +51232,7 @@
     </row>
     <row r="923" spans="1:14">
       <c r="A923" s="1">
-        <v>3537</v>
+        <v>3980</v>
       </c>
       <c r="B923" t="s">
         <v>937</v>
@@ -51273,7 +51273,7 @@
     </row>
     <row r="924" spans="1:14">
       <c r="A924" s="1">
-        <v>4894</v>
+        <v>5501</v>
       </c>
       <c r="B924" t="s">
         <v>938</v>
@@ -51314,7 +51314,7 @@
     </row>
     <row r="925" spans="1:14">
       <c r="A925" s="1">
-        <v>2163</v>
+        <v>2444</v>
       </c>
       <c r="B925" t="s">
         <v>939</v>
@@ -51355,7 +51355,7 @@
     </row>
     <row r="926" spans="1:14">
       <c r="A926" s="1">
-        <v>3102</v>
+        <v>3490</v>
       </c>
       <c r="B926" t="s">
         <v>940</v>
@@ -51396,7 +51396,7 @@
     </row>
     <row r="927" spans="1:14">
       <c r="A927" s="1">
-        <v>4689</v>
+        <v>5267</v>
       </c>
       <c r="B927" t="s">
         <v>941</v>
@@ -51437,7 +51437,7 @@
     </row>
     <row r="928" spans="1:14">
       <c r="A928" s="1">
-        <v>4074</v>
+        <v>4580</v>
       </c>
       <c r="B928" t="s">
         <v>942</v>
@@ -51478,7 +51478,7 @@
     </row>
     <row r="929" spans="1:14">
       <c r="A929" s="1">
-        <v>653</v>
+        <v>725</v>
       </c>
       <c r="B929" t="s">
         <v>943</v>
@@ -51519,7 +51519,7 @@
     </row>
     <row r="930" spans="1:14">
       <c r="A930" s="1">
-        <v>1449</v>
+        <v>1633</v>
       </c>
       <c r="B930" t="s">
         <v>944</v>
@@ -51560,7 +51560,7 @@
     </row>
     <row r="931" spans="1:14">
       <c r="A931" s="1">
-        <v>690</v>
+        <v>766</v>
       </c>
       <c r="B931" t="s">
         <v>945</v>
@@ -51601,7 +51601,7 @@
     </row>
     <row r="932" spans="1:14">
       <c r="A932" s="1">
-        <v>3143</v>
+        <v>3534</v>
       </c>
       <c r="B932" t="s">
         <v>946</v>
@@ -51642,7 +51642,7 @@
     </row>
     <row r="933" spans="1:14">
       <c r="A933" s="1">
-        <v>2061</v>
+        <v>2318</v>
       </c>
       <c r="B933" t="s">
         <v>947</v>
@@ -51683,7 +51683,7 @@
     </row>
     <row r="934" spans="1:14">
       <c r="A934" s="1">
-        <v>4093</v>
+        <v>4599</v>
       </c>
       <c r="B934" t="s">
         <v>948</v>
@@ -51724,7 +51724,7 @@
     </row>
     <row r="935" spans="1:14">
       <c r="A935" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B935" t="s">
         <v>949</v>
@@ -51765,7 +51765,7 @@
     </row>
     <row r="936" spans="1:14">
       <c r="A936" s="1">
-        <v>2906</v>
+        <v>3262</v>
       </c>
       <c r="B936" t="s">
         <v>950</v>
@@ -51806,7 +51806,7 @@
     </row>
     <row r="937" spans="1:14">
       <c r="A937" s="1">
-        <v>1524</v>
+        <v>1722</v>
       </c>
       <c r="B937" t="s">
         <v>951</v>
@@ -51847,7 +51847,7 @@
     </row>
     <row r="938" spans="1:14">
       <c r="A938" s="1">
-        <v>949</v>
+        <v>1052</v>
       </c>
       <c r="B938" t="s">
         <v>952</v>
@@ -51888,7 +51888,7 @@
     </row>
     <row r="939" spans="1:14">
       <c r="A939" s="1">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B939" t="s">
         <v>953</v>
@@ -51929,7 +51929,7 @@
     </row>
     <row r="940" spans="1:14">
       <c r="A940" s="1">
-        <v>4046</v>
+        <v>4550</v>
       </c>
       <c r="B940" t="s">
         <v>954</v>
@@ -51970,7 +51970,7 @@
     </row>
     <row r="941" spans="1:14">
       <c r="A941" s="1">
-        <v>3407</v>
+        <v>3829</v>
       </c>
       <c r="B941" t="s">
         <v>955</v>
@@ -52011,7 +52011,7 @@
     </row>
     <row r="942" spans="1:14">
       <c r="A942" s="1">
-        <v>2197</v>
+        <v>2481</v>
       </c>
       <c r="B942" t="s">
         <v>956</v>
@@ -52052,7 +52052,7 @@
     </row>
     <row r="943" spans="1:14">
       <c r="A943" s="1">
-        <v>1657</v>
+        <v>1876</v>
       </c>
       <c r="B943" t="s">
         <v>957</v>
@@ -52093,7 +52093,7 @@
     </row>
     <row r="944" spans="1:14">
       <c r="A944" s="1">
-        <v>661</v>
+        <v>733</v>
       </c>
       <c r="B944" t="s">
         <v>958</v>
@@ -52134,7 +52134,7 @@
     </row>
     <row r="945" spans="1:14">
       <c r="A945" s="1">
-        <v>2519</v>
+        <v>2836</v>
       </c>
       <c r="B945" t="s">
         <v>959</v>
@@ -52175,7 +52175,7 @@
     </row>
     <row r="946" spans="1:14">
       <c r="A946" s="1">
-        <v>4166</v>
+        <v>4678</v>
       </c>
       <c r="B946" t="s">
         <v>960</v>
@@ -52216,7 +52216,7 @@
     </row>
     <row r="947" spans="1:14">
       <c r="A947" s="1">
-        <v>4989</v>
+        <v>5607</v>
       </c>
       <c r="B947" t="s">
         <v>961</v>
@@ -52257,7 +52257,7 @@
     </row>
     <row r="948" spans="1:14">
       <c r="A948" s="1">
-        <v>3077</v>
+        <v>3461</v>
       </c>
       <c r="B948" t="s">
         <v>962</v>
@@ -52298,7 +52298,7 @@
     </row>
     <row r="949" spans="1:14">
       <c r="A949" s="1">
-        <v>3564</v>
+        <v>4010</v>
       </c>
       <c r="B949" t="s">
         <v>963</v>
@@ -52339,7 +52339,7 @@
     </row>
     <row r="950" spans="1:14">
       <c r="A950" s="1">
-        <v>3581</v>
+        <v>4028</v>
       </c>
       <c r="B950" t="s">
         <v>964</v>
@@ -52380,7 +52380,7 @@
     </row>
     <row r="951" spans="1:14">
       <c r="A951" s="1">
-        <v>1684</v>
+        <v>1906</v>
       </c>
       <c r="B951" t="s">
         <v>965</v>
@@ -52421,7 +52421,7 @@
     </row>
     <row r="952" spans="1:14">
       <c r="A952" s="1">
-        <v>4678</v>
+        <v>5254</v>
       </c>
       <c r="B952" t="s">
         <v>966</v>
@@ -52462,7 +52462,7 @@
     </row>
     <row r="953" spans="1:14">
       <c r="A953" s="1">
-        <v>2257</v>
+        <v>2549</v>
       </c>
       <c r="B953" t="s">
         <v>967</v>
@@ -52503,7 +52503,7 @@
     </row>
     <row r="954" spans="1:14">
       <c r="A954" s="1">
-        <v>4089</v>
+        <v>4595</v>
       </c>
       <c r="B954" t="s">
         <v>968</v>
@@ -52544,7 +52544,7 @@
     </row>
     <row r="955" spans="1:14">
       <c r="A955" s="1">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="B955" t="s">
         <v>969</v>
@@ -52585,7 +52585,7 @@
     </row>
     <row r="956" spans="1:14">
       <c r="A956" s="1">
-        <v>3568</v>
+        <v>4014</v>
       </c>
       <c r="B956" t="s">
         <v>970</v>
@@ -52626,7 +52626,7 @@
     </row>
     <row r="957" spans="1:14">
       <c r="A957" s="1">
-        <v>2702</v>
+        <v>3035</v>
       </c>
       <c r="B957" t="s">
         <v>971</v>
@@ -52667,7 +52667,7 @@
     </row>
     <row r="958" spans="1:14">
       <c r="A958" s="1">
-        <v>2551</v>
+        <v>2873</v>
       </c>
       <c r="B958" t="s">
         <v>972</v>
@@ -52708,7 +52708,7 @@
     </row>
     <row r="959" spans="1:14">
       <c r="A959" s="1">
-        <v>4483</v>
+        <v>5033</v>
       </c>
       <c r="B959" t="s">
         <v>973</v>
@@ -52749,7 +52749,7 @@
     </row>
     <row r="960" spans="1:14">
       <c r="A960" s="1">
-        <v>1651</v>
+        <v>1869</v>
       </c>
       <c r="B960" t="s">
         <v>974</v>
@@ -52790,7 +52790,7 @@
     </row>
     <row r="961" spans="1:14">
       <c r="A961" s="1">
-        <v>3819</v>
+        <v>4292</v>
       </c>
       <c r="B961" t="s">
         <v>975</v>
@@ -52831,7 +52831,7 @@
     </row>
     <row r="962" spans="1:14">
       <c r="A962" s="1">
-        <v>1241</v>
+        <v>1381</v>
       </c>
       <c r="B962" t="s">
         <v>976</v>
@@ -52872,7 +52872,7 @@
     </row>
     <row r="963" spans="1:14">
       <c r="A963" s="1">
-        <v>4898</v>
+        <v>5505</v>
       </c>
       <c r="B963" t="s">
         <v>977</v>
@@ -52913,7 +52913,7 @@
     </row>
     <row r="964" spans="1:14">
       <c r="A964" s="1">
-        <v>3754</v>
+        <v>4221</v>
       </c>
       <c r="B964" t="s">
         <v>978</v>
@@ -52954,7 +52954,7 @@
     </row>
     <row r="965" spans="1:14">
       <c r="A965" s="1">
-        <v>1254</v>
+        <v>1395</v>
       </c>
       <c r="B965" t="s">
         <v>979</v>
@@ -52995,7 +52995,7 @@
     </row>
     <row r="966" spans="1:14">
       <c r="A966" s="1">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="B966" t="s">
         <v>980</v>
@@ -53036,7 +53036,7 @@
     </row>
     <row r="967" spans="1:14">
       <c r="A967" s="1">
-        <v>1709</v>
+        <v>1935</v>
       </c>
       <c r="B967" t="s">
         <v>981</v>
@@ -53077,7 +53077,7 @@
     </row>
     <row r="968" spans="1:14">
       <c r="A968" s="1">
-        <v>4929</v>
+        <v>5540</v>
       </c>
       <c r="B968" t="s">
         <v>982</v>
@@ -53118,7 +53118,7 @@
     </row>
     <row r="969" spans="1:14">
       <c r="A969" s="1">
-        <v>3088</v>
+        <v>3475</v>
       </c>
       <c r="B969" t="s">
         <v>983</v>
@@ -53159,7 +53159,7 @@
     </row>
     <row r="970" spans="1:14">
       <c r="A970" s="1">
-        <v>3994</v>
+        <v>4491</v>
       </c>
       <c r="B970" t="s">
         <v>984</v>
@@ -53200,7 +53200,7 @@
     </row>
     <row r="971" spans="1:14">
       <c r="A971" s="1">
-        <v>1828</v>
+        <v>2066</v>
       </c>
       <c r="B971" t="s">
         <v>985</v>
@@ -53241,7 +53241,7 @@
     </row>
     <row r="972" spans="1:14">
       <c r="A972" s="1">
-        <v>3766</v>
+        <v>4234</v>
       </c>
       <c r="B972" t="s">
         <v>986</v>
@@ -53282,7 +53282,7 @@
     </row>
     <row r="973" spans="1:14">
       <c r="A973" s="1">
-        <v>1752</v>
+        <v>1983</v>
       </c>
       <c r="B973" t="s">
         <v>987</v>
@@ -53323,7 +53323,7 @@
     </row>
     <row r="974" spans="1:14">
       <c r="A974" s="1">
-        <v>2671</v>
+        <v>2997</v>
       </c>
       <c r="B974" t="s">
         <v>988</v>
@@ -53364,7 +53364,7 @@
     </row>
     <row r="975" spans="1:14">
       <c r="A975" s="1">
-        <v>1476</v>
+        <v>1661</v>
       </c>
       <c r="B975" t="s">
         <v>989</v>
@@ -53405,7 +53405,7 @@
     </row>
     <row r="976" spans="1:14">
       <c r="A976" s="1">
-        <v>4027</v>
+        <v>4530</v>
       </c>
       <c r="B976" t="s">
         <v>990</v>
@@ -53446,7 +53446,7 @@
     </row>
     <row r="977" spans="1:14">
       <c r="A977" s="1">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="B977" t="s">
         <v>991</v>
@@ -53487,7 +53487,7 @@
     </row>
     <row r="978" spans="1:14">
       <c r="A978" s="1">
-        <v>2022</v>
+        <v>2277</v>
       </c>
       <c r="B978" t="s">
         <v>992</v>
@@ -53528,7 +53528,7 @@
     </row>
     <row r="979" spans="1:14">
       <c r="A979" s="1">
-        <v>1436</v>
+        <v>1616</v>
       </c>
       <c r="B979" t="s">
         <v>993</v>
@@ -53569,7 +53569,7 @@
     </row>
     <row r="980" spans="1:14">
       <c r="A980" s="1">
-        <v>971</v>
+        <v>1078</v>
       </c>
       <c r="B980" t="s">
         <v>994</v>
@@ -53610,7 +53610,7 @@
     </row>
     <row r="981" spans="1:14">
       <c r="A981" s="1">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="B981" t="s">
         <v>995</v>
@@ -53651,7 +53651,7 @@
     </row>
     <row r="982" spans="1:14">
       <c r="A982" s="1">
-        <v>2696</v>
+        <v>3028</v>
       </c>
       <c r="B982" t="s">
         <v>996</v>
@@ -53692,7 +53692,7 @@
     </row>
     <row r="983" spans="1:14">
       <c r="A983" s="1">
-        <v>3100</v>
+        <v>3488</v>
       </c>
       <c r="B983" t="s">
         <v>997</v>
@@ -53733,7 +53733,7 @@
     </row>
     <row r="984" spans="1:14">
       <c r="A984" s="1">
-        <v>4210</v>
+        <v>4725</v>
       </c>
       <c r="B984" t="s">
         <v>998</v>
@@ -53774,7 +53774,7 @@
     </row>
     <row r="985" spans="1:14">
       <c r="A985" s="1">
-        <v>4642</v>
+        <v>5217</v>
       </c>
       <c r="B985" t="s">
         <v>999</v>
@@ -53815,7 +53815,7 @@
     </row>
     <row r="986" spans="1:14">
       <c r="A986" s="1">
-        <v>5021</v>
+        <v>5641</v>
       </c>
       <c r="B986" t="s">
         <v>1000</v>
@@ -53856,7 +53856,7 @@
     </row>
     <row r="987" spans="1:14">
       <c r="A987" s="1">
-        <v>3838</v>
+        <v>4313</v>
       </c>
       <c r="B987" t="s">
         <v>1001</v>
@@ -53897,7 +53897,7 @@
     </row>
     <row r="988" spans="1:14">
       <c r="A988" s="1">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="B988" t="s">
         <v>1002</v>
@@ -53938,7 +53938,7 @@
     </row>
     <row r="989" spans="1:14">
       <c r="A989" s="1">
-        <v>4623</v>
+        <v>5197</v>
       </c>
       <c r="B989" t="s">
         <v>1003</v>
@@ -53979,7 +53979,7 @@
     </row>
     <row r="990" spans="1:14">
       <c r="A990" s="1">
-        <v>2254</v>
+        <v>2546</v>
       </c>
       <c r="B990" t="s">
         <v>1004</v>
@@ -54020,7 +54020,7 @@
     </row>
     <row r="991" spans="1:14">
       <c r="A991" s="1">
-        <v>1994</v>
+        <v>2247</v>
       </c>
       <c r="B991" t="s">
         <v>1005</v>
@@ -54061,7 +54061,7 @@
     </row>
     <row r="992" spans="1:14">
       <c r="A992" s="1">
-        <v>730</v>
+        <v>811</v>
       </c>
       <c r="B992" t="s">
         <v>1006</v>
@@ -54102,7 +54102,7 @@
     </row>
     <row r="993" spans="1:14">
       <c r="A993" s="1">
-        <v>1268</v>
+        <v>1410</v>
       </c>
       <c r="B993" t="s">
         <v>1007</v>
@@ -54143,7 +54143,7 @@
     </row>
     <row r="994" spans="1:14">
       <c r="A994" s="1">
-        <v>3468</v>
+        <v>3898</v>
       </c>
       <c r="B994" t="s">
         <v>1008</v>
@@ -54184,7 +54184,7 @@
     </row>
     <row r="995" spans="1:14">
       <c r="A995" s="1">
-        <v>3907</v>
+        <v>4394</v>
       </c>
       <c r="B995" t="s">
         <v>1009</v>
@@ -54225,7 +54225,7 @@
     </row>
     <row r="996" spans="1:14">
       <c r="A996" s="1">
-        <v>1568</v>
+        <v>1773</v>
       </c>
       <c r="B996" t="s">
         <v>1010</v>
@@ -54266,7 +54266,7 @@
     </row>
     <row r="997" spans="1:14">
       <c r="A997" s="1">
-        <v>1022</v>
+        <v>1132</v>
       </c>
       <c r="B997" t="s">
         <v>1011</v>
@@ -54307,7 +54307,7 @@
     </row>
     <row r="998" spans="1:14">
       <c r="A998" s="1">
-        <v>1257</v>
+        <v>1398</v>
       </c>
       <c r="B998" t="s">
         <v>1012</v>
@@ -54348,7 +54348,7 @@
     </row>
     <row r="999" spans="1:14">
       <c r="A999" s="1">
-        <v>4936</v>
+        <v>5548</v>
       </c>
       <c r="B999" t="s">
         <v>1013</v>
@@ -54389,7 +54389,7 @@
     </row>
     <row r="1000" spans="1:14">
       <c r="A1000" s="1">
-        <v>3153</v>
+        <v>3545</v>
       </c>
       <c r="B1000" t="s">
         <v>1014</v>
@@ -54430,7 +54430,7 @@
     </row>
     <row r="1001" spans="1:14">
       <c r="A1001" s="1">
-        <v>3938</v>
+        <v>4431</v>
       </c>
       <c r="B1001" t="s">
         <v>1015</v>
@@ -54471,7 +54471,7 @@
     </row>
     <row r="1002" spans="1:14">
       <c r="A1002" s="1">
-        <v>2959</v>
+        <v>3320</v>
       </c>
       <c r="B1002" t="s">
         <v>1016</v>
@@ -54512,7 +54512,7 @@
     </row>
     <row r="1003" spans="1:14">
       <c r="A1003" s="1">
-        <v>2129</v>
+        <v>2406</v>
       </c>
       <c r="B1003" t="s">
         <v>1017</v>
@@ -54553,7 +54553,7 @@
     </row>
     <row r="1004" spans="1:14">
       <c r="A1004" s="1">
-        <v>4528</v>
+        <v>5082</v>
       </c>
       <c r="B1004" t="s">
         <v>1018</v>
@@ -54594,7 +54594,7 @@
     </row>
     <row r="1005" spans="1:14">
       <c r="A1005" s="1">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="B1005" t="s">
         <v>1019</v>
@@ -54635,7 +54635,7 @@
     </row>
     <row r="1006" spans="1:14">
       <c r="A1006" s="1">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B1006" t="s">
         <v>1020</v>
@@ -54676,7 +54676,7 @@
     </row>
     <row r="1007" spans="1:14">
       <c r="A1007" s="1">
-        <v>2221</v>
+        <v>2509</v>
       </c>
       <c r="B1007" t="s">
         <v>1021</v>
@@ -54717,7 +54717,7 @@
     </row>
     <row r="1008" spans="1:14">
       <c r="A1008" s="1">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="B1008" t="s">
         <v>1022</v>
@@ -54758,7 +54758,7 @@
     </row>
     <row r="1009" spans="1:14">
       <c r="A1009" s="1">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="B1009" t="s">
         <v>1023</v>
@@ -54799,7 +54799,7 @@
     </row>
     <row r="1010" spans="1:14">
       <c r="A1010" s="1">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B1010" t="s">
         <v>1024</v>
@@ -54840,7 +54840,7 @@
     </row>
     <row r="1011" spans="1:14">
       <c r="A1011" s="1">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="B1011" t="s">
         <v>1025</v>
@@ -54881,7 +54881,7 @@
     </row>
     <row r="1012" spans="1:14">
       <c r="A1012" s="1">
-        <v>3470</v>
+        <v>3901</v>
       </c>
       <c r="B1012" t="s">
         <v>1026</v>
@@ -54922,7 +54922,7 @@
     </row>
     <row r="1013" spans="1:14">
       <c r="A1013" s="1">
-        <v>2979</v>
+        <v>3346</v>
       </c>
       <c r="B1013" t="s">
         <v>1027</v>
@@ -54963,7 +54963,7 @@
     </row>
     <row r="1014" spans="1:14">
       <c r="A1014" s="1">
-        <v>1003</v>
+        <v>1113</v>
       </c>
       <c r="B1014" t="s">
         <v>1028</v>
@@ -55004,7 +55004,7 @@
     </row>
     <row r="1015" spans="1:14">
       <c r="A1015" s="1">
-        <v>3960</v>
+        <v>4455</v>
       </c>
       <c r="B1015" t="s">
         <v>1029</v>
@@ -55045,7 +55045,7 @@
     </row>
     <row r="1016" spans="1:14">
       <c r="A1016" s="1">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="B1016" t="s">
         <v>1030</v>
@@ -55086,7 +55086,7 @@
     </row>
     <row r="1017" spans="1:14">
       <c r="A1017" s="1">
-        <v>1702</v>
+        <v>1927</v>
       </c>
       <c r="B1017" t="s">
         <v>1031</v>
@@ -55127,7 +55127,7 @@
     </row>
     <row r="1018" spans="1:14">
       <c r="A1018" s="1">
-        <v>1206</v>
+        <v>1342</v>
       </c>
       <c r="B1018" t="s">
         <v>1032</v>
@@ -55168,7 +55168,7 @@
     </row>
     <row r="1019" spans="1:14">
       <c r="A1019" s="1">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="B1019" t="s">
         <v>1033</v>
@@ -55209,7 +55209,7 @@
     </row>
     <row r="1020" spans="1:14">
       <c r="A1020" s="1">
-        <v>3963</v>
+        <v>4458</v>
       </c>
       <c r="B1020" t="s">
         <v>1034</v>
@@ -55250,7 +55250,7 @@
     </row>
     <row r="1021" spans="1:14">
       <c r="A1021" s="1">
-        <v>3951</v>
+        <v>4446</v>
       </c>
       <c r="B1021" t="s">
         <v>1035</v>
@@ -55291,7 +55291,7 @@
     </row>
     <row r="1022" spans="1:14">
       <c r="A1022" s="1">
-        <v>1276</v>
+        <v>1419</v>
       </c>
       <c r="B1022" t="s">
         <v>1036</v>
@@ -55332,7 +55332,7 @@
     </row>
     <row r="1023" spans="1:14">
       <c r="A1023" s="1">
-        <v>4381</v>
+        <v>4921</v>
       </c>
       <c r="B1023" t="s">
         <v>1037</v>
@@ -55373,7 +55373,7 @@
     </row>
     <row r="1024" spans="1:14">
       <c r="A1024" s="1">
-        <v>4585</v>
+        <v>5153</v>
       </c>
       <c r="B1024" t="s">
         <v>1038</v>
@@ -55414,7 +55414,7 @@
     </row>
     <row r="1025" spans="1:14">
       <c r="A1025" s="1">
-        <v>2087</v>
+        <v>2351</v>
       </c>
       <c r="B1025" t="s">
         <v>1039</v>
@@ -55455,7 +55455,7 @@
     </row>
     <row r="1026" spans="1:14">
       <c r="A1026" s="1">
-        <v>4615</v>
+        <v>5186</v>
       </c>
       <c r="B1026" t="s">
         <v>1040</v>
@@ -55496,7 +55496,7 @@
     </row>
     <row r="1027" spans="1:14">
       <c r="A1027" s="1">
-        <v>3433</v>
+        <v>3860</v>
       </c>
       <c r="B1027" t="s">
         <v>1041</v>
@@ -55537,7 +55537,7 @@
     </row>
     <row r="1028" spans="1:14">
       <c r="A1028" s="1">
-        <v>3254</v>
+        <v>3659</v>
       </c>
       <c r="B1028" t="s">
         <v>1042</v>
@@ -55578,7 +55578,7 @@
     </row>
     <row r="1029" spans="1:14">
       <c r="A1029" s="1">
-        <v>3534</v>
+        <v>3976</v>
       </c>
       <c r="B1029" t="s">
         <v>1043</v>
@@ -55619,7 +55619,7 @@
     </row>
     <row r="1030" spans="1:14">
       <c r="A1030" s="1">
-        <v>2186</v>
+        <v>2469</v>
       </c>
       <c r="B1030" t="s">
         <v>1044</v>
@@ -55660,7 +55660,7 @@
     </row>
     <row r="1031" spans="1:14">
       <c r="A1031" s="1">
-        <v>4349</v>
+        <v>4886</v>
       </c>
       <c r="B1031" t="s">
         <v>1045</v>
@@ -55701,7 +55701,7 @@
     </row>
     <row r="1032" spans="1:14">
       <c r="A1032" s="1">
-        <v>4688</v>
+        <v>5265</v>
       </c>
       <c r="B1032" t="s">
         <v>1046</v>
@@ -55742,7 +55742,7 @@
     </row>
     <row r="1033" spans="1:14">
       <c r="A1033" s="1">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B1033" t="s">
         <v>1047</v>
@@ -55783,7 +55783,7 @@
     </row>
     <row r="1034" spans="1:14">
       <c r="A1034" s="1">
-        <v>3057</v>
+        <v>3438</v>
       </c>
       <c r="B1034" t="s">
         <v>1048</v>
@@ -55824,7 +55824,7 @@
     </row>
     <row r="1035" spans="1:14">
       <c r="A1035" s="1">
-        <v>4783</v>
+        <v>5376</v>
       </c>
       <c r="B1035" t="s">
         <v>1049</v>
@@ -55865,7 +55865,7 @@
     </row>
     <row r="1036" spans="1:14">
       <c r="A1036" s="1">
-        <v>4930</v>
+        <v>5541</v>
       </c>
       <c r="B1036" t="s">
         <v>1050</v>
@@ -55906,7 +55906,7 @@
     </row>
     <row r="1037" spans="1:14">
       <c r="A1037" s="1">
-        <v>1739</v>
+        <v>1966</v>
       </c>
       <c r="B1037" t="s">
         <v>1051</v>
@@ -55947,7 +55947,7 @@
     </row>
     <row r="1038" spans="1:14">
       <c r="A1038" s="1">
-        <v>3469</v>
+        <v>3899</v>
       </c>
       <c r="B1038" t="s">
         <v>1052</v>
@@ -55988,7 +55988,7 @@
     </row>
     <row r="1039" spans="1:14">
       <c r="A1039" s="1">
-        <v>923</v>
+        <v>1023</v>
       </c>
       <c r="B1039" t="s">
         <v>1053</v>
@@ -56029,7 +56029,7 @@
     </row>
     <row r="1040" spans="1:14">
       <c r="A1040" s="1">
-        <v>3608</v>
+        <v>4055</v>
       </c>
       <c r="B1040" t="s">
         <v>1054</v>
@@ -56070,7 +56070,7 @@
     </row>
     <row r="1041" spans="1:14">
       <c r="A1041" s="1">
-        <v>4937</v>
+        <v>5549</v>
       </c>
       <c r="B1041" t="s">
         <v>1055</v>
@@ -56111,7 +56111,7 @@
     </row>
     <row r="1042" spans="1:14">
       <c r="A1042" s="1">
-        <v>1199</v>
+        <v>1331</v>
       </c>
       <c r="B1042" t="s">
         <v>1056</v>
@@ -56152,7 +56152,7 @@
     </row>
     <row r="1043" spans="1:14">
       <c r="A1043" s="1">
-        <v>2536</v>
+        <v>2857</v>
       </c>
       <c r="B1043" t="s">
         <v>1057</v>
@@ -56193,7 +56193,7 @@
     </row>
     <row r="1044" spans="1:14">
       <c r="A1044" s="1">
-        <v>658</v>
+        <v>730</v>
       </c>
       <c r="B1044" t="s">
         <v>1058</v>
@@ -56234,7 +56234,7 @@
     </row>
     <row r="1045" spans="1:14">
       <c r="A1045" s="1">
-        <v>2231</v>
+        <v>2520</v>
       </c>
       <c r="B1045" t="s">
         <v>1059</v>
@@ -56275,7 +56275,7 @@
     </row>
     <row r="1046" spans="1:14">
       <c r="A1046" s="1">
-        <v>4777</v>
+        <v>5370</v>
       </c>
       <c r="B1046" t="s">
         <v>1060</v>
@@ -56316,7 +56316,7 @@
     </row>
     <row r="1047" spans="1:14">
       <c r="A1047" s="1">
-        <v>2463</v>
+        <v>2775</v>
       </c>
       <c r="B1047" t="s">
         <v>1061</v>
@@ -56357,7 +56357,7 @@
     </row>
     <row r="1048" spans="1:14">
       <c r="A1048" s="1">
-        <v>1299</v>
+        <v>1447</v>
       </c>
       <c r="B1048" t="s">
         <v>1062</v>
@@ -56398,7 +56398,7 @@
     </row>
     <row r="1049" spans="1:14">
       <c r="A1049" s="1">
-        <v>3306</v>
+        <v>3716</v>
       </c>
       <c r="B1049" t="s">
         <v>1063</v>
@@ -56439,7 +56439,7 @@
     </row>
     <row r="1050" spans="1:14">
       <c r="A1050" s="1">
-        <v>2523</v>
+        <v>2840</v>
       </c>
       <c r="B1050" t="s">
         <v>1064</v>
@@ -56480,7 +56480,7 @@
     </row>
     <row r="1051" spans="1:14">
       <c r="A1051" s="1">
-        <v>1502</v>
+        <v>1697</v>
       </c>
       <c r="B1051" t="s">
         <v>1065</v>
@@ -56521,7 +56521,7 @@
     </row>
     <row r="1052" spans="1:14">
       <c r="A1052" s="1">
-        <v>4339</v>
+        <v>4875</v>
       </c>
       <c r="B1052" t="s">
         <v>1066</v>
@@ -56562,7 +56562,7 @@
     </row>
     <row r="1053" spans="1:14">
       <c r="A1053" s="1">
-        <v>1677</v>
+        <v>1899</v>
       </c>
       <c r="B1053" t="s">
         <v>1067</v>
@@ -56603,7 +56603,7 @@
     </row>
     <row r="1054" spans="1:14">
       <c r="A1054" s="1">
-        <v>4356</v>
+        <v>4894</v>
       </c>
       <c r="B1054" t="s">
         <v>1068</v>
@@ -56644,7 +56644,7 @@
     </row>
     <row r="1055" spans="1:14">
       <c r="A1055" s="1">
-        <v>4529</v>
+        <v>5083</v>
       </c>
       <c r="B1055" t="s">
         <v>1069</v>
@@ -56685,7 +56685,7 @@
     </row>
     <row r="1056" spans="1:14">
       <c r="A1056" s="1">
-        <v>669</v>
+        <v>741</v>
       </c>
       <c r="B1056" t="s">
         <v>1070</v>
@@ -56726,7 +56726,7 @@
     </row>
     <row r="1057" spans="1:14">
       <c r="A1057" s="1">
-        <v>2386</v>
+        <v>2690</v>
       </c>
       <c r="B1057" t="s">
         <v>1071</v>
@@ -56767,7 +56767,7 @@
     </row>
     <row r="1058" spans="1:14">
       <c r="A1058" s="1">
-        <v>733</v>
+        <v>814</v>
       </c>
       <c r="B1058" t="s">
         <v>1072</v>
@@ -56808,7 +56808,7 @@
     </row>
     <row r="1059" spans="1:14">
       <c r="A1059" s="1">
-        <v>2439</v>
+        <v>2749</v>
       </c>
       <c r="B1059" t="s">
         <v>1073</v>
@@ -56849,7 +56849,7 @@
     </row>
     <row r="1060" spans="1:14">
       <c r="A1060" s="1">
-        <v>4457</v>
+        <v>5004</v>
       </c>
       <c r="B1060" t="s">
         <v>1074</v>
@@ -56890,7 +56890,7 @@
     </row>
     <row r="1061" spans="1:14">
       <c r="A1061" s="1">
-        <v>2792</v>
+        <v>3132</v>
       </c>
       <c r="B1061" t="s">
         <v>1075</v>
@@ -56931,7 +56931,7 @@
     </row>
     <row r="1062" spans="1:14">
       <c r="A1062" s="1">
-        <v>3282</v>
+        <v>3692</v>
       </c>
       <c r="B1062" t="s">
         <v>1076</v>
@@ -56972,7 +56972,7 @@
     </row>
     <row r="1063" spans="1:14">
       <c r="A1063" s="1">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="B1063" t="s">
         <v>1077</v>
@@ -57013,7 +57013,7 @@
     </row>
     <row r="1064" spans="1:14">
       <c r="A1064" s="1">
-        <v>2190</v>
+        <v>2473</v>
       </c>
       <c r="B1064" t="s">
         <v>1078</v>
@@ -57054,7 +57054,7 @@
     </row>
     <row r="1065" spans="1:14">
       <c r="A1065" s="1">
-        <v>4312</v>
+        <v>4843</v>
       </c>
       <c r="B1065" t="s">
         <v>1079</v>
@@ -57095,7 +57095,7 @@
     </row>
     <row r="1066" spans="1:14">
       <c r="A1066" s="1">
-        <v>3532</v>
+        <v>3974</v>
       </c>
       <c r="B1066" t="s">
         <v>1080</v>
@@ -57136,7 +57136,7 @@
     </row>
     <row r="1067" spans="1:14">
       <c r="A1067" s="1">
-        <v>1565</v>
+        <v>1768</v>
       </c>
       <c r="B1067" t="s">
         <v>1081</v>
@@ -57177,7 +57177,7 @@
     </row>
     <row r="1068" spans="1:14">
       <c r="A1068" s="1">
-        <v>3801</v>
+        <v>4273</v>
       </c>
       <c r="B1068" t="s">
         <v>1082</v>
@@ -57218,7 +57218,7 @@
     </row>
     <row r="1069" spans="1:14">
       <c r="A1069" s="1">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="B1069" t="s">
         <v>1083</v>
@@ -57259,7 +57259,7 @@
     </row>
     <row r="1070" spans="1:14">
       <c r="A1070" s="1">
-        <v>4182</v>
+        <v>4694</v>
       </c>
       <c r="B1070" t="s">
         <v>1084</v>
@@ -57300,7 +57300,7 @@
     </row>
     <row r="1071" spans="1:14">
       <c r="A1071" s="1">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B1071" t="s">
         <v>1085</v>
@@ -57341,7 +57341,7 @@
     </row>
     <row r="1072" spans="1:14">
       <c r="A1072" s="1">
-        <v>3170</v>
+        <v>3567</v>
       </c>
       <c r="B1072" t="s">
         <v>1086</v>
@@ -57382,7 +57382,7 @@
     </row>
     <row r="1073" spans="1:14">
       <c r="A1073" s="1">
-        <v>4101</v>
+        <v>4607</v>
       </c>
       <c r="B1073" t="s">
         <v>1087</v>
@@ -57423,7 +57423,7 @@
     </row>
     <row r="1074" spans="1:14">
       <c r="A1074" s="1">
-        <v>2428</v>
+        <v>2737</v>
       </c>
       <c r="B1074" t="s">
         <v>1088</v>
@@ -57464,7 +57464,7 @@
     </row>
     <row r="1075" spans="1:14">
       <c r="A1075" s="1">
-        <v>1518</v>
+        <v>1714</v>
       </c>
       <c r="B1075" t="s">
         <v>1089</v>
@@ -57505,7 +57505,7 @@
     </row>
     <row r="1076" spans="1:14">
       <c r="A1076" s="1">
-        <v>1841</v>
+        <v>2079</v>
       </c>
       <c r="B1076" t="s">
         <v>1090</v>
@@ -57546,7 +57546,7 @@
     </row>
     <row r="1077" spans="1:14">
       <c r="A1077" s="1">
-        <v>3237</v>
+        <v>3640</v>
       </c>
       <c r="B1077" t="s">
         <v>1091</v>
@@ -57587,7 +57587,7 @@
     </row>
     <row r="1078" spans="1:14">
       <c r="A1078" s="1">
-        <v>739</v>
+        <v>820</v>
       </c>
       <c r="B1078" t="s">
         <v>1092</v>
@@ -57628,7 +57628,7 @@
     </row>
     <row r="1079" spans="1:14">
       <c r="A1079" s="1">
-        <v>4378</v>
+        <v>4918</v>
       </c>
       <c r="B1079" t="s">
         <v>1093</v>
@@ -57669,7 +57669,7 @@
     </row>
     <row r="1080" spans="1:14">
       <c r="A1080" s="1">
-        <v>1129</v>
+        <v>1252</v>
       </c>
       <c r="B1080" t="s">
         <v>1094</v>
@@ -57707,7 +57707,7 @@
     </row>
     <row r="1081" spans="1:14">
       <c r="A1081" s="1">
-        <v>2811</v>
+        <v>3152</v>
       </c>
       <c r="B1081" t="s">
         <v>1095</v>
@@ -57745,7 +57745,7 @@
     </row>
     <row r="1082" spans="1:14">
       <c r="A1082" s="1">
-        <v>4960</v>
+        <v>5574</v>
       </c>
       <c r="B1082" t="s">
         <v>1096</v>
@@ -57783,7 +57783,7 @@
     </row>
     <row r="1083" spans="1:14">
       <c r="A1083" s="1">
-        <v>4279</v>
+        <v>4803</v>
       </c>
       <c r="B1083" t="s">
         <v>1097</v>

--- a/1st February to 28th February TSA data.xlsx
+++ b/1st February to 28th February TSA data.xlsx
@@ -13471,7 +13471,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>4435</v>
+        <v>5415</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>4820</v>
+        <v>5876</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>3282</v>
+        <v>3990</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -13594,7 +13594,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>4540</v>
+        <v>5542</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>4319</v>
+        <v>5277</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -13717,7 +13717,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3814</v>
+        <v>4655</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4736</v>
+        <v>5775</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>4096</v>
+        <v>4994</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>4127</v>
+        <v>5035</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>1800</v>
+        <v>2178</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>3154</v>
+        <v>3845</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -13963,7 +13963,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1044</v>
+        <v>1282</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>708</v>
+        <v>860</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>3403</v>
+        <v>4139</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>2352</v>
+        <v>2844</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -14168,7 +14168,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>1584</v>
+        <v>1924</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -14209,7 +14209,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>3846</v>
+        <v>4696</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>3076</v>
+        <v>3741</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>1317</v>
+        <v>1607</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
@@ -14373,7 +14373,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>4178</v>
+        <v>5099</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
@@ -14414,7 +14414,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>3347</v>
+        <v>4071</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -14455,7 +14455,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>1817</v>
+        <v>2200</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -14496,7 +14496,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>4227</v>
+        <v>5164</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -14537,7 +14537,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>3110</v>
+        <v>3785</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>1517</v>
+        <v>1846</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -14619,7 +14619,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
@@ -14660,7 +14660,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>3766</v>
+        <v>4596</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
@@ -14742,7 +14742,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>3956</v>
+        <v>4827</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>3406</v>
+        <v>4143</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>4712</v>
+        <v>5744</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -14865,7 +14865,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>542</v>
+        <v>660</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>1937</v>
+        <v>2342</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -14988,7 +14988,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>5075</v>
+        <v>6183</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -15029,7 +15029,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>1310</v>
+        <v>1598</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -15070,7 +15070,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>1183</v>
+        <v>1452</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>2083</v>
+        <v>2518</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>3541</v>
+        <v>4308</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>1988</v>
+        <v>2406</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -15234,7 +15234,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>3265</v>
+        <v>3969</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
@@ -15316,7 +15316,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>2750</v>
+        <v>3345</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>4429</v>
+        <v>5407</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -15439,7 +15439,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>4392</v>
+        <v>5364</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -15480,7 +15480,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>3129</v>
+        <v>3810</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>5298</v>
+        <v>6455</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -15562,7 +15562,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>619</v>
+        <v>755</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
@@ -15603,7 +15603,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>2983</v>
+        <v>3630</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>4233</v>
+        <v>5172</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -15685,7 +15685,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>4688</v>
+        <v>5717</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
-        <v>4338</v>
+        <v>5298</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
@@ -15767,7 +15767,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
-        <v>961</v>
+        <v>1176</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
-        <v>732</v>
+        <v>891</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
-        <v>964</v>
+        <v>1179</v>
       </c>
       <c r="B60" t="s">
         <v>74</v>
@@ -15890,7 +15890,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
-        <v>5554</v>
+        <v>6750</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
@@ -15931,7 +15931,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
-        <v>1236</v>
+        <v>1517</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
-        <v>2269</v>
+        <v>2746</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
@@ -16054,7 +16054,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>2773</v>
+        <v>3374</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>2087</v>
+        <v>2524</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>5528</v>
+        <v>6719</v>
       </c>
       <c r="B67" t="s">
         <v>81</v>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>4513</v>
+        <v>5512</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
@@ -16218,7 +16218,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
         <v>83</v>
@@ -16259,7 +16259,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>2548</v>
+        <v>3086</v>
       </c>
       <c r="B70" t="s">
         <v>84</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>4679</v>
+        <v>5707</v>
       </c>
       <c r="B71" t="s">
         <v>85</v>
@@ -16341,7 +16341,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>4533</v>
+        <v>5533</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>1096</v>
+        <v>1342</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>3267</v>
+        <v>3971</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>1844</v>
+        <v>2230</v>
       </c>
       <c r="B75" t="s">
         <v>89</v>
@@ -16505,7 +16505,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>3432</v>
+        <v>4172</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>2141</v>
+        <v>2586</v>
       </c>
       <c r="B77" t="s">
         <v>91</v>
@@ -16587,7 +16587,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>1453</v>
+        <v>1771</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
@@ -16628,7 +16628,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>1046</v>
+        <v>1284</v>
       </c>
       <c r="B79" t="s">
         <v>93</v>
@@ -16669,7 +16669,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>728</v>
+        <v>886</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
@@ -16710,7 +16710,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>5682</v>
+        <v>6898</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
@@ -16751,7 +16751,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
-        <v>3626</v>
+        <v>4417</v>
       </c>
       <c r="B82" t="s">
         <v>96</v>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
-        <v>4181</v>
+        <v>5103</v>
       </c>
       <c r="B83" t="s">
         <v>97</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
-        <v>5516</v>
+        <v>6705</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
@@ -16874,7 +16874,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>2574</v>
+        <v>3118</v>
       </c>
       <c r="B85" t="s">
         <v>99</v>
@@ -16915,7 +16915,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
-        <v>1430</v>
+        <v>1743</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
-        <v>496</v>
+        <v>600</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
-        <v>3302</v>
+        <v>4014</v>
       </c>
       <c r="B88" t="s">
         <v>102</v>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
-        <v>5055</v>
+        <v>6158</v>
       </c>
       <c r="B89" t="s">
         <v>103</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
-        <v>4144</v>
+        <v>5055</v>
       </c>
       <c r="B90" t="s">
         <v>104</v>
@@ -17120,7 +17120,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
-        <v>1407</v>
+        <v>1710</v>
       </c>
       <c r="B91" t="s">
         <v>105</v>
@@ -17161,7 +17161,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
-        <v>1464</v>
+        <v>1782</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
@@ -17202,7 +17202,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
-        <v>1523</v>
+        <v>1852</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
-        <v>2920</v>
+        <v>3551</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
@@ -17284,7 +17284,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
-        <v>1678</v>
+        <v>2036</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
-        <v>1051</v>
+        <v>1291</v>
       </c>
       <c r="B96" t="s">
         <v>110</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
-        <v>4990</v>
+        <v>6078</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
-        <v>3770</v>
+        <v>4603</v>
       </c>
       <c r="B98" t="s">
         <v>112</v>
@@ -17448,7 +17448,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
-        <v>5340</v>
+        <v>6503</v>
       </c>
       <c r="B99" t="s">
         <v>113</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
-        <v>1864</v>
+        <v>2260</v>
       </c>
       <c r="B100" t="s">
         <v>114</v>
@@ -17530,7 +17530,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
-        <v>2233</v>
+        <v>2702</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -17571,7 +17571,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
-        <v>2960</v>
+        <v>3601</v>
       </c>
       <c r="B102" t="s">
         <v>116</v>
@@ -17612,7 +17612,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
-        <v>5689</v>
+        <v>6906</v>
       </c>
       <c r="B103" t="s">
         <v>117</v>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
-        <v>3215</v>
+        <v>3915</v>
       </c>
       <c r="B104" t="s">
         <v>118</v>
@@ -17694,7 +17694,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
-        <v>5007</v>
+        <v>6099</v>
       </c>
       <c r="B105" t="s">
         <v>119</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
-        <v>1806</v>
+        <v>2184</v>
       </c>
       <c r="B106" t="s">
         <v>120</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s">
         <v>121</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>3718</v>
+        <v>4537</v>
       </c>
       <c r="B108" t="s">
         <v>122</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>2562</v>
+        <v>3105</v>
       </c>
       <c r="B109" t="s">
         <v>123</v>
@@ -17899,7 +17899,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>2778</v>
+        <v>3379</v>
       </c>
       <c r="B110" t="s">
         <v>124</v>
@@ -17940,7 +17940,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
-        <v>2572</v>
+        <v>3116</v>
       </c>
       <c r="B111" t="s">
         <v>125</v>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
-        <v>2975</v>
+        <v>3621</v>
       </c>
       <c r="B112" t="s">
         <v>126</v>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
-        <v>1155</v>
+        <v>1416</v>
       </c>
       <c r="B113" t="s">
         <v>127</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>2539</v>
+        <v>3071</v>
       </c>
       <c r="B114" t="s">
         <v>128</v>
@@ -18104,7 +18104,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>5416</v>
+        <v>6588</v>
       </c>
       <c r="B115" t="s">
         <v>129</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>1277</v>
+        <v>1562</v>
       </c>
       <c r="B116" t="s">
         <v>130</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="B117" t="s">
         <v>131</v>
@@ -18227,7 +18227,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
-        <v>4022</v>
+        <v>4909</v>
       </c>
       <c r="B118" t="s">
         <v>132</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
-        <v>3465</v>
+        <v>4216</v>
       </c>
       <c r="B119" t="s">
         <v>133</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
-        <v>1704</v>
+        <v>2064</v>
       </c>
       <c r="B120" t="s">
         <v>134</v>
@@ -18350,7 +18350,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>2955</v>
+        <v>3596</v>
       </c>
       <c r="B121" t="s">
         <v>135</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>3071</v>
+        <v>3735</v>
       </c>
       <c r="B122" t="s">
         <v>136</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
-        <v>2229</v>
+        <v>2697</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>2554</v>
+        <v>3093</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
@@ -18514,7 +18514,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>2370</v>
+        <v>2865</v>
       </c>
       <c r="B125" t="s">
         <v>139</v>
@@ -18555,7 +18555,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>1370</v>
+        <v>1664</v>
       </c>
       <c r="B126" t="s">
         <v>140</v>
@@ -18596,7 +18596,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>3994</v>
+        <v>4876</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>
@@ -18637,7 +18637,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>808</v>
+        <v>982</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
@@ -18678,7 +18678,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>3134</v>
+        <v>3816</v>
       </c>
       <c r="B129" t="s">
         <v>143</v>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>3245</v>
+        <v>3946</v>
       </c>
       <c r="B130" t="s">
         <v>144</v>
@@ -18760,7 +18760,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>1380</v>
+        <v>1677</v>
       </c>
       <c r="B131" t="s">
         <v>145</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
-        <v>1071</v>
+        <v>1314</v>
       </c>
       <c r="B132" t="s">
         <v>146</v>
@@ -18842,7 +18842,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="B133" t="s">
         <v>147</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>3268</v>
+        <v>3973</v>
       </c>
       <c r="B134" t="s">
         <v>148</v>
@@ -18924,7 +18924,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>498</v>
+        <v>604</v>
       </c>
       <c r="B135" t="s">
         <v>149</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>1505</v>
+        <v>1833</v>
       </c>
       <c r="B136" t="s">
         <v>150</v>
@@ -19006,7 +19006,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
-        <v>3744</v>
+        <v>4568</v>
       </c>
       <c r="B137" t="s">
         <v>151</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
-        <v>1043</v>
+        <v>1281</v>
       </c>
       <c r="B138" t="s">
         <v>152</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
-        <v>1929</v>
+        <v>2334</v>
       </c>
       <c r="B139" t="s">
         <v>153</v>
@@ -19129,7 +19129,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>5044</v>
+        <v>6146</v>
       </c>
       <c r="B140" t="s">
         <v>154</v>
@@ -19170,7 +19170,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
-        <v>3658</v>
+        <v>4457</v>
       </c>
       <c r="B141" t="s">
         <v>155</v>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>1547</v>
+        <v>1884</v>
       </c>
       <c r="B142" t="s">
         <v>156</v>
@@ -19252,7 +19252,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
-        <v>5466</v>
+        <v>6649</v>
       </c>
       <c r="B143" t="s">
         <v>157</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>1878</v>
+        <v>2275</v>
       </c>
       <c r="B144" t="s">
         <v>158</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>4985</v>
+        <v>6073</v>
       </c>
       <c r="B145" t="s">
         <v>159</v>
@@ -19375,7 +19375,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
-        <v>5032</v>
+        <v>6131</v>
       </c>
       <c r="B146" t="s">
         <v>160</v>
@@ -19416,7 +19416,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>2138</v>
+        <v>2583</v>
       </c>
       <c r="B147" t="s">
         <v>161</v>
@@ -19457,7 +19457,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>5100</v>
+        <v>6214</v>
       </c>
       <c r="B148" t="s">
         <v>162</v>
@@ -19498,7 +19498,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
-        <v>4596</v>
+        <v>5607</v>
       </c>
       <c r="B149" t="s">
         <v>163</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>4850</v>
+        <v>5913</v>
       </c>
       <c r="B150" t="s">
         <v>164</v>
@@ -19580,7 +19580,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="B151" t="s">
         <v>165</v>
@@ -19621,7 +19621,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
-        <v>569</v>
+        <v>693</v>
       </c>
       <c r="B152" t="s">
         <v>166</v>
@@ -19662,7 +19662,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>2973</v>
+        <v>3618</v>
       </c>
       <c r="B153" t="s">
         <v>167</v>
@@ -19703,7 +19703,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
-        <v>874</v>
+        <v>1068</v>
       </c>
       <c r="B154" t="s">
         <v>168</v>
@@ -19744,7 +19744,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>5719</v>
+        <v>6947</v>
       </c>
       <c r="B155" t="s">
         <v>169</v>
@@ -19785,7 +19785,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>4604</v>
+        <v>5617</v>
       </c>
       <c r="B156" t="s">
         <v>170</v>
@@ -19826,7 +19826,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>3808</v>
+        <v>4649</v>
       </c>
       <c r="B157" t="s">
         <v>171</v>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s">
         <v>172</v>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>3484</v>
+        <v>4236</v>
       </c>
       <c r="B159" t="s">
         <v>173</v>
@@ -19949,7 +19949,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
-        <v>2300</v>
+        <v>2780</v>
       </c>
       <c r="B160" t="s">
         <v>174</v>
@@ -19990,7 +19990,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
-        <v>3226</v>
+        <v>3927</v>
       </c>
       <c r="B161" t="s">
         <v>175</v>
@@ -20031,7 +20031,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
-        <v>1165</v>
+        <v>1431</v>
       </c>
       <c r="B162" t="s">
         <v>176</v>
@@ -20072,7 +20072,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
-        <v>3736</v>
+        <v>4560</v>
       </c>
       <c r="B163" t="s">
         <v>177</v>
@@ -20113,7 +20113,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>5334</v>
+        <v>6496</v>
       </c>
       <c r="B164" t="s">
         <v>178</v>
@@ -20154,7 +20154,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
-        <v>957</v>
+        <v>1172</v>
       </c>
       <c r="B165" t="s">
         <v>179</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B166" t="s">
         <v>180</v>
@@ -20236,7 +20236,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>4796</v>
+        <v>5846</v>
       </c>
       <c r="B167" t="s">
         <v>181</v>
@@ -20277,7 +20277,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>5602</v>
+        <v>6807</v>
       </c>
       <c r="B168" t="s">
         <v>182</v>
@@ -20318,7 +20318,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
-        <v>4819</v>
+        <v>5875</v>
       </c>
       <c r="B169" t="s">
         <v>183</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
-        <v>799</v>
+        <v>971</v>
       </c>
       <c r="B170" t="s">
         <v>184</v>
@@ -20400,7 +20400,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
-        <v>1808</v>
+        <v>2190</v>
       </c>
       <c r="B171" t="s">
         <v>185</v>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
-        <v>4141</v>
+        <v>5052</v>
       </c>
       <c r="B172" t="s">
         <v>186</v>
@@ -20482,7 +20482,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
-        <v>1893</v>
+        <v>2292</v>
       </c>
       <c r="B173" t="s">
         <v>187</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
-        <v>4486</v>
+        <v>5479</v>
       </c>
       <c r="B174" t="s">
         <v>188</v>
@@ -20564,7 +20564,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
-        <v>1311</v>
+        <v>1600</v>
       </c>
       <c r="B175" t="s">
         <v>189</v>
@@ -20605,7 +20605,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
-        <v>5026</v>
+        <v>6124</v>
       </c>
       <c r="B176" t="s">
         <v>190</v>
@@ -20646,7 +20646,7 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
-        <v>1648</v>
+        <v>2003</v>
       </c>
       <c r="B177" t="s">
         <v>191</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
-        <v>997</v>
+        <v>1220</v>
       </c>
       <c r="B178" t="s">
         <v>192</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
-        <v>1504</v>
+        <v>1832</v>
       </c>
       <c r="B179" t="s">
         <v>193</v>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
-        <v>1622</v>
+        <v>1970</v>
       </c>
       <c r="B180" t="s">
         <v>194</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
-        <v>5326</v>
+        <v>6486</v>
       </c>
       <c r="B181" t="s">
         <v>195</v>
@@ -20851,7 +20851,7 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
-        <v>3547</v>
+        <v>4314</v>
       </c>
       <c r="B182" t="s">
         <v>196</v>
@@ -20892,7 +20892,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
-        <v>2104</v>
+        <v>2544</v>
       </c>
       <c r="B183" t="s">
         <v>197</v>
@@ -20933,7 +20933,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
-        <v>2603</v>
+        <v>3158</v>
       </c>
       <c r="B184" t="s">
         <v>198</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
-        <v>5174</v>
+        <v>6306</v>
       </c>
       <c r="B185" t="s">
         <v>199</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
-        <v>4650</v>
+        <v>5668</v>
       </c>
       <c r="B186" t="s">
         <v>200</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
-        <v>2822</v>
+        <v>3435</v>
       </c>
       <c r="B187" t="s">
         <v>201</v>
@@ -21097,7 +21097,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
-        <v>3313</v>
+        <v>4028</v>
       </c>
       <c r="B188" t="s">
         <v>202</v>
@@ -21138,7 +21138,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
-        <v>1998</v>
+        <v>2418</v>
       </c>
       <c r="B189" t="s">
         <v>203</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
-        <v>1917</v>
+        <v>2320</v>
       </c>
       <c r="B190" t="s">
         <v>204</v>
@@ -21220,7 +21220,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
-        <v>3608</v>
+        <v>4395</v>
       </c>
       <c r="B191" t="s">
         <v>205</v>
@@ -21261,7 +21261,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
-        <v>5613</v>
+        <v>6821</v>
       </c>
       <c r="B192" t="s">
         <v>206</v>
@@ -21302,7 +21302,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="1">
-        <v>5087</v>
+        <v>6196</v>
       </c>
       <c r="B193" t="s">
         <v>207</v>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="1">
-        <v>1299</v>
+        <v>1587</v>
       </c>
       <c r="B194" t="s">
         <v>208</v>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="1">
-        <v>1026</v>
+        <v>1258</v>
       </c>
       <c r="B195" t="s">
         <v>209</v>
@@ -21425,7 +21425,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="1">
-        <v>426</v>
+        <v>515</v>
       </c>
       <c r="B196" t="s">
         <v>210</v>
@@ -21466,7 +21466,7 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="1">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="B197" t="s">
         <v>211</v>
@@ -21507,7 +21507,7 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="1">
-        <v>1285</v>
+        <v>1572</v>
       </c>
       <c r="B198" t="s">
         <v>212</v>
@@ -21548,7 +21548,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="1">
-        <v>1362</v>
+        <v>1656</v>
       </c>
       <c r="B199" t="s">
         <v>213</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="1">
-        <v>3719</v>
+        <v>4540</v>
       </c>
       <c r="B200" t="s">
         <v>214</v>
@@ -21630,7 +21630,7 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="1">
-        <v>5392</v>
+        <v>6562</v>
       </c>
       <c r="B201" t="s">
         <v>215</v>
@@ -21671,7 +21671,7 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="1">
-        <v>4016</v>
+        <v>4902</v>
       </c>
       <c r="B202" t="s">
         <v>216</v>
@@ -21712,7 +21712,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="1">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B203" t="s">
         <v>217</v>
@@ -21753,7 +21753,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="1">
-        <v>3303</v>
+        <v>4015</v>
       </c>
       <c r="B204" t="s">
         <v>218</v>
@@ -21794,7 +21794,7 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="1">
-        <v>4899</v>
+        <v>5971</v>
       </c>
       <c r="B205" t="s">
         <v>219</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="1">
-        <v>3106</v>
+        <v>3781</v>
       </c>
       <c r="B206" t="s">
         <v>220</v>
@@ -21876,7 +21876,7 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="1">
-        <v>4507</v>
+        <v>5505</v>
       </c>
       <c r="B207" t="s">
         <v>221</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="1">
-        <v>4174</v>
+        <v>5093</v>
       </c>
       <c r="B208" t="s">
         <v>222</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="1">
-        <v>4524</v>
+        <v>5523</v>
       </c>
       <c r="B209" t="s">
         <v>223</v>
@@ -21999,7 +21999,7 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="1">
-        <v>3780</v>
+        <v>4616</v>
       </c>
       <c r="B210" t="s">
         <v>224</v>
@@ -22040,7 +22040,7 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="1">
-        <v>2710</v>
+        <v>3296</v>
       </c>
       <c r="B211" t="s">
         <v>225</v>
@@ -22081,7 +22081,7 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="1">
-        <v>3280</v>
+        <v>3988</v>
       </c>
       <c r="B212" t="s">
         <v>226</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="1">
-        <v>4167</v>
+        <v>5081</v>
       </c>
       <c r="B213" t="s">
         <v>227</v>
@@ -22163,7 +22163,7 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="1">
-        <v>5703</v>
+        <v>6923</v>
       </c>
       <c r="B214" t="s">
         <v>228</v>
@@ -22204,7 +22204,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="1">
-        <v>3693</v>
+        <v>4502</v>
       </c>
       <c r="B215" t="s">
         <v>229</v>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="1">
-        <v>1971</v>
+        <v>2384</v>
       </c>
       <c r="B216" t="s">
         <v>230</v>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="1">
-        <v>846</v>
+        <v>1036</v>
       </c>
       <c r="B217" t="s">
         <v>231</v>
@@ -22327,7 +22327,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="1">
-        <v>2849</v>
+        <v>3468</v>
       </c>
       <c r="B218" t="s">
         <v>232</v>
@@ -22368,7 +22368,7 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="1">
-        <v>2651</v>
+        <v>3219</v>
       </c>
       <c r="B219" t="s">
         <v>233</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="1">
-        <v>2575</v>
+        <v>3119</v>
       </c>
       <c r="B220" t="s">
         <v>234</v>
@@ -22450,7 +22450,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="1">
-        <v>4072</v>
+        <v>4968</v>
       </c>
       <c r="B221" t="s">
         <v>235</v>
@@ -22491,7 +22491,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="1">
-        <v>3382</v>
+        <v>4113</v>
       </c>
       <c r="B222" t="s">
         <v>236</v>
@@ -22532,7 +22532,7 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="1">
-        <v>1986</v>
+        <v>2404</v>
       </c>
       <c r="B223" t="s">
         <v>237</v>
@@ -22573,7 +22573,7 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="1">
-        <v>1618</v>
+        <v>1965</v>
       </c>
       <c r="B224" t="s">
         <v>238</v>
@@ -22614,7 +22614,7 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="1">
-        <v>3830</v>
+        <v>4676</v>
       </c>
       <c r="B225" t="s">
         <v>239</v>
@@ -22655,7 +22655,7 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="1">
-        <v>5707</v>
+        <v>6931</v>
       </c>
       <c r="B226" t="s">
         <v>240</v>
@@ -22696,7 +22696,7 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="1">
-        <v>4896</v>
+        <v>5968</v>
       </c>
       <c r="B227" t="s">
         <v>241</v>
@@ -22737,7 +22737,7 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="1">
-        <v>5582</v>
+        <v>6784</v>
       </c>
       <c r="B228" t="s">
         <v>242</v>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="1">
-        <v>2901</v>
+        <v>3530</v>
       </c>
       <c r="B229" t="s">
         <v>243</v>
@@ -22819,7 +22819,7 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="1">
-        <v>973</v>
+        <v>1190</v>
       </c>
       <c r="B230" t="s">
         <v>244</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="1">
-        <v>5558</v>
+        <v>6754</v>
       </c>
       <c r="B231" t="s">
         <v>245</v>
@@ -22901,7 +22901,7 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="1">
-        <v>4207</v>
+        <v>5136</v>
       </c>
       <c r="B232" t="s">
         <v>246</v>
@@ -22942,7 +22942,7 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="1">
-        <v>550</v>
+        <v>670</v>
       </c>
       <c r="B233" t="s">
         <v>247</v>
@@ -22983,7 +22983,7 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="1">
-        <v>2610</v>
+        <v>3170</v>
       </c>
       <c r="B234" t="s">
         <v>248</v>
@@ -23024,7 +23024,7 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="1">
-        <v>3388</v>
+        <v>4120</v>
       </c>
       <c r="B235" t="s">
         <v>249</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="1">
-        <v>1271</v>
+        <v>1556</v>
       </c>
       <c r="B236" t="s">
         <v>250</v>
@@ -23106,7 +23106,7 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="1">
-        <v>5543</v>
+        <v>6739</v>
       </c>
       <c r="B237" t="s">
         <v>251</v>
@@ -23147,7 +23147,7 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="1">
-        <v>4994</v>
+        <v>6084</v>
       </c>
       <c r="B238" t="s">
         <v>252</v>
@@ -23188,7 +23188,7 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="1">
-        <v>3782</v>
+        <v>4619</v>
       </c>
       <c r="B239" t="s">
         <v>253</v>
@@ -23229,7 +23229,7 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="1">
-        <v>5211</v>
+        <v>6347</v>
       </c>
       <c r="B240" t="s">
         <v>254</v>
@@ -23270,7 +23270,7 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="1">
-        <v>1130</v>
+        <v>1385</v>
       </c>
       <c r="B241" t="s">
         <v>255</v>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="1">
-        <v>5670</v>
+        <v>6886</v>
       </c>
       <c r="B242" t="s">
         <v>256</v>
@@ -23352,7 +23352,7 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="1">
-        <v>3228</v>
+        <v>3929</v>
       </c>
       <c r="B243" t="s">
         <v>257</v>
@@ -23393,7 +23393,7 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="1">
-        <v>448</v>
+        <v>547</v>
       </c>
       <c r="B244" t="s">
         <v>258</v>
@@ -23434,7 +23434,7 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="1">
-        <v>1497</v>
+        <v>1822</v>
       </c>
       <c r="B245" t="s">
         <v>259</v>
@@ -23475,7 +23475,7 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="1">
-        <v>750</v>
+        <v>911</v>
       </c>
       <c r="B246" t="s">
         <v>260</v>
@@ -23516,7 +23516,7 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="1">
-        <v>2097</v>
+        <v>2536</v>
       </c>
       <c r="B247" t="s">
         <v>261</v>
@@ -23557,7 +23557,7 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="1">
-        <v>5663</v>
+        <v>6877</v>
       </c>
       <c r="B248" t="s">
         <v>262</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="1">
-        <v>987</v>
+        <v>1209</v>
       </c>
       <c r="B249" t="s">
         <v>263</v>
@@ -23639,7 +23639,7 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="1">
-        <v>5467</v>
+        <v>6650</v>
       </c>
       <c r="B250" t="s">
         <v>264</v>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="1">
-        <v>2884</v>
+        <v>3512</v>
       </c>
       <c r="B251" t="s">
         <v>265</v>
@@ -23721,7 +23721,7 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="1">
-        <v>2907</v>
+        <v>3536</v>
       </c>
       <c r="B252" t="s">
         <v>266</v>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="1">
-        <v>2918</v>
+        <v>3549</v>
       </c>
       <c r="B253" t="s">
         <v>267</v>
@@ -23803,7 +23803,7 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="1">
-        <v>1328</v>
+        <v>1620</v>
       </c>
       <c r="B254" t="s">
         <v>268</v>
@@ -23844,7 +23844,7 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="1">
-        <v>5668</v>
+        <v>6884</v>
       </c>
       <c r="B255" t="s">
         <v>269</v>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="1">
-        <v>4624</v>
+        <v>5641</v>
       </c>
       <c r="B256" t="s">
         <v>270</v>
@@ -23926,7 +23926,7 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="1">
-        <v>3831</v>
+        <v>4677</v>
       </c>
       <c r="B257" t="s">
         <v>271</v>
@@ -23967,7 +23967,7 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="1">
-        <v>1409</v>
+        <v>1713</v>
       </c>
       <c r="B258" t="s">
         <v>272</v>
@@ -24008,7 +24008,7 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="1">
-        <v>1062</v>
+        <v>1304</v>
       </c>
       <c r="B259" t="s">
         <v>273</v>
@@ -24049,7 +24049,7 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="1">
-        <v>1363</v>
+        <v>1657</v>
       </c>
       <c r="B260" t="s">
         <v>274</v>
@@ -24090,7 +24090,7 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="1">
-        <v>2978</v>
+        <v>3625</v>
       </c>
       <c r="B261" t="s">
         <v>275</v>
@@ -24131,7 +24131,7 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="1">
-        <v>1565</v>
+        <v>1903</v>
       </c>
       <c r="B262" t="s">
         <v>276</v>
@@ -24172,7 +24172,7 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="1">
-        <v>4414</v>
+        <v>5386</v>
       </c>
       <c r="B263" t="s">
         <v>277</v>
@@ -24213,7 +24213,7 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="1">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="B264" t="s">
         <v>278</v>
@@ -24254,7 +24254,7 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="1">
-        <v>2356</v>
+        <v>2848</v>
       </c>
       <c r="B265" t="s">
         <v>279</v>
@@ -24295,7 +24295,7 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="1">
-        <v>5228</v>
+        <v>6370</v>
       </c>
       <c r="B266" t="s">
         <v>280</v>
@@ -24336,7 +24336,7 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="1">
-        <v>5165</v>
+        <v>6293</v>
       </c>
       <c r="B267" t="s">
         <v>281</v>
@@ -24377,7 +24377,7 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="1">
-        <v>5464</v>
+        <v>6647</v>
       </c>
       <c r="B268" t="s">
         <v>282</v>
@@ -24418,7 +24418,7 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="1">
-        <v>1104</v>
+        <v>1351</v>
       </c>
       <c r="B269" t="s">
         <v>283</v>
@@ -24459,7 +24459,7 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="1">
-        <v>5469</v>
+        <v>6653</v>
       </c>
       <c r="B270" t="s">
         <v>284</v>
@@ -24500,7 +24500,7 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="1">
-        <v>840</v>
+        <v>1028</v>
       </c>
       <c r="B271" t="s">
         <v>285</v>
@@ -24541,7 +24541,7 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="1">
-        <v>3798</v>
+        <v>4639</v>
       </c>
       <c r="B272" t="s">
         <v>286</v>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="1">
-        <v>2461</v>
+        <v>2976</v>
       </c>
       <c r="B273" t="s">
         <v>287</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="1">
-        <v>2954</v>
+        <v>3595</v>
       </c>
       <c r="B274" t="s">
         <v>288</v>
@@ -24664,7 +24664,7 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="1">
-        <v>1782</v>
+        <v>2154</v>
       </c>
       <c r="B275" t="s">
         <v>289</v>
@@ -24705,7 +24705,7 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="1">
-        <v>3745</v>
+        <v>4570</v>
       </c>
       <c r="B276" t="s">
         <v>290</v>
@@ -24746,7 +24746,7 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="1">
-        <v>5188</v>
+        <v>6323</v>
       </c>
       <c r="B277" t="s">
         <v>291</v>
@@ -24787,7 +24787,7 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="1">
-        <v>3176</v>
+        <v>3870</v>
       </c>
       <c r="B278" t="s">
         <v>292</v>
@@ -24828,7 +24828,7 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="1">
-        <v>2160</v>
+        <v>2613</v>
       </c>
       <c r="B279" t="s">
         <v>293</v>
@@ -24869,7 +24869,7 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="1">
-        <v>4331</v>
+        <v>5291</v>
       </c>
       <c r="B280" t="s">
         <v>294</v>
@@ -24910,7 +24910,7 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="1">
-        <v>1438</v>
+        <v>1752</v>
       </c>
       <c r="B281" t="s">
         <v>295</v>
@@ -24951,7 +24951,7 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="1">
-        <v>2236</v>
+        <v>2706</v>
       </c>
       <c r="B282" t="s">
         <v>296</v>
@@ -24992,7 +24992,7 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="1">
-        <v>921</v>
+        <v>1122</v>
       </c>
       <c r="B283" t="s">
         <v>297</v>
@@ -25033,7 +25033,7 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="1">
-        <v>3679</v>
+        <v>4484</v>
       </c>
       <c r="B284" t="s">
         <v>298</v>
@@ -25074,7 +25074,7 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="1">
-        <v>901</v>
+        <v>1098</v>
       </c>
       <c r="B285" t="s">
         <v>299</v>
@@ -25115,7 +25115,7 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="1">
-        <v>1629</v>
+        <v>1979</v>
       </c>
       <c r="B286" t="s">
         <v>300</v>
@@ -25156,7 +25156,7 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="1">
-        <v>5259</v>
+        <v>6409</v>
       </c>
       <c r="B287" t="s">
         <v>301</v>
@@ -25197,7 +25197,7 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="1">
-        <v>1168</v>
+        <v>1434</v>
       </c>
       <c r="B288" t="s">
         <v>302</v>
@@ -25238,7 +25238,7 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="1">
-        <v>2708</v>
+        <v>3293</v>
       </c>
       <c r="B289" t="s">
         <v>303</v>
@@ -25279,7 +25279,7 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="1">
-        <v>1002</v>
+        <v>1228</v>
       </c>
       <c r="B290" t="s">
         <v>304</v>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="1">
-        <v>2746</v>
+        <v>3340</v>
       </c>
       <c r="B291" t="s">
         <v>305</v>
@@ -25361,7 +25361,7 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="1">
-        <v>1468</v>
+        <v>1786</v>
       </c>
       <c r="B292" t="s">
         <v>306</v>
@@ -25402,7 +25402,7 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="1">
-        <v>2203</v>
+        <v>2667</v>
       </c>
       <c r="B293" t="s">
         <v>307</v>
@@ -25443,7 +25443,7 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="1">
-        <v>5016</v>
+        <v>6114</v>
       </c>
       <c r="B294" t="s">
         <v>308</v>
@@ -25484,7 +25484,7 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="1">
-        <v>494</v>
+        <v>598</v>
       </c>
       <c r="B295" t="s">
         <v>309</v>
@@ -25525,7 +25525,7 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="1">
-        <v>1525</v>
+        <v>1854</v>
       </c>
       <c r="B296" t="s">
         <v>310</v>
@@ -25566,7 +25566,7 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="1">
-        <v>5476</v>
+        <v>6660</v>
       </c>
       <c r="B297" t="s">
         <v>311</v>
@@ -25607,7 +25607,7 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="1">
-        <v>1750</v>
+        <v>2117</v>
       </c>
       <c r="B298" t="s">
         <v>312</v>
@@ -25648,7 +25648,7 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="1">
-        <v>5342</v>
+        <v>6505</v>
       </c>
       <c r="B299" t="s">
         <v>313</v>
@@ -25689,7 +25689,7 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="1">
-        <v>3150</v>
+        <v>3840</v>
       </c>
       <c r="B300" t="s">
         <v>314</v>
@@ -25730,7 +25730,7 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="1">
-        <v>4312</v>
+        <v>5270</v>
       </c>
       <c r="B301" t="s">
         <v>315</v>
@@ -25771,7 +25771,7 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="1">
-        <v>3218</v>
+        <v>3918</v>
       </c>
       <c r="B302" t="s">
         <v>316</v>
@@ -25812,7 +25812,7 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="1">
-        <v>3310</v>
+        <v>4025</v>
       </c>
       <c r="B303" t="s">
         <v>317</v>
@@ -25853,7 +25853,7 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="1">
-        <v>2137</v>
+        <v>2581</v>
       </c>
       <c r="B304" t="s">
         <v>318</v>
@@ -25894,7 +25894,7 @@
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="1">
-        <v>2334</v>
+        <v>2823</v>
       </c>
       <c r="B305" t="s">
         <v>319</v>
@@ -25935,7 +25935,7 @@
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="1">
-        <v>4902</v>
+        <v>5974</v>
       </c>
       <c r="B306" t="s">
         <v>320</v>
@@ -25976,7 +25976,7 @@
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="1">
-        <v>1458</v>
+        <v>1776</v>
       </c>
       <c r="B307" t="s">
         <v>321</v>
@@ -26017,7 +26017,7 @@
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="1">
-        <v>1004</v>
+        <v>1230</v>
       </c>
       <c r="B308" t="s">
         <v>322</v>
@@ -26058,7 +26058,7 @@
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="1">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="B309" t="s">
         <v>323</v>
@@ -26099,7 +26099,7 @@
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="1">
-        <v>4702</v>
+        <v>5732</v>
       </c>
       <c r="B310" t="s">
         <v>324</v>
@@ -26140,7 +26140,7 @@
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="1">
-        <v>2328</v>
+        <v>2815</v>
       </c>
       <c r="B311" t="s">
         <v>325</v>
@@ -26181,7 +26181,7 @@
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="1">
-        <v>2815</v>
+        <v>3426</v>
       </c>
       <c r="B312" t="s">
         <v>326</v>
@@ -26222,7 +26222,7 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="1">
-        <v>1751</v>
+        <v>2119</v>
       </c>
       <c r="B313" t="s">
         <v>327</v>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="1">
-        <v>3631</v>
+        <v>4422</v>
       </c>
       <c r="B314" t="s">
         <v>328</v>
@@ -26304,7 +26304,7 @@
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="1">
-        <v>754</v>
+        <v>915</v>
       </c>
       <c r="B315" t="s">
         <v>329</v>
@@ -26345,7 +26345,7 @@
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="1">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="B316" t="s">
         <v>330</v>
@@ -26386,7 +26386,7 @@
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="1">
-        <v>625</v>
+        <v>764</v>
       </c>
       <c r="B317" t="s">
         <v>331</v>
@@ -26427,7 +26427,7 @@
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="1">
-        <v>371</v>
+        <v>452</v>
       </c>
       <c r="B318" t="s">
         <v>332</v>
@@ -26468,7 +26468,7 @@
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="1">
-        <v>4721</v>
+        <v>5754</v>
       </c>
       <c r="B319" t="s">
         <v>333</v>
@@ -26509,7 +26509,7 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="1">
-        <v>3619</v>
+        <v>4409</v>
       </c>
       <c r="B320" t="s">
         <v>334</v>
@@ -26550,7 +26550,7 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="1">
-        <v>1120</v>
+        <v>1372</v>
       </c>
       <c r="B321" t="s">
         <v>335</v>
@@ -26591,7 +26591,7 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="1">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="B322" t="s">
         <v>336</v>
@@ -26632,7 +26632,7 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="1">
-        <v>4448</v>
+        <v>5430</v>
       </c>
       <c r="B323" t="s">
         <v>337</v>
@@ -26673,7 +26673,7 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="1">
-        <v>3985</v>
+        <v>4864</v>
       </c>
       <c r="B324" t="s">
         <v>338</v>
@@ -26714,7 +26714,7 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="1">
-        <v>2532</v>
+        <v>3063</v>
       </c>
       <c r="B325" t="s">
         <v>339</v>
@@ -26755,7 +26755,7 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="1">
-        <v>1228</v>
+        <v>1508</v>
       </c>
       <c r="B326" t="s">
         <v>340</v>
@@ -26796,7 +26796,7 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="1">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B327" t="s">
         <v>341</v>
@@ -26837,7 +26837,7 @@
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="1">
-        <v>643</v>
+        <v>786</v>
       </c>
       <c r="B328" t="s">
         <v>342</v>
@@ -26878,7 +26878,7 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="1">
-        <v>3735</v>
+        <v>4559</v>
       </c>
       <c r="B329" t="s">
         <v>343</v>
@@ -26919,7 +26919,7 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="1">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="B330" t="s">
         <v>344</v>
@@ -26960,7 +26960,7 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="1">
-        <v>4423</v>
+        <v>5398</v>
       </c>
       <c r="B331" t="s">
         <v>345</v>
@@ -27001,7 +27001,7 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="1">
-        <v>4308</v>
+        <v>5263</v>
       </c>
       <c r="B332" t="s">
         <v>346</v>
@@ -27042,7 +27042,7 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="1">
-        <v>3052</v>
+        <v>3713</v>
       </c>
       <c r="B333" t="s">
         <v>347</v>
@@ -27083,7 +27083,7 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="1">
-        <v>3430</v>
+        <v>4170</v>
       </c>
       <c r="B334" t="s">
         <v>348</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="1">
-        <v>1702</v>
+        <v>2062</v>
       </c>
       <c r="B335" t="s">
         <v>349</v>
@@ -27165,7 +27165,7 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="1">
-        <v>1295</v>
+        <v>1582</v>
       </c>
       <c r="B336" t="s">
         <v>350</v>
@@ -27206,7 +27206,7 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="1">
-        <v>3676</v>
+        <v>4480</v>
       </c>
       <c r="B337" t="s">
         <v>351</v>
@@ -27247,7 +27247,7 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="1">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="B338" t="s">
         <v>352</v>
@@ -27288,7 +27288,7 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B339" t="s">
         <v>353</v>
@@ -27329,7 +27329,7 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="1">
-        <v>1258</v>
+        <v>1543</v>
       </c>
       <c r="B340" t="s">
         <v>354</v>
@@ -27370,7 +27370,7 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="1">
-        <v>4584</v>
+        <v>5594</v>
       </c>
       <c r="B341" t="s">
         <v>355</v>
@@ -27411,7 +27411,7 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="1">
-        <v>497</v>
+        <v>603</v>
       </c>
       <c r="B342" t="s">
         <v>356</v>
@@ -27452,7 +27452,7 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="1">
-        <v>1942</v>
+        <v>2348</v>
       </c>
       <c r="B343" t="s">
         <v>357</v>
@@ -27493,7 +27493,7 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="1">
-        <v>2916</v>
+        <v>3547</v>
       </c>
       <c r="B344" t="s">
         <v>358</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="1">
-        <v>2950</v>
+        <v>3589</v>
       </c>
       <c r="B345" t="s">
         <v>359</v>
@@ -27575,7 +27575,7 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="1">
-        <v>1089</v>
+        <v>1334</v>
       </c>
       <c r="B346" t="s">
         <v>360</v>
@@ -27616,7 +27616,7 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="1">
-        <v>1304</v>
+        <v>1592</v>
       </c>
       <c r="B347" t="s">
         <v>361</v>
@@ -27657,7 +27657,7 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="1">
-        <v>5590</v>
+        <v>6793</v>
       </c>
       <c r="B348" t="s">
         <v>362</v>
@@ -27698,7 +27698,7 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="1">
-        <v>5002</v>
+        <v>6093</v>
       </c>
       <c r="B349" t="s">
         <v>363</v>
@@ -27739,7 +27739,7 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="1">
-        <v>3797</v>
+        <v>4638</v>
       </c>
       <c r="B350" t="s">
         <v>364</v>
@@ -27780,7 +27780,7 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="1">
-        <v>5388</v>
+        <v>6556</v>
       </c>
       <c r="B351" t="s">
         <v>365</v>
@@ -27821,7 +27821,7 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="1">
-        <v>5311</v>
+        <v>6471</v>
       </c>
       <c r="B352" t="s">
         <v>366</v>
@@ -27862,7 +27862,7 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="1">
-        <v>3333</v>
+        <v>4051</v>
       </c>
       <c r="B353" t="s">
         <v>367</v>
@@ -27903,7 +27903,7 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="1">
-        <v>3705</v>
+        <v>4518</v>
       </c>
       <c r="B354" t="s">
         <v>368</v>
@@ -27944,7 +27944,7 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="1">
-        <v>5622</v>
+        <v>6831</v>
       </c>
       <c r="B355" t="s">
         <v>369</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="1">
-        <v>5006</v>
+        <v>6098</v>
       </c>
       <c r="B356" t="s">
         <v>370</v>
@@ -28026,7 +28026,7 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="1">
-        <v>2940</v>
+        <v>3577</v>
       </c>
       <c r="B357" t="s">
         <v>371</v>
@@ -28067,7 +28067,7 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="1">
-        <v>3959</v>
+        <v>4830</v>
       </c>
       <c r="B358" t="s">
         <v>372</v>
@@ -28108,7 +28108,7 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="1">
-        <v>4600</v>
+        <v>5611</v>
       </c>
       <c r="B359" t="s">
         <v>373</v>
@@ -28149,7 +28149,7 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="1">
-        <v>1269</v>
+        <v>1554</v>
       </c>
       <c r="B360" t="s">
         <v>374</v>
@@ -28190,7 +28190,7 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="1">
-        <v>3893</v>
+        <v>4751</v>
       </c>
       <c r="B361" t="s">
         <v>375</v>
@@ -28231,7 +28231,7 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="1">
-        <v>5123</v>
+        <v>6241</v>
       </c>
       <c r="B362" t="s">
         <v>376</v>
@@ -28272,7 +28272,7 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="1">
-        <v>984</v>
+        <v>1206</v>
       </c>
       <c r="B363" t="s">
         <v>377</v>
@@ -28313,7 +28313,7 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="1">
-        <v>2486</v>
+        <v>3007</v>
       </c>
       <c r="B364" t="s">
         <v>378</v>
@@ -28354,7 +28354,7 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="1">
-        <v>4400</v>
+        <v>5372</v>
       </c>
       <c r="B365" t="s">
         <v>379</v>
@@ -28395,7 +28395,7 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="1">
-        <v>5264</v>
+        <v>6415</v>
       </c>
       <c r="B366" t="s">
         <v>380</v>
@@ -28436,7 +28436,7 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="1">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B367" t="s">
         <v>381</v>
@@ -28477,7 +28477,7 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="1">
-        <v>4618</v>
+        <v>5634</v>
       </c>
       <c r="B368" t="s">
         <v>382</v>
@@ -28518,7 +28518,7 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="1">
-        <v>2862</v>
+        <v>3483</v>
       </c>
       <c r="B369" t="s">
         <v>383</v>
@@ -28559,7 +28559,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="1">
-        <v>2241</v>
+        <v>2712</v>
       </c>
       <c r="B370" t="s">
         <v>384</v>
@@ -28600,7 +28600,7 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="1">
-        <v>2143</v>
+        <v>2588</v>
       </c>
       <c r="B371" t="s">
         <v>385</v>
@@ -28641,7 +28641,7 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="1">
-        <v>3059</v>
+        <v>3721</v>
       </c>
       <c r="B372" t="s">
         <v>386</v>
@@ -28682,7 +28682,7 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="1">
-        <v>4128</v>
+        <v>5036</v>
       </c>
       <c r="B373" t="s">
         <v>387</v>
@@ -28723,7 +28723,7 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="1">
-        <v>788</v>
+        <v>957</v>
       </c>
       <c r="B374" t="s">
         <v>388</v>
@@ -28764,7 +28764,7 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="1">
-        <v>1045</v>
+        <v>1283</v>
       </c>
       <c r="B375" t="s">
         <v>389</v>
@@ -28805,7 +28805,7 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="1">
-        <v>3966</v>
+        <v>4840</v>
       </c>
       <c r="B376" t="s">
         <v>390</v>
@@ -28846,7 +28846,7 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="1">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="B377" t="s">
         <v>391</v>
@@ -28887,7 +28887,7 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="1">
-        <v>3335</v>
+        <v>4054</v>
       </c>
       <c r="B378" t="s">
         <v>392</v>
@@ -28928,7 +28928,7 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="1">
-        <v>4058</v>
+        <v>4950</v>
       </c>
       <c r="B379" t="s">
         <v>393</v>
@@ -28969,7 +28969,7 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="1">
-        <v>5507</v>
+        <v>6696</v>
       </c>
       <c r="B380" t="s">
         <v>394</v>
@@ -29010,7 +29010,7 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="1">
-        <v>1685</v>
+        <v>2043</v>
       </c>
       <c r="B381" t="s">
         <v>395</v>
@@ -29051,7 +29051,7 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="1">
-        <v>2926</v>
+        <v>3558</v>
       </c>
       <c r="B382" t="s">
         <v>396</v>
@@ -29092,7 +29092,7 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="1">
-        <v>2038</v>
+        <v>2467</v>
       </c>
       <c r="B383" t="s">
         <v>397</v>
@@ -29133,7 +29133,7 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="1">
-        <v>2558</v>
+        <v>3101</v>
       </c>
       <c r="B384" t="s">
         <v>398</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="1">
-        <v>1161</v>
+        <v>1427</v>
       </c>
       <c r="B385" t="s">
         <v>399</v>
@@ -29215,7 +29215,7 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="1">
-        <v>635</v>
+        <v>776</v>
       </c>
       <c r="B386" t="s">
         <v>400</v>
@@ -29256,7 +29256,7 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="1">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="B387" t="s">
         <v>401</v>
@@ -29297,7 +29297,7 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="1">
-        <v>1151</v>
+        <v>1409</v>
       </c>
       <c r="B388" t="s">
         <v>402</v>
@@ -29338,7 +29338,7 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="1">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="B389" t="s">
         <v>403</v>
@@ -29379,7 +29379,7 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="1">
-        <v>3260</v>
+        <v>3963</v>
       </c>
       <c r="B390" t="s">
         <v>404</v>
@@ -29420,7 +29420,7 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="1">
-        <v>2742</v>
+        <v>3336</v>
       </c>
       <c r="B391" t="s">
         <v>405</v>
@@ -29461,7 +29461,7 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="1">
-        <v>1487</v>
+        <v>1811</v>
       </c>
       <c r="B392" t="s">
         <v>406</v>
@@ -29502,7 +29502,7 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="1">
-        <v>2932</v>
+        <v>3566</v>
       </c>
       <c r="B393" t="s">
         <v>407</v>
@@ -29543,7 +29543,7 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="1">
-        <v>4216</v>
+        <v>5149</v>
       </c>
       <c r="B394" t="s">
         <v>408</v>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="1">
-        <v>722</v>
+        <v>878</v>
       </c>
       <c r="B395" t="s">
         <v>409</v>
@@ -29625,7 +29625,7 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="1">
-        <v>4877</v>
+        <v>5945</v>
       </c>
       <c r="B396" t="s">
         <v>410</v>
@@ -29666,7 +29666,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="1">
-        <v>357</v>
+        <v>434</v>
       </c>
       <c r="B397" t="s">
         <v>411</v>
@@ -29707,7 +29707,7 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="1">
-        <v>1289</v>
+        <v>1576</v>
       </c>
       <c r="B398" t="s">
         <v>412</v>
@@ -29748,7 +29748,7 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="1">
-        <v>4591</v>
+        <v>5601</v>
       </c>
       <c r="B399" t="s">
         <v>413</v>
@@ -29789,7 +29789,7 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="1">
-        <v>3027</v>
+        <v>3685</v>
       </c>
       <c r="B400" t="s">
         <v>414</v>
@@ -29830,7 +29830,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="1">
-        <v>4917</v>
+        <v>5995</v>
       </c>
       <c r="B401" t="s">
         <v>415</v>
@@ -29871,7 +29871,7 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="1">
-        <v>3739</v>
+        <v>4563</v>
       </c>
       <c r="B402" t="s">
         <v>416</v>
@@ -29912,7 +29912,7 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="1">
-        <v>1022</v>
+        <v>1253</v>
       </c>
       <c r="B403" t="s">
         <v>417</v>
@@ -29953,7 +29953,7 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="1">
-        <v>4651</v>
+        <v>5669</v>
       </c>
       <c r="B404" t="s">
         <v>418</v>
@@ -29994,7 +29994,7 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="1">
-        <v>3151</v>
+        <v>3841</v>
       </c>
       <c r="B405" t="s">
         <v>419</v>
@@ -30035,7 +30035,7 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="1">
-        <v>5185</v>
+        <v>6319</v>
       </c>
       <c r="B406" t="s">
         <v>420</v>
@@ -30076,7 +30076,7 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="1">
-        <v>878</v>
+        <v>1073</v>
       </c>
       <c r="B407" t="s">
         <v>421</v>
@@ -30117,7 +30117,7 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="1">
-        <v>2232</v>
+        <v>2700</v>
       </c>
       <c r="B408" t="s">
         <v>422</v>
@@ -30158,7 +30158,7 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="1">
-        <v>2249</v>
+        <v>2720</v>
       </c>
       <c r="B409" t="s">
         <v>423</v>
@@ -30199,7 +30199,7 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="1">
-        <v>4143</v>
+        <v>5054</v>
       </c>
       <c r="B410" t="s">
         <v>424</v>
@@ -30240,7 +30240,7 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="1">
-        <v>2673</v>
+        <v>3248</v>
       </c>
       <c r="B411" t="s">
         <v>425</v>
@@ -30281,7 +30281,7 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="1">
-        <v>509</v>
+        <v>616</v>
       </c>
       <c r="B412" t="s">
         <v>426</v>
@@ -30322,7 +30322,7 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="1">
-        <v>1032</v>
+        <v>1264</v>
       </c>
       <c r="B413" t="s">
         <v>427</v>
@@ -30363,7 +30363,7 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="1">
-        <v>4249</v>
+        <v>5193</v>
       </c>
       <c r="B414" t="s">
         <v>428</v>
@@ -30404,7 +30404,7 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="1">
-        <v>2285</v>
+        <v>2765</v>
       </c>
       <c r="B415" t="s">
         <v>429</v>
@@ -30445,7 +30445,7 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="1">
-        <v>3685</v>
+        <v>4491</v>
       </c>
       <c r="B416" t="s">
         <v>430</v>
@@ -30486,7 +30486,7 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="1">
-        <v>622</v>
+        <v>759</v>
       </c>
       <c r="B417" t="s">
         <v>431</v>
@@ -30527,7 +30527,7 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="1">
-        <v>3006</v>
+        <v>3660</v>
       </c>
       <c r="B418" t="s">
         <v>432</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="1">
-        <v>1680</v>
+        <v>2038</v>
       </c>
       <c r="B419" t="s">
         <v>433</v>
@@ -30609,7 +30609,7 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="1">
-        <v>3135</v>
+        <v>3818</v>
       </c>
       <c r="B420" t="s">
         <v>434</v>
@@ -30650,7 +30650,7 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="1">
-        <v>3872</v>
+        <v>4728</v>
       </c>
       <c r="B421" t="s">
         <v>435</v>
@@ -30691,7 +30691,7 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="1">
-        <v>1668</v>
+        <v>2024</v>
       </c>
       <c r="B422" t="s">
         <v>436</v>
@@ -30732,7 +30732,7 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="1">
-        <v>3274</v>
+        <v>3981</v>
       </c>
       <c r="B423" t="s">
         <v>437</v>
@@ -30773,7 +30773,7 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="1">
-        <v>3919</v>
+        <v>4781</v>
       </c>
       <c r="B424" t="s">
         <v>438</v>
@@ -30814,7 +30814,7 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="1">
-        <v>1767</v>
+        <v>2136</v>
       </c>
       <c r="B425" t="s">
         <v>439</v>
@@ -30855,7 +30855,7 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="1">
-        <v>4437</v>
+        <v>5419</v>
       </c>
       <c r="B426" t="s">
         <v>440</v>
@@ -30896,7 +30896,7 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="1">
-        <v>3030</v>
+        <v>3689</v>
       </c>
       <c r="B427" t="s">
         <v>441</v>
@@ -30937,7 +30937,7 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="1">
-        <v>1643</v>
+        <v>1998</v>
       </c>
       <c r="B428" t="s">
         <v>442</v>
@@ -30978,7 +30978,7 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="1">
-        <v>4430</v>
+        <v>5410</v>
       </c>
       <c r="B429" t="s">
         <v>443</v>
@@ -31019,7 +31019,7 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="1">
-        <v>1884</v>
+        <v>2281</v>
       </c>
       <c r="B430" t="s">
         <v>444</v>
@@ -31060,7 +31060,7 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="1">
-        <v>853</v>
+        <v>1043</v>
       </c>
       <c r="B431" t="s">
         <v>445</v>
@@ -31101,7 +31101,7 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="1">
-        <v>3370</v>
+        <v>4099</v>
       </c>
       <c r="B432" t="s">
         <v>446</v>
@@ -31142,7 +31142,7 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="1">
-        <v>5709</v>
+        <v>6933</v>
       </c>
       <c r="B433" t="s">
         <v>447</v>
@@ -31183,7 +31183,7 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="1">
-        <v>5471</v>
+        <v>6655</v>
       </c>
       <c r="B434" t="s">
         <v>448</v>
@@ -31224,7 +31224,7 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="1">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="B435" t="s">
         <v>449</v>
@@ -31265,7 +31265,7 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="1">
-        <v>5234</v>
+        <v>6379</v>
       </c>
       <c r="B436" t="s">
         <v>450</v>
@@ -31306,7 +31306,7 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="1">
-        <v>1037</v>
+        <v>1271</v>
       </c>
       <c r="B437" t="s">
         <v>451</v>
@@ -31347,7 +31347,7 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="1">
-        <v>520</v>
+        <v>635</v>
       </c>
       <c r="B438" t="s">
         <v>452</v>
@@ -31388,7 +31388,7 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="1">
-        <v>2505</v>
+        <v>3029</v>
       </c>
       <c r="B439" t="s">
         <v>453</v>
@@ -31429,7 +31429,7 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="1">
-        <v>5598</v>
+        <v>6802</v>
       </c>
       <c r="B440" t="s">
         <v>454</v>
@@ -31470,7 +31470,7 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="1">
-        <v>5071</v>
+        <v>6177</v>
       </c>
       <c r="B441" t="s">
         <v>455</v>
@@ -31511,7 +31511,7 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="1">
-        <v>1991</v>
+        <v>2411</v>
       </c>
       <c r="B442" t="s">
         <v>456</v>
@@ -31552,7 +31552,7 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="1">
-        <v>1283</v>
+        <v>1568</v>
       </c>
       <c r="B443" t="s">
         <v>457</v>
@@ -31593,7 +31593,7 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="1">
-        <v>1315</v>
+        <v>1604</v>
       </c>
       <c r="B444" t="s">
         <v>458</v>
@@ -31634,7 +31634,7 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="1">
-        <v>3767</v>
+        <v>4598</v>
       </c>
       <c r="B445" t="s">
         <v>459</v>
@@ -31675,7 +31675,7 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="1">
-        <v>636</v>
+        <v>777</v>
       </c>
       <c r="B446" t="s">
         <v>460</v>
@@ -31716,7 +31716,7 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="1">
-        <v>2655</v>
+        <v>3223</v>
       </c>
       <c r="B447" t="s">
         <v>461</v>
@@ -31757,7 +31757,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="1">
-        <v>2953</v>
+        <v>3594</v>
       </c>
       <c r="B448" t="s">
         <v>462</v>
@@ -31798,7 +31798,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="1">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B449" t="s">
         <v>463</v>
@@ -31839,7 +31839,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="1">
-        <v>2287</v>
+        <v>2767</v>
       </c>
       <c r="B450" t="s">
         <v>464</v>
@@ -31880,7 +31880,7 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="1">
-        <v>3609</v>
+        <v>4396</v>
       </c>
       <c r="B451" t="s">
         <v>465</v>
@@ -31921,7 +31921,7 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="1">
-        <v>5429</v>
+        <v>6605</v>
       </c>
       <c r="B452" t="s">
         <v>466</v>
@@ -31962,7 +31962,7 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="1">
-        <v>1690</v>
+        <v>2050</v>
       </c>
       <c r="B453" t="s">
         <v>467</v>
@@ -32003,7 +32003,7 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="1">
-        <v>1156</v>
+        <v>1420</v>
       </c>
       <c r="B454" t="s">
         <v>468</v>
@@ -32044,7 +32044,7 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="1">
-        <v>1852</v>
+        <v>2241</v>
       </c>
       <c r="B455" t="s">
         <v>469</v>
@@ -32085,7 +32085,7 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="1">
-        <v>3853</v>
+        <v>4705</v>
       </c>
       <c r="B456" t="s">
         <v>470</v>
@@ -32126,7 +32126,7 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="1">
-        <v>3605</v>
+        <v>4391</v>
       </c>
       <c r="B457" t="s">
         <v>471</v>
@@ -32167,7 +32167,7 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="1">
-        <v>2784</v>
+        <v>3389</v>
       </c>
       <c r="B458" t="s">
         <v>472</v>
@@ -32208,7 +32208,7 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="1">
-        <v>1572</v>
+        <v>1911</v>
       </c>
       <c r="B459" t="s">
         <v>473</v>
@@ -32249,7 +32249,7 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="1">
-        <v>4772</v>
+        <v>5819</v>
       </c>
       <c r="B460" t="s">
         <v>474</v>
@@ -32290,7 +32290,7 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="1">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="B461" t="s">
         <v>475</v>
@@ -32331,7 +32331,7 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="1">
-        <v>1623</v>
+        <v>1972</v>
       </c>
       <c r="B462" t="s">
         <v>476</v>
@@ -32372,7 +32372,7 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="1">
-        <v>5396</v>
+        <v>6566</v>
       </c>
       <c r="B463" t="s">
         <v>477</v>
@@ -32413,7 +32413,7 @@
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="1">
-        <v>1353</v>
+        <v>1647</v>
       </c>
       <c r="B464" t="s">
         <v>478</v>
@@ -32454,7 +32454,7 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465" s="1">
-        <v>1542</v>
+        <v>1874</v>
       </c>
       <c r="B465" t="s">
         <v>479</v>
@@ -32495,7 +32495,7 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="1">
-        <v>4443</v>
+        <v>5425</v>
       </c>
       <c r="B466" t="s">
         <v>480</v>
@@ -32536,7 +32536,7 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="1">
-        <v>676</v>
+        <v>823</v>
       </c>
       <c r="B467" t="s">
         <v>481</v>
@@ -32577,7 +32577,7 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="1">
-        <v>1887</v>
+        <v>2285</v>
       </c>
       <c r="B468" t="s">
         <v>482</v>
@@ -32618,7 +32618,7 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="1">
-        <v>2193</v>
+        <v>2654</v>
       </c>
       <c r="B469" t="s">
         <v>483</v>
@@ -32659,7 +32659,7 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="1">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="B470" t="s">
         <v>484</v>
@@ -32700,7 +32700,7 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="1">
-        <v>5057</v>
+        <v>6160</v>
       </c>
       <c r="B471" t="s">
         <v>485</v>
@@ -32741,7 +32741,7 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="1">
-        <v>580</v>
+        <v>705</v>
       </c>
       <c r="B472" t="s">
         <v>486</v>
@@ -32782,7 +32782,7 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="1">
-        <v>1748</v>
+        <v>2115</v>
       </c>
       <c r="B473" t="s">
         <v>487</v>
@@ -32823,7 +32823,7 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="1">
-        <v>5332</v>
+        <v>6492</v>
       </c>
       <c r="B474" t="s">
         <v>488</v>
@@ -32864,7 +32864,7 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475" s="1">
-        <v>1832</v>
+        <v>2216</v>
       </c>
       <c r="B475" t="s">
         <v>489</v>
@@ -32905,7 +32905,7 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476" s="1">
-        <v>3419</v>
+        <v>4158</v>
       </c>
       <c r="B476" t="s">
         <v>490</v>
@@ -32946,7 +32946,7 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="1">
-        <v>4377</v>
+        <v>5346</v>
       </c>
       <c r="B477" t="s">
         <v>491</v>
@@ -32987,7 +32987,7 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478" s="1">
-        <v>3213</v>
+        <v>3912</v>
       </c>
       <c r="B478" t="s">
         <v>492</v>
@@ -33028,7 +33028,7 @@
     </row>
     <row r="479" spans="1:14">
       <c r="A479" s="1">
-        <v>2417</v>
+        <v>2924</v>
       </c>
       <c r="B479" t="s">
         <v>493</v>
@@ -33069,7 +33069,7 @@
     </row>
     <row r="480" spans="1:14">
       <c r="A480" s="1">
-        <v>4012</v>
+        <v>4897</v>
       </c>
       <c r="B480" t="s">
         <v>494</v>
@@ -33110,7 +33110,7 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="1">
-        <v>5502</v>
+        <v>6691</v>
       </c>
       <c r="B481" t="s">
         <v>495</v>
@@ -33151,7 +33151,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="1">
-        <v>2512</v>
+        <v>3036</v>
       </c>
       <c r="B482" t="s">
         <v>496</v>
@@ -33192,7 +33192,7 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="1">
-        <v>5552</v>
+        <v>6748</v>
       </c>
       <c r="B483" t="s">
         <v>497</v>
@@ -33233,7 +33233,7 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="1">
-        <v>5310</v>
+        <v>6470</v>
       </c>
       <c r="B484" t="s">
         <v>498</v>
@@ -33274,7 +33274,7 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="1">
-        <v>5278</v>
+        <v>6430</v>
       </c>
       <c r="B485" t="s">
         <v>499</v>
@@ -33315,7 +33315,7 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="1">
-        <v>609</v>
+        <v>744</v>
       </c>
       <c r="B486" t="s">
         <v>500</v>
@@ -33356,7 +33356,7 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="1">
-        <v>2861</v>
+        <v>3482</v>
       </c>
       <c r="B487" t="s">
         <v>501</v>
@@ -33397,7 +33397,7 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="1">
-        <v>5015</v>
+        <v>6113</v>
       </c>
       <c r="B488" t="s">
         <v>502</v>
@@ -33438,7 +33438,7 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="1">
-        <v>3122</v>
+        <v>3801</v>
       </c>
       <c r="B489" t="s">
         <v>503</v>
@@ -33479,7 +33479,7 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490" s="1">
-        <v>831</v>
+        <v>1015</v>
       </c>
       <c r="B490" t="s">
         <v>504</v>
@@ -33520,7 +33520,7 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="1">
-        <v>2213</v>
+        <v>2680</v>
       </c>
       <c r="B491" t="s">
         <v>505</v>
@@ -33561,7 +33561,7 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492" s="1">
-        <v>1188</v>
+        <v>1459</v>
       </c>
       <c r="B492" t="s">
         <v>506</v>
@@ -33602,7 +33602,7 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493" s="1">
-        <v>4998</v>
+        <v>6088</v>
       </c>
       <c r="B493" t="s">
         <v>507</v>
@@ -33643,7 +33643,7 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="1">
-        <v>803</v>
+        <v>975</v>
       </c>
       <c r="B494" t="s">
         <v>508</v>
@@ -33684,7 +33684,7 @@
     </row>
     <row r="495" spans="1:14">
       <c r="A495" s="1">
-        <v>5389</v>
+        <v>6557</v>
       </c>
       <c r="B495" t="s">
         <v>509</v>
@@ -33725,7 +33725,7 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496" s="1">
-        <v>563</v>
+        <v>685</v>
       </c>
       <c r="B496" t="s">
         <v>510</v>
@@ -33766,7 +33766,7 @@
     </row>
     <row r="497" spans="1:14">
       <c r="A497" s="1">
-        <v>2789</v>
+        <v>3397</v>
       </c>
       <c r="B497" t="s">
         <v>511</v>
@@ -33807,7 +33807,7 @@
     </row>
     <row r="498" spans="1:14">
       <c r="A498" s="1">
-        <v>1521</v>
+        <v>1850</v>
       </c>
       <c r="B498" t="s">
         <v>512</v>
@@ -33848,7 +33848,7 @@
     </row>
     <row r="499" spans="1:14">
       <c r="A499" s="1">
-        <v>1578</v>
+        <v>1918</v>
       </c>
       <c r="B499" t="s">
         <v>513</v>
@@ -33889,7 +33889,7 @@
     </row>
     <row r="500" spans="1:14">
       <c r="A500" s="1">
-        <v>917</v>
+        <v>1116</v>
       </c>
       <c r="B500" t="s">
         <v>514</v>
@@ -33930,7 +33930,7 @@
     </row>
     <row r="501" spans="1:14">
       <c r="A501" s="1">
-        <v>2201</v>
+        <v>2665</v>
       </c>
       <c r="B501" t="s">
         <v>515</v>
@@ -33971,7 +33971,7 @@
     </row>
     <row r="502" spans="1:14">
       <c r="A502" s="1">
-        <v>3081</v>
+        <v>3748</v>
       </c>
       <c r="B502" t="s">
         <v>516</v>
@@ -34012,7 +34012,7 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503" s="1">
-        <v>3970</v>
+        <v>4844</v>
       </c>
       <c r="B503" t="s">
         <v>517</v>
@@ -34053,7 +34053,7 @@
     </row>
     <row r="504" spans="1:14">
       <c r="A504" s="1">
-        <v>2867</v>
+        <v>3490</v>
       </c>
       <c r="B504" t="s">
         <v>518</v>
@@ -34094,7 +34094,7 @@
     </row>
     <row r="505" spans="1:14">
       <c r="A505" s="1">
-        <v>5205</v>
+        <v>6341</v>
       </c>
       <c r="B505" t="s">
         <v>519</v>
@@ -34135,7 +34135,7 @@
     </row>
     <row r="506" spans="1:14">
       <c r="A506" s="1">
-        <v>1651</v>
+        <v>2006</v>
       </c>
       <c r="B506" t="s">
         <v>520</v>
@@ -34176,7 +34176,7 @@
     </row>
     <row r="507" spans="1:14">
       <c r="A507" s="1">
-        <v>4456</v>
+        <v>5438</v>
       </c>
       <c r="B507" t="s">
         <v>521</v>
@@ -34217,7 +34217,7 @@
     </row>
     <row r="508" spans="1:14">
       <c r="A508" s="1">
-        <v>2929</v>
+        <v>3561</v>
       </c>
       <c r="B508" t="s">
         <v>522</v>
@@ -34258,7 +34258,7 @@
     </row>
     <row r="509" spans="1:14">
       <c r="A509" s="1">
-        <v>932</v>
+        <v>1136</v>
       </c>
       <c r="B509" t="s">
         <v>523</v>
@@ -34299,7 +34299,7 @@
     </row>
     <row r="510" spans="1:14">
       <c r="A510" s="1">
-        <v>3435</v>
+        <v>4177</v>
       </c>
       <c r="B510" t="s">
         <v>524</v>
@@ -34340,7 +34340,7 @@
     </row>
     <row r="511" spans="1:14">
       <c r="A511" s="1">
-        <v>827</v>
+        <v>1010</v>
       </c>
       <c r="B511" t="s">
         <v>525</v>
@@ -34381,7 +34381,7 @@
     </row>
     <row r="512" spans="1:14">
       <c r="A512" s="1">
-        <v>2845</v>
+        <v>3463</v>
       </c>
       <c r="B512" t="s">
         <v>526</v>
@@ -34422,7 +34422,7 @@
     </row>
     <row r="513" spans="1:14">
       <c r="A513" s="1">
-        <v>3627</v>
+        <v>4418</v>
       </c>
       <c r="B513" t="s">
         <v>527</v>
@@ -34463,7 +34463,7 @@
     </row>
     <row r="514" spans="1:14">
       <c r="A514" s="1">
-        <v>4068</v>
+        <v>4962</v>
       </c>
       <c r="B514" t="s">
         <v>528</v>
@@ -34504,7 +34504,7 @@
     </row>
     <row r="515" spans="1:14">
       <c r="A515" s="1">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="B515" t="s">
         <v>529</v>
@@ -34545,7 +34545,7 @@
     </row>
     <row r="516" spans="1:14">
       <c r="A516" s="1">
-        <v>2630</v>
+        <v>3192</v>
       </c>
       <c r="B516" t="s">
         <v>530</v>
@@ -34586,7 +34586,7 @@
     </row>
     <row r="517" spans="1:14">
       <c r="A517" s="1">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B517" t="s">
         <v>531</v>
@@ -34627,7 +34627,7 @@
     </row>
     <row r="518" spans="1:14">
       <c r="A518" s="1">
-        <v>3532</v>
+        <v>4296</v>
       </c>
       <c r="B518" t="s">
         <v>532</v>
@@ -34668,7 +34668,7 @@
     </row>
     <row r="519" spans="1:14">
       <c r="A519" s="1">
-        <v>5482</v>
+        <v>6667</v>
       </c>
       <c r="B519" t="s">
         <v>533</v>
@@ -34709,7 +34709,7 @@
     </row>
     <row r="520" spans="1:14">
       <c r="A520" s="1">
-        <v>3203</v>
+        <v>3901</v>
       </c>
       <c r="B520" t="s">
         <v>534</v>
@@ -34750,7 +34750,7 @@
     </row>
     <row r="521" spans="1:14">
       <c r="A521" s="1">
-        <v>5109</v>
+        <v>6224</v>
       </c>
       <c r="B521" t="s">
         <v>535</v>
@@ -34791,7 +34791,7 @@
     </row>
     <row r="522" spans="1:14">
       <c r="A522" s="1">
-        <v>5704</v>
+        <v>6924</v>
       </c>
       <c r="B522" t="s">
         <v>536</v>
@@ -34832,7 +34832,7 @@
     </row>
     <row r="523" spans="1:14">
       <c r="A523" s="1">
-        <v>2456</v>
+        <v>2970</v>
       </c>
       <c r="B523" t="s">
         <v>537</v>
@@ -34873,7 +34873,7 @@
     </row>
     <row r="524" spans="1:14">
       <c r="A524" s="1">
-        <v>4499</v>
+        <v>5497</v>
       </c>
       <c r="B524" t="s">
         <v>538</v>
@@ -34914,7 +34914,7 @@
     </row>
     <row r="525" spans="1:14">
       <c r="A525" s="1">
-        <v>2990</v>
+        <v>3642</v>
       </c>
       <c r="B525" t="s">
         <v>539</v>
@@ -34955,7 +34955,7 @@
     </row>
     <row r="526" spans="1:14">
       <c r="A526" s="1">
-        <v>3295</v>
+        <v>4005</v>
       </c>
       <c r="B526" t="s">
         <v>540</v>
@@ -34996,7 +34996,7 @@
     </row>
     <row r="527" spans="1:14">
       <c r="A527" s="1">
-        <v>2100</v>
+        <v>2539</v>
       </c>
       <c r="B527" t="s">
         <v>541</v>
@@ -35037,7 +35037,7 @@
     </row>
     <row r="528" spans="1:14">
       <c r="A528" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B528" t="s">
         <v>542</v>
@@ -35078,7 +35078,7 @@
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="1">
-        <v>931</v>
+        <v>1132</v>
       </c>
       <c r="B529" t="s">
         <v>543</v>
@@ -35119,7 +35119,7 @@
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="1">
-        <v>2479</v>
+        <v>3000</v>
       </c>
       <c r="B530" t="s">
         <v>544</v>
@@ -35160,7 +35160,7 @@
     </row>
     <row r="531" spans="1:14">
       <c r="A531" s="1">
-        <v>5328</v>
+        <v>6488</v>
       </c>
       <c r="B531" t="s">
         <v>545</v>
@@ -35201,7 +35201,7 @@
     </row>
     <row r="532" spans="1:14">
       <c r="A532" s="1">
-        <v>4964</v>
+        <v>6048</v>
       </c>
       <c r="B532" t="s">
         <v>546</v>
@@ -35242,7 +35242,7 @@
     </row>
     <row r="533" spans="1:14">
       <c r="A533" s="1">
-        <v>4454</v>
+        <v>5436</v>
       </c>
       <c r="B533" t="s">
         <v>547</v>
@@ -35283,7 +35283,7 @@
     </row>
     <row r="534" spans="1:14">
       <c r="A534" s="1">
-        <v>1406</v>
+        <v>1709</v>
       </c>
       <c r="B534" t="s">
         <v>548</v>
@@ -35324,7 +35324,7 @@
     </row>
     <row r="535" spans="1:14">
       <c r="A535" s="1">
-        <v>4571</v>
+        <v>5579</v>
       </c>
       <c r="B535" t="s">
         <v>549</v>
@@ -35365,7 +35365,7 @@
     </row>
     <row r="536" spans="1:14">
       <c r="A536" s="1">
-        <v>1094</v>
+        <v>1340</v>
       </c>
       <c r="B536" t="s">
         <v>550</v>
@@ -35406,7 +35406,7 @@
     </row>
     <row r="537" spans="1:14">
       <c r="A537" s="1">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="B537" t="s">
         <v>551</v>
@@ -35447,7 +35447,7 @@
     </row>
     <row r="538" spans="1:14">
       <c r="A538" s="1">
-        <v>4380</v>
+        <v>5350</v>
       </c>
       <c r="B538" t="s">
         <v>552</v>
@@ -35488,7 +35488,7 @@
     </row>
     <row r="539" spans="1:14">
       <c r="A539" s="1">
-        <v>2098</v>
+        <v>2537</v>
       </c>
       <c r="B539" t="s">
         <v>553</v>
@@ -35529,7 +35529,7 @@
     </row>
     <row r="540" spans="1:14">
       <c r="A540" s="1">
-        <v>3847</v>
+        <v>4697</v>
       </c>
       <c r="B540" t="s">
         <v>554</v>
@@ -35570,7 +35570,7 @@
     </row>
     <row r="541" spans="1:14">
       <c r="A541" s="1">
-        <v>599</v>
+        <v>728</v>
       </c>
       <c r="B541" t="s">
         <v>555</v>
@@ -35611,7 +35611,7 @@
     </row>
     <row r="542" spans="1:14">
       <c r="A542" s="1">
-        <v>3386</v>
+        <v>4117</v>
       </c>
       <c r="B542" t="s">
         <v>556</v>
@@ -35652,7 +35652,7 @@
     </row>
     <row r="543" spans="1:14">
       <c r="A543" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B543" t="s">
         <v>557</v>
@@ -35693,7 +35693,7 @@
     </row>
     <row r="544" spans="1:14">
       <c r="A544" s="1">
-        <v>3342</v>
+        <v>4063</v>
       </c>
       <c r="B544" t="s">
         <v>558</v>
@@ -35734,7 +35734,7 @@
     </row>
     <row r="545" spans="1:14">
       <c r="A545" s="1">
-        <v>1637</v>
+        <v>1992</v>
       </c>
       <c r="B545" t="s">
         <v>559</v>
@@ -35775,7 +35775,7 @@
     </row>
     <row r="546" spans="1:14">
       <c r="A546" s="1">
-        <v>747</v>
+        <v>908</v>
       </c>
       <c r="B546" t="s">
         <v>560</v>
@@ -35816,7 +35816,7 @@
     </row>
     <row r="547" spans="1:14">
       <c r="A547" s="1">
-        <v>5656</v>
+        <v>6869</v>
       </c>
       <c r="B547" t="s">
         <v>561</v>
@@ -35857,7 +35857,7 @@
     </row>
     <row r="548" spans="1:14">
       <c r="A548" s="1">
-        <v>5686</v>
+        <v>6903</v>
       </c>
       <c r="B548" t="s">
         <v>562</v>
@@ -35898,7 +35898,7 @@
     </row>
     <row r="549" spans="1:14">
       <c r="A549" s="1">
-        <v>3914</v>
+        <v>4775</v>
       </c>
       <c r="B549" t="s">
         <v>563</v>
@@ -35939,7 +35939,7 @@
     </row>
     <row r="550" spans="1:14">
       <c r="A550" s="1">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B550" t="s">
         <v>564</v>
@@ -35980,7 +35980,7 @@
     </row>
     <row r="551" spans="1:14">
       <c r="A551" s="1">
-        <v>4125</v>
+        <v>5030</v>
       </c>
       <c r="B551" t="s">
         <v>565</v>
@@ -36021,7 +36021,7 @@
     </row>
     <row r="552" spans="1:14">
       <c r="A552" s="1">
-        <v>3560</v>
+        <v>4330</v>
       </c>
       <c r="B552" t="s">
         <v>566</v>
@@ -36062,7 +36062,7 @@
     </row>
     <row r="553" spans="1:14">
       <c r="A553" s="1">
-        <v>2272</v>
+        <v>2749</v>
       </c>
       <c r="B553" t="s">
         <v>567</v>
@@ -36103,7 +36103,7 @@
     </row>
     <row r="554" spans="1:14">
       <c r="A554" s="1">
-        <v>3904</v>
+        <v>4762</v>
       </c>
       <c r="B554" t="s">
         <v>568</v>
@@ -36144,7 +36144,7 @@
     </row>
     <row r="555" spans="1:14">
       <c r="A555" s="1">
-        <v>4798</v>
+        <v>5848</v>
       </c>
       <c r="B555" t="s">
         <v>569</v>
@@ -36185,7 +36185,7 @@
     </row>
     <row r="556" spans="1:14">
       <c r="A556" s="1">
-        <v>2239</v>
+        <v>2710</v>
       </c>
       <c r="B556" t="s">
         <v>570</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="557" spans="1:14">
       <c r="A557" s="1">
-        <v>3437</v>
+        <v>4179</v>
       </c>
       <c r="B557" t="s">
         <v>571</v>
@@ -36267,7 +36267,7 @@
     </row>
     <row r="558" spans="1:14">
       <c r="A558" s="1">
-        <v>2075</v>
+        <v>2509</v>
       </c>
       <c r="B558" t="s">
         <v>572</v>
@@ -36308,7 +36308,7 @@
     </row>
     <row r="559" spans="1:14">
       <c r="A559" s="1">
-        <v>3961</v>
+        <v>4834</v>
       </c>
       <c r="B559" t="s">
         <v>573</v>
@@ -36349,7 +36349,7 @@
     </row>
     <row r="560" spans="1:14">
       <c r="A560" s="1">
-        <v>2345</v>
+        <v>2834</v>
       </c>
       <c r="B560" t="s">
         <v>574</v>
@@ -36390,7 +36390,7 @@
     </row>
     <row r="561" spans="1:14">
       <c r="A561" s="1">
-        <v>4818</v>
+        <v>5874</v>
       </c>
       <c r="B561" t="s">
         <v>575</v>
@@ -36431,7 +36431,7 @@
     </row>
     <row r="562" spans="1:14">
       <c r="A562" s="1">
-        <v>1013</v>
+        <v>1241</v>
       </c>
       <c r="B562" t="s">
         <v>576</v>
@@ -36472,7 +36472,7 @@
     </row>
     <row r="563" spans="1:14">
       <c r="A563" s="1">
-        <v>5693</v>
+        <v>6910</v>
       </c>
       <c r="B563" t="s">
         <v>577</v>
@@ -36513,7 +36513,7 @@
     </row>
     <row r="564" spans="1:14">
       <c r="A564" s="1">
-        <v>5385</v>
+        <v>6552</v>
       </c>
       <c r="B564" t="s">
         <v>578</v>
@@ -36554,7 +36554,7 @@
     </row>
     <row r="565" spans="1:14">
       <c r="A565" s="1">
-        <v>904</v>
+        <v>1102</v>
       </c>
       <c r="B565" t="s">
         <v>579</v>
@@ -36595,7 +36595,7 @@
     </row>
     <row r="566" spans="1:14">
       <c r="A566" s="1">
-        <v>3926</v>
+        <v>4790</v>
       </c>
       <c r="B566" t="s">
         <v>580</v>
@@ -36636,7 +36636,7 @@
     </row>
     <row r="567" spans="1:14">
       <c r="A567" s="1">
-        <v>3775</v>
+        <v>4610</v>
       </c>
       <c r="B567" t="s">
         <v>581</v>
@@ -36677,7 +36677,7 @@
     </row>
     <row r="568" spans="1:14">
       <c r="A568" s="1">
-        <v>2751</v>
+        <v>3347</v>
       </c>
       <c r="B568" t="s">
         <v>582</v>
@@ -36718,7 +36718,7 @@
     </row>
     <row r="569" spans="1:14">
       <c r="A569" s="1">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="B569" t="s">
         <v>583</v>
@@ -36759,7 +36759,7 @@
     </row>
     <row r="570" spans="1:14">
       <c r="A570" s="1">
-        <v>2755</v>
+        <v>3351</v>
       </c>
       <c r="B570" t="s">
         <v>584</v>
@@ -36800,7 +36800,7 @@
     </row>
     <row r="571" spans="1:14">
       <c r="A571" s="1">
-        <v>4065</v>
+        <v>4958</v>
       </c>
       <c r="B571" t="s">
         <v>585</v>
@@ -36841,7 +36841,7 @@
     </row>
     <row r="572" spans="1:14">
       <c r="A572" s="1">
-        <v>3920</v>
+        <v>4782</v>
       </c>
       <c r="B572" t="s">
         <v>586</v>
@@ -36882,7 +36882,7 @@
     </row>
     <row r="573" spans="1:14">
       <c r="A573" s="1">
-        <v>1848</v>
+        <v>2235</v>
       </c>
       <c r="B573" t="s">
         <v>587</v>
@@ -36923,7 +36923,7 @@
     </row>
     <row r="574" spans="1:14">
       <c r="A574" s="1">
-        <v>705</v>
+        <v>857</v>
       </c>
       <c r="B574" t="s">
         <v>588</v>
@@ -36964,7 +36964,7 @@
     </row>
     <row r="575" spans="1:14">
       <c r="A575" s="1">
-        <v>1896</v>
+        <v>2296</v>
       </c>
       <c r="B575" t="s">
         <v>589</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="576" spans="1:14">
       <c r="A576" s="1">
-        <v>972</v>
+        <v>1188</v>
       </c>
       <c r="B576" t="s">
         <v>590</v>
@@ -37046,7 +37046,7 @@
     </row>
     <row r="577" spans="1:14">
       <c r="A577" s="1">
-        <v>5683</v>
+        <v>6899</v>
       </c>
       <c r="B577" t="s">
         <v>591</v>
@@ -37087,7 +37087,7 @@
     </row>
     <row r="578" spans="1:14">
       <c r="A578" s="1">
-        <v>5359</v>
+        <v>6524</v>
       </c>
       <c r="B578" t="s">
         <v>592</v>
@@ -37128,7 +37128,7 @@
     </row>
     <row r="579" spans="1:14">
       <c r="A579" s="1">
-        <v>3462</v>
+        <v>4212</v>
       </c>
       <c r="B579" t="s">
         <v>593</v>
@@ -37169,7 +37169,7 @@
     </row>
     <row r="580" spans="1:14">
       <c r="A580" s="1">
-        <v>2139</v>
+        <v>2584</v>
       </c>
       <c r="B580" t="s">
         <v>594</v>
@@ -37210,7 +37210,7 @@
     </row>
     <row r="581" spans="1:14">
       <c r="A581" s="1">
-        <v>2142</v>
+        <v>2587</v>
       </c>
       <c r="B581" t="s">
         <v>595</v>
@@ -37251,7 +37251,7 @@
     </row>
     <row r="582" spans="1:14">
       <c r="A582" s="1">
-        <v>4212</v>
+        <v>5143</v>
       </c>
       <c r="B582" t="s">
         <v>596</v>
@@ -37292,7 +37292,7 @@
     </row>
     <row r="583" spans="1:14">
       <c r="A583" s="1">
-        <v>5292</v>
+        <v>6447</v>
       </c>
       <c r="B583" t="s">
         <v>597</v>
@@ -37333,7 +37333,7 @@
     </row>
     <row r="584" spans="1:14">
       <c r="A584" s="1">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="B584" t="s">
         <v>598</v>
@@ -37374,7 +37374,7 @@
     </row>
     <row r="585" spans="1:14">
       <c r="A585" s="1">
-        <v>841</v>
+        <v>1029</v>
       </c>
       <c r="B585" t="s">
         <v>599</v>
@@ -37415,7 +37415,7 @@
     </row>
     <row r="586" spans="1:14">
       <c r="A586" s="1">
-        <v>2682</v>
+        <v>3262</v>
       </c>
       <c r="B586" t="s">
         <v>600</v>
@@ -37456,7 +37456,7 @@
     </row>
     <row r="587" spans="1:14">
       <c r="A587" s="1">
-        <v>2894</v>
+        <v>3522</v>
       </c>
       <c r="B587" t="s">
         <v>601</v>
@@ -37497,7 +37497,7 @@
     </row>
     <row r="588" spans="1:14">
       <c r="A588" s="1">
-        <v>4493</v>
+        <v>5487</v>
       </c>
       <c r="B588" t="s">
         <v>602</v>
@@ -37538,7 +37538,7 @@
     </row>
     <row r="589" spans="1:14">
       <c r="A589" s="1">
-        <v>5078</v>
+        <v>6186</v>
       </c>
       <c r="B589" t="s">
         <v>603</v>
@@ -37579,7 +37579,7 @@
     </row>
     <row r="590" spans="1:14">
       <c r="A590" s="1">
-        <v>1545</v>
+        <v>1880</v>
       </c>
       <c r="B590" t="s">
         <v>604</v>
@@ -37620,7 +37620,7 @@
     </row>
     <row r="591" spans="1:14">
       <c r="A591" s="1">
-        <v>2642</v>
+        <v>3207</v>
       </c>
       <c r="B591" t="s">
         <v>605</v>
@@ -37661,7 +37661,7 @@
     </row>
     <row r="592" spans="1:14">
       <c r="A592" s="1">
-        <v>5680</v>
+        <v>6896</v>
       </c>
       <c r="B592" t="s">
         <v>606</v>
@@ -37702,7 +37702,7 @@
     </row>
     <row r="593" spans="1:14">
       <c r="A593" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B593" t="s">
         <v>607</v>
@@ -37743,7 +37743,7 @@
     </row>
     <row r="594" spans="1:14">
       <c r="A594" s="1">
-        <v>3026</v>
+        <v>3684</v>
       </c>
       <c r="B594" t="s">
         <v>608</v>
@@ -37784,7 +37784,7 @@
     </row>
     <row r="595" spans="1:14">
       <c r="A595" s="1">
-        <v>1177</v>
+        <v>1444</v>
       </c>
       <c r="B595" t="s">
         <v>609</v>
@@ -37825,7 +37825,7 @@
     </row>
     <row r="596" spans="1:14">
       <c r="A596" s="1">
-        <v>2516</v>
+        <v>3040</v>
       </c>
       <c r="B596" t="s">
         <v>610</v>
@@ -37866,7 +37866,7 @@
     </row>
     <row r="597" spans="1:14">
       <c r="A597" s="1">
-        <v>4461</v>
+        <v>5445</v>
       </c>
       <c r="B597" t="s">
         <v>611</v>
@@ -37907,7 +37907,7 @@
     </row>
     <row r="598" spans="1:14">
       <c r="A598" s="1">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="B598" t="s">
         <v>612</v>
@@ -37948,7 +37948,7 @@
     </row>
     <row r="599" spans="1:14">
       <c r="A599" s="1">
-        <v>4469</v>
+        <v>5459</v>
       </c>
       <c r="B599" t="s">
         <v>613</v>
@@ -37989,7 +37989,7 @@
     </row>
     <row r="600" spans="1:14">
       <c r="A600" s="1">
-        <v>3163</v>
+        <v>3854</v>
       </c>
       <c r="B600" t="s">
         <v>614</v>
@@ -38030,7 +38030,7 @@
     </row>
     <row r="601" spans="1:14">
       <c r="A601" s="1">
-        <v>4553</v>
+        <v>5557</v>
       </c>
       <c r="B601" t="s">
         <v>615</v>
@@ -38071,7 +38071,7 @@
     </row>
     <row r="602" spans="1:14">
       <c r="A602" s="1">
-        <v>1925</v>
+        <v>2329</v>
       </c>
       <c r="B602" t="s">
         <v>616</v>
@@ -38112,7 +38112,7 @@
     </row>
     <row r="603" spans="1:14">
       <c r="A603" s="1">
-        <v>3796</v>
+        <v>4637</v>
       </c>
       <c r="B603" t="s">
         <v>617</v>
@@ -38153,7 +38153,7 @@
     </row>
     <row r="604" spans="1:14">
       <c r="A604" s="1">
-        <v>1822</v>
+        <v>2205</v>
       </c>
       <c r="B604" t="s">
         <v>618</v>
@@ -38194,7 +38194,7 @@
     </row>
     <row r="605" spans="1:14">
       <c r="A605" s="1">
-        <v>4626</v>
+        <v>5643</v>
       </c>
       <c r="B605" t="s">
         <v>619</v>
@@ -38235,7 +38235,7 @@
     </row>
     <row r="606" spans="1:14">
       <c r="A606" s="1">
-        <v>2252</v>
+        <v>2723</v>
       </c>
       <c r="B606" t="s">
         <v>620</v>
@@ -38276,7 +38276,7 @@
     </row>
     <row r="607" spans="1:14">
       <c r="A607" s="1">
-        <v>3911</v>
+        <v>4771</v>
       </c>
       <c r="B607" t="s">
         <v>621</v>
@@ -38317,7 +38317,7 @@
     </row>
     <row r="608" spans="1:14">
       <c r="A608" s="1">
-        <v>2004</v>
+        <v>2425</v>
       </c>
       <c r="B608" t="s">
         <v>622</v>
@@ -38358,7 +38358,7 @@
     </row>
     <row r="609" spans="1:14">
       <c r="A609" s="1">
-        <v>3223</v>
+        <v>3924</v>
       </c>
       <c r="B609" t="s">
         <v>623</v>
@@ -38399,7 +38399,7 @@
     </row>
     <row r="610" spans="1:14">
       <c r="A610" s="1">
-        <v>5272</v>
+        <v>6424</v>
       </c>
       <c r="B610" t="s">
         <v>624</v>
@@ -38440,7 +38440,7 @@
     </row>
     <row r="611" spans="1:14">
       <c r="A611" s="1">
-        <v>5542</v>
+        <v>6738</v>
       </c>
       <c r="B611" t="s">
         <v>625</v>
@@ -38481,7 +38481,7 @@
     </row>
     <row r="612" spans="1:14">
       <c r="A612" s="1">
-        <v>4366</v>
+        <v>5331</v>
       </c>
       <c r="B612" t="s">
         <v>626</v>
@@ -38522,7 +38522,7 @@
     </row>
     <row r="613" spans="1:14">
       <c r="A613" s="1">
-        <v>5117</v>
+        <v>6233</v>
       </c>
       <c r="B613" t="s">
         <v>627</v>
@@ -38563,7 +38563,7 @@
     </row>
     <row r="614" spans="1:14">
       <c r="A614" s="1">
-        <v>3287</v>
+        <v>3995</v>
       </c>
       <c r="B614" t="s">
         <v>628</v>
@@ -38604,7 +38604,7 @@
     </row>
     <row r="615" spans="1:14">
       <c r="A615" s="1">
-        <v>3905</v>
+        <v>4763</v>
       </c>
       <c r="B615" t="s">
         <v>629</v>
@@ -38645,7 +38645,7 @@
     </row>
     <row r="616" spans="1:14">
       <c r="A616" s="1">
-        <v>2795</v>
+        <v>3404</v>
       </c>
       <c r="B616" t="s">
         <v>630</v>
@@ -38686,7 +38686,7 @@
     </row>
     <row r="617" spans="1:14">
       <c r="A617" s="1">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B617" t="s">
         <v>631</v>
@@ -38727,7 +38727,7 @@
     </row>
     <row r="618" spans="1:14">
       <c r="A618" s="1">
-        <v>3447</v>
+        <v>4189</v>
       </c>
       <c r="B618" t="s">
         <v>632</v>
@@ -38768,7 +38768,7 @@
     </row>
     <row r="619" spans="1:14">
       <c r="A619" s="1">
-        <v>3420</v>
+        <v>4159</v>
       </c>
       <c r="B619" t="s">
         <v>633</v>
@@ -38809,7 +38809,7 @@
     </row>
     <row r="620" spans="1:14">
       <c r="A620" s="1">
-        <v>1199</v>
+        <v>1473</v>
       </c>
       <c r="B620" t="s">
         <v>634</v>
@@ -38850,7 +38850,7 @@
     </row>
     <row r="621" spans="1:14">
       <c r="A621" s="1">
-        <v>1631</v>
+        <v>1981</v>
       </c>
       <c r="B621" t="s">
         <v>635</v>
@@ -38891,7 +38891,7 @@
     </row>
     <row r="622" spans="1:14">
       <c r="A622" s="1">
-        <v>883</v>
+        <v>1078</v>
       </c>
       <c r="B622" t="s">
         <v>636</v>
@@ -38932,7 +38932,7 @@
     </row>
     <row r="623" spans="1:14">
       <c r="A623" s="1">
-        <v>546</v>
+        <v>665</v>
       </c>
       <c r="B623" t="s">
         <v>637</v>
@@ -38973,7 +38973,7 @@
     </row>
     <row r="624" spans="1:14">
       <c r="A624" s="1">
-        <v>3298</v>
+        <v>4009</v>
       </c>
       <c r="B624" t="s">
         <v>638</v>
@@ -39014,7 +39014,7 @@
     </row>
     <row r="625" spans="1:14">
       <c r="A625" s="1">
-        <v>5092</v>
+        <v>6206</v>
       </c>
       <c r="B625" t="s">
         <v>639</v>
@@ -39055,7 +39055,7 @@
     </row>
     <row r="626" spans="1:14">
       <c r="A626" s="1">
-        <v>2992</v>
+        <v>3644</v>
       </c>
       <c r="B626" t="s">
         <v>640</v>
@@ -39096,7 +39096,7 @@
     </row>
     <row r="627" spans="1:14">
       <c r="A627" s="1">
-        <v>1428</v>
+        <v>1741</v>
       </c>
       <c r="B627" t="s">
         <v>641</v>
@@ -39137,7 +39137,7 @@
     </row>
     <row r="628" spans="1:14">
       <c r="A628" s="1">
-        <v>3180</v>
+        <v>3874</v>
       </c>
       <c r="B628" t="s">
         <v>642</v>
@@ -39178,7 +39178,7 @@
     </row>
     <row r="629" spans="1:14">
       <c r="A629" s="1">
-        <v>2478</v>
+        <v>2999</v>
       </c>
       <c r="B629" t="s">
         <v>643</v>
@@ -39219,7 +39219,7 @@
     </row>
     <row r="630" spans="1:14">
       <c r="A630" s="1">
-        <v>1254</v>
+        <v>1538</v>
       </c>
       <c r="B630" t="s">
         <v>644</v>
@@ -39260,7 +39260,7 @@
     </row>
     <row r="631" spans="1:14">
       <c r="A631" s="1">
-        <v>3100</v>
+        <v>3774</v>
       </c>
       <c r="B631" t="s">
         <v>645</v>
@@ -39301,7 +39301,7 @@
     </row>
     <row r="632" spans="1:14">
       <c r="A632" s="1">
-        <v>2841</v>
+        <v>3459</v>
       </c>
       <c r="B632" t="s">
         <v>646</v>
@@ -39342,7 +39342,7 @@
     </row>
     <row r="633" spans="1:14">
       <c r="A633" s="1">
-        <v>2693</v>
+        <v>3275</v>
       </c>
       <c r="B633" t="s">
         <v>647</v>
@@ -39383,7 +39383,7 @@
     </row>
     <row r="634" spans="1:14">
       <c r="A634" s="1">
-        <v>2027</v>
+        <v>2452</v>
       </c>
       <c r="B634" t="s">
         <v>648</v>
@@ -39424,7 +39424,7 @@
     </row>
     <row r="635" spans="1:14">
       <c r="A635" s="1">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="B635" t="s">
         <v>649</v>
@@ -39465,7 +39465,7 @@
     </row>
     <row r="636" spans="1:14">
       <c r="A636" s="1">
-        <v>1396</v>
+        <v>1699</v>
       </c>
       <c r="B636" t="s">
         <v>650</v>
@@ -39506,7 +39506,7 @@
     </row>
     <row r="637" spans="1:14">
       <c r="A637" s="1">
-        <v>2530</v>
+        <v>3061</v>
       </c>
       <c r="B637" t="s">
         <v>651</v>
@@ -39547,7 +39547,7 @@
     </row>
     <row r="638" spans="1:14">
       <c r="A638" s="1">
-        <v>887</v>
+        <v>1083</v>
       </c>
       <c r="B638" t="s">
         <v>652</v>
@@ -39588,7 +39588,7 @@
     </row>
     <row r="639" spans="1:14">
       <c r="A639" s="1">
-        <v>2180</v>
+        <v>2639</v>
       </c>
       <c r="B639" t="s">
         <v>653</v>
@@ -39629,7 +39629,7 @@
     </row>
     <row r="640" spans="1:14">
       <c r="A640" s="1">
-        <v>2636</v>
+        <v>3199</v>
       </c>
       <c r="B640" t="s">
         <v>654</v>
@@ -39670,7 +39670,7 @@
     </row>
     <row r="641" spans="1:14">
       <c r="A641" s="1">
-        <v>1597</v>
+        <v>1940</v>
       </c>
       <c r="B641" t="s">
         <v>655</v>
@@ -39711,7 +39711,7 @@
     </row>
     <row r="642" spans="1:14">
       <c r="A642" s="1">
-        <v>4086</v>
+        <v>4982</v>
       </c>
       <c r="B642" t="s">
         <v>656</v>
@@ -39752,7 +39752,7 @@
     </row>
     <row r="643" spans="1:14">
       <c r="A643" s="1">
-        <v>4356</v>
+        <v>5319</v>
       </c>
       <c r="B643" t="s">
         <v>657</v>
@@ -39793,7 +39793,7 @@
     </row>
     <row r="644" spans="1:14">
       <c r="A644" s="1">
-        <v>3648</v>
+        <v>4444</v>
       </c>
       <c r="B644" t="s">
         <v>658</v>
@@ -39834,7 +39834,7 @@
     </row>
     <row r="645" spans="1:14">
       <c r="A645" s="1">
-        <v>5657</v>
+        <v>6870</v>
       </c>
       <c r="B645" t="s">
         <v>659</v>
@@ -39875,7 +39875,7 @@
     </row>
     <row r="646" spans="1:14">
       <c r="A646" s="1">
-        <v>5570</v>
+        <v>6769</v>
       </c>
       <c r="B646" t="s">
         <v>660</v>
@@ -39916,7 +39916,7 @@
     </row>
     <row r="647" spans="1:14">
       <c r="A647" s="1">
-        <v>4556</v>
+        <v>5561</v>
       </c>
       <c r="B647" t="s">
         <v>661</v>
@@ -39957,7 +39957,7 @@
     </row>
     <row r="648" spans="1:14">
       <c r="A648" s="1">
-        <v>4976</v>
+        <v>6064</v>
       </c>
       <c r="B648" t="s">
         <v>662</v>
@@ -39998,7 +39998,7 @@
     </row>
     <row r="649" spans="1:14">
       <c r="A649" s="1">
-        <v>4567</v>
+        <v>5574</v>
       </c>
       <c r="B649" t="s">
         <v>663</v>
@@ -40039,7 +40039,7 @@
     </row>
     <row r="650" spans="1:14">
       <c r="A650" s="1">
-        <v>5024</v>
+        <v>6122</v>
       </c>
       <c r="B650" t="s">
         <v>664</v>
@@ -40080,7 +40080,7 @@
     </row>
     <row r="651" spans="1:14">
       <c r="A651" s="1">
-        <v>711</v>
+        <v>864</v>
       </c>
       <c r="B651" t="s">
         <v>665</v>
@@ -40121,7 +40121,7 @@
     </row>
     <row r="652" spans="1:14">
       <c r="A652" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B652" t="s">
         <v>666</v>
@@ -40162,7 +40162,7 @@
     </row>
     <row r="653" spans="1:14">
       <c r="A653" s="1">
-        <v>3643</v>
+        <v>4437</v>
       </c>
       <c r="B653" t="s">
         <v>667</v>
@@ -40203,7 +40203,7 @@
     </row>
     <row r="654" spans="1:14">
       <c r="A654" s="1">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B654" t="s">
         <v>668</v>
@@ -40244,7 +40244,7 @@
     </row>
     <row r="655" spans="1:14">
       <c r="A655" s="1">
-        <v>2551</v>
+        <v>3089</v>
       </c>
       <c r="B655" t="s">
         <v>669</v>
@@ -40285,7 +40285,7 @@
     </row>
     <row r="656" spans="1:14">
       <c r="A656" s="1">
-        <v>2057</v>
+        <v>2487</v>
       </c>
       <c r="B656" t="s">
         <v>670</v>
@@ -40326,7 +40326,7 @@
     </row>
     <row r="657" spans="1:14">
       <c r="A657" s="1">
-        <v>3964</v>
+        <v>4838</v>
       </c>
       <c r="B657" t="s">
         <v>671</v>
@@ -40367,7 +40367,7 @@
     </row>
     <row r="658" spans="1:14">
       <c r="A658" s="1">
-        <v>515</v>
+        <v>623</v>
       </c>
       <c r="B658" t="s">
         <v>672</v>
@@ -40408,7 +40408,7 @@
     </row>
     <row r="659" spans="1:14">
       <c r="A659" s="1">
-        <v>4314</v>
+        <v>5272</v>
       </c>
       <c r="B659" t="s">
         <v>673</v>
@@ -40449,7 +40449,7 @@
     </row>
     <row r="660" spans="1:14">
       <c r="A660" s="1">
-        <v>3039</v>
+        <v>3699</v>
       </c>
       <c r="B660" t="s">
         <v>674</v>
@@ -40490,7 +40490,7 @@
     </row>
     <row r="661" spans="1:14">
       <c r="A661" s="1">
-        <v>1100</v>
+        <v>1346</v>
       </c>
       <c r="B661" t="s">
         <v>675</v>
@@ -40531,7 +40531,7 @@
     </row>
     <row r="662" spans="1:14">
       <c r="A662" s="1">
-        <v>4682</v>
+        <v>5711</v>
       </c>
       <c r="B662" t="s">
         <v>676</v>
@@ -40572,7 +40572,7 @@
     </row>
     <row r="663" spans="1:14">
       <c r="A663" s="1">
-        <v>2188</v>
+        <v>2649</v>
       </c>
       <c r="B663" t="s">
         <v>677</v>
@@ -40613,7 +40613,7 @@
     </row>
     <row r="664" spans="1:14">
       <c r="A664" s="1">
-        <v>757</v>
+        <v>918</v>
       </c>
       <c r="B664" t="s">
         <v>678</v>
@@ -40654,7 +40654,7 @@
     </row>
     <row r="665" spans="1:14">
       <c r="A665" s="1">
-        <v>1791</v>
+        <v>2167</v>
       </c>
       <c r="B665" t="s">
         <v>679</v>
@@ -40695,7 +40695,7 @@
     </row>
     <row r="666" spans="1:14">
       <c r="A666" s="1">
-        <v>2128</v>
+        <v>2571</v>
       </c>
       <c r="B666" t="s">
         <v>680</v>
@@ -40736,7 +40736,7 @@
     </row>
     <row r="667" spans="1:14">
       <c r="A667" s="1">
-        <v>777</v>
+        <v>944</v>
       </c>
       <c r="B667" t="s">
         <v>681</v>
@@ -40777,7 +40777,7 @@
     </row>
     <row r="668" spans="1:14">
       <c r="A668" s="1">
-        <v>1097</v>
+        <v>1343</v>
       </c>
       <c r="B668" t="s">
         <v>682</v>
@@ -40818,7 +40818,7 @@
     </row>
     <row r="669" spans="1:14">
       <c r="A669" s="1">
-        <v>4508</v>
+        <v>5506</v>
       </c>
       <c r="B669" t="s">
         <v>683</v>
@@ -40859,7 +40859,7 @@
     </row>
     <row r="670" spans="1:14">
       <c r="A670" s="1">
-        <v>4182</v>
+        <v>5104</v>
       </c>
       <c r="B670" t="s">
         <v>684</v>
@@ -40900,7 +40900,7 @@
     </row>
     <row r="671" spans="1:14">
       <c r="A671" s="1">
-        <v>4438</v>
+        <v>5420</v>
       </c>
       <c r="B671" t="s">
         <v>685</v>
@@ -40941,7 +40941,7 @@
     </row>
     <row r="672" spans="1:14">
       <c r="A672" s="1">
-        <v>1499</v>
+        <v>1824</v>
       </c>
       <c r="B672" t="s">
         <v>686</v>
@@ -40982,7 +40982,7 @@
     </row>
     <row r="673" spans="1:14">
       <c r="A673" s="1">
-        <v>5030</v>
+        <v>6128</v>
       </c>
       <c r="B673" t="s">
         <v>687</v>
@@ -41023,7 +41023,7 @@
     </row>
     <row r="674" spans="1:14">
       <c r="A674" s="1">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="B674" t="s">
         <v>688</v>
@@ -41064,7 +41064,7 @@
     </row>
     <row r="675" spans="1:14">
       <c r="A675" s="1">
-        <v>723</v>
+        <v>879</v>
       </c>
       <c r="B675" t="s">
         <v>689</v>
@@ -41105,7 +41105,7 @@
     </row>
     <row r="676" spans="1:14">
       <c r="A676" s="1">
-        <v>3923</v>
+        <v>4786</v>
       </c>
       <c r="B676" t="s">
         <v>690</v>
@@ -41146,7 +41146,7 @@
     </row>
     <row r="677" spans="1:14">
       <c r="A677" s="1">
-        <v>2069</v>
+        <v>2500</v>
       </c>
       <c r="B677" t="s">
         <v>691</v>
@@ -41187,7 +41187,7 @@
     </row>
     <row r="678" spans="1:14">
       <c r="A678" s="1">
-        <v>5567</v>
+        <v>6764</v>
       </c>
       <c r="B678" t="s">
         <v>692</v>
@@ -41228,7 +41228,7 @@
     </row>
     <row r="679" spans="1:14">
       <c r="A679" s="1">
-        <v>3825</v>
+        <v>4669</v>
       </c>
       <c r="B679" t="s">
         <v>693</v>
@@ -41269,7 +41269,7 @@
     </row>
     <row r="680" spans="1:14">
       <c r="A680" s="1">
-        <v>2150</v>
+        <v>2597</v>
       </c>
       <c r="B680" t="s">
         <v>694</v>
@@ -41310,7 +41310,7 @@
     </row>
     <row r="681" spans="1:14">
       <c r="A681" s="1">
-        <v>5312</v>
+        <v>6472</v>
       </c>
       <c r="B681" t="s">
         <v>695</v>
@@ -41351,7 +41351,7 @@
     </row>
     <row r="682" spans="1:14">
       <c r="A682" s="1">
-        <v>1610</v>
+        <v>1956</v>
       </c>
       <c r="B682" t="s">
         <v>696</v>
@@ -41392,7 +41392,7 @@
     </row>
     <row r="683" spans="1:14">
       <c r="A683" s="1">
-        <v>3870</v>
+        <v>4725</v>
       </c>
       <c r="B683" t="s">
         <v>697</v>
@@ -41433,7 +41433,7 @@
     </row>
     <row r="684" spans="1:14">
       <c r="A684" s="1">
-        <v>976</v>
+        <v>1195</v>
       </c>
       <c r="B684" t="s">
         <v>698</v>
@@ -41474,7 +41474,7 @@
     </row>
     <row r="685" spans="1:14">
       <c r="A685" s="1">
-        <v>3045</v>
+        <v>3705</v>
       </c>
       <c r="B685" t="s">
         <v>699</v>
@@ -41515,7 +41515,7 @@
     </row>
     <row r="686" spans="1:14">
       <c r="A686" s="1">
-        <v>4471</v>
+        <v>5463</v>
       </c>
       <c r="B686" t="s">
         <v>700</v>
@@ -41556,7 +41556,7 @@
     </row>
     <row r="687" spans="1:14">
       <c r="A687" s="1">
-        <v>5063</v>
+        <v>6166</v>
       </c>
       <c r="B687" t="s">
         <v>701</v>
@@ -41597,7 +41597,7 @@
     </row>
     <row r="688" spans="1:14">
       <c r="A688" s="1">
-        <v>4954</v>
+        <v>6037</v>
       </c>
       <c r="B688" t="s">
         <v>702</v>
@@ -41638,7 +41638,7 @@
     </row>
     <row r="689" spans="1:14">
       <c r="A689" s="1">
-        <v>4468</v>
+        <v>5457</v>
       </c>
       <c r="B689" t="s">
         <v>703</v>
@@ -41679,7 +41679,7 @@
     </row>
     <row r="690" spans="1:14">
       <c r="A690" s="1">
-        <v>470</v>
+        <v>571</v>
       </c>
       <c r="B690" t="s">
         <v>704</v>
@@ -41720,7 +41720,7 @@
     </row>
     <row r="691" spans="1:14">
       <c r="A691" s="1">
-        <v>4231</v>
+        <v>5170</v>
       </c>
       <c r="B691" t="s">
         <v>705</v>
@@ -41761,7 +41761,7 @@
     </row>
     <row r="692" spans="1:14">
       <c r="A692" s="1">
-        <v>1880</v>
+        <v>2277</v>
       </c>
       <c r="B692" t="s">
         <v>706</v>
@@ -41802,7 +41802,7 @@
     </row>
     <row r="693" spans="1:14">
       <c r="A693" s="1">
-        <v>3777</v>
+        <v>4612</v>
       </c>
       <c r="B693" t="s">
         <v>707</v>
@@ -41843,7 +41843,7 @@
     </row>
     <row r="694" spans="1:14">
       <c r="A694" s="1">
-        <v>3115</v>
+        <v>3792</v>
       </c>
       <c r="B694" t="s">
         <v>708</v>
@@ -41884,7 +41884,7 @@
     </row>
     <row r="695" spans="1:14">
       <c r="A695" s="1">
-        <v>2311</v>
+        <v>2796</v>
       </c>
       <c r="B695" t="s">
         <v>709</v>
@@ -41925,7 +41925,7 @@
     </row>
     <row r="696" spans="1:14">
       <c r="A696" s="1">
-        <v>886</v>
+        <v>1081</v>
       </c>
       <c r="B696" t="s">
         <v>710</v>
@@ -41966,7 +41966,7 @@
     </row>
     <row r="697" spans="1:14">
       <c r="A697" s="1">
-        <v>3493</v>
+        <v>4248</v>
       </c>
       <c r="B697" t="s">
         <v>711</v>
@@ -42007,7 +42007,7 @@
     </row>
     <row r="698" spans="1:14">
       <c r="A698" s="1">
-        <v>4347</v>
+        <v>5310</v>
       </c>
       <c r="B698" t="s">
         <v>712</v>
@@ -42048,7 +42048,7 @@
     </row>
     <row r="699" spans="1:14">
       <c r="A699" s="1">
-        <v>4326</v>
+        <v>5286</v>
       </c>
       <c r="B699" t="s">
         <v>713</v>
@@ -42089,7 +42089,7 @@
     </row>
     <row r="700" spans="1:14">
       <c r="A700" s="1">
-        <v>4904</v>
+        <v>5976</v>
       </c>
       <c r="B700" t="s">
         <v>714</v>
@@ -42130,7 +42130,7 @@
     </row>
     <row r="701" spans="1:14">
       <c r="A701" s="1">
-        <v>3481</v>
+        <v>4233</v>
       </c>
       <c r="B701" t="s">
         <v>715</v>
@@ -42171,7 +42171,7 @@
     </row>
     <row r="702" spans="1:14">
       <c r="A702" s="1">
-        <v>1862</v>
+        <v>2257</v>
       </c>
       <c r="B702" t="s">
         <v>716</v>
@@ -42212,7 +42212,7 @@
     </row>
     <row r="703" spans="1:14">
       <c r="A703" s="1">
-        <v>2598</v>
+        <v>3153</v>
       </c>
       <c r="B703" t="s">
         <v>717</v>
@@ -42253,7 +42253,7 @@
     </row>
     <row r="704" spans="1:14">
       <c r="A704" s="1">
-        <v>4421</v>
+        <v>5396</v>
       </c>
       <c r="B704" t="s">
         <v>718</v>
@@ -42294,7 +42294,7 @@
     </row>
     <row r="705" spans="1:14">
       <c r="A705" s="1">
-        <v>2389</v>
+        <v>2889</v>
       </c>
       <c r="B705" t="s">
         <v>719</v>
@@ -42335,7 +42335,7 @@
     </row>
     <row r="706" spans="1:14">
       <c r="A706" s="1">
-        <v>3838</v>
+        <v>4685</v>
       </c>
       <c r="B706" t="s">
         <v>720</v>
@@ -42376,7 +42376,7 @@
     </row>
     <row r="707" spans="1:14">
       <c r="A707" s="1">
-        <v>5676</v>
+        <v>6892</v>
       </c>
       <c r="B707" t="s">
         <v>721</v>
@@ -42417,7 +42417,7 @@
     </row>
     <row r="708" spans="1:14">
       <c r="A708" s="1">
-        <v>4477</v>
+        <v>5470</v>
       </c>
       <c r="B708" t="s">
         <v>722</v>
@@ -42458,7 +42458,7 @@
     </row>
     <row r="709" spans="1:14">
       <c r="A709" s="1">
-        <v>2321</v>
+        <v>2807</v>
       </c>
       <c r="B709" t="s">
         <v>723</v>
@@ -42499,7 +42499,7 @@
     </row>
     <row r="710" spans="1:14">
       <c r="A710" s="1">
-        <v>2832</v>
+        <v>3447</v>
       </c>
       <c r="B710" t="s">
         <v>724</v>
@@ -42540,7 +42540,7 @@
     </row>
     <row r="711" spans="1:14">
       <c r="A711" s="1">
-        <v>2704</v>
+        <v>3286</v>
       </c>
       <c r="B711" t="s">
         <v>725</v>
@@ -42581,7 +42581,7 @@
     </row>
     <row r="712" spans="1:14">
       <c r="A712" s="1">
-        <v>3564</v>
+        <v>4334</v>
       </c>
       <c r="B712" t="s">
         <v>726</v>
@@ -42622,7 +42622,7 @@
     </row>
     <row r="713" spans="1:14">
       <c r="A713" s="1">
-        <v>5360</v>
+        <v>6525</v>
       </c>
       <c r="B713" t="s">
         <v>727</v>
@@ -42663,7 +42663,7 @@
     </row>
     <row r="714" spans="1:14">
       <c r="A714" s="1">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="B714" t="s">
         <v>728</v>
@@ -42704,7 +42704,7 @@
     </row>
     <row r="715" spans="1:14">
       <c r="A715" s="1">
-        <v>4868</v>
+        <v>5935</v>
       </c>
       <c r="B715" t="s">
         <v>729</v>
@@ -42745,7 +42745,7 @@
     </row>
     <row r="716" spans="1:14">
       <c r="A716" s="1">
-        <v>4300</v>
+        <v>5253</v>
       </c>
       <c r="B716" t="s">
         <v>730</v>
@@ -42786,7 +42786,7 @@
     </row>
     <row r="717" spans="1:14">
       <c r="A717" s="1">
-        <v>4450</v>
+        <v>5432</v>
       </c>
       <c r="B717" t="s">
         <v>731</v>
@@ -42827,7 +42827,7 @@
     </row>
     <row r="718" spans="1:14">
       <c r="A718" s="1">
-        <v>665</v>
+        <v>810</v>
       </c>
       <c r="B718" t="s">
         <v>732</v>
@@ -42868,7 +42868,7 @@
     </row>
     <row r="719" spans="1:14">
       <c r="A719" s="1">
-        <v>3683</v>
+        <v>4489</v>
       </c>
       <c r="B719" t="s">
         <v>733</v>
@@ -42909,7 +42909,7 @@
     </row>
     <row r="720" spans="1:14">
       <c r="A720" s="1">
-        <v>3457</v>
+        <v>4206</v>
       </c>
       <c r="B720" t="s">
         <v>734</v>
@@ -42950,7 +42950,7 @@
     </row>
     <row r="721" spans="1:14">
       <c r="A721" s="1">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="B721" t="s">
         <v>735</v>
@@ -42991,7 +42991,7 @@
     </row>
     <row r="722" spans="1:14">
       <c r="A722" s="1">
-        <v>5621</v>
+        <v>6829</v>
       </c>
       <c r="B722" t="s">
         <v>736</v>
@@ -43032,7 +43032,7 @@
     </row>
     <row r="723" spans="1:14">
       <c r="A723" s="1">
-        <v>3747</v>
+        <v>4572</v>
       </c>
       <c r="B723" t="s">
         <v>737</v>
@@ -43073,7 +43073,7 @@
     </row>
     <row r="724" spans="1:14">
       <c r="A724" s="1">
-        <v>2218</v>
+        <v>2685</v>
       </c>
       <c r="B724" t="s">
         <v>738</v>
@@ -43114,7 +43114,7 @@
     </row>
     <row r="725" spans="1:14">
       <c r="A725" s="1">
-        <v>687</v>
+        <v>838</v>
       </c>
       <c r="B725" t="s">
         <v>739</v>
@@ -43155,7 +43155,7 @@
     </row>
     <row r="726" spans="1:14">
       <c r="A726" s="1">
-        <v>756</v>
+        <v>917</v>
       </c>
       <c r="B726" t="s">
         <v>740</v>
@@ -43196,7 +43196,7 @@
     </row>
     <row r="727" spans="1:14">
       <c r="A727" s="1">
-        <v>2679</v>
+        <v>3254</v>
       </c>
       <c r="B727" t="s">
         <v>741</v>
@@ -43237,7 +43237,7 @@
     </row>
     <row r="728" spans="1:14">
       <c r="A728" s="1">
-        <v>1225</v>
+        <v>1505</v>
       </c>
       <c r="B728" t="s">
         <v>742</v>
@@ -43278,7 +43278,7 @@
     </row>
     <row r="729" spans="1:14">
       <c r="A729" s="1">
-        <v>2848</v>
+        <v>3466</v>
       </c>
       <c r="B729" t="s">
         <v>743</v>
@@ -43319,7 +43319,7 @@
     </row>
     <row r="730" spans="1:14">
       <c r="A730" s="1">
-        <v>3733</v>
+        <v>4556</v>
       </c>
       <c r="B730" t="s">
         <v>744</v>
@@ -43360,7 +43360,7 @@
     </row>
     <row r="731" spans="1:14">
       <c r="A731" s="1">
-        <v>421</v>
+        <v>510</v>
       </c>
       <c r="B731" t="s">
         <v>745</v>
@@ -43401,7 +43401,7 @@
     </row>
     <row r="732" spans="1:14">
       <c r="A732" s="1">
-        <v>3840</v>
+        <v>4687</v>
       </c>
       <c r="B732" t="s">
         <v>746</v>
@@ -43442,7 +43442,7 @@
     </row>
     <row r="733" spans="1:14">
       <c r="A733" s="1">
-        <v>3726</v>
+        <v>4547</v>
       </c>
       <c r="B733" t="s">
         <v>747</v>
@@ -43483,7 +43483,7 @@
     </row>
     <row r="734" spans="1:14">
       <c r="A734" s="1">
-        <v>2397</v>
+        <v>2899</v>
       </c>
       <c r="B734" t="s">
         <v>748</v>
@@ -43524,7 +43524,7 @@
     </row>
     <row r="735" spans="1:14">
       <c r="A735" s="1">
-        <v>4663</v>
+        <v>5685</v>
       </c>
       <c r="B735" t="s">
         <v>749</v>
@@ -43565,7 +43565,7 @@
     </row>
     <row r="736" spans="1:14">
       <c r="A736" s="1">
-        <v>1234</v>
+        <v>1514</v>
       </c>
       <c r="B736" t="s">
         <v>750</v>
@@ -43606,7 +43606,7 @@
     </row>
     <row r="737" spans="1:14">
       <c r="A737" s="1">
-        <v>699</v>
+        <v>850</v>
       </c>
       <c r="B737" t="s">
         <v>751</v>
@@ -43647,7 +43647,7 @@
     </row>
     <row r="738" spans="1:14">
       <c r="A738" s="1">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="B738" t="s">
         <v>752</v>
@@ -43688,7 +43688,7 @@
     </row>
     <row r="739" spans="1:14">
       <c r="A739" s="1">
-        <v>4305</v>
+        <v>5260</v>
       </c>
       <c r="B739" t="s">
         <v>753</v>
@@ -43729,7 +43729,7 @@
     </row>
     <row r="740" spans="1:14">
       <c r="A740" s="1">
-        <v>3666</v>
+        <v>4466</v>
       </c>
       <c r="B740" t="s">
         <v>754</v>
@@ -43770,7 +43770,7 @@
     </row>
     <row r="741" spans="1:14">
       <c r="A741" s="1">
-        <v>1483</v>
+        <v>1806</v>
       </c>
       <c r="B741" t="s">
         <v>755</v>
@@ -43811,7 +43811,7 @@
     </row>
     <row r="742" spans="1:14">
       <c r="A742" s="1">
-        <v>1385</v>
+        <v>1683</v>
       </c>
       <c r="B742" t="s">
         <v>756</v>
@@ -43852,7 +43852,7 @@
     </row>
     <row r="743" spans="1:14">
       <c r="A743" s="1">
-        <v>2301</v>
+        <v>2781</v>
       </c>
       <c r="B743" t="s">
         <v>757</v>
@@ -43893,7 +43893,7 @@
     </row>
     <row r="744" spans="1:14">
       <c r="A744" s="1">
-        <v>2585</v>
+        <v>3133</v>
       </c>
       <c r="B744" t="s">
         <v>758</v>
@@ -43934,7 +43934,7 @@
     </row>
     <row r="745" spans="1:14">
       <c r="A745" s="1">
-        <v>3533</v>
+        <v>4297</v>
       </c>
       <c r="B745" t="s">
         <v>759</v>
@@ -43975,7 +43975,7 @@
     </row>
     <row r="746" spans="1:14">
       <c r="A746" s="1">
-        <v>5423</v>
+        <v>6598</v>
       </c>
       <c r="B746" t="s">
         <v>760</v>
@@ -44016,7 +44016,7 @@
     </row>
     <row r="747" spans="1:14">
       <c r="A747" s="1">
-        <v>1011</v>
+        <v>1239</v>
       </c>
       <c r="B747" t="s">
         <v>761</v>
@@ -44057,7 +44057,7 @@
     </row>
     <row r="748" spans="1:14">
       <c r="A748" s="1">
-        <v>2834</v>
+        <v>3449</v>
       </c>
       <c r="B748" t="s">
         <v>762</v>
@@ -44098,7 +44098,7 @@
     </row>
     <row r="749" spans="1:14">
       <c r="A749" s="1">
-        <v>3357</v>
+        <v>4084</v>
       </c>
       <c r="B749" t="s">
         <v>763</v>
@@ -44139,7 +44139,7 @@
     </row>
     <row r="750" spans="1:14">
       <c r="A750" s="1">
-        <v>4159</v>
+        <v>5071</v>
       </c>
       <c r="B750" t="s">
         <v>764</v>
@@ -44180,7 +44180,7 @@
     </row>
     <row r="751" spans="1:14">
       <c r="A751" s="1">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B751" t="s">
         <v>765</v>
@@ -44221,7 +44221,7 @@
     </row>
     <row r="752" spans="1:14">
       <c r="A752" s="1">
-        <v>2000</v>
+        <v>2421</v>
       </c>
       <c r="B752" t="s">
         <v>766</v>
@@ -44262,7 +44262,7 @@
     </row>
     <row r="753" spans="1:14">
       <c r="A753" s="1">
-        <v>2222</v>
+        <v>2689</v>
       </c>
       <c r="B753" t="s">
         <v>767</v>
@@ -44303,7 +44303,7 @@
     </row>
     <row r="754" spans="1:14">
       <c r="A754" s="1">
-        <v>1749</v>
+        <v>2116</v>
       </c>
       <c r="B754" t="s">
         <v>768</v>
@@ -44344,7 +44344,7 @@
     </row>
     <row r="755" spans="1:14">
       <c r="A755" s="1">
-        <v>3345</v>
+        <v>4069</v>
       </c>
       <c r="B755" t="s">
         <v>769</v>
@@ -44385,7 +44385,7 @@
     </row>
     <row r="756" spans="1:14">
       <c r="A756" s="1">
-        <v>2613</v>
+        <v>3173</v>
       </c>
       <c r="B756" t="s">
         <v>770</v>
@@ -44426,7 +44426,7 @@
     </row>
     <row r="757" spans="1:14">
       <c r="A757" s="1">
-        <v>2951</v>
+        <v>3590</v>
       </c>
       <c r="B757" t="s">
         <v>771</v>
@@ -44467,7 +44467,7 @@
     </row>
     <row r="758" spans="1:14">
       <c r="A758" s="1">
-        <v>508</v>
+        <v>614</v>
       </c>
       <c r="B758" t="s">
         <v>772</v>
@@ -44508,7 +44508,7 @@
     </row>
     <row r="759" spans="1:14">
       <c r="A759" s="1">
-        <v>4057</v>
+        <v>4949</v>
       </c>
       <c r="B759" t="s">
         <v>773</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="760" spans="1:14">
       <c r="A760" s="1">
-        <v>1561</v>
+        <v>1899</v>
       </c>
       <c r="B760" t="s">
         <v>774</v>
@@ -44590,7 +44590,7 @@
     </row>
     <row r="761" spans="1:14">
       <c r="A761" s="1">
-        <v>552</v>
+        <v>672</v>
       </c>
       <c r="B761" t="s">
         <v>775</v>
@@ -44631,7 +44631,7 @@
     </row>
     <row r="762" spans="1:14">
       <c r="A762" s="1">
-        <v>3159</v>
+        <v>3850</v>
       </c>
       <c r="B762" t="s">
         <v>776</v>
@@ -44672,7 +44672,7 @@
     </row>
     <row r="763" spans="1:14">
       <c r="A763" s="1">
-        <v>1537</v>
+        <v>1868</v>
       </c>
       <c r="B763" t="s">
         <v>777</v>
@@ -44713,7 +44713,7 @@
     </row>
     <row r="764" spans="1:14">
       <c r="A764" s="1">
-        <v>4913</v>
+        <v>5989</v>
       </c>
       <c r="B764" t="s">
         <v>778</v>
@@ -44754,7 +44754,7 @@
     </row>
     <row r="765" spans="1:14">
       <c r="A765" s="1">
-        <v>3190</v>
+        <v>3884</v>
       </c>
       <c r="B765" t="s">
         <v>779</v>
@@ -44795,7 +44795,7 @@
     </row>
     <row r="766" spans="1:14">
       <c r="A766" s="1">
-        <v>1392</v>
+        <v>1694</v>
       </c>
       <c r="B766" t="s">
         <v>780</v>
@@ -44836,7 +44836,7 @@
     </row>
     <row r="767" spans="1:14">
       <c r="A767" s="1">
-        <v>4441</v>
+        <v>5423</v>
       </c>
       <c r="B767" t="s">
         <v>781</v>
@@ -44877,7 +44877,7 @@
     </row>
     <row r="768" spans="1:14">
       <c r="A768" s="1">
-        <v>4470</v>
+        <v>5460</v>
       </c>
       <c r="B768" t="s">
         <v>782</v>
@@ -44918,7 +44918,7 @@
     </row>
     <row r="769" spans="1:14">
       <c r="A769" s="1">
-        <v>1951</v>
+        <v>2360</v>
       </c>
       <c r="B769" t="s">
         <v>783</v>
@@ -44959,7 +44959,7 @@
     </row>
     <row r="770" spans="1:14">
       <c r="A770" s="1">
-        <v>4537</v>
+        <v>5539</v>
       </c>
       <c r="B770" t="s">
         <v>784</v>
@@ -45000,7 +45000,7 @@
     </row>
     <row r="771" spans="1:14">
       <c r="A771" s="1">
-        <v>1306</v>
+        <v>1594</v>
       </c>
       <c r="B771" t="s">
         <v>785</v>
@@ -45041,7 +45041,7 @@
     </row>
     <row r="772" spans="1:14">
       <c r="A772" s="1">
-        <v>3140</v>
+        <v>3827</v>
       </c>
       <c r="B772" t="s">
         <v>786</v>
@@ -45082,7 +45082,7 @@
     </row>
     <row r="773" spans="1:14">
       <c r="A773" s="1">
-        <v>1280</v>
+        <v>1565</v>
       </c>
       <c r="B773" t="s">
         <v>787</v>
@@ -45123,7 +45123,7 @@
     </row>
     <row r="774" spans="1:14">
       <c r="A774" s="1">
-        <v>1634</v>
+        <v>1986</v>
       </c>
       <c r="B774" t="s">
         <v>788</v>
@@ -45164,7 +45164,7 @@
     </row>
     <row r="775" spans="1:14">
       <c r="A775" s="1">
-        <v>2168</v>
+        <v>2625</v>
       </c>
       <c r="B775" t="s">
         <v>789</v>
@@ -45205,7 +45205,7 @@
     </row>
     <row r="776" spans="1:14">
       <c r="A776" s="1">
-        <v>3195</v>
+        <v>3891</v>
       </c>
       <c r="B776" t="s">
         <v>790</v>
@@ -45246,7 +45246,7 @@
     </row>
     <row r="777" spans="1:14">
       <c r="A777" s="1">
-        <v>1699</v>
+        <v>2059</v>
       </c>
       <c r="B777" t="s">
         <v>791</v>
@@ -45287,7 +45287,7 @@
     </row>
     <row r="778" spans="1:14">
       <c r="A778" s="1">
-        <v>2796</v>
+        <v>3405</v>
       </c>
       <c r="B778" t="s">
         <v>792</v>
@@ -45328,7 +45328,7 @@
     </row>
     <row r="779" spans="1:14">
       <c r="A779" s="1">
-        <v>1133</v>
+        <v>1388</v>
       </c>
       <c r="B779" t="s">
         <v>793</v>
@@ -45369,7 +45369,7 @@
     </row>
     <row r="780" spans="1:14">
       <c r="A780" s="1">
-        <v>3512</v>
+        <v>4272</v>
       </c>
       <c r="B780" t="s">
         <v>794</v>
@@ -45410,7 +45410,7 @@
     </row>
     <row r="781" spans="1:14">
       <c r="A781" s="1">
-        <v>4828</v>
+        <v>5886</v>
       </c>
       <c r="B781" t="s">
         <v>795</v>
@@ -45451,7 +45451,7 @@
     </row>
     <row r="782" spans="1:14">
       <c r="A782" s="1">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="B782" t="s">
         <v>796</v>
@@ -45492,7 +45492,7 @@
     </row>
     <row r="783" spans="1:14">
       <c r="A783" s="1">
-        <v>4091</v>
+        <v>4989</v>
       </c>
       <c r="B783" t="s">
         <v>797</v>
@@ -45533,7 +45533,7 @@
     </row>
     <row r="784" spans="1:14">
       <c r="A784" s="1">
-        <v>4108</v>
+        <v>5009</v>
       </c>
       <c r="B784" t="s">
         <v>798</v>
@@ -45574,7 +45574,7 @@
     </row>
     <row r="785" spans="1:14">
       <c r="A785" s="1">
-        <v>1797</v>
+        <v>2174</v>
       </c>
       <c r="B785" t="s">
         <v>799</v>
@@ -45615,7 +45615,7 @@
     </row>
     <row r="786" spans="1:14">
       <c r="A786" s="1">
-        <v>1359</v>
+        <v>1653</v>
       </c>
       <c r="B786" t="s">
         <v>800</v>
@@ -45656,7 +45656,7 @@
     </row>
     <row r="787" spans="1:14">
       <c r="A787" s="1">
-        <v>2623</v>
+        <v>3185</v>
       </c>
       <c r="B787" t="s">
         <v>801</v>
@@ -45697,7 +45697,7 @@
     </row>
     <row r="788" spans="1:14">
       <c r="A788" s="1">
-        <v>3514</v>
+        <v>4275</v>
       </c>
       <c r="B788" t="s">
         <v>802</v>
@@ -45738,7 +45738,7 @@
     </row>
     <row r="789" spans="1:14">
       <c r="A789" s="1">
-        <v>2804</v>
+        <v>3414</v>
       </c>
       <c r="B789" t="s">
         <v>803</v>
@@ -45779,7 +45779,7 @@
     </row>
     <row r="790" spans="1:14">
       <c r="A790" s="1">
-        <v>4422</v>
+        <v>5397</v>
       </c>
       <c r="B790" t="s">
         <v>804</v>
@@ -45820,7 +45820,7 @@
     </row>
     <row r="791" spans="1:14">
       <c r="A791" s="1">
-        <v>4225</v>
+        <v>5160</v>
       </c>
       <c r="B791" t="s">
         <v>805</v>
@@ -45861,7 +45861,7 @@
     </row>
     <row r="792" spans="1:14">
       <c r="A792" s="1">
-        <v>5162</v>
+        <v>6289</v>
       </c>
       <c r="B792" t="s">
         <v>806</v>
@@ -45902,7 +45902,7 @@
     </row>
     <row r="793" spans="1:14">
       <c r="A793" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B793" t="s">
         <v>807</v>
@@ -45943,7 +45943,7 @@
     </row>
     <row r="794" spans="1:14">
       <c r="A794" s="1">
-        <v>3637</v>
+        <v>4428</v>
       </c>
       <c r="B794" t="s">
         <v>808</v>
@@ -45984,7 +45984,7 @@
     </row>
     <row r="795" spans="1:14">
       <c r="A795" s="1">
-        <v>2385</v>
+        <v>2885</v>
       </c>
       <c r="B795" t="s">
         <v>809</v>
@@ -46025,7 +46025,7 @@
     </row>
     <row r="796" spans="1:14">
       <c r="A796" s="1">
-        <v>1494</v>
+        <v>1818</v>
       </c>
       <c r="B796" t="s">
         <v>810</v>
@@ -46066,7 +46066,7 @@
     </row>
     <row r="797" spans="1:14">
       <c r="A797" s="1">
-        <v>4729</v>
+        <v>5765</v>
       </c>
       <c r="B797" t="s">
         <v>811</v>
@@ -46107,7 +46107,7 @@
     </row>
     <row r="798" spans="1:14">
       <c r="A798" s="1">
-        <v>4979</v>
+        <v>6067</v>
       </c>
       <c r="B798" t="s">
         <v>812</v>
@@ -46148,7 +46148,7 @@
     </row>
     <row r="799" spans="1:14">
       <c r="A799" s="1">
-        <v>4739</v>
+        <v>5778</v>
       </c>
       <c r="B799" t="s">
         <v>813</v>
@@ -46189,7 +46189,7 @@
     </row>
     <row r="800" spans="1:14">
       <c r="A800" s="1">
-        <v>4425</v>
+        <v>5402</v>
       </c>
       <c r="B800" t="s">
         <v>814</v>
@@ -46230,7 +46230,7 @@
     </row>
     <row r="801" spans="1:14">
       <c r="A801" s="1">
-        <v>3309</v>
+        <v>4024</v>
       </c>
       <c r="B801" t="s">
         <v>815</v>
@@ -46271,7 +46271,7 @@
     </row>
     <row r="802" spans="1:14">
       <c r="A802" s="1">
-        <v>449</v>
+        <v>548</v>
       </c>
       <c r="B802" t="s">
         <v>816</v>
@@ -46312,7 +46312,7 @@
     </row>
     <row r="803" spans="1:14">
       <c r="A803" s="1">
-        <v>867</v>
+        <v>1059</v>
       </c>
       <c r="B803" t="s">
         <v>817</v>
@@ -46353,7 +46353,7 @@
     </row>
     <row r="804" spans="1:14">
       <c r="A804" s="1">
-        <v>576</v>
+        <v>701</v>
       </c>
       <c r="B804" t="s">
         <v>818</v>
@@ -46394,7 +46394,7 @@
     </row>
     <row r="805" spans="1:14">
       <c r="A805" s="1">
-        <v>1511</v>
+        <v>1839</v>
       </c>
       <c r="B805" t="s">
         <v>819</v>
@@ -46435,7 +46435,7 @@
     </row>
     <row r="806" spans="1:14">
       <c r="A806" s="1">
-        <v>3549</v>
+        <v>4316</v>
       </c>
       <c r="B806" t="s">
         <v>820</v>
@@ -46476,7 +46476,7 @@
     </row>
     <row r="807" spans="1:14">
       <c r="A807" s="1">
-        <v>3233</v>
+        <v>3934</v>
       </c>
       <c r="B807" t="s">
         <v>821</v>
@@ -46517,7 +46517,7 @@
     </row>
     <row r="808" spans="1:14">
       <c r="A808" s="1">
-        <v>2582</v>
+        <v>3129</v>
       </c>
       <c r="B808" t="s">
         <v>822</v>
@@ -46558,7 +46558,7 @@
     </row>
     <row r="809" spans="1:14">
       <c r="A809" s="1">
-        <v>477</v>
+        <v>580</v>
       </c>
       <c r="B809" t="s">
         <v>823</v>
@@ -46599,7 +46599,7 @@
     </row>
     <row r="810" spans="1:14">
       <c r="A810" s="1">
-        <v>2904</v>
+        <v>3533</v>
       </c>
       <c r="B810" t="s">
         <v>824</v>
@@ -46640,7 +46640,7 @@
     </row>
     <row r="811" spans="1:14">
       <c r="A811" s="1">
-        <v>3828</v>
+        <v>4672</v>
       </c>
       <c r="B811" t="s">
         <v>825</v>
@@ -46681,7 +46681,7 @@
     </row>
     <row r="812" spans="1:14">
       <c r="A812" s="1">
-        <v>5588</v>
+        <v>6790</v>
       </c>
       <c r="B812" t="s">
         <v>826</v>
@@ -46722,7 +46722,7 @@
     </row>
     <row r="813" spans="1:14">
       <c r="A813" s="1">
-        <v>1233</v>
+        <v>1513</v>
       </c>
       <c r="B813" t="s">
         <v>827</v>
@@ -46763,7 +46763,7 @@
     </row>
     <row r="814" spans="1:14">
       <c r="A814" s="1">
-        <v>4241</v>
+        <v>5182</v>
       </c>
       <c r="B814" t="s">
         <v>828</v>
@@ -46804,7 +46804,7 @@
     </row>
     <row r="815" spans="1:14">
       <c r="A815" s="1">
-        <v>1485</v>
+        <v>1808</v>
       </c>
       <c r="B815" t="s">
         <v>829</v>
@@ -46845,7 +46845,7 @@
     </row>
     <row r="816" spans="1:14">
       <c r="A816" s="1">
-        <v>4224</v>
+        <v>5159</v>
       </c>
       <c r="B816" t="s">
         <v>830</v>
@@ -46886,7 +46886,7 @@
     </row>
     <row r="817" spans="1:14">
       <c r="A817" s="1">
-        <v>5200</v>
+        <v>6336</v>
       </c>
       <c r="B817" t="s">
         <v>831</v>
@@ -46927,7 +46927,7 @@
     </row>
     <row r="818" spans="1:14">
       <c r="A818" s="1">
-        <v>5575</v>
+        <v>6774</v>
       </c>
       <c r="B818" t="s">
         <v>832</v>
@@ -46968,7 +46968,7 @@
     </row>
     <row r="819" spans="1:14">
       <c r="A819" s="1">
-        <v>3452</v>
+        <v>4196</v>
       </c>
       <c r="B819" t="s">
         <v>833</v>
@@ -47009,7 +47009,7 @@
     </row>
     <row r="820" spans="1:14">
       <c r="A820" s="1">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="B820" t="s">
         <v>834</v>
@@ -47050,7 +47050,7 @@
     </row>
     <row r="821" spans="1:14">
       <c r="A821" s="1">
-        <v>2330</v>
+        <v>2819</v>
       </c>
       <c r="B821" t="s">
         <v>835</v>
@@ -47091,7 +47091,7 @@
     </row>
     <row r="822" spans="1:14">
       <c r="A822" s="1">
-        <v>1231</v>
+        <v>1511</v>
       </c>
       <c r="B822" t="s">
         <v>836</v>
@@ -47132,7 +47132,7 @@
     </row>
     <row r="823" spans="1:14">
       <c r="A823" s="1">
-        <v>4653</v>
+        <v>5673</v>
       </c>
       <c r="B823" t="s">
         <v>837</v>
@@ -47173,7 +47173,7 @@
     </row>
     <row r="824" spans="1:14">
       <c r="A824" s="1">
-        <v>1139</v>
+        <v>1395</v>
       </c>
       <c r="B824" t="s">
         <v>838</v>
@@ -47214,7 +47214,7 @@
     </row>
     <row r="825" spans="1:14">
       <c r="A825" s="1">
-        <v>3709</v>
+        <v>4524</v>
       </c>
       <c r="B825" t="s">
         <v>839</v>
@@ -47255,7 +47255,7 @@
     </row>
     <row r="826" spans="1:14">
       <c r="A826" s="1">
-        <v>1181</v>
+        <v>1450</v>
       </c>
       <c r="B826" t="s">
         <v>840</v>
@@ -47296,7 +47296,7 @@
     </row>
     <row r="827" spans="1:14">
       <c r="A827" s="1">
-        <v>1999</v>
+        <v>2419</v>
       </c>
       <c r="B827" t="s">
         <v>841</v>
@@ -47337,7 +47337,7 @@
     </row>
     <row r="828" spans="1:14">
       <c r="A828" s="1">
-        <v>398</v>
+        <v>482</v>
       </c>
       <c r="B828" t="s">
         <v>842</v>
@@ -47378,7 +47378,7 @@
     </row>
     <row r="829" spans="1:14">
       <c r="A829" s="1">
-        <v>1372</v>
+        <v>1666</v>
       </c>
       <c r="B829" t="s">
         <v>843</v>
@@ -47419,7 +47419,7 @@
     </row>
     <row r="830" spans="1:14">
       <c r="A830" s="1">
-        <v>1910</v>
+        <v>2311</v>
       </c>
       <c r="B830" t="s">
         <v>844</v>
@@ -47460,7 +47460,7 @@
     </row>
     <row r="831" spans="1:14">
       <c r="A831" s="1">
-        <v>5685</v>
+        <v>6902</v>
       </c>
       <c r="B831" t="s">
         <v>845</v>
@@ -47501,7 +47501,7 @@
     </row>
     <row r="832" spans="1:14">
       <c r="A832" s="1">
-        <v>4246</v>
+        <v>5189</v>
       </c>
       <c r="B832" t="s">
         <v>846</v>
@@ -47542,7 +47542,7 @@
     </row>
     <row r="833" spans="1:14">
       <c r="A833" s="1">
-        <v>2852</v>
+        <v>3471</v>
       </c>
       <c r="B833" t="s">
         <v>847</v>
@@ -47583,7 +47583,7 @@
     </row>
     <row r="834" spans="1:14">
       <c r="A834" s="1">
-        <v>3291</v>
+        <v>4001</v>
       </c>
       <c r="B834" t="s">
         <v>848</v>
@@ -47624,7 +47624,7 @@
     </row>
     <row r="835" spans="1:14">
       <c r="A835" s="1">
-        <v>2900</v>
+        <v>3529</v>
       </c>
       <c r="B835" t="s">
         <v>849</v>
@@ -47665,7 +47665,7 @@
     </row>
     <row r="836" spans="1:14">
       <c r="A836" s="1">
-        <v>3908</v>
+        <v>4767</v>
       </c>
       <c r="B836" t="s">
         <v>850</v>
@@ -47706,7 +47706,7 @@
     </row>
     <row r="837" spans="1:14">
       <c r="A837" s="1">
-        <v>1368</v>
+        <v>1662</v>
       </c>
       <c r="B837" t="s">
         <v>851</v>
@@ -47747,7 +47747,7 @@
     </row>
     <row r="838" spans="1:14">
       <c r="A838" s="1">
-        <v>2360</v>
+        <v>2852</v>
       </c>
       <c r="B838" t="s">
         <v>852</v>
@@ -47788,7 +47788,7 @@
     </row>
     <row r="839" spans="1:14">
       <c r="A839" s="1">
-        <v>835</v>
+        <v>1022</v>
       </c>
       <c r="B839" t="s">
         <v>853</v>
@@ -47829,7 +47829,7 @@
     </row>
     <row r="840" spans="1:14">
       <c r="A840" s="1">
-        <v>1220</v>
+        <v>1498</v>
       </c>
       <c r="B840" t="s">
         <v>854</v>
@@ -47870,7 +47870,7 @@
     </row>
     <row r="841" spans="1:14">
       <c r="A841" s="1">
-        <v>843</v>
+        <v>1031</v>
       </c>
       <c r="B841" t="s">
         <v>855</v>
@@ -47911,7 +47911,7 @@
     </row>
     <row r="842" spans="1:14">
       <c r="A842" s="1">
-        <v>1642</v>
+        <v>1997</v>
       </c>
       <c r="B842" t="s">
         <v>856</v>
@@ -47952,7 +47952,7 @@
     </row>
     <row r="843" spans="1:14">
       <c r="A843" s="1">
-        <v>2589</v>
+        <v>3140</v>
       </c>
       <c r="B843" t="s">
         <v>857</v>
@@ -47993,7 +47993,7 @@
     </row>
     <row r="844" spans="1:14">
       <c r="A844" s="1">
-        <v>2405</v>
+        <v>2909</v>
       </c>
       <c r="B844" t="s">
         <v>858</v>
@@ -48034,7 +48034,7 @@
     </row>
     <row r="845" spans="1:14">
       <c r="A845" s="1">
-        <v>4833</v>
+        <v>5893</v>
       </c>
       <c r="B845" t="s">
         <v>859</v>
@@ -48075,7 +48075,7 @@
     </row>
     <row r="846" spans="1:14">
       <c r="A846" s="1">
-        <v>1069</v>
+        <v>1312</v>
       </c>
       <c r="B846" t="s">
         <v>860</v>
@@ -48116,7 +48116,7 @@
     </row>
     <row r="847" spans="1:14">
       <c r="A847" s="1">
-        <v>1922</v>
+        <v>2325</v>
       </c>
       <c r="B847" t="s">
         <v>861</v>
@@ -48157,7 +48157,7 @@
     </row>
     <row r="848" spans="1:14">
       <c r="A848" s="1">
-        <v>2235</v>
+        <v>2705</v>
       </c>
       <c r="B848" t="s">
         <v>862</v>
@@ -48198,7 +48198,7 @@
     </row>
     <row r="849" spans="1:14">
       <c r="A849" s="1">
-        <v>4501</v>
+        <v>5499</v>
       </c>
       <c r="B849" t="s">
         <v>863</v>
@@ -48239,7 +48239,7 @@
     </row>
     <row r="850" spans="1:14">
       <c r="A850" s="1">
-        <v>1253</v>
+        <v>1537</v>
       </c>
       <c r="B850" t="s">
         <v>864</v>
@@ -48280,7 +48280,7 @@
     </row>
     <row r="851" spans="1:14">
       <c r="A851" s="1">
-        <v>2669</v>
+        <v>3239</v>
       </c>
       <c r="B851" t="s">
         <v>865</v>
@@ -48321,7 +48321,7 @@
     </row>
     <row r="852" spans="1:14">
       <c r="A852" s="1">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B852" t="s">
         <v>866</v>
@@ -48362,7 +48362,7 @@
     </row>
     <row r="853" spans="1:14">
       <c r="A853" s="1">
-        <v>5256</v>
+        <v>6406</v>
       </c>
       <c r="B853" t="s">
         <v>867</v>
@@ -48403,7 +48403,7 @@
     </row>
     <row r="854" spans="1:14">
       <c r="A854" s="1">
-        <v>1627</v>
+        <v>1977</v>
       </c>
       <c r="B854" t="s">
         <v>868</v>
@@ -48444,7 +48444,7 @@
     </row>
     <row r="855" spans="1:14">
       <c r="A855" s="1">
-        <v>3575</v>
+        <v>4352</v>
       </c>
       <c r="B855" t="s">
         <v>869</v>
@@ -48485,7 +48485,7 @@
     </row>
     <row r="856" spans="1:14">
       <c r="A856" s="1">
-        <v>555</v>
+        <v>675</v>
       </c>
       <c r="B856" t="s">
         <v>870</v>
@@ -48526,7 +48526,7 @@
     </row>
     <row r="857" spans="1:14">
       <c r="A857" s="1">
-        <v>3987</v>
+        <v>4868</v>
       </c>
       <c r="B857" t="s">
         <v>871</v>
@@ -48567,7 +48567,7 @@
     </row>
     <row r="858" spans="1:14">
       <c r="A858" s="1">
-        <v>1182</v>
+        <v>1451</v>
       </c>
       <c r="B858" t="s">
         <v>872</v>
@@ -48608,7 +48608,7 @@
     </row>
     <row r="859" spans="1:14">
       <c r="A859" s="1">
-        <v>1397</v>
+        <v>1700</v>
       </c>
       <c r="B859" t="s">
         <v>873</v>
@@ -48649,7 +48649,7 @@
     </row>
     <row r="860" spans="1:14">
       <c r="A860" s="1">
-        <v>4482</v>
+        <v>5475</v>
       </c>
       <c r="B860" t="s">
         <v>874</v>
@@ -48690,7 +48690,7 @@
     </row>
     <row r="861" spans="1:14">
       <c r="A861" s="1">
-        <v>4812</v>
+        <v>5864</v>
       </c>
       <c r="B861" t="s">
         <v>875</v>
@@ -48731,7 +48731,7 @@
     </row>
     <row r="862" spans="1:14">
       <c r="A862" s="1">
-        <v>3241</v>
+        <v>3942</v>
       </c>
       <c r="B862" t="s">
         <v>876</v>
@@ -48772,7 +48772,7 @@
     </row>
     <row r="863" spans="1:14">
       <c r="A863" s="1">
-        <v>5005</v>
+        <v>6097</v>
       </c>
       <c r="B863" t="s">
         <v>877</v>
@@ -48813,7 +48813,7 @@
     </row>
     <row r="864" spans="1:14">
       <c r="A864" s="1">
-        <v>3690</v>
+        <v>4497</v>
       </c>
       <c r="B864" t="s">
         <v>878</v>
@@ -48854,7 +48854,7 @@
     </row>
     <row r="865" spans="1:14">
       <c r="A865" s="1">
-        <v>4627</v>
+        <v>5644</v>
       </c>
       <c r="B865" t="s">
         <v>879</v>
@@ -48895,7 +48895,7 @@
     </row>
     <row r="866" spans="1:14">
       <c r="A866" s="1">
-        <v>4092</v>
+        <v>4990</v>
       </c>
       <c r="B866" t="s">
         <v>880</v>
@@ -48936,7 +48936,7 @@
     </row>
     <row r="867" spans="1:14">
       <c r="A867" s="1">
-        <v>5330</v>
+        <v>6490</v>
       </c>
       <c r="B867" t="s">
         <v>881</v>
@@ -48977,7 +48977,7 @@
     </row>
     <row r="868" spans="1:14">
       <c r="A868" s="1">
-        <v>5536</v>
+        <v>6730</v>
       </c>
       <c r="B868" t="s">
         <v>882</v>
@@ -49018,7 +49018,7 @@
     </row>
     <row r="869" spans="1:14">
       <c r="A869" s="1">
-        <v>1352</v>
+        <v>1646</v>
       </c>
       <c r="B869" t="s">
         <v>883</v>
@@ -49059,7 +49059,7 @@
     </row>
     <row r="870" spans="1:14">
       <c r="A870" s="1">
-        <v>5038</v>
+        <v>6138</v>
       </c>
       <c r="B870" t="s">
         <v>884</v>
@@ -49100,7 +49100,7 @@
     </row>
     <row r="871" spans="1:14">
       <c r="A871" s="1">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="B871" t="s">
         <v>885</v>
@@ -49141,7 +49141,7 @@
     </row>
     <row r="872" spans="1:14">
       <c r="A872" s="1">
-        <v>1434</v>
+        <v>1748</v>
       </c>
       <c r="B872" t="s">
         <v>886</v>
@@ -49182,7 +49182,7 @@
     </row>
     <row r="873" spans="1:14">
       <c r="A873" s="1">
-        <v>2892</v>
+        <v>3520</v>
       </c>
       <c r="B873" t="s">
         <v>887</v>
@@ -49223,7 +49223,7 @@
     </row>
     <row r="874" spans="1:14">
       <c r="A874" s="1">
-        <v>2921</v>
+        <v>3552</v>
       </c>
       <c r="B874" t="s">
         <v>888</v>
@@ -49264,7 +49264,7 @@
     </row>
     <row r="875" spans="1:14">
       <c r="A875" s="1">
-        <v>1308</v>
+        <v>1596</v>
       </c>
       <c r="B875" t="s">
         <v>889</v>
@@ -49305,7 +49305,7 @@
     </row>
     <row r="876" spans="1:14">
       <c r="A876" s="1">
-        <v>3946</v>
+        <v>4813</v>
       </c>
       <c r="B876" t="s">
         <v>890</v>
@@ -49346,7 +49346,7 @@
     </row>
     <row r="877" spans="1:14">
       <c r="A877" s="1">
-        <v>3552</v>
+        <v>4319</v>
       </c>
       <c r="B877" t="s">
         <v>891</v>
@@ -49387,7 +49387,7 @@
     </row>
     <row r="878" spans="1:14">
       <c r="A878" s="1">
-        <v>2935</v>
+        <v>3572</v>
       </c>
       <c r="B878" t="s">
         <v>892</v>
@@ -49428,7 +49428,7 @@
     </row>
     <row r="879" spans="1:14">
       <c r="A879" s="1">
-        <v>1038</v>
+        <v>1272</v>
       </c>
       <c r="B879" t="s">
         <v>893</v>
@@ -49469,7 +49469,7 @@
     </row>
     <row r="880" spans="1:14">
       <c r="A880" s="1">
-        <v>5275</v>
+        <v>6427</v>
       </c>
       <c r="B880" t="s">
         <v>894</v>
@@ -49510,7 +49510,7 @@
     </row>
     <row r="881" spans="1:14">
       <c r="A881" s="1">
-        <v>2304</v>
+        <v>2784</v>
       </c>
       <c r="B881" t="s">
         <v>895</v>
@@ -49551,7 +49551,7 @@
     </row>
     <row r="882" spans="1:14">
       <c r="A882" s="1">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B882" t="s">
         <v>896</v>
@@ -49592,7 +49592,7 @@
     </row>
     <row r="883" spans="1:14">
       <c r="A883" s="1">
-        <v>3451</v>
+        <v>4195</v>
       </c>
       <c r="B883" t="s">
         <v>897</v>
@@ -49633,7 +49633,7 @@
     </row>
     <row r="884" spans="1:14">
       <c r="A884" s="1">
-        <v>4355</v>
+        <v>5318</v>
       </c>
       <c r="B884" t="s">
         <v>898</v>
@@ -49674,7 +49674,7 @@
     </row>
     <row r="885" spans="1:14">
       <c r="A885" s="1">
-        <v>2382</v>
+        <v>2881</v>
       </c>
       <c r="B885" t="s">
         <v>899</v>
@@ -49715,7 +49715,7 @@
     </row>
     <row r="886" spans="1:14">
       <c r="A886" s="1">
-        <v>2923</v>
+        <v>3555</v>
       </c>
       <c r="B886" t="s">
         <v>900</v>
@@ -49756,7 +49756,7 @@
     </row>
     <row r="887" spans="1:14">
       <c r="A887" s="1">
-        <v>4009</v>
+        <v>4894</v>
       </c>
       <c r="B887" t="s">
         <v>901</v>
@@ -49797,7 +49797,7 @@
     </row>
     <row r="888" spans="1:14">
       <c r="A888" s="1">
-        <v>590</v>
+        <v>719</v>
       </c>
       <c r="B888" t="s">
         <v>902</v>
@@ -49838,7 +49838,7 @@
     </row>
     <row r="889" spans="1:14">
       <c r="A889" s="1">
-        <v>1123</v>
+        <v>1375</v>
       </c>
       <c r="B889" t="s">
         <v>903</v>
@@ -49879,7 +49879,7 @@
     </row>
     <row r="890" spans="1:14">
       <c r="A890" s="1">
-        <v>3466</v>
+        <v>4217</v>
       </c>
       <c r="B890" t="s">
         <v>904</v>
@@ -49920,7 +49920,7 @@
     </row>
     <row r="891" spans="1:14">
       <c r="A891" s="1">
-        <v>5583</v>
+        <v>6785</v>
       </c>
       <c r="B891" t="s">
         <v>905</v>
@@ -49961,7 +49961,7 @@
     </row>
     <row r="892" spans="1:14">
       <c r="A892" s="1">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="B892" t="s">
         <v>906</v>
@@ -50002,7 +50002,7 @@
     </row>
     <row r="893" spans="1:14">
       <c r="A893" s="1">
-        <v>1469</v>
+        <v>1788</v>
       </c>
       <c r="B893" t="s">
         <v>907</v>
@@ -50043,7 +50043,7 @@
     </row>
     <row r="894" spans="1:14">
       <c r="A894" s="1">
-        <v>765</v>
+        <v>929</v>
       </c>
       <c r="B894" t="s">
         <v>908</v>
@@ -50084,7 +50084,7 @@
     </row>
     <row r="895" spans="1:14">
       <c r="A895" s="1">
-        <v>5108</v>
+        <v>6223</v>
       </c>
       <c r="B895" t="s">
         <v>909</v>
@@ -50125,7 +50125,7 @@
     </row>
     <row r="896" spans="1:14">
       <c r="A896" s="1">
-        <v>3988</v>
+        <v>4869</v>
       </c>
       <c r="B896" t="s">
         <v>910</v>
@@ -50166,7 +50166,7 @@
     </row>
     <row r="897" spans="1:14">
       <c r="A897" s="1">
-        <v>4418</v>
+        <v>5391</v>
       </c>
       <c r="B897" t="s">
         <v>911</v>
@@ -50207,7 +50207,7 @@
     </row>
     <row r="898" spans="1:14">
       <c r="A898" s="1">
-        <v>2866</v>
+        <v>3488</v>
       </c>
       <c r="B898" t="s">
         <v>912</v>
@@ -50248,7 +50248,7 @@
     </row>
     <row r="899" spans="1:14">
       <c r="A899" s="1">
-        <v>1091</v>
+        <v>1336</v>
       </c>
       <c r="B899" t="s">
         <v>913</v>
@@ -50289,7 +50289,7 @@
     </row>
     <row r="900" spans="1:14">
       <c r="A900" s="1">
-        <v>4561</v>
+        <v>5566</v>
       </c>
       <c r="B900" t="s">
         <v>914</v>
@@ -50330,7 +50330,7 @@
     </row>
     <row r="901" spans="1:14">
       <c r="A901" s="1">
-        <v>1780</v>
+        <v>2150</v>
       </c>
       <c r="B901" t="s">
         <v>915</v>
@@ -50371,7 +50371,7 @@
     </row>
     <row r="902" spans="1:14">
       <c r="A902" s="1">
-        <v>1030</v>
+        <v>1262</v>
       </c>
       <c r="B902" t="s">
         <v>916</v>
@@ -50412,7 +50412,7 @@
     </row>
     <row r="903" spans="1:14">
       <c r="A903" s="1">
-        <v>2563</v>
+        <v>3106</v>
       </c>
       <c r="B903" t="s">
         <v>917</v>
@@ -50453,7 +50453,7 @@
     </row>
     <row r="904" spans="1:14">
       <c r="A904" s="1">
-        <v>3279</v>
+        <v>3987</v>
       </c>
       <c r="B904" t="s">
         <v>918</v>
@@ -50494,7 +50494,7 @@
     </row>
     <row r="905" spans="1:14">
       <c r="A905" s="1">
-        <v>1594</v>
+        <v>1937</v>
       </c>
       <c r="B905" t="s">
         <v>919</v>
@@ -50535,7 +50535,7 @@
     </row>
     <row r="906" spans="1:14">
       <c r="A906" s="1">
-        <v>895</v>
+        <v>1092</v>
       </c>
       <c r="B906" t="s">
         <v>920</v>
@@ -50576,7 +50576,7 @@
     </row>
     <row r="907" spans="1:14">
       <c r="A907" s="1">
-        <v>5357</v>
+        <v>6522</v>
       </c>
       <c r="B907" t="s">
         <v>921</v>
@@ -50617,7 +50617,7 @@
     </row>
     <row r="908" spans="1:14">
       <c r="A908" s="1">
-        <v>1824</v>
+        <v>2207</v>
       </c>
       <c r="B908" t="s">
         <v>922</v>
@@ -50658,7 +50658,7 @@
     </row>
     <row r="909" spans="1:14">
       <c r="A909" s="1">
-        <v>4290</v>
+        <v>5241</v>
       </c>
       <c r="B909" t="s">
         <v>923</v>
@@ -50699,7 +50699,7 @@
     </row>
     <row r="910" spans="1:14">
       <c r="A910" s="1">
-        <v>1337</v>
+        <v>1629</v>
       </c>
       <c r="B910" t="s">
         <v>924</v>
@@ -50740,7 +50740,7 @@
     </row>
     <row r="911" spans="1:14">
       <c r="A911" s="1">
-        <v>4459</v>
+        <v>5441</v>
       </c>
       <c r="B911" t="s">
         <v>925</v>
@@ -50781,7 +50781,7 @@
     </row>
     <row r="912" spans="1:14">
       <c r="A912" s="1">
-        <v>2124</v>
+        <v>2567</v>
       </c>
       <c r="B912" t="s">
         <v>926</v>
@@ -50822,7 +50822,7 @@
     </row>
     <row r="913" spans="1:14">
       <c r="A913" s="1">
-        <v>896</v>
+        <v>1093</v>
       </c>
       <c r="B913" t="s">
         <v>927</v>
@@ -50863,7 +50863,7 @@
     </row>
     <row r="914" spans="1:14">
       <c r="A914" s="1">
-        <v>4805</v>
+        <v>5855</v>
       </c>
       <c r="B914" t="s">
         <v>928</v>
@@ -50904,7 +50904,7 @@
     </row>
     <row r="915" spans="1:14">
       <c r="A915" s="1">
-        <v>1417</v>
+        <v>1723</v>
       </c>
       <c r="B915" t="s">
         <v>929</v>
@@ -50945,7 +50945,7 @@
     </row>
     <row r="916" spans="1:14">
       <c r="A916" s="1">
-        <v>2131</v>
+        <v>2574</v>
       </c>
       <c r="B916" t="s">
         <v>930</v>
@@ -50986,7 +50986,7 @@
     </row>
     <row r="917" spans="1:14">
       <c r="A917" s="1">
-        <v>1374</v>
+        <v>1670</v>
       </c>
       <c r="B917" t="s">
         <v>931</v>
@@ -51027,7 +51027,7 @@
     </row>
     <row r="918" spans="1:14">
       <c r="A918" s="1">
-        <v>5226</v>
+        <v>6368</v>
       </c>
       <c r="B918" t="s">
         <v>932</v>
@@ -51068,7 +51068,7 @@
     </row>
     <row r="919" spans="1:14">
       <c r="A919" s="1">
-        <v>5304</v>
+        <v>6462</v>
       </c>
       <c r="B919" t="s">
         <v>933</v>
@@ -51109,7 +51109,7 @@
     </row>
     <row r="920" spans="1:14">
       <c r="A920" s="1">
-        <v>4250</v>
+        <v>5194</v>
       </c>
       <c r="B920" t="s">
         <v>934</v>
@@ -51150,7 +51150,7 @@
     </row>
     <row r="921" spans="1:14">
       <c r="A921" s="1">
-        <v>1981</v>
+        <v>2398</v>
       </c>
       <c r="B921" t="s">
         <v>935</v>
@@ -51191,7 +51191,7 @@
     </row>
     <row r="922" spans="1:14">
       <c r="A922" s="1">
-        <v>2240</v>
+        <v>2711</v>
       </c>
       <c r="B922" t="s">
         <v>936</v>
@@ -51232,7 +51232,7 @@
     </row>
     <row r="923" spans="1:14">
       <c r="A923" s="1">
-        <v>3980</v>
+        <v>4857</v>
       </c>
       <c r="B923" t="s">
         <v>937</v>
@@ -51273,7 +51273,7 @@
     </row>
     <row r="924" spans="1:14">
       <c r="A924" s="1">
-        <v>5501</v>
+        <v>6690</v>
       </c>
       <c r="B924" t="s">
         <v>938</v>
@@ -51314,7 +51314,7 @@
     </row>
     <row r="925" spans="1:14">
       <c r="A925" s="1">
-        <v>2444</v>
+        <v>2956</v>
       </c>
       <c r="B925" t="s">
         <v>939</v>
@@ -51355,7 +51355,7 @@
     </row>
     <row r="926" spans="1:14">
       <c r="A926" s="1">
-        <v>3490</v>
+        <v>4245</v>
       </c>
       <c r="B926" t="s">
         <v>940</v>
@@ -51396,7 +51396,7 @@
     </row>
     <row r="927" spans="1:14">
       <c r="A927" s="1">
-        <v>5267</v>
+        <v>6418</v>
       </c>
       <c r="B927" t="s">
         <v>941</v>
@@ -51437,7 +51437,7 @@
     </row>
     <row r="928" spans="1:14">
       <c r="A928" s="1">
-        <v>4580</v>
+        <v>5589</v>
       </c>
       <c r="B928" t="s">
         <v>942</v>
@@ -51478,7 +51478,7 @@
     </row>
     <row r="929" spans="1:14">
       <c r="A929" s="1">
-        <v>725</v>
+        <v>883</v>
       </c>
       <c r="B929" t="s">
         <v>943</v>
@@ -51519,7 +51519,7 @@
     </row>
     <row r="930" spans="1:14">
       <c r="A930" s="1">
-        <v>1633</v>
+        <v>1985</v>
       </c>
       <c r="B930" t="s">
         <v>944</v>
@@ -51560,7 +51560,7 @@
     </row>
     <row r="931" spans="1:14">
       <c r="A931" s="1">
-        <v>766</v>
+        <v>930</v>
       </c>
       <c r="B931" t="s">
         <v>945</v>
@@ -51601,7 +51601,7 @@
     </row>
     <row r="932" spans="1:14">
       <c r="A932" s="1">
-        <v>3534</v>
+        <v>4298</v>
       </c>
       <c r="B932" t="s">
         <v>946</v>
@@ -51642,7 +51642,7 @@
     </row>
     <row r="933" spans="1:14">
       <c r="A933" s="1">
-        <v>2318</v>
+        <v>2804</v>
       </c>
       <c r="B933" t="s">
         <v>947</v>
@@ -51683,7 +51683,7 @@
     </row>
     <row r="934" spans="1:14">
       <c r="A934" s="1">
-        <v>4599</v>
+        <v>5610</v>
       </c>
       <c r="B934" t="s">
         <v>948</v>
@@ -51724,7 +51724,7 @@
     </row>
     <row r="935" spans="1:14">
       <c r="A935" s="1">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B935" t="s">
         <v>949</v>
@@ -51765,7 +51765,7 @@
     </row>
     <row r="936" spans="1:14">
       <c r="A936" s="1">
-        <v>3262</v>
+        <v>3966</v>
       </c>
       <c r="B936" t="s">
         <v>950</v>
@@ -51806,7 +51806,7 @@
     </row>
     <row r="937" spans="1:14">
       <c r="A937" s="1">
-        <v>1722</v>
+        <v>2086</v>
       </c>
       <c r="B937" t="s">
         <v>951</v>
@@ -51847,7 +51847,7 @@
     </row>
     <row r="938" spans="1:14">
       <c r="A938" s="1">
-        <v>1052</v>
+        <v>1292</v>
       </c>
       <c r="B938" t="s">
         <v>952</v>
@@ -51888,7 +51888,7 @@
     </row>
     <row r="939" spans="1:14">
       <c r="A939" s="1">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="B939" t="s">
         <v>953</v>
@@ -51929,7 +51929,7 @@
     </row>
     <row r="940" spans="1:14">
       <c r="A940" s="1">
-        <v>4550</v>
+        <v>5553</v>
       </c>
       <c r="B940" t="s">
         <v>954</v>
@@ -51970,7 +51970,7 @@
     </row>
     <row r="941" spans="1:14">
       <c r="A941" s="1">
-        <v>3829</v>
+        <v>4675</v>
       </c>
       <c r="B941" t="s">
         <v>955</v>
@@ -52011,7 +52011,7 @@
     </row>
     <row r="942" spans="1:14">
       <c r="A942" s="1">
-        <v>2481</v>
+        <v>3002</v>
       </c>
       <c r="B942" t="s">
         <v>956</v>
@@ -52052,7 +52052,7 @@
     </row>
     <row r="943" spans="1:14">
       <c r="A943" s="1">
-        <v>1876</v>
+        <v>2273</v>
       </c>
       <c r="B943" t="s">
         <v>957</v>
@@ -52093,7 +52093,7 @@
     </row>
     <row r="944" spans="1:14">
       <c r="A944" s="1">
-        <v>733</v>
+        <v>892</v>
       </c>
       <c r="B944" t="s">
         <v>958</v>
@@ -52134,7 +52134,7 @@
     </row>
     <row r="945" spans="1:14">
       <c r="A945" s="1">
-        <v>2836</v>
+        <v>3453</v>
       </c>
       <c r="B945" t="s">
         <v>959</v>
@@ -52175,7 +52175,7 @@
     </row>
     <row r="946" spans="1:14">
       <c r="A946" s="1">
-        <v>4678</v>
+        <v>5703</v>
       </c>
       <c r="B946" t="s">
         <v>960</v>
@@ -52216,7 +52216,7 @@
     </row>
     <row r="947" spans="1:14">
       <c r="A947" s="1">
-        <v>5607</v>
+        <v>6815</v>
       </c>
       <c r="B947" t="s">
         <v>961</v>
@@ -52257,7 +52257,7 @@
     </row>
     <row r="948" spans="1:14">
       <c r="A948" s="1">
-        <v>3461</v>
+        <v>4210</v>
       </c>
       <c r="B948" t="s">
         <v>962</v>
@@ -52298,7 +52298,7 @@
     </row>
     <row r="949" spans="1:14">
       <c r="A949" s="1">
-        <v>4010</v>
+        <v>4895</v>
       </c>
       <c r="B949" t="s">
         <v>963</v>
@@ -52339,7 +52339,7 @@
     </row>
     <row r="950" spans="1:14">
       <c r="A950" s="1">
-        <v>4028</v>
+        <v>4916</v>
       </c>
       <c r="B950" t="s">
         <v>964</v>
@@ -52380,7 +52380,7 @@
     </row>
     <row r="951" spans="1:14">
       <c r="A951" s="1">
-        <v>1906</v>
+        <v>2306</v>
       </c>
       <c r="B951" t="s">
         <v>965</v>
@@ -52421,7 +52421,7 @@
     </row>
     <row r="952" spans="1:14">
       <c r="A952" s="1">
-        <v>5254</v>
+        <v>6404</v>
       </c>
       <c r="B952" t="s">
         <v>966</v>
@@ -52462,7 +52462,7 @@
     </row>
     <row r="953" spans="1:14">
       <c r="A953" s="1">
-        <v>2549</v>
+        <v>3087</v>
       </c>
       <c r="B953" t="s">
         <v>967</v>
@@ -52503,7 +52503,7 @@
     </row>
     <row r="954" spans="1:14">
       <c r="A954" s="1">
-        <v>4595</v>
+        <v>5606</v>
       </c>
       <c r="B954" t="s">
         <v>968</v>
@@ -52544,7 +52544,7 @@
     </row>
     <row r="955" spans="1:14">
       <c r="A955" s="1">
-        <v>531</v>
+        <v>647</v>
       </c>
       <c r="B955" t="s">
         <v>969</v>
@@ -52585,7 +52585,7 @@
     </row>
     <row r="956" spans="1:14">
       <c r="A956" s="1">
-        <v>4014</v>
+        <v>4899</v>
       </c>
       <c r="B956" t="s">
         <v>970</v>
@@ -52626,7 +52626,7 @@
     </row>
     <row r="957" spans="1:14">
       <c r="A957" s="1">
-        <v>3035</v>
+        <v>3695</v>
       </c>
       <c r="B957" t="s">
         <v>971</v>
@@ -52667,7 +52667,7 @@
     </row>
     <row r="958" spans="1:14">
       <c r="A958" s="1">
-        <v>2873</v>
+        <v>3497</v>
       </c>
       <c r="B958" t="s">
         <v>972</v>
@@ -52708,7 +52708,7 @@
     </row>
     <row r="959" spans="1:14">
       <c r="A959" s="1">
-        <v>5033</v>
+        <v>6132</v>
       </c>
       <c r="B959" t="s">
         <v>973</v>
@@ -52749,7 +52749,7 @@
     </row>
     <row r="960" spans="1:14">
       <c r="A960" s="1">
-        <v>1869</v>
+        <v>2265</v>
       </c>
       <c r="B960" t="s">
         <v>974</v>
@@ -52790,7 +52790,7 @@
     </row>
     <row r="961" spans="1:14">
       <c r="A961" s="1">
-        <v>4292</v>
+        <v>5244</v>
       </c>
       <c r="B961" t="s">
         <v>975</v>
@@ -52831,7 +52831,7 @@
     </row>
     <row r="962" spans="1:14">
       <c r="A962" s="1">
-        <v>1381</v>
+        <v>1678</v>
       </c>
       <c r="B962" t="s">
         <v>976</v>
@@ -52872,7 +52872,7 @@
     </row>
     <row r="963" spans="1:14">
       <c r="A963" s="1">
-        <v>5505</v>
+        <v>6694</v>
       </c>
       <c r="B963" t="s">
         <v>977</v>
@@ -52913,7 +52913,7 @@
     </row>
     <row r="964" spans="1:14">
       <c r="A964" s="1">
-        <v>4221</v>
+        <v>5155</v>
       </c>
       <c r="B964" t="s">
         <v>978</v>
@@ -52954,7 +52954,7 @@
     </row>
     <row r="965" spans="1:14">
       <c r="A965" s="1">
-        <v>1395</v>
+        <v>1697</v>
       </c>
       <c r="B965" t="s">
         <v>979</v>
@@ -52995,7 +52995,7 @@
     </row>
     <row r="966" spans="1:14">
       <c r="A966" s="1">
-        <v>596</v>
+        <v>725</v>
       </c>
       <c r="B966" t="s">
         <v>980</v>
@@ -53036,7 +53036,7 @@
     </row>
     <row r="967" spans="1:14">
       <c r="A967" s="1">
-        <v>1935</v>
+        <v>2340</v>
       </c>
       <c r="B967" t="s">
         <v>981</v>
@@ -53077,7 +53077,7 @@
     </row>
     <row r="968" spans="1:14">
       <c r="A968" s="1">
-        <v>5540</v>
+        <v>6736</v>
       </c>
       <c r="B968" t="s">
         <v>982</v>
@@ -53118,7 +53118,7 @@
     </row>
     <row r="969" spans="1:14">
       <c r="A969" s="1">
-        <v>3475</v>
+        <v>4227</v>
       </c>
       <c r="B969" t="s">
         <v>983</v>
@@ -53159,7 +53159,7 @@
     </row>
     <row r="970" spans="1:14">
       <c r="A970" s="1">
-        <v>4491</v>
+        <v>5485</v>
       </c>
       <c r="B970" t="s">
         <v>984</v>
@@ -53200,7 +53200,7 @@
     </row>
     <row r="971" spans="1:14">
       <c r="A971" s="1">
-        <v>2066</v>
+        <v>2497</v>
       </c>
       <c r="B971" t="s">
         <v>985</v>
@@ -53241,7 +53241,7 @@
     </row>
     <row r="972" spans="1:14">
       <c r="A972" s="1">
-        <v>4234</v>
+        <v>5173</v>
       </c>
       <c r="B972" t="s">
         <v>986</v>
@@ -53282,7 +53282,7 @@
     </row>
     <row r="973" spans="1:14">
       <c r="A973" s="1">
-        <v>1983</v>
+        <v>2401</v>
       </c>
       <c r="B973" t="s">
         <v>987</v>
@@ -53323,7 +53323,7 @@
     </row>
     <row r="974" spans="1:14">
       <c r="A974" s="1">
-        <v>2997</v>
+        <v>3649</v>
       </c>
       <c r="B974" t="s">
         <v>988</v>
@@ -53364,7 +53364,7 @@
     </row>
     <row r="975" spans="1:14">
       <c r="A975" s="1">
-        <v>1661</v>
+        <v>2017</v>
       </c>
       <c r="B975" t="s">
         <v>989</v>
@@ -53405,7 +53405,7 @@
     </row>
     <row r="976" spans="1:14">
       <c r="A976" s="1">
-        <v>4530</v>
+        <v>5530</v>
       </c>
       <c r="B976" t="s">
         <v>990</v>
@@ -53446,7 +53446,7 @@
     </row>
     <row r="977" spans="1:14">
       <c r="A977" s="1">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="B977" t="s">
         <v>991</v>
@@ -53487,7 +53487,7 @@
     </row>
     <row r="978" spans="1:14">
       <c r="A978" s="1">
-        <v>2277</v>
+        <v>2755</v>
       </c>
       <c r="B978" t="s">
         <v>992</v>
@@ -53528,7 +53528,7 @@
     </row>
     <row r="979" spans="1:14">
       <c r="A979" s="1">
-        <v>1616</v>
+        <v>1963</v>
       </c>
       <c r="B979" t="s">
         <v>993</v>
@@ -53569,7 +53569,7 @@
     </row>
     <row r="980" spans="1:14">
       <c r="A980" s="1">
-        <v>1078</v>
+        <v>1323</v>
       </c>
       <c r="B980" t="s">
         <v>994</v>
@@ -53610,7 +53610,7 @@
     </row>
     <row r="981" spans="1:14">
       <c r="A981" s="1">
-        <v>800</v>
+        <v>972</v>
       </c>
       <c r="B981" t="s">
         <v>995</v>
@@ -53651,7 +53651,7 @@
     </row>
     <row r="982" spans="1:14">
       <c r="A982" s="1">
-        <v>3028</v>
+        <v>3687</v>
       </c>
       <c r="B982" t="s">
         <v>996</v>
@@ -53692,7 +53692,7 @@
     </row>
     <row r="983" spans="1:14">
       <c r="A983" s="1">
-        <v>3488</v>
+        <v>4241</v>
       </c>
       <c r="B983" t="s">
         <v>997</v>
@@ -53733,7 +53733,7 @@
     </row>
     <row r="984" spans="1:14">
       <c r="A984" s="1">
-        <v>4725</v>
+        <v>5761</v>
       </c>
       <c r="B984" t="s">
         <v>998</v>
@@ -53774,7 +53774,7 @@
     </row>
     <row r="985" spans="1:14">
       <c r="A985" s="1">
-        <v>5217</v>
+        <v>6355</v>
       </c>
       <c r="B985" t="s">
         <v>999</v>
@@ -53815,7 +53815,7 @@
     </row>
     <row r="986" spans="1:14">
       <c r="A986" s="1">
-        <v>5641</v>
+        <v>6852</v>
       </c>
       <c r="B986" t="s">
         <v>1000</v>
@@ -53856,7 +53856,7 @@
     </row>
     <row r="987" spans="1:14">
       <c r="A987" s="1">
-        <v>4313</v>
+        <v>5271</v>
       </c>
       <c r="B987" t="s">
         <v>1001</v>
@@ -53897,7 +53897,7 @@
     </row>
     <row r="988" spans="1:14">
       <c r="A988" s="1">
-        <v>585</v>
+        <v>710</v>
       </c>
       <c r="B988" t="s">
         <v>1002</v>
@@ -53938,7 +53938,7 @@
     </row>
     <row r="989" spans="1:14">
       <c r="A989" s="1">
-        <v>5197</v>
+        <v>6333</v>
       </c>
       <c r="B989" t="s">
         <v>1003</v>
@@ -53979,7 +53979,7 @@
     </row>
     <row r="990" spans="1:14">
       <c r="A990" s="1">
-        <v>2546</v>
+        <v>3082</v>
       </c>
       <c r="B990" t="s">
         <v>1004</v>
@@ -54020,7 +54020,7 @@
     </row>
     <row r="991" spans="1:14">
       <c r="A991" s="1">
-        <v>2247</v>
+        <v>2718</v>
       </c>
       <c r="B991" t="s">
         <v>1005</v>
@@ -54061,7 +54061,7 @@
     </row>
     <row r="992" spans="1:14">
       <c r="A992" s="1">
-        <v>811</v>
+        <v>987</v>
       </c>
       <c r="B992" t="s">
         <v>1006</v>
@@ -54102,7 +54102,7 @@
     </row>
     <row r="993" spans="1:14">
       <c r="A993" s="1">
-        <v>1410</v>
+        <v>1714</v>
       </c>
       <c r="B993" t="s">
         <v>1007</v>
@@ -54143,7 +54143,7 @@
     </row>
     <row r="994" spans="1:14">
       <c r="A994" s="1">
-        <v>3898</v>
+        <v>4756</v>
       </c>
       <c r="B994" t="s">
         <v>1008</v>
@@ -54184,7 +54184,7 @@
     </row>
     <row r="995" spans="1:14">
       <c r="A995" s="1">
-        <v>4394</v>
+        <v>5366</v>
       </c>
       <c r="B995" t="s">
         <v>1009</v>
@@ -54225,7 +54225,7 @@
     </row>
     <row r="996" spans="1:14">
       <c r="A996" s="1">
-        <v>1773</v>
+        <v>2142</v>
       </c>
       <c r="B996" t="s">
         <v>1010</v>
@@ -54266,7 +54266,7 @@
     </row>
     <row r="997" spans="1:14">
       <c r="A997" s="1">
-        <v>1132</v>
+        <v>1387</v>
       </c>
       <c r="B997" t="s">
         <v>1011</v>
@@ -54307,7 +54307,7 @@
     </row>
     <row r="998" spans="1:14">
       <c r="A998" s="1">
-        <v>1398</v>
+        <v>1701</v>
       </c>
       <c r="B998" t="s">
         <v>1012</v>
@@ -54348,7 +54348,7 @@
     </row>
     <row r="999" spans="1:14">
       <c r="A999" s="1">
-        <v>5548</v>
+        <v>6744</v>
       </c>
       <c r="B999" t="s">
         <v>1013</v>
@@ -54389,7 +54389,7 @@
     </row>
     <row r="1000" spans="1:14">
       <c r="A1000" s="1">
-        <v>3545</v>
+        <v>4312</v>
       </c>
       <c r="B1000" t="s">
         <v>1014</v>
@@ -54430,7 +54430,7 @@
     </row>
     <row r="1001" spans="1:14">
       <c r="A1001" s="1">
-        <v>4431</v>
+        <v>5411</v>
       </c>
       <c r="B1001" t="s">
         <v>1015</v>
@@ -54471,7 +54471,7 @@
     </row>
     <row r="1002" spans="1:14">
       <c r="A1002" s="1">
-        <v>3320</v>
+        <v>4035</v>
       </c>
       <c r="B1002" t="s">
         <v>1016</v>
@@ -54512,7 +54512,7 @@
     </row>
     <row r="1003" spans="1:14">
       <c r="A1003" s="1">
-        <v>2406</v>
+        <v>2910</v>
       </c>
       <c r="B1003" t="s">
         <v>1017</v>
@@ -54553,7 +54553,7 @@
     </row>
     <row r="1004" spans="1:14">
       <c r="A1004" s="1">
-        <v>5082</v>
+        <v>6190</v>
       </c>
       <c r="B1004" t="s">
         <v>1018</v>
@@ -54594,7 +54594,7 @@
     </row>
     <row r="1005" spans="1:14">
       <c r="A1005" s="1">
-        <v>512</v>
+        <v>619</v>
       </c>
       <c r="B1005" t="s">
         <v>1019</v>
@@ -54635,7 +54635,7 @@
     </row>
     <row r="1006" spans="1:14">
       <c r="A1006" s="1">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="B1006" t="s">
         <v>1020</v>
@@ -54676,7 +54676,7 @@
     </row>
     <row r="1007" spans="1:14">
       <c r="A1007" s="1">
-        <v>2509</v>
+        <v>3033</v>
       </c>
       <c r="B1007" t="s">
         <v>1021</v>
@@ -54717,7 +54717,7 @@
     </row>
     <row r="1008" spans="1:14">
       <c r="A1008" s="1">
-        <v>613</v>
+        <v>748</v>
       </c>
       <c r="B1008" t="s">
         <v>1022</v>
@@ -54758,7 +54758,7 @@
     </row>
     <row r="1009" spans="1:14">
       <c r="A1009" s="1">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="B1009" t="s">
         <v>1023</v>
@@ -54799,7 +54799,7 @@
     </row>
     <row r="1010" spans="1:14">
       <c r="A1010" s="1">
-        <v>365</v>
+        <v>443</v>
       </c>
       <c r="B1010" t="s">
         <v>1024</v>
@@ -54840,7 +54840,7 @@
     </row>
     <row r="1011" spans="1:14">
       <c r="A1011" s="1">
-        <v>507</v>
+        <v>613</v>
       </c>
       <c r="B1011" t="s">
         <v>1025</v>
@@ -54881,7 +54881,7 @@
     </row>
     <row r="1012" spans="1:14">
       <c r="A1012" s="1">
-        <v>3901</v>
+        <v>4759</v>
       </c>
       <c r="B1012" t="s">
         <v>1026</v>
@@ -54922,7 +54922,7 @@
     </row>
     <row r="1013" spans="1:14">
       <c r="A1013" s="1">
-        <v>3346</v>
+        <v>4070</v>
       </c>
       <c r="B1013" t="s">
         <v>1027</v>
@@ -54963,7 +54963,7 @@
     </row>
     <row r="1014" spans="1:14">
       <c r="A1014" s="1">
-        <v>1113</v>
+        <v>1365</v>
       </c>
       <c r="B1014" t="s">
         <v>1028</v>
@@ -55004,7 +55004,7 @@
     </row>
     <row r="1015" spans="1:14">
       <c r="A1015" s="1">
-        <v>4455</v>
+        <v>5437</v>
       </c>
       <c r="B1015" t="s">
         <v>1029</v>
@@ -55045,7 +55045,7 @@
     </row>
     <row r="1016" spans="1:14">
       <c r="A1016" s="1">
-        <v>595</v>
+        <v>724</v>
       </c>
       <c r="B1016" t="s">
         <v>1030</v>
@@ -55086,7 +55086,7 @@
     </row>
     <row r="1017" spans="1:14">
       <c r="A1017" s="1">
-        <v>1927</v>
+        <v>2332</v>
       </c>
       <c r="B1017" t="s">
         <v>1031</v>
@@ -55127,7 +55127,7 @@
     </row>
     <row r="1018" spans="1:14">
       <c r="A1018" s="1">
-        <v>1342</v>
+        <v>1634</v>
       </c>
       <c r="B1018" t="s">
         <v>1032</v>
@@ -55168,7 +55168,7 @@
     </row>
     <row r="1019" spans="1:14">
       <c r="A1019" s="1">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="B1019" t="s">
         <v>1033</v>
@@ -55209,7 +55209,7 @@
     </row>
     <row r="1020" spans="1:14">
       <c r="A1020" s="1">
-        <v>4458</v>
+        <v>5440</v>
       </c>
       <c r="B1020" t="s">
         <v>1034</v>
@@ -55250,7 +55250,7 @@
     </row>
     <row r="1021" spans="1:14">
       <c r="A1021" s="1">
-        <v>4446</v>
+        <v>5428</v>
       </c>
       <c r="B1021" t="s">
         <v>1035</v>
@@ -55291,7 +55291,7 @@
     </row>
     <row r="1022" spans="1:14">
       <c r="A1022" s="1">
-        <v>1419</v>
+        <v>1725</v>
       </c>
       <c r="B1022" t="s">
         <v>1036</v>
@@ -55332,7 +55332,7 @@
     </row>
     <row r="1023" spans="1:14">
       <c r="A1023" s="1">
-        <v>4921</v>
+        <v>6001</v>
       </c>
       <c r="B1023" t="s">
         <v>1037</v>
@@ -55373,7 +55373,7 @@
     </row>
     <row r="1024" spans="1:14">
       <c r="A1024" s="1">
-        <v>5153</v>
+        <v>6279</v>
       </c>
       <c r="B1024" t="s">
         <v>1038</v>
@@ -55414,7 +55414,7 @@
     </row>
     <row r="1025" spans="1:14">
       <c r="A1025" s="1">
-        <v>2351</v>
+        <v>2843</v>
       </c>
       <c r="B1025" t="s">
         <v>1039</v>
@@ -55455,7 +55455,7 @@
     </row>
     <row r="1026" spans="1:14">
       <c r="A1026" s="1">
-        <v>5186</v>
+        <v>6320</v>
       </c>
       <c r="B1026" t="s">
         <v>1040</v>
@@ -55496,7 +55496,7 @@
     </row>
     <row r="1027" spans="1:14">
       <c r="A1027" s="1">
-        <v>3860</v>
+        <v>4714</v>
       </c>
       <c r="B1027" t="s">
         <v>1041</v>
@@ -55537,7 +55537,7 @@
     </row>
     <row r="1028" spans="1:14">
       <c r="A1028" s="1">
-        <v>3659</v>
+        <v>4458</v>
       </c>
       <c r="B1028" t="s">
         <v>1042</v>
@@ -55578,7 +55578,7 @@
     </row>
     <row r="1029" spans="1:14">
       <c r="A1029" s="1">
-        <v>3976</v>
+        <v>4853</v>
       </c>
       <c r="B1029" t="s">
         <v>1043</v>
@@ -55619,7 +55619,7 @@
     </row>
     <row r="1030" spans="1:14">
       <c r="A1030" s="1">
-        <v>2469</v>
+        <v>2987</v>
       </c>
       <c r="B1030" t="s">
         <v>1044</v>
@@ -55660,7 +55660,7 @@
     </row>
     <row r="1031" spans="1:14">
       <c r="A1031" s="1">
-        <v>4886</v>
+        <v>5955</v>
       </c>
       <c r="B1031" t="s">
         <v>1045</v>
@@ -55701,7 +55701,7 @@
     </row>
     <row r="1032" spans="1:14">
       <c r="A1032" s="1">
-        <v>5265</v>
+        <v>6416</v>
       </c>
       <c r="B1032" t="s">
         <v>1046</v>
@@ -55742,7 +55742,7 @@
     </row>
     <row r="1033" spans="1:14">
       <c r="A1033" s="1">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="B1033" t="s">
         <v>1047</v>
@@ -55783,7 +55783,7 @@
     </row>
     <row r="1034" spans="1:14">
       <c r="A1034" s="1">
-        <v>3438</v>
+        <v>4180</v>
       </c>
       <c r="B1034" t="s">
         <v>1048</v>
@@ -55824,7 +55824,7 @@
     </row>
     <row r="1035" spans="1:14">
       <c r="A1035" s="1">
-        <v>5376</v>
+        <v>6543</v>
       </c>
       <c r="B1035" t="s">
         <v>1049</v>
@@ -55865,7 +55865,7 @@
     </row>
     <row r="1036" spans="1:14">
       <c r="A1036" s="1">
-        <v>5541</v>
+        <v>6737</v>
       </c>
       <c r="B1036" t="s">
         <v>1050</v>
@@ -55906,7 +55906,7 @@
     </row>
     <row r="1037" spans="1:14">
       <c r="A1037" s="1">
-        <v>1966</v>
+        <v>2379</v>
       </c>
       <c r="B1037" t="s">
         <v>1051</v>
@@ -55947,7 +55947,7 @@
     </row>
     <row r="1038" spans="1:14">
       <c r="A1038" s="1">
-        <v>3899</v>
+        <v>4757</v>
       </c>
       <c r="B1038" t="s">
         <v>1052</v>
@@ -55988,7 +55988,7 @@
     </row>
     <row r="1039" spans="1:14">
       <c r="A1039" s="1">
-        <v>1023</v>
+        <v>1255</v>
       </c>
       <c r="B1039" t="s">
         <v>1053</v>
@@ -56029,7 +56029,7 @@
     </row>
     <row r="1040" spans="1:14">
       <c r="A1040" s="1">
-        <v>4055</v>
+        <v>4947</v>
       </c>
       <c r="B1040" t="s">
         <v>1054</v>
@@ -56070,7 +56070,7 @@
     </row>
     <row r="1041" spans="1:14">
       <c r="A1041" s="1">
-        <v>5549</v>
+        <v>6745</v>
       </c>
       <c r="B1041" t="s">
         <v>1055</v>
@@ -56111,7 +56111,7 @@
     </row>
     <row r="1042" spans="1:14">
       <c r="A1042" s="1">
-        <v>1331</v>
+        <v>1623</v>
       </c>
       <c r="B1042" t="s">
         <v>1056</v>
@@ -56152,7 +56152,7 @@
     </row>
     <row r="1043" spans="1:14">
       <c r="A1043" s="1">
-        <v>2857</v>
+        <v>3477</v>
       </c>
       <c r="B1043" t="s">
         <v>1057</v>
@@ -56193,7 +56193,7 @@
     </row>
     <row r="1044" spans="1:14">
       <c r="A1044" s="1">
-        <v>730</v>
+        <v>889</v>
       </c>
       <c r="B1044" t="s">
         <v>1058</v>
@@ -56234,7 +56234,7 @@
     </row>
     <row r="1045" spans="1:14">
       <c r="A1045" s="1">
-        <v>2520</v>
+        <v>3044</v>
       </c>
       <c r="B1045" t="s">
         <v>1059</v>
@@ -56275,7 +56275,7 @@
     </row>
     <row r="1046" spans="1:14">
       <c r="A1046" s="1">
-        <v>5370</v>
+        <v>6537</v>
       </c>
       <c r="B1046" t="s">
         <v>1060</v>
@@ -56316,7 +56316,7 @@
     </row>
     <row r="1047" spans="1:14">
       <c r="A1047" s="1">
-        <v>2775</v>
+        <v>3376</v>
       </c>
       <c r="B1047" t="s">
         <v>1061</v>
@@ -56357,7 +56357,7 @@
     </row>
     <row r="1048" spans="1:14">
       <c r="A1048" s="1">
-        <v>1447</v>
+        <v>1764</v>
       </c>
       <c r="B1048" t="s">
         <v>1062</v>
@@ -56398,7 +56398,7 @@
     </row>
     <row r="1049" spans="1:14">
       <c r="A1049" s="1">
-        <v>3716</v>
+        <v>4534</v>
       </c>
       <c r="B1049" t="s">
         <v>1063</v>
@@ -56439,7 +56439,7 @@
     </row>
     <row r="1050" spans="1:14">
       <c r="A1050" s="1">
-        <v>2840</v>
+        <v>3458</v>
       </c>
       <c r="B1050" t="s">
         <v>1064</v>
@@ -56480,7 +56480,7 @@
     </row>
     <row r="1051" spans="1:14">
       <c r="A1051" s="1">
-        <v>1697</v>
+        <v>2057</v>
       </c>
       <c r="B1051" t="s">
         <v>1065</v>
@@ -56521,7 +56521,7 @@
     </row>
     <row r="1052" spans="1:14">
       <c r="A1052" s="1">
-        <v>4875</v>
+        <v>5943</v>
       </c>
       <c r="B1052" t="s">
         <v>1066</v>
@@ -56562,7 +56562,7 @@
     </row>
     <row r="1053" spans="1:14">
       <c r="A1053" s="1">
-        <v>1899</v>
+        <v>2299</v>
       </c>
       <c r="B1053" t="s">
         <v>1067</v>
@@ -56603,7 +56603,7 @@
     </row>
     <row r="1054" spans="1:14">
       <c r="A1054" s="1">
-        <v>4894</v>
+        <v>5965</v>
       </c>
       <c r="B1054" t="s">
         <v>1068</v>
@@ -56644,7 +56644,7 @@
     </row>
     <row r="1055" spans="1:14">
       <c r="A1055" s="1">
-        <v>5083</v>
+        <v>6191</v>
       </c>
       <c r="B1055" t="s">
         <v>1069</v>
@@ -56685,7 +56685,7 @@
     </row>
     <row r="1056" spans="1:14">
       <c r="A1056" s="1">
-        <v>741</v>
+        <v>901</v>
       </c>
       <c r="B1056" t="s">
         <v>1070</v>
@@ -56726,7 +56726,7 @@
     </row>
     <row r="1057" spans="1:14">
       <c r="A1057" s="1">
-        <v>2690</v>
+        <v>3270</v>
       </c>
       <c r="B1057" t="s">
         <v>1071</v>
@@ -56767,7 +56767,7 @@
     </row>
     <row r="1058" spans="1:14">
       <c r="A1058" s="1">
-        <v>814</v>
+        <v>991</v>
       </c>
       <c r="B1058" t="s">
         <v>1072</v>
@@ -56808,7 +56808,7 @@
     </row>
     <row r="1059" spans="1:14">
       <c r="A1059" s="1">
-        <v>2749</v>
+        <v>3344</v>
       </c>
       <c r="B1059" t="s">
         <v>1073</v>
@@ -56849,7 +56849,7 @@
     </row>
     <row r="1060" spans="1:14">
       <c r="A1060" s="1">
-        <v>5004</v>
+        <v>6095</v>
       </c>
       <c r="B1060" t="s">
         <v>1074</v>
@@ -56890,7 +56890,7 @@
     </row>
     <row r="1061" spans="1:14">
       <c r="A1061" s="1">
-        <v>3132</v>
+        <v>3814</v>
       </c>
       <c r="B1061" t="s">
         <v>1075</v>
@@ -56931,7 +56931,7 @@
     </row>
     <row r="1062" spans="1:14">
       <c r="A1062" s="1">
-        <v>3692</v>
+        <v>4500</v>
       </c>
       <c r="B1062" t="s">
         <v>1076</v>
@@ -56972,7 +56972,7 @@
     </row>
     <row r="1063" spans="1:14">
       <c r="A1063" s="1">
-        <v>712</v>
+        <v>866</v>
       </c>
       <c r="B1063" t="s">
         <v>1077</v>
@@ -57013,7 +57013,7 @@
     </row>
     <row r="1064" spans="1:14">
       <c r="A1064" s="1">
-        <v>2473</v>
+        <v>2993</v>
       </c>
       <c r="B1064" t="s">
         <v>1078</v>
@@ -57054,7 +57054,7 @@
     </row>
     <row r="1065" spans="1:14">
       <c r="A1065" s="1">
-        <v>4843</v>
+        <v>5904</v>
       </c>
       <c r="B1065" t="s">
         <v>1079</v>
@@ -57095,7 +57095,7 @@
     </row>
     <row r="1066" spans="1:14">
       <c r="A1066" s="1">
-        <v>3974</v>
+        <v>4851</v>
       </c>
       <c r="B1066" t="s">
         <v>1080</v>
@@ -57136,7 +57136,7 @@
     </row>
     <row r="1067" spans="1:14">
       <c r="A1067" s="1">
-        <v>1768</v>
+        <v>2137</v>
       </c>
       <c r="B1067" t="s">
         <v>1081</v>
@@ -57177,7 +57177,7 @@
     </row>
     <row r="1068" spans="1:14">
       <c r="A1068" s="1">
-        <v>4273</v>
+        <v>5222</v>
       </c>
       <c r="B1068" t="s">
         <v>1082</v>
@@ -57218,7 +57218,7 @@
     </row>
     <row r="1069" spans="1:14">
       <c r="A1069" s="1">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="B1069" t="s">
         <v>1083</v>
@@ -57259,7 +57259,7 @@
     </row>
     <row r="1070" spans="1:14">
       <c r="A1070" s="1">
-        <v>4694</v>
+        <v>5724</v>
       </c>
       <c r="B1070" t="s">
         <v>1084</v>
@@ -57300,7 +57300,7 @@
     </row>
     <row r="1071" spans="1:14">
       <c r="A1071" s="1">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B1071" t="s">
         <v>1085</v>
@@ -57341,7 +57341,7 @@
     </row>
     <row r="1072" spans="1:14">
       <c r="A1072" s="1">
-        <v>3567</v>
+        <v>4341</v>
       </c>
       <c r="B1072" t="s">
         <v>1086</v>
@@ -57382,7 +57382,7 @@
     </row>
     <row r="1073" spans="1:14">
       <c r="A1073" s="1">
-        <v>4607</v>
+        <v>5621</v>
       </c>
       <c r="B1073" t="s">
         <v>1087</v>
@@ -57423,7 +57423,7 @@
     </row>
     <row r="1074" spans="1:14">
       <c r="A1074" s="1">
-        <v>2737</v>
+        <v>3331</v>
       </c>
       <c r="B1074" t="s">
         <v>1088</v>
@@ -57464,7 +57464,7 @@
     </row>
     <row r="1075" spans="1:14">
       <c r="A1075" s="1">
-        <v>1714</v>
+        <v>2075</v>
       </c>
       <c r="B1075" t="s">
         <v>1089</v>
@@ -57505,7 +57505,7 @@
     </row>
     <row r="1076" spans="1:14">
       <c r="A1076" s="1">
-        <v>2079</v>
+        <v>2513</v>
       </c>
       <c r="B1076" t="s">
         <v>1090</v>
@@ -57546,7 +57546,7 @@
     </row>
     <row r="1077" spans="1:14">
       <c r="A1077" s="1">
-        <v>3640</v>
+        <v>4433</v>
       </c>
       <c r="B1077" t="s">
         <v>1091</v>
@@ -57587,7 +57587,7 @@
     </row>
     <row r="1078" spans="1:14">
       <c r="A1078" s="1">
-        <v>820</v>
+        <v>999</v>
       </c>
       <c r="B1078" t="s">
         <v>1092</v>
@@ -57628,7 +57628,7 @@
     </row>
     <row r="1079" spans="1:14">
       <c r="A1079" s="1">
-        <v>4918</v>
+        <v>5996</v>
       </c>
       <c r="B1079" t="s">
         <v>1093</v>
@@ -57669,7 +57669,7 @@
     </row>
     <row r="1080" spans="1:14">
       <c r="A1080" s="1">
-        <v>1252</v>
+        <v>1536</v>
       </c>
       <c r="B1080" t="s">
         <v>1094</v>
@@ -57707,7 +57707,7 @@
     </row>
     <row r="1081" spans="1:14">
       <c r="A1081" s="1">
-        <v>3152</v>
+        <v>3843</v>
       </c>
       <c r="B1081" t="s">
         <v>1095</v>
@@ -57745,7 +57745,7 @@
     </row>
     <row r="1082" spans="1:14">
       <c r="A1082" s="1">
-        <v>5574</v>
+        <v>6773</v>
       </c>
       <c r="B1082" t="s">
         <v>1096</v>
@@ -57783,7 +57783,7 @@
     </row>
     <row r="1083" spans="1:14">
       <c r="A1083" s="1">
-        <v>4803</v>
+        <v>5853</v>
       </c>
       <c r="B1083" t="s">
         <v>1097</v>
